--- a/data/zweryfikowane.xlsx
+++ b/data/zweryfikowane.xlsx
@@ -18,9 +18,9 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
-    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -35522,7 +35522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending" countASubtotal="1">
@@ -35699,7 +35699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -35784,7 +35784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -36305,9 +36305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1581" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G978" sqref="G977:G978"/>
+      <selection pane="topRight" activeCell="D1585" sqref="D1585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -50318,6 +50318,9 @@
       </c>
     </row>
     <row r="1001" spans="1:4">
+      <c r="A1001">
+        <v>1</v>
+      </c>
       <c r="B1001" t="s">
         <v>47</v>
       </c>
@@ -50329,6 +50332,9 @@
       </c>
     </row>
     <row r="1002" spans="1:4">
+      <c r="A1002">
+        <v>1</v>
+      </c>
       <c r="B1002" t="s">
         <v>107</v>
       </c>
@@ -50340,6 +50346,9 @@
       </c>
     </row>
     <row r="1003" spans="1:4">
+      <c r="A1003">
+        <v>1</v>
+      </c>
       <c r="B1003" t="s">
         <v>107</v>
       </c>
@@ -50351,6 +50360,9 @@
       </c>
     </row>
     <row r="1004" spans="1:4">
+      <c r="A1004">
+        <v>1</v>
+      </c>
       <c r="B1004" t="s">
         <v>8</v>
       </c>
@@ -50362,6 +50374,9 @@
       </c>
     </row>
     <row r="1005" spans="1:4">
+      <c r="A1005">
+        <v>-1</v>
+      </c>
       <c r="B1005" t="s">
         <v>206</v>
       </c>
@@ -50373,6 +50388,9 @@
       </c>
     </row>
     <row r="1006" spans="1:4">
+      <c r="A1006">
+        <v>1</v>
+      </c>
       <c r="B1006" t="s">
         <v>50</v>
       </c>
@@ -50384,6 +50402,9 @@
       </c>
     </row>
     <row r="1007" spans="1:4">
+      <c r="A1007">
+        <v>1</v>
+      </c>
       <c r="B1007" t="s">
         <v>4</v>
       </c>
@@ -50395,6 +50416,9 @@
       </c>
     </row>
     <row r="1008" spans="1:4">
+      <c r="A1008">
+        <v>1</v>
+      </c>
       <c r="B1008" t="s">
         <v>4</v>
       </c>
@@ -50406,6 +50430,9 @@
       </c>
     </row>
     <row r="1009" spans="1:4">
+      <c r="A1009">
+        <v>1</v>
+      </c>
       <c r="B1009" t="s">
         <v>319</v>
       </c>
@@ -50417,6 +50444,9 @@
       </c>
     </row>
     <row r="1010" spans="1:4">
+      <c r="A1010">
+        <v>1</v>
+      </c>
       <c r="B1010" t="s">
         <v>241</v>
       </c>
@@ -50428,6 +50458,9 @@
       </c>
     </row>
     <row r="1011" spans="1:4">
+      <c r="A1011">
+        <v>1</v>
+      </c>
       <c r="B1011" t="s">
         <v>4</v>
       </c>
@@ -50439,6 +50472,9 @@
       </c>
     </row>
     <row r="1012" spans="1:4">
+      <c r="A1012">
+        <v>-1</v>
+      </c>
       <c r="B1012" t="s">
         <v>148</v>
       </c>
@@ -50450,6 +50486,9 @@
       </c>
     </row>
     <row r="1013" spans="1:4">
+      <c r="A1013">
+        <v>1</v>
+      </c>
       <c r="B1013" t="s">
         <v>113</v>
       </c>
@@ -50461,6 +50500,9 @@
       </c>
     </row>
     <row r="1014" spans="1:4">
+      <c r="A1014">
+        <v>1</v>
+      </c>
       <c r="B1014" t="s">
         <v>107</v>
       </c>
@@ -50472,6 +50514,9 @@
       </c>
     </row>
     <row r="1015" spans="1:4">
+      <c r="A1015">
+        <v>1</v>
+      </c>
       <c r="B1015" t="s">
         <v>44</v>
       </c>
@@ -50483,6 +50528,9 @@
       </c>
     </row>
     <row r="1016" spans="1:4">
+      <c r="A1016">
+        <v>1</v>
+      </c>
       <c r="B1016" t="s">
         <v>206</v>
       </c>
@@ -50494,6 +50542,9 @@
       </c>
     </row>
     <row r="1017" spans="1:4">
+      <c r="A1017">
+        <v>1</v>
+      </c>
       <c r="B1017" t="s">
         <v>50</v>
       </c>
@@ -50505,6 +50556,9 @@
       </c>
     </row>
     <row r="1018" spans="1:4">
+      <c r="A1018">
+        <v>1</v>
+      </c>
       <c r="B1018" t="s">
         <v>50</v>
       </c>
@@ -50516,6 +50570,9 @@
       </c>
     </row>
     <row r="1019" spans="1:4">
+      <c r="A1019">
+        <v>1</v>
+      </c>
       <c r="B1019" t="s">
         <v>44</v>
       </c>
@@ -50527,6 +50584,9 @@
       </c>
     </row>
     <row r="1020" spans="1:4">
+      <c r="A1020">
+        <v>1</v>
+      </c>
       <c r="B1020" t="s">
         <v>148</v>
       </c>
@@ -50538,6 +50598,9 @@
       </c>
     </row>
     <row r="1021" spans="1:4">
+      <c r="A1021">
+        <v>1</v>
+      </c>
       <c r="B1021" t="s">
         <v>206</v>
       </c>
@@ -50563,6 +50626,9 @@
       </c>
     </row>
     <row r="1023" spans="1:4">
+      <c r="A1023">
+        <v>1</v>
+      </c>
       <c r="B1023" t="s">
         <v>148</v>
       </c>
@@ -50574,6 +50640,9 @@
       </c>
     </row>
     <row r="1024" spans="1:4">
+      <c r="A1024">
+        <v>1</v>
+      </c>
       <c r="B1024" t="s">
         <v>148</v>
       </c>
@@ -50585,6 +50654,9 @@
       </c>
     </row>
     <row r="1025" spans="1:4">
+      <c r="A1025">
+        <v>1</v>
+      </c>
       <c r="B1025" t="s">
         <v>76</v>
       </c>
@@ -50596,6 +50668,9 @@
       </c>
     </row>
     <row r="1026" spans="1:4">
+      <c r="A1026">
+        <v>1</v>
+      </c>
       <c r="B1026" t="s">
         <v>50</v>
       </c>
@@ -50607,6 +50682,9 @@
       </c>
     </row>
     <row r="1027" spans="1:4">
+      <c r="A1027">
+        <v>1</v>
+      </c>
       <c r="B1027" t="s">
         <v>50</v>
       </c>
@@ -50618,6 +50696,9 @@
       </c>
     </row>
     <row r="1028" spans="1:4">
+      <c r="A1028">
+        <v>1</v>
+      </c>
       <c r="B1028" t="s">
         <v>50</v>
       </c>
@@ -50629,6 +50710,9 @@
       </c>
     </row>
     <row r="1029" spans="1:4">
+      <c r="A1029">
+        <v>1</v>
+      </c>
       <c r="B1029" t="s">
         <v>50</v>
       </c>
@@ -50640,6 +50724,9 @@
       </c>
     </row>
     <row r="1030" spans="1:4">
+      <c r="A1030">
+        <v>1</v>
+      </c>
       <c r="B1030" t="s">
         <v>206</v>
       </c>
@@ -50651,6 +50738,9 @@
       </c>
     </row>
     <row r="1031" spans="1:4">
+      <c r="A1031">
+        <v>1</v>
+      </c>
       <c r="B1031" t="s">
         <v>50</v>
       </c>
@@ -50662,6 +50752,9 @@
       </c>
     </row>
     <row r="1032" spans="1:4">
+      <c r="A1032">
+        <v>1</v>
+      </c>
       <c r="B1032" t="s">
         <v>50</v>
       </c>
@@ -50701,6 +50794,9 @@
       </c>
     </row>
     <row r="1035" spans="1:4">
+      <c r="A1035">
+        <v>1</v>
+      </c>
       <c r="B1035" t="s">
         <v>76</v>
       </c>
@@ -50712,6 +50808,9 @@
       </c>
     </row>
     <row r="1036" spans="1:4">
+      <c r="A1036">
+        <v>1</v>
+      </c>
       <c r="B1036" t="s">
         <v>76</v>
       </c>
@@ -50723,6 +50822,9 @@
       </c>
     </row>
     <row r="1037" spans="1:4">
+      <c r="A1037">
+        <v>1</v>
+      </c>
       <c r="B1037" t="s">
         <v>76</v>
       </c>
@@ -50734,6 +50836,9 @@
       </c>
     </row>
     <row r="1038" spans="1:4">
+      <c r="A1038">
+        <v>1</v>
+      </c>
       <c r="B1038" t="s">
         <v>148</v>
       </c>
@@ -50745,6 +50850,9 @@
       </c>
     </row>
     <row r="1039" spans="1:4">
+      <c r="A1039">
+        <v>1</v>
+      </c>
       <c r="B1039" t="s">
         <v>50</v>
       </c>
@@ -50756,6 +50864,9 @@
       </c>
     </row>
     <row r="1040" spans="1:4">
+      <c r="A1040">
+        <v>1</v>
+      </c>
       <c r="B1040" t="s">
         <v>44</v>
       </c>
@@ -50781,6 +50892,9 @@
       </c>
     </row>
     <row r="1042" spans="1:4">
+      <c r="A1042">
+        <v>1</v>
+      </c>
       <c r="B1042" t="s">
         <v>50</v>
       </c>
@@ -50792,6 +50906,9 @@
       </c>
     </row>
     <row r="1043" spans="1:4">
+      <c r="A1043">
+        <v>1</v>
+      </c>
       <c r="B1043" t="s">
         <v>50</v>
       </c>
@@ -50803,6 +50920,9 @@
       </c>
     </row>
     <row r="1044" spans="1:4">
+      <c r="A1044">
+        <v>1</v>
+      </c>
       <c r="B1044" t="s">
         <v>206</v>
       </c>
@@ -50814,6 +50934,9 @@
       </c>
     </row>
     <row r="1045" spans="1:4">
+      <c r="A1045">
+        <v>1</v>
+      </c>
       <c r="B1045" t="s">
         <v>206</v>
       </c>
@@ -50825,6 +50948,9 @@
       </c>
     </row>
     <row r="1046" spans="1:4">
+      <c r="A1046">
+        <v>1</v>
+      </c>
       <c r="B1046" t="s">
         <v>206</v>
       </c>
@@ -50836,6 +50962,9 @@
       </c>
     </row>
     <row r="1047" spans="1:4">
+      <c r="A1047">
+        <v>1</v>
+      </c>
       <c r="B1047" t="s">
         <v>50</v>
       </c>
@@ -50847,6 +50976,9 @@
       </c>
     </row>
     <row r="1048" spans="1:4">
+      <c r="A1048">
+        <v>1</v>
+      </c>
       <c r="B1048" t="s">
         <v>50</v>
       </c>
@@ -50858,6 +50990,9 @@
       </c>
     </row>
     <row r="1049" spans="1:4">
+      <c r="A1049">
+        <v>1</v>
+      </c>
       <c r="B1049" t="s">
         <v>50</v>
       </c>
@@ -50883,6 +51018,9 @@
       </c>
     </row>
     <row r="1051" spans="1:4">
+      <c r="A1051">
+        <v>1</v>
+      </c>
       <c r="B1051" t="s">
         <v>148</v>
       </c>
@@ -50894,6 +51032,9 @@
       </c>
     </row>
     <row r="1052" spans="1:4">
+      <c r="A1052">
+        <v>1</v>
+      </c>
       <c r="B1052" t="s">
         <v>148</v>
       </c>
@@ -50905,6 +51046,9 @@
       </c>
     </row>
     <row r="1053" spans="1:4">
+      <c r="A1053">
+        <v>1</v>
+      </c>
       <c r="B1053" t="s">
         <v>50</v>
       </c>
@@ -50916,6 +51060,9 @@
       </c>
     </row>
     <row r="1054" spans="1:4">
+      <c r="A1054">
+        <v>1</v>
+      </c>
       <c r="B1054" t="s">
         <v>8</v>
       </c>
@@ -50927,6 +51074,9 @@
       </c>
     </row>
     <row r="1055" spans="1:4">
+      <c r="A1055">
+        <v>1</v>
+      </c>
       <c r="B1055" t="s">
         <v>50</v>
       </c>
@@ -50938,6 +51088,9 @@
       </c>
     </row>
     <row r="1056" spans="1:4">
+      <c r="A1056">
+        <v>1</v>
+      </c>
       <c r="B1056" t="s">
         <v>50</v>
       </c>
@@ -50949,6 +51102,9 @@
       </c>
     </row>
     <row r="1057" spans="1:4">
+      <c r="A1057">
+        <v>1</v>
+      </c>
       <c r="B1057" t="s">
         <v>50</v>
       </c>
@@ -50960,6 +51116,9 @@
       </c>
     </row>
     <row r="1058" spans="1:4">
+      <c r="A1058">
+        <v>1</v>
+      </c>
       <c r="B1058" t="s">
         <v>50</v>
       </c>
@@ -50971,6 +51130,9 @@
       </c>
     </row>
     <row r="1059" spans="1:4">
+      <c r="A1059">
+        <v>1</v>
+      </c>
       <c r="B1059" t="s">
         <v>50</v>
       </c>
@@ -50982,6 +51144,9 @@
       </c>
     </row>
     <row r="1060" spans="1:4">
+      <c r="A1060">
+        <v>1</v>
+      </c>
       <c r="B1060" t="s">
         <v>50</v>
       </c>
@@ -50993,6 +51158,9 @@
       </c>
     </row>
     <row r="1061" spans="1:4">
+      <c r="A1061">
+        <v>1</v>
+      </c>
       <c r="B1061" t="s">
         <v>50</v>
       </c>
@@ -51004,6 +51172,9 @@
       </c>
     </row>
     <row r="1062" spans="1:4">
+      <c r="A1062">
+        <v>1</v>
+      </c>
       <c r="B1062" t="s">
         <v>50</v>
       </c>
@@ -51015,6 +51186,9 @@
       </c>
     </row>
     <row r="1063" spans="1:4">
+      <c r="A1063">
+        <v>1</v>
+      </c>
       <c r="B1063" t="s">
         <v>50</v>
       </c>
@@ -51026,6 +51200,9 @@
       </c>
     </row>
     <row r="1064" spans="1:4">
+      <c r="A1064">
+        <v>1</v>
+      </c>
       <c r="B1064" t="s">
         <v>50</v>
       </c>
@@ -51037,6 +51214,9 @@
       </c>
     </row>
     <row r="1065" spans="1:4">
+      <c r="A1065">
+        <v>1</v>
+      </c>
       <c r="B1065" t="s">
         <v>50</v>
       </c>
@@ -51048,6 +51228,9 @@
       </c>
     </row>
     <row r="1066" spans="1:4">
+      <c r="A1066">
+        <v>1</v>
+      </c>
       <c r="B1066" t="s">
         <v>50</v>
       </c>
@@ -51059,6 +51242,9 @@
       </c>
     </row>
     <row r="1067" spans="1:4">
+      <c r="A1067">
+        <v>1</v>
+      </c>
       <c r="B1067" t="s">
         <v>50</v>
       </c>
@@ -51070,6 +51256,9 @@
       </c>
     </row>
     <row r="1068" spans="1:4">
+      <c r="A1068">
+        <v>1</v>
+      </c>
       <c r="B1068" t="s">
         <v>50</v>
       </c>
@@ -51081,6 +51270,9 @@
       </c>
     </row>
     <row r="1069" spans="1:4">
+      <c r="A1069">
+        <v>1</v>
+      </c>
       <c r="B1069" t="s">
         <v>50</v>
       </c>
@@ -51092,6 +51284,9 @@
       </c>
     </row>
     <row r="1070" spans="1:4">
+      <c r="A1070">
+        <v>1</v>
+      </c>
       <c r="B1070" t="s">
         <v>50</v>
       </c>
@@ -51117,6 +51312,9 @@
       </c>
     </row>
     <row r="1072" spans="1:4">
+      <c r="A1072">
+        <v>1</v>
+      </c>
       <c r="B1072" t="s">
         <v>47</v>
       </c>
@@ -51128,6 +51326,9 @@
       </c>
     </row>
     <row r="1073" spans="1:4">
+      <c r="A1073">
+        <v>1</v>
+      </c>
       <c r="B1073" t="s">
         <v>50</v>
       </c>
@@ -51139,6 +51340,9 @@
       </c>
     </row>
     <row r="1074" spans="1:4">
+      <c r="A1074">
+        <v>1</v>
+      </c>
       <c r="B1074" t="s">
         <v>44</v>
       </c>
@@ -51150,6 +51354,9 @@
       </c>
     </row>
     <row r="1075" spans="1:4">
+      <c r="A1075">
+        <v>1</v>
+      </c>
       <c r="B1075" t="s">
         <v>44</v>
       </c>
@@ -51189,6 +51396,9 @@
       </c>
     </row>
     <row r="1078" spans="1:4">
+      <c r="A1078">
+        <v>1</v>
+      </c>
       <c r="B1078" t="s">
         <v>47</v>
       </c>
@@ -51214,6 +51424,9 @@
       </c>
     </row>
     <row r="1080" spans="1:4">
+      <c r="A1080">
+        <v>1</v>
+      </c>
       <c r="B1080" t="s">
         <v>50</v>
       </c>
@@ -51225,6 +51438,9 @@
       </c>
     </row>
     <row r="1081" spans="1:4">
+      <c r="A1081">
+        <v>1</v>
+      </c>
       <c r="B1081" t="s">
         <v>8</v>
       </c>
@@ -51236,6 +51452,9 @@
       </c>
     </row>
     <row r="1082" spans="1:4">
+      <c r="A1082">
+        <v>1</v>
+      </c>
       <c r="B1082" t="s">
         <v>50</v>
       </c>
@@ -51247,6 +51466,9 @@
       </c>
     </row>
     <row r="1083" spans="1:4">
+      <c r="A1083">
+        <v>1</v>
+      </c>
       <c r="B1083" t="s">
         <v>50</v>
       </c>
@@ -51272,6 +51494,9 @@
       </c>
     </row>
     <row r="1085" spans="1:4">
+      <c r="A1085">
+        <v>1</v>
+      </c>
       <c r="B1085" t="s">
         <v>206</v>
       </c>
@@ -51283,6 +51508,9 @@
       </c>
     </row>
     <row r="1086" spans="1:4">
+      <c r="A1086">
+        <v>1</v>
+      </c>
       <c r="B1086" t="s">
         <v>206</v>
       </c>
@@ -51294,6 +51522,9 @@
       </c>
     </row>
     <row r="1087" spans="1:4">
+      <c r="A1087">
+        <v>1</v>
+      </c>
       <c r="B1087" t="s">
         <v>206</v>
       </c>
@@ -51305,6 +51536,9 @@
       </c>
     </row>
     <row r="1088" spans="1:4">
+      <c r="A1088">
+        <v>1</v>
+      </c>
       <c r="B1088" t="s">
         <v>206</v>
       </c>
@@ -51315,7 +51549,10 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="1089" spans="2:4">
+    <row r="1089" spans="1:4">
+      <c r="A1089">
+        <v>1</v>
+      </c>
       <c r="B1089" t="s">
         <v>206</v>
       </c>
@@ -51326,7 +51563,10 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="1090" spans="2:4">
+    <row r="1090" spans="1:4">
+      <c r="A1090">
+        <v>1</v>
+      </c>
       <c r="B1090" t="s">
         <v>206</v>
       </c>
@@ -51337,7 +51577,10 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="1091" spans="2:4">
+    <row r="1091" spans="1:4">
+      <c r="A1091">
+        <v>1</v>
+      </c>
       <c r="B1091" t="s">
         <v>47</v>
       </c>
@@ -51348,7 +51591,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="1092" spans="2:4">
+    <row r="1092" spans="1:4">
+      <c r="A1092">
+        <v>1</v>
+      </c>
       <c r="B1092" t="s">
         <v>4</v>
       </c>
@@ -51359,7 +51605,10 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="1093" spans="2:4">
+    <row r="1093" spans="1:4">
+      <c r="A1093">
+        <v>1</v>
+      </c>
       <c r="B1093" t="s">
         <v>8</v>
       </c>
@@ -51370,7 +51619,10 @@
         <v>689</v>
       </c>
     </row>
-    <row r="1094" spans="2:4">
+    <row r="1094" spans="1:4">
+      <c r="A1094">
+        <v>1</v>
+      </c>
       <c r="B1094" t="s">
         <v>8</v>
       </c>
@@ -51381,7 +51633,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1095" spans="2:4">
+    <row r="1095" spans="1:4">
+      <c r="A1095">
+        <v>1</v>
+      </c>
       <c r="B1095" t="s">
         <v>8</v>
       </c>
@@ -51392,7 +51647,10 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1096" spans="2:4">
+    <row r="1096" spans="1:4">
+      <c r="A1096">
+        <v>1</v>
+      </c>
       <c r="B1096" t="s">
         <v>15</v>
       </c>
@@ -51403,7 +51661,10 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="1097" spans="2:4">
+    <row r="1097" spans="1:4">
+      <c r="A1097">
+        <v>1</v>
+      </c>
       <c r="B1097" t="s">
         <v>4</v>
       </c>
@@ -51414,7 +51675,10 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1098" spans="2:4">
+    <row r="1098" spans="1:4">
+      <c r="A1098">
+        <v>1</v>
+      </c>
       <c r="B1098" t="s">
         <v>4</v>
       </c>
@@ -51425,7 +51689,10 @@
         <v>526</v>
       </c>
     </row>
-    <row r="1099" spans="2:4">
+    <row r="1099" spans="1:4">
+      <c r="A1099">
+        <v>1</v>
+      </c>
       <c r="B1099" t="s">
         <v>54</v>
       </c>
@@ -51436,7 +51703,10 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="1100" spans="2:4">
+    <row r="1100" spans="1:4">
+      <c r="A1100">
+        <v>1</v>
+      </c>
       <c r="B1100" t="s">
         <v>54</v>
       </c>
@@ -51447,7 +51717,10 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="1101" spans="2:4">
+    <row r="1101" spans="1:4">
+      <c r="A1101">
+        <v>1</v>
+      </c>
       <c r="B1101" t="s">
         <v>47</v>
       </c>
@@ -51458,7 +51731,10 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1102" spans="2:4">
+    <row r="1102" spans="1:4">
+      <c r="A1102">
+        <v>1</v>
+      </c>
       <c r="B1102" t="s">
         <v>63</v>
       </c>
@@ -51469,7 +51745,10 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="1103" spans="2:4">
+    <row r="1103" spans="1:4">
+      <c r="A1103">
+        <v>1</v>
+      </c>
       <c r="B1103" t="s">
         <v>63</v>
       </c>
@@ -51480,7 +51759,10 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="1104" spans="2:4">
+    <row r="1104" spans="1:4">
+      <c r="A1104">
+        <v>1</v>
+      </c>
       <c r="B1104" t="s">
         <v>4</v>
       </c>
@@ -51492,6 +51774,9 @@
       </c>
     </row>
     <row r="1105" spans="1:4">
+      <c r="A1105">
+        <v>1</v>
+      </c>
       <c r="B1105" t="s">
         <v>50</v>
       </c>
@@ -51503,6 +51788,9 @@
       </c>
     </row>
     <row r="1106" spans="1:4">
+      <c r="A1106">
+        <v>1</v>
+      </c>
       <c r="B1106" t="s">
         <v>4</v>
       </c>
@@ -51514,6 +51802,9 @@
       </c>
     </row>
     <row r="1107" spans="1:4">
+      <c r="A1107">
+        <v>1</v>
+      </c>
       <c r="B1107" t="s">
         <v>47</v>
       </c>
@@ -51525,6 +51816,9 @@
       </c>
     </row>
     <row r="1108" spans="1:4">
+      <c r="A1108">
+        <v>1</v>
+      </c>
       <c r="B1108" t="s">
         <v>148</v>
       </c>
@@ -51536,6 +51830,9 @@
       </c>
     </row>
     <row r="1109" spans="1:4">
+      <c r="A1109">
+        <v>1</v>
+      </c>
       <c r="B1109" t="s">
         <v>47</v>
       </c>
@@ -51547,6 +51844,9 @@
       </c>
     </row>
     <row r="1110" spans="1:4">
+      <c r="A1110">
+        <v>1</v>
+      </c>
       <c r="B1110" t="s">
         <v>47</v>
       </c>
@@ -51600,6 +51900,9 @@
       </c>
     </row>
     <row r="1114" spans="1:4">
+      <c r="A1114">
+        <v>1</v>
+      </c>
       <c r="B1114" t="s">
         <v>4</v>
       </c>
@@ -51611,6 +51914,9 @@
       </c>
     </row>
     <row r="1115" spans="1:4">
+      <c r="A1115">
+        <v>1</v>
+      </c>
       <c r="B1115" t="s">
         <v>47</v>
       </c>
@@ -51622,6 +51928,9 @@
       </c>
     </row>
     <row r="1116" spans="1:4">
+      <c r="A1116">
+        <v>1</v>
+      </c>
       <c r="B1116" t="s">
         <v>15</v>
       </c>
@@ -51647,6 +51956,9 @@
       </c>
     </row>
     <row r="1118" spans="1:4">
+      <c r="A1118">
+        <v>1</v>
+      </c>
       <c r="B1118" t="s">
         <v>181</v>
       </c>
@@ -51658,6 +51970,9 @@
       </c>
     </row>
     <row r="1119" spans="1:4">
+      <c r="A1119">
+        <v>-1</v>
+      </c>
       <c r="B1119" t="s">
         <v>206</v>
       </c>
@@ -51669,6 +51984,9 @@
       </c>
     </row>
     <row r="1120" spans="1:4">
+      <c r="A1120">
+        <v>1</v>
+      </c>
       <c r="B1120" t="s">
         <v>47</v>
       </c>
@@ -51680,6 +51998,9 @@
       </c>
     </row>
     <row r="1121" spans="1:4">
+      <c r="A1121">
+        <v>1</v>
+      </c>
       <c r="B1121" t="s">
         <v>47</v>
       </c>
@@ -51705,6 +52026,9 @@
       </c>
     </row>
     <row r="1123" spans="1:4">
+      <c r="A1123">
+        <v>1</v>
+      </c>
       <c r="B1123" t="s">
         <v>15</v>
       </c>
@@ -51716,6 +52040,9 @@
       </c>
     </row>
     <row r="1124" spans="1:4">
+      <c r="A1124">
+        <v>1</v>
+      </c>
       <c r="B1124" t="s">
         <v>241</v>
       </c>
@@ -51727,6 +52054,9 @@
       </c>
     </row>
     <row r="1125" spans="1:4">
+      <c r="A1125">
+        <v>1</v>
+      </c>
       <c r="B1125" t="s">
         <v>47</v>
       </c>
@@ -51738,6 +52068,9 @@
       </c>
     </row>
     <row r="1126" spans="1:4">
+      <c r="A1126">
+        <v>1</v>
+      </c>
       <c r="B1126" t="s">
         <v>47</v>
       </c>
@@ -51777,6 +52110,9 @@
       </c>
     </row>
     <row r="1129" spans="1:4">
+      <c r="A1129">
+        <v>1</v>
+      </c>
       <c r="B1129" t="s">
         <v>63</v>
       </c>
@@ -51788,6 +52124,9 @@
       </c>
     </row>
     <row r="1130" spans="1:4">
+      <c r="A1130">
+        <v>1</v>
+      </c>
       <c r="B1130" t="s">
         <v>63</v>
       </c>
@@ -51827,6 +52166,9 @@
       </c>
     </row>
     <row r="1133" spans="1:4">
+      <c r="A1133">
+        <v>1</v>
+      </c>
       <c r="B1133" t="s">
         <v>206</v>
       </c>
@@ -51838,6 +52180,9 @@
       </c>
     </row>
     <row r="1134" spans="1:4">
+      <c r="A1134">
+        <v>1</v>
+      </c>
       <c r="B1134" t="s">
         <v>50</v>
       </c>
@@ -51849,6 +52194,9 @@
       </c>
     </row>
     <row r="1135" spans="1:4">
+      <c r="A1135">
+        <v>1</v>
+      </c>
       <c r="B1135" t="s">
         <v>15</v>
       </c>
@@ -51874,6 +52222,9 @@
       </c>
     </row>
     <row r="1137" spans="1:4">
+      <c r="A1137">
+        <v>1</v>
+      </c>
       <c r="B1137" t="s">
         <v>8</v>
       </c>
@@ -51885,6 +52236,9 @@
       </c>
     </row>
     <row r="1138" spans="1:4">
+      <c r="A1138">
+        <v>1</v>
+      </c>
       <c r="B1138" t="s">
         <v>80</v>
       </c>
@@ -51896,6 +52250,9 @@
       </c>
     </row>
     <row r="1139" spans="1:4">
+      <c r="A1139">
+        <v>1</v>
+      </c>
       <c r="B1139" t="s">
         <v>102</v>
       </c>
@@ -51907,6 +52264,9 @@
       </c>
     </row>
     <row r="1140" spans="1:4">
+      <c r="A1140">
+        <v>1</v>
+      </c>
       <c r="B1140" t="s">
         <v>4</v>
       </c>
@@ -51932,6 +52292,9 @@
       </c>
     </row>
     <row r="1142" spans="1:4">
+      <c r="A1142">
+        <v>1</v>
+      </c>
       <c r="B1142" t="s">
         <v>90</v>
       </c>
@@ -51943,6 +52306,9 @@
       </c>
     </row>
     <row r="1143" spans="1:4">
+      <c r="A1143">
+        <v>1</v>
+      </c>
       <c r="B1143" t="s">
         <v>148</v>
       </c>
@@ -51968,6 +52334,9 @@
       </c>
     </row>
     <row r="1145" spans="1:4">
+      <c r="A1145">
+        <v>1</v>
+      </c>
       <c r="B1145" t="s">
         <v>15</v>
       </c>
@@ -51993,6 +52362,9 @@
       </c>
     </row>
     <row r="1147" spans="1:4">
+      <c r="A1147">
+        <v>1</v>
+      </c>
       <c r="B1147" t="s">
         <v>47</v>
       </c>
@@ -52004,6 +52376,9 @@
       </c>
     </row>
     <row r="1148" spans="1:4">
+      <c r="A1148">
+        <v>1</v>
+      </c>
       <c r="B1148" t="s">
         <v>4</v>
       </c>
@@ -52015,6 +52390,9 @@
       </c>
     </row>
     <row r="1149" spans="1:4">
+      <c r="A1149">
+        <v>1</v>
+      </c>
       <c r="B1149" t="s">
         <v>80</v>
       </c>
@@ -52026,6 +52404,9 @@
       </c>
     </row>
     <row r="1150" spans="1:4">
+      <c r="A1150">
+        <v>1</v>
+      </c>
       <c r="B1150" t="s">
         <v>206</v>
       </c>
@@ -52037,6 +52418,9 @@
       </c>
     </row>
     <row r="1151" spans="1:4">
+      <c r="A1151">
+        <v>1</v>
+      </c>
       <c r="B1151" t="s">
         <v>44</v>
       </c>
@@ -52048,6 +52432,9 @@
       </c>
     </row>
     <row r="1152" spans="1:4">
+      <c r="A1152">
+        <v>1</v>
+      </c>
       <c r="B1152" t="s">
         <v>206</v>
       </c>
@@ -52059,6 +52446,9 @@
       </c>
     </row>
     <row r="1153" spans="1:4">
+      <c r="A1153">
+        <v>1</v>
+      </c>
       <c r="B1153" t="s">
         <v>136</v>
       </c>
@@ -52070,6 +52460,9 @@
       </c>
     </row>
     <row r="1154" spans="1:4">
+      <c r="A1154">
+        <v>1</v>
+      </c>
       <c r="B1154" t="s">
         <v>44</v>
       </c>
@@ -52081,6 +52474,9 @@
       </c>
     </row>
     <row r="1155" spans="1:4">
+      <c r="A1155">
+        <v>1</v>
+      </c>
       <c r="B1155" t="s">
         <v>113</v>
       </c>
@@ -52092,6 +52488,9 @@
       </c>
     </row>
     <row r="1156" spans="1:4">
+      <c r="A1156">
+        <v>1</v>
+      </c>
       <c r="B1156" t="s">
         <v>8</v>
       </c>
@@ -52103,6 +52502,9 @@
       </c>
     </row>
     <row r="1157" spans="1:4">
+      <c r="A1157">
+        <v>1</v>
+      </c>
       <c r="B1157" t="s">
         <v>102</v>
       </c>
@@ -52114,6 +52516,9 @@
       </c>
     </row>
     <row r="1158" spans="1:4">
+      <c r="A1158">
+        <v>1</v>
+      </c>
       <c r="B1158" t="s">
         <v>8</v>
       </c>
@@ -52125,6 +52530,9 @@
       </c>
     </row>
     <row r="1159" spans="1:4">
+      <c r="A1159">
+        <v>1</v>
+      </c>
       <c r="B1159" t="s">
         <v>148</v>
       </c>
@@ -52136,6 +52544,9 @@
       </c>
     </row>
     <row r="1160" spans="1:4">
+      <c r="A1160">
+        <v>-1</v>
+      </c>
       <c r="B1160" t="s">
         <v>148</v>
       </c>
@@ -52147,6 +52558,9 @@
       </c>
     </row>
     <row r="1161" spans="1:4">
+      <c r="A1161">
+        <v>1</v>
+      </c>
       <c r="B1161" t="s">
         <v>80</v>
       </c>
@@ -52158,6 +52572,9 @@
       </c>
     </row>
     <row r="1162" spans="1:4">
+      <c r="A1162">
+        <v>1</v>
+      </c>
       <c r="B1162" t="s">
         <v>206</v>
       </c>
@@ -52169,6 +52586,9 @@
       </c>
     </row>
     <row r="1163" spans="1:4">
+      <c r="A1163">
+        <v>1</v>
+      </c>
       <c r="B1163" t="s">
         <v>136</v>
       </c>
@@ -52180,6 +52600,9 @@
       </c>
     </row>
     <row r="1164" spans="1:4">
+      <c r="A1164">
+        <v>1</v>
+      </c>
       <c r="B1164" t="s">
         <v>44</v>
       </c>
@@ -52191,6 +52614,9 @@
       </c>
     </row>
     <row r="1165" spans="1:4">
+      <c r="A1165">
+        <v>1</v>
+      </c>
       <c r="B1165" t="s">
         <v>44</v>
       </c>
@@ -52202,6 +52628,9 @@
       </c>
     </row>
     <row r="1166" spans="1:4">
+      <c r="A1166">
+        <v>1</v>
+      </c>
       <c r="B1166" t="s">
         <v>136</v>
       </c>
@@ -52213,6 +52642,9 @@
       </c>
     </row>
     <row r="1167" spans="1:4">
+      <c r="A1167">
+        <v>1</v>
+      </c>
       <c r="B1167" t="s">
         <v>136</v>
       </c>
@@ -52252,6 +52684,9 @@
       </c>
     </row>
     <row r="1170" spans="1:4">
+      <c r="A1170">
+        <v>1</v>
+      </c>
       <c r="B1170" t="s">
         <v>148</v>
       </c>
@@ -52263,6 +52698,9 @@
       </c>
     </row>
     <row r="1171" spans="1:4">
+      <c r="A1171">
+        <v>1</v>
+      </c>
       <c r="B1171" t="s">
         <v>8</v>
       </c>
@@ -52274,6 +52712,9 @@
       </c>
     </row>
     <row r="1172" spans="1:4">
+      <c r="A1172">
+        <v>1</v>
+      </c>
       <c r="B1172" t="s">
         <v>44</v>
       </c>
@@ -52285,6 +52726,9 @@
       </c>
     </row>
     <row r="1173" spans="1:4">
+      <c r="A1173">
+        <v>1</v>
+      </c>
       <c r="B1173" t="s">
         <v>90</v>
       </c>
@@ -52296,6 +52740,9 @@
       </c>
     </row>
     <row r="1174" spans="1:4">
+      <c r="A1174">
+        <v>1</v>
+      </c>
       <c r="B1174" t="s">
         <v>90</v>
       </c>
@@ -52307,6 +52754,9 @@
       </c>
     </row>
     <row r="1175" spans="1:4">
+      <c r="A1175">
+        <v>1</v>
+      </c>
       <c r="B1175" t="s">
         <v>4</v>
       </c>
@@ -52318,6 +52768,9 @@
       </c>
     </row>
     <row r="1176" spans="1:4">
+      <c r="A1176">
+        <v>1</v>
+      </c>
       <c r="B1176" t="s">
         <v>4</v>
       </c>
@@ -52329,6 +52782,9 @@
       </c>
     </row>
     <row r="1177" spans="1:4">
+      <c r="A1177">
+        <v>1</v>
+      </c>
       <c r="B1177" t="s">
         <v>253</v>
       </c>
@@ -52340,6 +52796,9 @@
       </c>
     </row>
     <row r="1178" spans="1:4">
+      <c r="A1178">
+        <v>1</v>
+      </c>
       <c r="B1178" t="s">
         <v>50</v>
       </c>
@@ -52351,6 +52810,9 @@
       </c>
     </row>
     <row r="1179" spans="1:4">
+      <c r="A1179">
+        <v>-1</v>
+      </c>
       <c r="B1179" t="s">
         <v>8</v>
       </c>
@@ -52362,6 +52824,9 @@
       </c>
     </row>
     <row r="1180" spans="1:4">
+      <c r="A1180">
+        <v>1</v>
+      </c>
       <c r="B1180" t="s">
         <v>76</v>
       </c>
@@ -52373,6 +52838,9 @@
       </c>
     </row>
     <row r="1181" spans="1:4">
+      <c r="A1181">
+        <v>1</v>
+      </c>
       <c r="B1181" t="s">
         <v>4</v>
       </c>
@@ -52384,6 +52852,9 @@
       </c>
     </row>
     <row r="1182" spans="1:4">
+      <c r="A1182">
+        <v>1</v>
+      </c>
       <c r="B1182" t="s">
         <v>148</v>
       </c>
@@ -52395,6 +52866,9 @@
       </c>
     </row>
     <row r="1183" spans="1:4">
+      <c r="A1183">
+        <v>1</v>
+      </c>
       <c r="B1183" t="s">
         <v>4</v>
       </c>
@@ -52406,6 +52880,9 @@
       </c>
     </row>
     <row r="1184" spans="1:4">
+      <c r="A1184">
+        <v>1</v>
+      </c>
       <c r="B1184" t="s">
         <v>193</v>
       </c>
@@ -52431,6 +52908,9 @@
       </c>
     </row>
     <row r="1186" spans="1:4">
+      <c r="A1186">
+        <v>1</v>
+      </c>
       <c r="B1186" t="s">
         <v>148</v>
       </c>
@@ -52442,6 +52922,9 @@
       </c>
     </row>
     <row r="1187" spans="1:4">
+      <c r="A1187">
+        <v>1</v>
+      </c>
       <c r="B1187" t="s">
         <v>47</v>
       </c>
@@ -52453,6 +52936,9 @@
       </c>
     </row>
     <row r="1188" spans="1:4">
+      <c r="A1188">
+        <v>1</v>
+      </c>
       <c r="B1188" t="s">
         <v>15</v>
       </c>
@@ -52464,6 +52950,9 @@
       </c>
     </row>
     <row r="1189" spans="1:4">
+      <c r="A1189">
+        <v>1</v>
+      </c>
       <c r="B1189" t="s">
         <v>4</v>
       </c>
@@ -52475,6 +52964,9 @@
       </c>
     </row>
     <row r="1190" spans="1:4">
+      <c r="A1190">
+        <v>1</v>
+      </c>
       <c r="B1190" t="s">
         <v>8</v>
       </c>
@@ -52486,6 +52978,9 @@
       </c>
     </row>
     <row r="1191" spans="1:4">
+      <c r="A1191">
+        <v>1</v>
+      </c>
       <c r="B1191" t="s">
         <v>47</v>
       </c>
@@ -52497,6 +52992,9 @@
       </c>
     </row>
     <row r="1192" spans="1:4">
+      <c r="A1192">
+        <v>1</v>
+      </c>
       <c r="B1192" t="s">
         <v>181</v>
       </c>
@@ -52508,6 +53006,9 @@
       </c>
     </row>
     <row r="1193" spans="1:4">
+      <c r="A1193">
+        <v>1</v>
+      </c>
       <c r="B1193" t="s">
         <v>4</v>
       </c>
@@ -52519,6 +53020,9 @@
       </c>
     </row>
     <row r="1194" spans="1:4">
+      <c r="A1194">
+        <v>1</v>
+      </c>
       <c r="B1194" t="s">
         <v>206</v>
       </c>
@@ -52530,6 +53034,9 @@
       </c>
     </row>
     <row r="1195" spans="1:4">
+      <c r="A1195">
+        <v>1</v>
+      </c>
       <c r="B1195" t="s">
         <v>8</v>
       </c>
@@ -52541,6 +53048,9 @@
       </c>
     </row>
     <row r="1196" spans="1:4">
+      <c r="A1196">
+        <v>1</v>
+      </c>
       <c r="B1196" t="s">
         <v>47</v>
       </c>
@@ -52552,6 +53062,9 @@
       </c>
     </row>
     <row r="1197" spans="1:4">
+      <c r="A1197">
+        <v>1</v>
+      </c>
       <c r="B1197" t="s">
         <v>47</v>
       </c>
@@ -52563,6 +53076,9 @@
       </c>
     </row>
     <row r="1198" spans="1:4">
+      <c r="A1198">
+        <v>1</v>
+      </c>
       <c r="B1198" t="s">
         <v>8</v>
       </c>
@@ -52574,6 +53090,9 @@
       </c>
     </row>
     <row r="1199" spans="1:4">
+      <c r="A1199">
+        <v>-1</v>
+      </c>
       <c r="B1199" t="s">
         <v>8</v>
       </c>
@@ -52585,6 +53104,9 @@
       </c>
     </row>
     <row r="1200" spans="1:4">
+      <c r="A1200">
+        <v>1</v>
+      </c>
       <c r="B1200" t="s">
         <v>50</v>
       </c>
@@ -52596,6 +53118,9 @@
       </c>
     </row>
     <row r="1201" spans="1:4">
+      <c r="A1201">
+        <v>1</v>
+      </c>
       <c r="B1201" t="s">
         <v>63</v>
       </c>
@@ -52607,6 +53132,9 @@
       </c>
     </row>
     <row r="1202" spans="1:4">
+      <c r="A1202">
+        <v>1</v>
+      </c>
       <c r="B1202" t="s">
         <v>206</v>
       </c>
@@ -52618,6 +53146,9 @@
       </c>
     </row>
     <row r="1203" spans="1:4">
+      <c r="A1203">
+        <v>-1</v>
+      </c>
       <c r="B1203" t="s">
         <v>579</v>
       </c>
@@ -52643,6 +53174,9 @@
       </c>
     </row>
     <row r="1205" spans="1:4">
+      <c r="A1205">
+        <v>1</v>
+      </c>
       <c r="B1205" t="s">
         <v>50</v>
       </c>
@@ -52654,6 +53188,9 @@
       </c>
     </row>
     <row r="1206" spans="1:4">
+      <c r="A1206">
+        <v>1</v>
+      </c>
       <c r="B1206" t="s">
         <v>4</v>
       </c>
@@ -52665,6 +53202,9 @@
       </c>
     </row>
     <row r="1207" spans="1:4">
+      <c r="A1207">
+        <v>1</v>
+      </c>
       <c r="B1207" t="s">
         <v>4</v>
       </c>
@@ -52676,6 +53216,9 @@
       </c>
     </row>
     <row r="1208" spans="1:4">
+      <c r="A1208">
+        <v>1</v>
+      </c>
       <c r="B1208" t="s">
         <v>44</v>
       </c>
@@ -52687,6 +53230,9 @@
       </c>
     </row>
     <row r="1209" spans="1:4">
+      <c r="A1209">
+        <v>1</v>
+      </c>
       <c r="B1209" t="s">
         <v>44</v>
       </c>
@@ -52698,6 +53244,9 @@
       </c>
     </row>
     <row r="1210" spans="1:4">
+      <c r="A1210">
+        <v>1</v>
+      </c>
       <c r="B1210" t="s">
         <v>206</v>
       </c>
@@ -52709,6 +53258,9 @@
       </c>
     </row>
     <row r="1211" spans="1:4">
+      <c r="A1211">
+        <v>1</v>
+      </c>
       <c r="B1211" t="s">
         <v>63</v>
       </c>
@@ -52720,6 +53272,9 @@
       </c>
     </row>
     <row r="1212" spans="1:4">
+      <c r="A1212">
+        <v>1</v>
+      </c>
       <c r="B1212" t="s">
         <v>54</v>
       </c>
@@ -52731,6 +53286,9 @@
       </c>
     </row>
     <row r="1213" spans="1:4">
+      <c r="A1213">
+        <v>1</v>
+      </c>
       <c r="B1213" t="s">
         <v>113</v>
       </c>
@@ -52742,6 +53300,9 @@
       </c>
     </row>
     <row r="1214" spans="1:4">
+      <c r="A1214">
+        <v>-1</v>
+      </c>
       <c r="B1214" t="s">
         <v>113</v>
       </c>
@@ -52753,6 +53314,9 @@
       </c>
     </row>
     <row r="1215" spans="1:4">
+      <c r="A1215">
+        <v>1</v>
+      </c>
       <c r="B1215" t="s">
         <v>76</v>
       </c>
@@ -52764,6 +53328,9 @@
       </c>
     </row>
     <row r="1216" spans="1:4">
+      <c r="A1216">
+        <v>1</v>
+      </c>
       <c r="B1216" t="s">
         <v>47</v>
       </c>
@@ -52775,6 +53342,9 @@
       </c>
     </row>
     <row r="1217" spans="1:4">
+      <c r="A1217">
+        <v>1</v>
+      </c>
       <c r="B1217" t="s">
         <v>148</v>
       </c>
@@ -52786,6 +53356,9 @@
       </c>
     </row>
     <row r="1218" spans="1:4">
+      <c r="A1218">
+        <v>1</v>
+      </c>
       <c r="B1218" t="s">
         <v>4</v>
       </c>
@@ -52797,6 +53370,9 @@
       </c>
     </row>
     <row r="1219" spans="1:4">
+      <c r="A1219">
+        <v>1</v>
+      </c>
       <c r="B1219" t="s">
         <v>90</v>
       </c>
@@ -52808,6 +53384,9 @@
       </c>
     </row>
     <row r="1220" spans="1:4">
+      <c r="A1220">
+        <v>-1</v>
+      </c>
       <c r="B1220" t="s">
         <v>206</v>
       </c>
@@ -52819,6 +53398,9 @@
       </c>
     </row>
     <row r="1221" spans="1:4">
+      <c r="A1221">
+        <v>1</v>
+      </c>
       <c r="B1221" t="s">
         <v>47</v>
       </c>
@@ -52830,6 +53412,9 @@
       </c>
     </row>
     <row r="1222" spans="1:4">
+      <c r="A1222">
+        <v>1</v>
+      </c>
       <c r="B1222" t="s">
         <v>8</v>
       </c>
@@ -52841,6 +53426,9 @@
       </c>
     </row>
     <row r="1223" spans="1:4">
+      <c r="A1223">
+        <v>1</v>
+      </c>
       <c r="B1223" t="s">
         <v>206</v>
       </c>
@@ -52852,6 +53440,9 @@
       </c>
     </row>
     <row r="1224" spans="1:4">
+      <c r="A1224">
+        <v>1</v>
+      </c>
       <c r="B1224" t="s">
         <v>253</v>
       </c>
@@ -52863,6 +53454,9 @@
       </c>
     </row>
     <row r="1225" spans="1:4">
+      <c r="A1225">
+        <v>1</v>
+      </c>
       <c r="B1225" t="s">
         <v>193</v>
       </c>
@@ -52874,6 +53468,9 @@
       </c>
     </row>
     <row r="1226" spans="1:4">
+      <c r="A1226">
+        <v>1</v>
+      </c>
       <c r="B1226" t="s">
         <v>8</v>
       </c>
@@ -52885,6 +53482,9 @@
       </c>
     </row>
     <row r="1227" spans="1:4">
+      <c r="A1227">
+        <v>1</v>
+      </c>
       <c r="B1227" t="s">
         <v>50</v>
       </c>
@@ -52896,6 +53496,9 @@
       </c>
     </row>
     <row r="1228" spans="1:4">
+      <c r="A1228">
+        <v>1</v>
+      </c>
       <c r="B1228" t="s">
         <v>80</v>
       </c>
@@ -52907,6 +53510,9 @@
       </c>
     </row>
     <row r="1229" spans="1:4">
+      <c r="A1229">
+        <v>1</v>
+      </c>
       <c r="B1229" t="s">
         <v>193</v>
       </c>
@@ -52932,6 +53538,9 @@
       </c>
     </row>
     <row r="1231" spans="1:4">
+      <c r="A1231">
+        <v>1</v>
+      </c>
       <c r="B1231" t="s">
         <v>15</v>
       </c>
@@ -52943,6 +53552,9 @@
       </c>
     </row>
     <row r="1232" spans="1:4">
+      <c r="A1232">
+        <v>1</v>
+      </c>
       <c r="B1232" t="s">
         <v>8</v>
       </c>
@@ -52954,6 +53566,9 @@
       </c>
     </row>
     <row r="1233" spans="1:4">
+      <c r="A1233">
+        <v>1</v>
+      </c>
       <c r="B1233" t="s">
         <v>15</v>
       </c>
@@ -52965,6 +53580,9 @@
       </c>
     </row>
     <row r="1234" spans="1:4">
+      <c r="A1234">
+        <v>1</v>
+      </c>
       <c r="B1234" t="s">
         <v>15</v>
       </c>
@@ -52976,6 +53594,9 @@
       </c>
     </row>
     <row r="1235" spans="1:4">
+      <c r="A1235">
+        <v>1</v>
+      </c>
       <c r="B1235" t="s">
         <v>63</v>
       </c>
@@ -52987,6 +53608,9 @@
       </c>
     </row>
     <row r="1236" spans="1:4">
+      <c r="A1236">
+        <v>1</v>
+      </c>
       <c r="B1236" t="s">
         <v>15</v>
       </c>
@@ -52998,6 +53622,9 @@
       </c>
     </row>
     <row r="1237" spans="1:4">
+      <c r="A1237">
+        <v>1</v>
+      </c>
       <c r="B1237" t="s">
         <v>8</v>
       </c>
@@ -53009,6 +53636,9 @@
       </c>
     </row>
     <row r="1238" spans="1:4">
+      <c r="A1238">
+        <v>1</v>
+      </c>
       <c r="B1238" t="s">
         <v>50</v>
       </c>
@@ -53020,6 +53650,9 @@
       </c>
     </row>
     <row r="1239" spans="1:4">
+      <c r="A1239">
+        <v>1</v>
+      </c>
       <c r="B1239" t="s">
         <v>47</v>
       </c>
@@ -53045,6 +53678,9 @@
       </c>
     </row>
     <row r="1241" spans="1:4">
+      <c r="A1241">
+        <v>1</v>
+      </c>
       <c r="B1241" t="s">
         <v>47</v>
       </c>
@@ -53056,6 +53692,9 @@
       </c>
     </row>
     <row r="1242" spans="1:4">
+      <c r="A1242">
+        <v>1</v>
+      </c>
       <c r="B1242" t="s">
         <v>4</v>
       </c>
@@ -53067,6 +53706,9 @@
       </c>
     </row>
     <row r="1243" spans="1:4">
+      <c r="A1243">
+        <v>1</v>
+      </c>
       <c r="B1243" t="s">
         <v>148</v>
       </c>
@@ -53078,6 +53720,9 @@
       </c>
     </row>
     <row r="1244" spans="1:4">
+      <c r="A1244">
+        <v>1</v>
+      </c>
       <c r="B1244" t="s">
         <v>50</v>
       </c>
@@ -53089,6 +53734,9 @@
       </c>
     </row>
     <row r="1245" spans="1:4">
+      <c r="A1245">
+        <v>1</v>
+      </c>
       <c r="B1245" t="s">
         <v>8</v>
       </c>
@@ -53100,6 +53748,9 @@
       </c>
     </row>
     <row r="1246" spans="1:4">
+      <c r="A1246">
+        <v>1</v>
+      </c>
       <c r="B1246" t="s">
         <v>8</v>
       </c>
@@ -53111,6 +53762,9 @@
       </c>
     </row>
     <row r="1247" spans="1:4">
+      <c r="A1247">
+        <v>1</v>
+      </c>
       <c r="B1247" t="s">
         <v>44</v>
       </c>
@@ -53122,6 +53776,9 @@
       </c>
     </row>
     <row r="1248" spans="1:4">
+      <c r="A1248">
+        <v>1</v>
+      </c>
       <c r="B1248" t="s">
         <v>8</v>
       </c>
@@ -53147,6 +53804,9 @@
       </c>
     </row>
     <row r="1250" spans="1:4">
+      <c r="A1250">
+        <v>1</v>
+      </c>
       <c r="B1250" t="s">
         <v>50</v>
       </c>
@@ -53200,6 +53860,9 @@
       </c>
     </row>
     <row r="1254" spans="1:4">
+      <c r="A1254">
+        <v>1</v>
+      </c>
       <c r="B1254" t="s">
         <v>50</v>
       </c>
@@ -53211,6 +53874,9 @@
       </c>
     </row>
     <row r="1255" spans="1:4">
+      <c r="A1255">
+        <v>1</v>
+      </c>
       <c r="B1255" t="s">
         <v>47</v>
       </c>
@@ -53236,6 +53902,9 @@
       </c>
     </row>
     <row r="1257" spans="1:4">
+      <c r="A1257">
+        <v>1</v>
+      </c>
       <c r="B1257" t="s">
         <v>47</v>
       </c>
@@ -53247,6 +53916,9 @@
       </c>
     </row>
     <row r="1258" spans="1:4">
+      <c r="A1258">
+        <v>1</v>
+      </c>
       <c r="B1258" t="s">
         <v>113</v>
       </c>
@@ -53258,6 +53930,9 @@
       </c>
     </row>
     <row r="1259" spans="1:4">
+      <c r="A1259">
+        <v>1</v>
+      </c>
       <c r="B1259" t="s">
         <v>206</v>
       </c>
@@ -53269,6 +53944,9 @@
       </c>
     </row>
     <row r="1260" spans="1:4">
+      <c r="A1260">
+        <v>1</v>
+      </c>
       <c r="B1260" t="s">
         <v>382</v>
       </c>
@@ -53280,6 +53958,9 @@
       </c>
     </row>
     <row r="1261" spans="1:4">
+      <c r="A1261">
+        <v>1</v>
+      </c>
       <c r="B1261" t="s">
         <v>206</v>
       </c>
@@ -53291,6 +53972,9 @@
       </c>
     </row>
     <row r="1262" spans="1:4">
+      <c r="A1262">
+        <v>1</v>
+      </c>
       <c r="B1262" t="s">
         <v>113</v>
       </c>
@@ -53302,6 +53986,9 @@
       </c>
     </row>
     <row r="1263" spans="1:4">
+      <c r="A1263">
+        <v>1</v>
+      </c>
       <c r="B1263" t="s">
         <v>8</v>
       </c>
@@ -53313,6 +54000,9 @@
       </c>
     </row>
     <row r="1264" spans="1:4">
+      <c r="A1264">
+        <v>1</v>
+      </c>
       <c r="B1264" t="s">
         <v>15</v>
       </c>
@@ -53323,7 +54013,10 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="1265" spans="2:4">
+    <row r="1265" spans="1:4">
+      <c r="A1265">
+        <v>1</v>
+      </c>
       <c r="B1265" t="s">
         <v>47</v>
       </c>
@@ -53334,7 +54027,10 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="1266" spans="2:4">
+    <row r="1266" spans="1:4">
+      <c r="A1266">
+        <v>1</v>
+      </c>
       <c r="B1266" t="s">
         <v>4</v>
       </c>
@@ -53345,7 +54041,10 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="1267" spans="2:4">
+    <row r="1267" spans="1:4">
+      <c r="A1267">
+        <v>1</v>
+      </c>
       <c r="B1267" t="s">
         <v>8</v>
       </c>
@@ -53356,7 +54055,10 @@
         <v>688</v>
       </c>
     </row>
-    <row r="1268" spans="2:4">
+    <row r="1268" spans="1:4">
+      <c r="A1268">
+        <v>1</v>
+      </c>
       <c r="B1268" t="s">
         <v>47</v>
       </c>
@@ -53367,7 +54069,10 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="1269" spans="2:4">
+    <row r="1269" spans="1:4">
+      <c r="A1269">
+        <v>1</v>
+      </c>
       <c r="B1269" t="s">
         <v>50</v>
       </c>
@@ -53378,7 +54083,10 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="1270" spans="2:4">
+    <row r="1270" spans="1:4">
+      <c r="A1270">
+        <v>1</v>
+      </c>
       <c r="B1270" t="s">
         <v>102</v>
       </c>
@@ -53389,7 +54097,10 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="1271" spans="2:4">
+    <row r="1271" spans="1:4">
+      <c r="A1271">
+        <v>1</v>
+      </c>
       <c r="B1271" t="s">
         <v>148</v>
       </c>
@@ -53400,7 +54111,10 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="1272" spans="2:4">
+    <row r="1272" spans="1:4">
+      <c r="A1272">
+        <v>1</v>
+      </c>
       <c r="B1272" t="s">
         <v>44</v>
       </c>
@@ -53411,7 +54125,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="1273" spans="2:4">
+    <row r="1273" spans="1:4">
+      <c r="A1273">
+        <v>1</v>
+      </c>
       <c r="B1273" t="s">
         <v>50</v>
       </c>
@@ -53422,7 +54139,10 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="1274" spans="2:4">
+    <row r="1274" spans="1:4">
+      <c r="A1274">
+        <v>1</v>
+      </c>
       <c r="B1274" t="s">
         <v>148</v>
       </c>
@@ -53433,7 +54153,10 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1275" spans="2:4">
+    <row r="1275" spans="1:4">
+      <c r="A1275">
+        <v>1</v>
+      </c>
       <c r="B1275" t="s">
         <v>80</v>
       </c>
@@ -53444,7 +54167,10 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="1276" spans="2:4">
+    <row r="1276" spans="1:4">
+      <c r="A1276">
+        <v>1</v>
+      </c>
       <c r="B1276" t="s">
         <v>76</v>
       </c>
@@ -53455,7 +54181,10 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1277" spans="2:4">
+    <row r="1277" spans="1:4">
+      <c r="A1277">
+        <v>1</v>
+      </c>
       <c r="B1277" t="s">
         <v>90</v>
       </c>
@@ -53466,7 +54195,10 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="1278" spans="2:4">
+    <row r="1278" spans="1:4">
+      <c r="A1278">
+        <v>1</v>
+      </c>
       <c r="B1278" t="s">
         <v>253</v>
       </c>
@@ -53477,7 +54209,10 @@
         <v>916</v>
       </c>
     </row>
-    <row r="1279" spans="2:4">
+    <row r="1279" spans="1:4">
+      <c r="A1279">
+        <v>1</v>
+      </c>
       <c r="B1279" t="s">
         <v>50</v>
       </c>
@@ -53488,7 +54223,10 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="1280" spans="2:4">
+    <row r="1280" spans="1:4">
+      <c r="A1280">
+        <v>-1</v>
+      </c>
       <c r="B1280" t="s">
         <v>50</v>
       </c>
@@ -53500,6 +54238,9 @@
       </c>
     </row>
     <row r="1281" spans="1:4">
+      <c r="A1281">
+        <v>1</v>
+      </c>
       <c r="B1281" t="s">
         <v>148</v>
       </c>
@@ -53511,6 +54252,9 @@
       </c>
     </row>
     <row r="1282" spans="1:4">
+      <c r="A1282">
+        <v>1</v>
+      </c>
       <c r="B1282" t="s">
         <v>206</v>
       </c>
@@ -53536,6 +54280,9 @@
       </c>
     </row>
     <row r="1284" spans="1:4">
+      <c r="A1284">
+        <v>1</v>
+      </c>
       <c r="B1284" t="s">
         <v>8</v>
       </c>
@@ -53547,6 +54294,9 @@
       </c>
     </row>
     <row r="1285" spans="1:4">
+      <c r="A1285">
+        <v>1</v>
+      </c>
       <c r="B1285" t="s">
         <v>50</v>
       </c>
@@ -53558,6 +54308,9 @@
       </c>
     </row>
     <row r="1286" spans="1:4">
+      <c r="A1286">
+        <v>1</v>
+      </c>
       <c r="B1286" t="s">
         <v>8</v>
       </c>
@@ -53569,6 +54322,9 @@
       </c>
     </row>
     <row r="1287" spans="1:4">
+      <c r="A1287">
+        <v>1</v>
+      </c>
       <c r="B1287" t="s">
         <v>47</v>
       </c>
@@ -53580,6 +54336,9 @@
       </c>
     </row>
     <row r="1288" spans="1:4">
+      <c r="A1288">
+        <v>1</v>
+      </c>
       <c r="B1288" t="s">
         <v>148</v>
       </c>
@@ -53591,6 +54350,9 @@
       </c>
     </row>
     <row r="1289" spans="1:4">
+      <c r="A1289">
+        <v>1</v>
+      </c>
       <c r="B1289" t="s">
         <v>44</v>
       </c>
@@ -53602,6 +54364,9 @@
       </c>
     </row>
     <row r="1290" spans="1:4">
+      <c r="A1290">
+        <v>1</v>
+      </c>
       <c r="B1290" t="s">
         <v>50</v>
       </c>
@@ -53613,6 +54378,9 @@
       </c>
     </row>
     <row r="1291" spans="1:4">
+      <c r="A1291">
+        <v>1</v>
+      </c>
       <c r="B1291" t="s">
         <v>47</v>
       </c>
@@ -53638,6 +54406,9 @@
       </c>
     </row>
     <row r="1293" spans="1:4">
+      <c r="A1293">
+        <v>1</v>
+      </c>
       <c r="B1293" t="s">
         <v>47</v>
       </c>
@@ -53649,6 +54420,9 @@
       </c>
     </row>
     <row r="1294" spans="1:4">
+      <c r="A1294">
+        <v>-1</v>
+      </c>
       <c r="B1294" t="s">
         <v>148</v>
       </c>
@@ -53660,6 +54434,9 @@
       </c>
     </row>
     <row r="1295" spans="1:4">
+      <c r="A1295">
+        <v>1</v>
+      </c>
       <c r="B1295" t="s">
         <v>47</v>
       </c>
@@ -53671,6 +54448,9 @@
       </c>
     </row>
     <row r="1296" spans="1:4">
+      <c r="A1296">
+        <v>1</v>
+      </c>
       <c r="B1296" t="s">
         <v>206</v>
       </c>
@@ -53682,6 +54462,9 @@
       </c>
     </row>
     <row r="1297" spans="1:4">
+      <c r="A1297">
+        <v>1</v>
+      </c>
       <c r="B1297" t="s">
         <v>50</v>
       </c>
@@ -53693,6 +54476,9 @@
       </c>
     </row>
     <row r="1298" spans="1:4">
+      <c r="A1298">
+        <v>1</v>
+      </c>
       <c r="B1298" t="s">
         <v>113</v>
       </c>
@@ -53704,6 +54490,9 @@
       </c>
     </row>
     <row r="1299" spans="1:4">
+      <c r="A1299">
+        <v>1</v>
+      </c>
       <c r="B1299" t="s">
         <v>63</v>
       </c>
@@ -53715,6 +54504,9 @@
       </c>
     </row>
     <row r="1300" spans="1:4">
+      <c r="A1300">
+        <v>1</v>
+      </c>
       <c r="B1300" t="s">
         <v>15</v>
       </c>
@@ -53726,6 +54518,9 @@
       </c>
     </row>
     <row r="1301" spans="1:4">
+      <c r="A1301">
+        <v>1</v>
+      </c>
       <c r="B1301" t="s">
         <v>50</v>
       </c>
@@ -53737,6 +54532,9 @@
       </c>
     </row>
     <row r="1302" spans="1:4">
+      <c r="A1302">
+        <v>1</v>
+      </c>
       <c r="B1302" t="s">
         <v>4</v>
       </c>
@@ -53748,6 +54546,9 @@
       </c>
     </row>
     <row r="1303" spans="1:4">
+      <c r="A1303">
+        <v>1</v>
+      </c>
       <c r="B1303" t="s">
         <v>47</v>
       </c>
@@ -53773,6 +54574,9 @@
       </c>
     </row>
     <row r="1305" spans="1:4">
+      <c r="A1305">
+        <v>1</v>
+      </c>
       <c r="B1305" t="s">
         <v>47</v>
       </c>
@@ -53784,6 +54588,9 @@
       </c>
     </row>
     <row r="1306" spans="1:4">
+      <c r="A1306">
+        <v>-1</v>
+      </c>
       <c r="B1306" t="s">
         <v>382</v>
       </c>
@@ -53795,6 +54602,9 @@
       </c>
     </row>
     <row r="1307" spans="1:4">
+      <c r="A1307">
+        <v>1</v>
+      </c>
       <c r="B1307" t="s">
         <v>4</v>
       </c>
@@ -53806,6 +54616,9 @@
       </c>
     </row>
     <row r="1308" spans="1:4">
+      <c r="A1308">
+        <v>1</v>
+      </c>
       <c r="B1308" t="s">
         <v>4</v>
       </c>
@@ -53817,6 +54630,9 @@
       </c>
     </row>
     <row r="1309" spans="1:4">
+      <c r="A1309">
+        <v>1</v>
+      </c>
       <c r="B1309" t="s">
         <v>44</v>
       </c>
@@ -53828,6 +54644,9 @@
       </c>
     </row>
     <row r="1310" spans="1:4">
+      <c r="A1310">
+        <v>1</v>
+      </c>
       <c r="B1310" t="s">
         <v>136</v>
       </c>
@@ -53839,6 +54658,9 @@
       </c>
     </row>
     <row r="1311" spans="1:4">
+      <c r="A1311">
+        <v>1</v>
+      </c>
       <c r="B1311" t="s">
         <v>47</v>
       </c>
@@ -53850,6 +54672,9 @@
       </c>
     </row>
     <row r="1312" spans="1:4">
+      <c r="A1312">
+        <v>1</v>
+      </c>
       <c r="B1312" t="s">
         <v>44</v>
       </c>
@@ -53861,6 +54686,9 @@
       </c>
     </row>
     <row r="1313" spans="1:4">
+      <c r="A1313">
+        <v>1</v>
+      </c>
       <c r="B1313" t="s">
         <v>8</v>
       </c>
@@ -53872,6 +54700,9 @@
       </c>
     </row>
     <row r="1314" spans="1:4">
+      <c r="A1314">
+        <v>1</v>
+      </c>
       <c r="B1314" t="s">
         <v>76</v>
       </c>
@@ -53883,6 +54714,9 @@
       </c>
     </row>
     <row r="1315" spans="1:4">
+      <c r="A1315">
+        <v>1</v>
+      </c>
       <c r="B1315" t="s">
         <v>47</v>
       </c>
@@ -53894,6 +54728,9 @@
       </c>
     </row>
     <row r="1316" spans="1:4">
+      <c r="A1316">
+        <v>1</v>
+      </c>
       <c r="B1316" t="s">
         <v>4</v>
       </c>
@@ -53905,6 +54742,9 @@
       </c>
     </row>
     <row r="1317" spans="1:4">
+      <c r="A1317">
+        <v>1</v>
+      </c>
       <c r="B1317" t="s">
         <v>8</v>
       </c>
@@ -53916,6 +54756,9 @@
       </c>
     </row>
     <row r="1318" spans="1:4">
+      <c r="A1318">
+        <v>1</v>
+      </c>
       <c r="B1318" t="s">
         <v>54</v>
       </c>
@@ -53927,6 +54770,9 @@
       </c>
     </row>
     <row r="1319" spans="1:4">
+      <c r="A1319">
+        <v>-1</v>
+      </c>
       <c r="B1319" t="s">
         <v>50</v>
       </c>
@@ -53938,6 +54784,9 @@
       </c>
     </row>
     <row r="1320" spans="1:4">
+      <c r="A1320">
+        <v>1</v>
+      </c>
       <c r="B1320" t="s">
         <v>47</v>
       </c>
@@ -53949,6 +54798,9 @@
       </c>
     </row>
     <row r="1321" spans="1:4">
+      <c r="A1321">
+        <v>1</v>
+      </c>
       <c r="B1321" t="s">
         <v>80</v>
       </c>
@@ -53960,6 +54812,9 @@
       </c>
     </row>
     <row r="1322" spans="1:4">
+      <c r="A1322">
+        <v>1</v>
+      </c>
       <c r="B1322" t="s">
         <v>90</v>
       </c>
@@ -53971,6 +54826,9 @@
       </c>
     </row>
     <row r="1323" spans="1:4">
+      <c r="A1323">
+        <v>1</v>
+      </c>
       <c r="B1323" t="s">
         <v>710</v>
       </c>
@@ -53982,6 +54840,9 @@
       </c>
     </row>
     <row r="1324" spans="1:4">
+      <c r="A1324">
+        <v>1</v>
+      </c>
       <c r="B1324" t="s">
         <v>710</v>
       </c>
@@ -53993,6 +54854,9 @@
       </c>
     </row>
     <row r="1325" spans="1:4">
+      <c r="A1325">
+        <v>1</v>
+      </c>
       <c r="B1325" t="s">
         <v>44</v>
       </c>
@@ -54004,6 +54868,9 @@
       </c>
     </row>
     <row r="1326" spans="1:4">
+      <c r="A1326">
+        <v>1</v>
+      </c>
       <c r="B1326" t="s">
         <v>47</v>
       </c>
@@ -54015,6 +54882,9 @@
       </c>
     </row>
     <row r="1327" spans="1:4">
+      <c r="A1327">
+        <v>1</v>
+      </c>
       <c r="B1327" t="s">
         <v>8</v>
       </c>
@@ -54039,7 +54909,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1329" spans="2:4">
+    <row r="1329" spans="1:4">
+      <c r="A1329">
+        <v>1</v>
+      </c>
       <c r="B1329" t="s">
         <v>47</v>
       </c>
@@ -54050,7 +54923,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1330" spans="2:4">
+    <row r="1330" spans="1:4">
+      <c r="A1330">
+        <v>1</v>
+      </c>
       <c r="B1330" t="s">
         <v>193</v>
       </c>
@@ -54061,7 +54937,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="1331" spans="2:4">
+    <row r="1331" spans="1:4">
+      <c r="A1331">
+        <v>-1</v>
+      </c>
       <c r="B1331" t="s">
         <v>50</v>
       </c>
@@ -54072,7 +54951,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="1332" spans="2:4">
+    <row r="1332" spans="1:4">
+      <c r="A1332">
+        <v>-1</v>
+      </c>
       <c r="B1332" t="s">
         <v>102</v>
       </c>
@@ -54083,7 +54965,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="1333" spans="2:4">
+    <row r="1333" spans="1:4">
+      <c r="A1333">
+        <v>1</v>
+      </c>
       <c r="B1333" t="s">
         <v>8</v>
       </c>
@@ -54094,7 +54979,10 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="1334" spans="2:4">
+    <row r="1334" spans="1:4">
+      <c r="A1334">
+        <v>1</v>
+      </c>
       <c r="B1334" t="s">
         <v>4</v>
       </c>
@@ -54105,7 +54993,10 @@
         <v>869</v>
       </c>
     </row>
-    <row r="1335" spans="2:4">
+    <row r="1335" spans="1:4">
+      <c r="A1335">
+        <v>1</v>
+      </c>
       <c r="B1335" t="s">
         <v>15</v>
       </c>
@@ -54116,7 +55007,10 @@
         <v>798</v>
       </c>
     </row>
-    <row r="1336" spans="2:4">
+    <row r="1336" spans="1:4">
+      <c r="A1336">
+        <v>-1</v>
+      </c>
       <c r="B1336" t="s">
         <v>148</v>
       </c>
@@ -54127,7 +55021,10 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="1337" spans="2:4">
+    <row r="1337" spans="1:4">
+      <c r="A1337">
+        <v>1</v>
+      </c>
       <c r="B1337" t="s">
         <v>148</v>
       </c>
@@ -54138,7 +55035,10 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="1338" spans="2:4">
+    <row r="1338" spans="1:4">
+      <c r="A1338">
+        <v>1</v>
+      </c>
       <c r="B1338" t="s">
         <v>102</v>
       </c>
@@ -54149,7 +55049,10 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="1339" spans="2:4">
+    <row r="1339" spans="1:4">
+      <c r="A1339">
+        <v>1</v>
+      </c>
       <c r="B1339" t="s">
         <v>47</v>
       </c>
@@ -54160,7 +55063,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1340" spans="2:4">
+    <row r="1340" spans="1:4">
+      <c r="A1340">
+        <v>1</v>
+      </c>
       <c r="B1340" t="s">
         <v>47</v>
       </c>
@@ -54171,7 +55077,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1341" spans="2:4">
+    <row r="1341" spans="1:4">
+      <c r="A1341">
+        <v>1</v>
+      </c>
       <c r="B1341" t="s">
         <v>63</v>
       </c>
@@ -54182,7 +55091,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="1342" spans="2:4">
+    <row r="1342" spans="1:4">
+      <c r="A1342">
+        <v>1</v>
+      </c>
       <c r="B1342" t="s">
         <v>206</v>
       </c>
@@ -54193,7 +55105,10 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="1343" spans="2:4">
+    <row r="1343" spans="1:4">
+      <c r="A1343">
+        <v>1</v>
+      </c>
       <c r="B1343" t="s">
         <v>206</v>
       </c>
@@ -54204,7 +55119,10 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="1344" spans="2:4">
+    <row r="1344" spans="1:4">
+      <c r="A1344">
+        <v>1</v>
+      </c>
       <c r="B1344" t="s">
         <v>50</v>
       </c>
@@ -54216,6 +55134,9 @@
       </c>
     </row>
     <row r="1345" spans="1:4">
+      <c r="A1345">
+        <v>1</v>
+      </c>
       <c r="B1345" t="s">
         <v>47</v>
       </c>
@@ -54227,6 +55148,9 @@
       </c>
     </row>
     <row r="1346" spans="1:4">
+      <c r="A1346">
+        <v>-1</v>
+      </c>
       <c r="B1346" t="s">
         <v>148</v>
       </c>
@@ -54238,6 +55162,9 @@
       </c>
     </row>
     <row r="1347" spans="1:4">
+      <c r="A1347">
+        <v>1</v>
+      </c>
       <c r="B1347" t="s">
         <v>47</v>
       </c>
@@ -54263,6 +55190,9 @@
       </c>
     </row>
     <row r="1349" spans="1:4">
+      <c r="A1349">
+        <v>1</v>
+      </c>
       <c r="B1349" t="s">
         <v>15</v>
       </c>
@@ -54274,6 +55204,9 @@
       </c>
     </row>
     <row r="1350" spans="1:4">
+      <c r="A1350">
+        <v>1</v>
+      </c>
       <c r="B1350" t="s">
         <v>8</v>
       </c>
@@ -54285,6 +55218,9 @@
       </c>
     </row>
     <row r="1351" spans="1:4">
+      <c r="A1351">
+        <v>1</v>
+      </c>
       <c r="B1351" t="s">
         <v>15</v>
       </c>
@@ -54296,6 +55232,9 @@
       </c>
     </row>
     <row r="1352" spans="1:4">
+      <c r="A1352">
+        <v>1</v>
+      </c>
       <c r="B1352" t="s">
         <v>47</v>
       </c>
@@ -54307,6 +55246,9 @@
       </c>
     </row>
     <row r="1353" spans="1:4">
+      <c r="A1353">
+        <v>1</v>
+      </c>
       <c r="B1353" t="s">
         <v>47</v>
       </c>
@@ -54318,6 +55260,9 @@
       </c>
     </row>
     <row r="1354" spans="1:4">
+      <c r="A1354">
+        <v>1</v>
+      </c>
       <c r="B1354" t="s">
         <v>47</v>
       </c>
@@ -54329,6 +55274,9 @@
       </c>
     </row>
     <row r="1355" spans="1:4">
+      <c r="A1355">
+        <v>-1</v>
+      </c>
       <c r="B1355" t="s">
         <v>206</v>
       </c>
@@ -54340,6 +55288,9 @@
       </c>
     </row>
     <row r="1356" spans="1:4">
+      <c r="A1356">
+        <v>1</v>
+      </c>
       <c r="B1356" t="s">
         <v>47</v>
       </c>
@@ -54351,6 +55302,9 @@
       </c>
     </row>
     <row r="1357" spans="1:4">
+      <c r="A1357">
+        <v>1</v>
+      </c>
       <c r="B1357" t="s">
         <v>47</v>
       </c>
@@ -54362,6 +55316,9 @@
       </c>
     </row>
     <row r="1358" spans="1:4">
+      <c r="A1358">
+        <v>1</v>
+      </c>
       <c r="B1358" t="s">
         <v>47</v>
       </c>
@@ -54373,6 +55330,9 @@
       </c>
     </row>
     <row r="1359" spans="1:4">
+      <c r="A1359">
+        <v>1</v>
+      </c>
       <c r="B1359" t="s">
         <v>47</v>
       </c>
@@ -54384,6 +55344,9 @@
       </c>
     </row>
     <row r="1360" spans="1:4">
+      <c r="A1360">
+        <v>-1</v>
+      </c>
       <c r="B1360" t="s">
         <v>50</v>
       </c>
@@ -54395,6 +55358,9 @@
       </c>
     </row>
     <row r="1361" spans="1:4">
+      <c r="A1361">
+        <v>1</v>
+      </c>
       <c r="B1361" t="s">
         <v>50</v>
       </c>
@@ -54406,6 +55372,9 @@
       </c>
     </row>
     <row r="1362" spans="1:4">
+      <c r="A1362">
+        <v>1</v>
+      </c>
       <c r="B1362" t="s">
         <v>47</v>
       </c>
@@ -54417,6 +55386,9 @@
       </c>
     </row>
     <row r="1363" spans="1:4">
+      <c r="A1363">
+        <v>1</v>
+      </c>
       <c r="B1363" t="s">
         <v>47</v>
       </c>
@@ -54428,6 +55400,9 @@
       </c>
     </row>
     <row r="1364" spans="1:4">
+      <c r="A1364">
+        <v>1</v>
+      </c>
       <c r="B1364" t="s">
         <v>47</v>
       </c>
@@ -54439,6 +55414,9 @@
       </c>
     </row>
     <row r="1365" spans="1:4">
+      <c r="A1365">
+        <v>1</v>
+      </c>
       <c r="B1365" t="s">
         <v>50</v>
       </c>
@@ -54450,6 +55428,9 @@
       </c>
     </row>
     <row r="1366" spans="1:4">
+      <c r="A1366">
+        <v>1</v>
+      </c>
       <c r="B1366" t="s">
         <v>47</v>
       </c>
@@ -54461,6 +55442,9 @@
       </c>
     </row>
     <row r="1367" spans="1:4">
+      <c r="A1367">
+        <v>1</v>
+      </c>
       <c r="B1367" t="s">
         <v>47</v>
       </c>
@@ -54472,6 +55456,9 @@
       </c>
     </row>
     <row r="1368" spans="1:4">
+      <c r="A1368">
+        <v>1</v>
+      </c>
       <c r="B1368" t="s">
         <v>47</v>
       </c>
@@ -54483,6 +55470,9 @@
       </c>
     </row>
     <row r="1369" spans="1:4">
+      <c r="A1369">
+        <v>1</v>
+      </c>
       <c r="B1369" t="s">
         <v>47</v>
       </c>
@@ -54494,6 +55484,9 @@
       </c>
     </row>
     <row r="1370" spans="1:4">
+      <c r="A1370">
+        <v>1</v>
+      </c>
       <c r="B1370" t="s">
         <v>47</v>
       </c>
@@ -54519,6 +55512,9 @@
       </c>
     </row>
     <row r="1372" spans="1:4">
+      <c r="A1372">
+        <v>1</v>
+      </c>
       <c r="B1372" t="s">
         <v>50</v>
       </c>
@@ -54530,6 +55526,9 @@
       </c>
     </row>
     <row r="1373" spans="1:4">
+      <c r="A1373">
+        <v>1</v>
+      </c>
       <c r="B1373" t="s">
         <v>50</v>
       </c>
@@ -54555,6 +55554,9 @@
       </c>
     </row>
     <row r="1375" spans="1:4">
+      <c r="A1375">
+        <v>1</v>
+      </c>
       <c r="B1375" t="s">
         <v>47</v>
       </c>
@@ -54566,6 +55568,9 @@
       </c>
     </row>
     <row r="1376" spans="1:4">
+      <c r="A1376">
+        <v>1</v>
+      </c>
       <c r="B1376" t="s">
         <v>47</v>
       </c>
@@ -54576,7 +55581,10 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="1377" spans="2:4">
+    <row r="1377" spans="1:4">
+      <c r="A1377">
+        <v>1</v>
+      </c>
       <c r="B1377" t="s">
         <v>47</v>
       </c>
@@ -54587,7 +55595,10 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="1378" spans="2:4">
+    <row r="1378" spans="1:4">
+      <c r="A1378">
+        <v>1</v>
+      </c>
       <c r="B1378" t="s">
         <v>47</v>
       </c>
@@ -54598,7 +55609,10 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="1379" spans="2:4">
+    <row r="1379" spans="1:4">
+      <c r="A1379">
+        <v>1</v>
+      </c>
       <c r="B1379" t="s">
         <v>47</v>
       </c>
@@ -54609,7 +55623,10 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="1380" spans="2:4">
+    <row r="1380" spans="1:4">
+      <c r="A1380">
+        <v>1</v>
+      </c>
       <c r="B1380" t="s">
         <v>47</v>
       </c>
@@ -54620,7 +55637,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="1381" spans="2:4">
+    <row r="1381" spans="1:4">
+      <c r="A1381">
+        <v>1</v>
+      </c>
       <c r="B1381" t="s">
         <v>47</v>
       </c>
@@ -54631,7 +55651,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="1382" spans="2:4">
+    <row r="1382" spans="1:4">
+      <c r="A1382">
+        <v>1</v>
+      </c>
       <c r="B1382" t="s">
         <v>47</v>
       </c>
@@ -54642,7 +55665,10 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="1383" spans="2:4">
+    <row r="1383" spans="1:4">
+      <c r="A1383">
+        <v>1</v>
+      </c>
       <c r="B1383" t="s">
         <v>47</v>
       </c>
@@ -54653,7 +55679,10 @@
         <v>686</v>
       </c>
     </row>
-    <row r="1384" spans="2:4">
+    <row r="1384" spans="1:4">
+      <c r="A1384">
+        <v>1</v>
+      </c>
       <c r="B1384" t="s">
         <v>50</v>
       </c>
@@ -54664,7 +55693,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1385" spans="2:4">
+    <row r="1385" spans="1:4">
+      <c r="A1385">
+        <v>1</v>
+      </c>
       <c r="B1385" t="s">
         <v>47</v>
       </c>
@@ -54675,7 +55707,10 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="1386" spans="2:4">
+    <row r="1386" spans="1:4">
+      <c r="A1386">
+        <v>1</v>
+      </c>
       <c r="B1386" t="s">
         <v>47</v>
       </c>
@@ -54686,7 +55721,10 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="1387" spans="2:4">
+    <row r="1387" spans="1:4">
+      <c r="A1387">
+        <v>-1</v>
+      </c>
       <c r="B1387" t="s">
         <v>8</v>
       </c>
@@ -54697,7 +55735,10 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="1388" spans="2:4">
+    <row r="1388" spans="1:4">
+      <c r="A1388">
+        <v>-1</v>
+      </c>
       <c r="B1388" t="s">
         <v>8</v>
       </c>
@@ -54708,7 +55749,10 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="1389" spans="2:4">
+    <row r="1389" spans="1:4">
+      <c r="A1389">
+        <v>-1</v>
+      </c>
       <c r="B1389" t="s">
         <v>50</v>
       </c>
@@ -54719,7 +55763,10 @@
         <v>708</v>
       </c>
     </row>
-    <row r="1390" spans="2:4">
+    <row r="1390" spans="1:4">
+      <c r="A1390">
+        <v>1</v>
+      </c>
       <c r="B1390" t="s">
         <v>47</v>
       </c>
@@ -54730,7 +55777,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1391" spans="2:4">
+    <row r="1391" spans="1:4">
+      <c r="A1391">
+        <v>1</v>
+      </c>
       <c r="B1391" t="s">
         <v>47</v>
       </c>
@@ -54741,7 +55791,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="1392" spans="2:4">
+    <row r="1392" spans="1:4">
+      <c r="A1392">
+        <v>1</v>
+      </c>
       <c r="B1392" t="s">
         <v>47</v>
       </c>
@@ -54752,7 +55805,10 @@
         <v>737</v>
       </c>
     </row>
-    <row r="1393" spans="2:4">
+    <row r="1393" spans="1:4">
+      <c r="A1393">
+        <v>1</v>
+      </c>
       <c r="B1393" t="s">
         <v>47</v>
       </c>
@@ -54763,7 +55819,10 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="1394" spans="2:4">
+    <row r="1394" spans="1:4">
+      <c r="A1394">
+        <v>-1</v>
+      </c>
       <c r="B1394" t="s">
         <v>206</v>
       </c>
@@ -54774,7 +55833,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1395" spans="2:4">
+    <row r="1395" spans="1:4">
+      <c r="A1395">
+        <v>1</v>
+      </c>
       <c r="B1395" t="s">
         <v>47</v>
       </c>
@@ -54785,7 +55847,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="1396" spans="2:4">
+    <row r="1396" spans="1:4">
+      <c r="A1396">
+        <v>1</v>
+      </c>
       <c r="B1396" t="s">
         <v>50</v>
       </c>
@@ -54796,7 +55861,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="1397" spans="2:4">
+    <row r="1397" spans="1:4">
+      <c r="A1397">
+        <v>1</v>
+      </c>
       <c r="B1397" t="s">
         <v>50</v>
       </c>
@@ -54807,7 +55875,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="1398" spans="2:4">
+    <row r="1398" spans="1:4">
+      <c r="A1398">
+        <v>1</v>
+      </c>
       <c r="B1398" t="s">
         <v>50</v>
       </c>
@@ -54818,7 +55889,10 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1399" spans="2:4">
+    <row r="1399" spans="1:4">
+      <c r="A1399">
+        <v>1</v>
+      </c>
       <c r="B1399" t="s">
         <v>50</v>
       </c>
@@ -54829,7 +55903,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="1400" spans="2:4">
+    <row r="1400" spans="1:4">
+      <c r="A1400">
+        <v>1</v>
+      </c>
       <c r="B1400" t="s">
         <v>50</v>
       </c>
@@ -54840,7 +55917,10 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="1401" spans="2:4">
+    <row r="1401" spans="1:4">
+      <c r="A1401">
+        <v>1</v>
+      </c>
       <c r="B1401" t="s">
         <v>50</v>
       </c>
@@ -54851,7 +55931,10 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1402" spans="2:4">
+    <row r="1402" spans="1:4">
+      <c r="A1402">
+        <v>1</v>
+      </c>
       <c r="B1402" t="s">
         <v>50</v>
       </c>
@@ -54862,7 +55945,10 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="1403" spans="2:4">
+    <row r="1403" spans="1:4">
+      <c r="A1403">
+        <v>1</v>
+      </c>
       <c r="B1403" t="s">
         <v>50</v>
       </c>
@@ -54873,7 +55959,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1404" spans="2:4">
+    <row r="1404" spans="1:4">
+      <c r="A1404">
+        <v>1</v>
+      </c>
       <c r="B1404" t="s">
         <v>47</v>
       </c>
@@ -54884,7 +55973,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="1405" spans="2:4">
+    <row r="1405" spans="1:4">
+      <c r="A1405">
+        <v>1</v>
+      </c>
       <c r="B1405" t="s">
         <v>47</v>
       </c>
@@ -54895,7 +55987,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="1406" spans="2:4">
+    <row r="1406" spans="1:4">
+      <c r="A1406">
+        <v>-1</v>
+      </c>
       <c r="B1406" t="s">
         <v>50</v>
       </c>
@@ -54906,7 +56001,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="1407" spans="2:4">
+    <row r="1407" spans="1:4">
+      <c r="A1407">
+        <v>1</v>
+      </c>
       <c r="B1407" t="s">
         <v>47</v>
       </c>
@@ -54917,7 +56015,10 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="1408" spans="2:4">
+    <row r="1408" spans="1:4">
+      <c r="A1408">
+        <v>-1</v>
+      </c>
       <c r="B1408" t="s">
         <v>50</v>
       </c>
@@ -54929,6 +56030,9 @@
       </c>
     </row>
     <row r="1409" spans="1:4">
+      <c r="A1409">
+        <v>1</v>
+      </c>
       <c r="B1409" t="s">
         <v>47</v>
       </c>
@@ -54954,6 +56058,9 @@
       </c>
     </row>
     <row r="1411" spans="1:4">
+      <c r="A1411">
+        <v>1</v>
+      </c>
       <c r="B1411" t="s">
         <v>50</v>
       </c>
@@ -54965,6 +56072,9 @@
       </c>
     </row>
     <row r="1412" spans="1:4">
+      <c r="A1412">
+        <v>1</v>
+      </c>
       <c r="B1412" t="s">
         <v>50</v>
       </c>
@@ -54976,6 +56086,9 @@
       </c>
     </row>
     <row r="1413" spans="1:4">
+      <c r="A1413">
+        <v>1</v>
+      </c>
       <c r="B1413" t="s">
         <v>50</v>
       </c>
@@ -54987,6 +56100,9 @@
       </c>
     </row>
     <row r="1414" spans="1:4">
+      <c r="A1414">
+        <v>1</v>
+      </c>
       <c r="B1414" t="s">
         <v>47</v>
       </c>
@@ -54998,6 +56114,9 @@
       </c>
     </row>
     <row r="1415" spans="1:4">
+      <c r="A1415">
+        <v>1</v>
+      </c>
       <c r="B1415" t="s">
         <v>47</v>
       </c>
@@ -55009,6 +56128,9 @@
       </c>
     </row>
     <row r="1416" spans="1:4">
+      <c r="A1416">
+        <v>1</v>
+      </c>
       <c r="B1416" t="s">
         <v>47</v>
       </c>
@@ -55020,6 +56142,9 @@
       </c>
     </row>
     <row r="1417" spans="1:4">
+      <c r="A1417">
+        <v>1</v>
+      </c>
       <c r="B1417" t="s">
         <v>47</v>
       </c>
@@ -55031,6 +56156,9 @@
       </c>
     </row>
     <row r="1418" spans="1:4">
+      <c r="A1418">
+        <v>1</v>
+      </c>
       <c r="B1418" t="s">
         <v>47</v>
       </c>
@@ -55042,6 +56170,9 @@
       </c>
     </row>
     <row r="1419" spans="1:4">
+      <c r="A1419">
+        <v>1</v>
+      </c>
       <c r="B1419" t="s">
         <v>47</v>
       </c>
@@ -55053,6 +56184,9 @@
       </c>
     </row>
     <row r="1420" spans="1:4">
+      <c r="A1420">
+        <v>1</v>
+      </c>
       <c r="B1420" t="s">
         <v>47</v>
       </c>
@@ -55064,6 +56198,9 @@
       </c>
     </row>
     <row r="1421" spans="1:4">
+      <c r="A1421">
+        <v>1</v>
+      </c>
       <c r="B1421" t="s">
         <v>47</v>
       </c>
@@ -55075,6 +56212,9 @@
       </c>
     </row>
     <row r="1422" spans="1:4">
+      <c r="A1422">
+        <v>1</v>
+      </c>
       <c r="B1422" t="s">
         <v>47</v>
       </c>
@@ -55086,6 +56226,9 @@
       </c>
     </row>
     <row r="1423" spans="1:4">
+      <c r="A1423">
+        <v>1</v>
+      </c>
       <c r="B1423" t="s">
         <v>54</v>
       </c>
@@ -55097,6 +56240,9 @@
       </c>
     </row>
     <row r="1424" spans="1:4">
+      <c r="A1424">
+        <v>1</v>
+      </c>
       <c r="B1424" t="s">
         <v>47</v>
       </c>
@@ -55108,6 +56254,9 @@
       </c>
     </row>
     <row r="1425" spans="1:4">
+      <c r="A1425">
+        <v>1</v>
+      </c>
       <c r="B1425" t="s">
         <v>47</v>
       </c>
@@ -55119,6 +56268,9 @@
       </c>
     </row>
     <row r="1426" spans="1:4">
+      <c r="A1426">
+        <v>-1</v>
+      </c>
       <c r="B1426" t="s">
         <v>8</v>
       </c>
@@ -55130,6 +56282,9 @@
       </c>
     </row>
     <row r="1427" spans="1:4">
+      <c r="A1427">
+        <v>1</v>
+      </c>
       <c r="B1427" t="s">
         <v>47</v>
       </c>
@@ -55155,6 +56310,9 @@
       </c>
     </row>
     <row r="1429" spans="1:4">
+      <c r="A1429">
+        <v>1</v>
+      </c>
       <c r="B1429" t="s">
         <v>47</v>
       </c>
@@ -55166,6 +56324,9 @@
       </c>
     </row>
     <row r="1430" spans="1:4">
+      <c r="A1430">
+        <v>1</v>
+      </c>
       <c r="B1430" t="s">
         <v>50</v>
       </c>
@@ -55177,6 +56338,9 @@
       </c>
     </row>
     <row r="1431" spans="1:4">
+      <c r="A1431">
+        <v>1</v>
+      </c>
       <c r="B1431" t="s">
         <v>50</v>
       </c>
@@ -55188,6 +56352,9 @@
       </c>
     </row>
     <row r="1432" spans="1:4">
+      <c r="A1432">
+        <v>1</v>
+      </c>
       <c r="B1432" t="s">
         <v>206</v>
       </c>
@@ -55199,6 +56366,9 @@
       </c>
     </row>
     <row r="1433" spans="1:4">
+      <c r="A1433">
+        <v>1</v>
+      </c>
       <c r="B1433" t="s">
         <v>47</v>
       </c>
@@ -55210,6 +56380,9 @@
       </c>
     </row>
     <row r="1434" spans="1:4">
+      <c r="A1434">
+        <v>1</v>
+      </c>
       <c r="B1434" t="s">
         <v>47</v>
       </c>
@@ -55221,6 +56394,9 @@
       </c>
     </row>
     <row r="1435" spans="1:4">
+      <c r="A1435">
+        <v>1</v>
+      </c>
       <c r="B1435" t="s">
         <v>47</v>
       </c>
@@ -55232,6 +56408,9 @@
       </c>
     </row>
     <row r="1436" spans="1:4">
+      <c r="A1436">
+        <v>-1</v>
+      </c>
       <c r="B1436" t="s">
         <v>8</v>
       </c>
@@ -55243,6 +56422,9 @@
       </c>
     </row>
     <row r="1437" spans="1:4">
+      <c r="A1437">
+        <v>1</v>
+      </c>
       <c r="B1437" t="s">
         <v>47</v>
       </c>
@@ -55254,6 +56436,9 @@
       </c>
     </row>
     <row r="1438" spans="1:4">
+      <c r="A1438">
+        <v>-1</v>
+      </c>
       <c r="B1438" t="s">
         <v>579</v>
       </c>
@@ -55265,6 +56450,9 @@
       </c>
     </row>
     <row r="1439" spans="1:4">
+      <c r="A1439">
+        <v>1</v>
+      </c>
       <c r="B1439" t="s">
         <v>47</v>
       </c>
@@ -55276,6 +56464,9 @@
       </c>
     </row>
     <row r="1440" spans="1:4">
+      <c r="A1440">
+        <v>1</v>
+      </c>
       <c r="B1440" t="s">
         <v>47</v>
       </c>
@@ -55287,6 +56478,9 @@
       </c>
     </row>
     <row r="1441" spans="1:4">
+      <c r="A1441">
+        <v>1</v>
+      </c>
       <c r="B1441" t="s">
         <v>47</v>
       </c>
@@ -55298,6 +56492,9 @@
       </c>
     </row>
     <row r="1442" spans="1:4">
+      <c r="A1442">
+        <v>1</v>
+      </c>
       <c r="B1442" t="s">
         <v>47</v>
       </c>
@@ -55323,6 +56520,9 @@
       </c>
     </row>
     <row r="1444" spans="1:4">
+      <c r="A1444">
+        <v>1</v>
+      </c>
       <c r="B1444" t="s">
         <v>47</v>
       </c>
@@ -55334,6 +56534,9 @@
       </c>
     </row>
     <row r="1445" spans="1:4">
+      <c r="A1445">
+        <v>1</v>
+      </c>
       <c r="B1445" t="s">
         <v>47</v>
       </c>
@@ -55345,6 +56548,9 @@
       </c>
     </row>
     <row r="1446" spans="1:4">
+      <c r="A1446">
+        <v>1</v>
+      </c>
       <c r="B1446" t="s">
         <v>47</v>
       </c>
@@ -55356,6 +56562,9 @@
       </c>
     </row>
     <row r="1447" spans="1:4">
+      <c r="A1447">
+        <v>1</v>
+      </c>
       <c r="B1447" t="s">
         <v>47</v>
       </c>
@@ -55367,6 +56576,9 @@
       </c>
     </row>
     <row r="1448" spans="1:4">
+      <c r="A1448">
+        <v>1</v>
+      </c>
       <c r="B1448" t="s">
         <v>47</v>
       </c>
@@ -55378,6 +56590,9 @@
       </c>
     </row>
     <row r="1449" spans="1:4">
+      <c r="A1449">
+        <v>1</v>
+      </c>
       <c r="B1449" t="s">
         <v>50</v>
       </c>
@@ -55389,6 +56604,9 @@
       </c>
     </row>
     <row r="1450" spans="1:4">
+      <c r="A1450">
+        <v>1</v>
+      </c>
       <c r="B1450" t="s">
         <v>47</v>
       </c>
@@ -55400,6 +56618,9 @@
       </c>
     </row>
     <row r="1451" spans="1:4">
+      <c r="A1451">
+        <v>1</v>
+      </c>
       <c r="B1451" t="s">
         <v>47</v>
       </c>
@@ -55411,6 +56632,9 @@
       </c>
     </row>
     <row r="1452" spans="1:4">
+      <c r="A1452">
+        <v>1</v>
+      </c>
       <c r="B1452" t="s">
         <v>47</v>
       </c>
@@ -55422,6 +56646,9 @@
       </c>
     </row>
     <row r="1453" spans="1:4">
+      <c r="A1453">
+        <v>1</v>
+      </c>
       <c r="B1453" t="s">
         <v>47</v>
       </c>
@@ -55433,6 +56660,9 @@
       </c>
     </row>
     <row r="1454" spans="1:4">
+      <c r="A1454">
+        <v>1</v>
+      </c>
       <c r="B1454" t="s">
         <v>47</v>
       </c>
@@ -55444,6 +56674,9 @@
       </c>
     </row>
     <row r="1455" spans="1:4">
+      <c r="A1455">
+        <v>1</v>
+      </c>
       <c r="B1455" t="s">
         <v>54</v>
       </c>
@@ -55455,6 +56688,9 @@
       </c>
     </row>
     <row r="1456" spans="1:4">
+      <c r="A1456">
+        <v>1</v>
+      </c>
       <c r="B1456" t="s">
         <v>47</v>
       </c>
@@ -55466,6 +56702,9 @@
       </c>
     </row>
     <row r="1457" spans="1:4">
+      <c r="A1457">
+        <v>1</v>
+      </c>
       <c r="B1457" t="s">
         <v>50</v>
       </c>
@@ -55477,6 +56716,9 @@
       </c>
     </row>
     <row r="1458" spans="1:4">
+      <c r="A1458">
+        <v>1</v>
+      </c>
       <c r="B1458" t="s">
         <v>50</v>
       </c>
@@ -55488,6 +56730,9 @@
       </c>
     </row>
     <row r="1459" spans="1:4">
+      <c r="A1459">
+        <v>-1</v>
+      </c>
       <c r="B1459" t="s">
         <v>50</v>
       </c>
@@ -55499,6 +56744,9 @@
       </c>
     </row>
     <row r="1460" spans="1:4">
+      <c r="A1460">
+        <v>1</v>
+      </c>
       <c r="B1460" t="s">
         <v>382</v>
       </c>
@@ -55510,6 +56758,9 @@
       </c>
     </row>
     <row r="1461" spans="1:4">
+      <c r="A1461">
+        <v>1</v>
+      </c>
       <c r="B1461" t="s">
         <v>47</v>
       </c>
@@ -55521,6 +56772,9 @@
       </c>
     </row>
     <row r="1462" spans="1:4">
+      <c r="A1462">
+        <v>1</v>
+      </c>
       <c r="B1462" t="s">
         <v>47</v>
       </c>
@@ -55532,6 +56786,9 @@
       </c>
     </row>
     <row r="1463" spans="1:4">
+      <c r="A1463">
+        <v>1</v>
+      </c>
       <c r="B1463" t="s">
         <v>50</v>
       </c>
@@ -55543,6 +56800,9 @@
       </c>
     </row>
     <row r="1464" spans="1:4">
+      <c r="A1464">
+        <v>1</v>
+      </c>
       <c r="B1464" t="s">
         <v>47</v>
       </c>
@@ -55554,6 +56814,9 @@
       </c>
     </row>
     <row r="1465" spans="1:4">
+      <c r="A1465">
+        <v>1</v>
+      </c>
       <c r="B1465" t="s">
         <v>47</v>
       </c>
@@ -55565,6 +56828,9 @@
       </c>
     </row>
     <row r="1466" spans="1:4">
+      <c r="A1466">
+        <v>1</v>
+      </c>
       <c r="B1466" t="s">
         <v>47</v>
       </c>
@@ -55576,6 +56842,9 @@
       </c>
     </row>
     <row r="1467" spans="1:4">
+      <c r="A1467">
+        <v>1</v>
+      </c>
       <c r="B1467" t="s">
         <v>47</v>
       </c>
@@ -55629,6 +56898,9 @@
       </c>
     </row>
     <row r="1471" spans="1:4">
+      <c r="A1471">
+        <v>1</v>
+      </c>
       <c r="B1471" t="s">
         <v>47</v>
       </c>
@@ -55640,6 +56912,9 @@
       </c>
     </row>
     <row r="1472" spans="1:4">
+      <c r="A1472">
+        <v>1</v>
+      </c>
       <c r="B1472" t="s">
         <v>47</v>
       </c>
@@ -55651,6 +56926,9 @@
       </c>
     </row>
     <row r="1473" spans="1:4">
+      <c r="A1473">
+        <v>1</v>
+      </c>
       <c r="B1473" t="s">
         <v>47</v>
       </c>
@@ -55676,6 +56954,9 @@
       </c>
     </row>
     <row r="1475" spans="1:4">
+      <c r="A1475">
+        <v>1</v>
+      </c>
       <c r="B1475" t="s">
         <v>47</v>
       </c>
@@ -55687,6 +56968,9 @@
       </c>
     </row>
     <row r="1476" spans="1:4">
+      <c r="A1476">
+        <v>1</v>
+      </c>
       <c r="B1476" t="s">
         <v>47</v>
       </c>
@@ -55698,6 +56982,9 @@
       </c>
     </row>
     <row r="1477" spans="1:4">
+      <c r="A1477">
+        <v>1</v>
+      </c>
       <c r="B1477" t="s">
         <v>47</v>
       </c>
@@ -55723,6 +57010,9 @@
       </c>
     </row>
     <row r="1479" spans="1:4">
+      <c r="A1479">
+        <v>-1</v>
+      </c>
       <c r="B1479" t="s">
         <v>8</v>
       </c>
@@ -55762,6 +57052,9 @@
       </c>
     </row>
     <row r="1482" spans="1:4">
+      <c r="A1482">
+        <v>1</v>
+      </c>
       <c r="B1482" t="s">
         <v>47</v>
       </c>
@@ -55773,6 +57066,9 @@
       </c>
     </row>
     <row r="1483" spans="1:4">
+      <c r="A1483">
+        <v>1</v>
+      </c>
       <c r="B1483" t="s">
         <v>47</v>
       </c>
@@ -55784,6 +57080,9 @@
       </c>
     </row>
     <row r="1484" spans="1:4">
+      <c r="A1484">
+        <v>1</v>
+      </c>
       <c r="B1484" t="s">
         <v>47</v>
       </c>
@@ -55795,6 +57094,9 @@
       </c>
     </row>
     <row r="1485" spans="1:4">
+      <c r="A1485">
+        <v>1</v>
+      </c>
       <c r="B1485" t="s">
         <v>47</v>
       </c>
@@ -55806,6 +57108,9 @@
       </c>
     </row>
     <row r="1486" spans="1:4">
+      <c r="A1486">
+        <v>1</v>
+      </c>
       <c r="B1486" t="s">
         <v>47</v>
       </c>
@@ -55817,6 +57122,9 @@
       </c>
     </row>
     <row r="1487" spans="1:4">
+      <c r="A1487">
+        <v>1</v>
+      </c>
       <c r="B1487" t="s">
         <v>47</v>
       </c>
@@ -55828,6 +57136,9 @@
       </c>
     </row>
     <row r="1488" spans="1:4">
+      <c r="A1488">
+        <v>1</v>
+      </c>
       <c r="B1488" t="s">
         <v>47</v>
       </c>
@@ -55838,7 +57149,10 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="1489" spans="2:4">
+    <row r="1489" spans="1:4">
+      <c r="A1489">
+        <v>1</v>
+      </c>
       <c r="B1489" t="s">
         <v>47</v>
       </c>
@@ -55849,7 +57163,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="1490" spans="2:4">
+    <row r="1490" spans="1:4">
+      <c r="A1490">
+        <v>1</v>
+      </c>
       <c r="B1490" t="s">
         <v>47</v>
       </c>
@@ -55860,7 +57177,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1491" spans="2:4">
+    <row r="1491" spans="1:4">
+      <c r="A1491">
+        <v>-1</v>
+      </c>
       <c r="B1491" t="s">
         <v>15</v>
       </c>
@@ -55871,7 +57191,10 @@
         <v>912</v>
       </c>
     </row>
-    <row r="1492" spans="2:4">
+    <row r="1492" spans="1:4">
+      <c r="A1492">
+        <v>1</v>
+      </c>
       <c r="B1492" t="s">
         <v>47</v>
       </c>
@@ -55882,7 +57205,10 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="1493" spans="2:4">
+    <row r="1493" spans="1:4">
+      <c r="A1493">
+        <v>1</v>
+      </c>
       <c r="B1493" t="s">
         <v>47</v>
       </c>
@@ -55893,7 +57219,10 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1494" spans="2:4">
+    <row r="1494" spans="1:4">
+      <c r="A1494">
+        <v>1</v>
+      </c>
       <c r="B1494" t="s">
         <v>47</v>
       </c>
@@ -55904,7 +57233,10 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1495" spans="2:4">
+    <row r="1495" spans="1:4">
+      <c r="A1495">
+        <v>1</v>
+      </c>
       <c r="B1495" t="s">
         <v>47</v>
       </c>
@@ -55915,7 +57247,10 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="1496" spans="2:4">
+    <row r="1496" spans="1:4">
+      <c r="A1496">
+        <v>1</v>
+      </c>
       <c r="B1496" t="s">
         <v>47</v>
       </c>
@@ -55926,7 +57261,10 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="1497" spans="2:4">
+    <row r="1497" spans="1:4">
+      <c r="A1497">
+        <v>1</v>
+      </c>
       <c r="B1497" t="s">
         <v>54</v>
       </c>
@@ -55937,7 +57275,10 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="1498" spans="2:4">
+    <row r="1498" spans="1:4">
+      <c r="A1498">
+        <v>1</v>
+      </c>
       <c r="B1498" t="s">
         <v>47</v>
       </c>
@@ -55948,7 +57289,10 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="1499" spans="2:4">
+    <row r="1499" spans="1:4">
+      <c r="A1499">
+        <v>1</v>
+      </c>
       <c r="B1499" t="s">
         <v>47</v>
       </c>
@@ -55959,7 +57303,10 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1500" spans="2:4">
+    <row r="1500" spans="1:4">
+      <c r="A1500">
+        <v>1</v>
+      </c>
       <c r="B1500" t="s">
         <v>54</v>
       </c>
@@ -55970,7 +57317,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1501" spans="2:4">
+    <row r="1501" spans="1:4">
+      <c r="A1501">
+        <v>1</v>
+      </c>
       <c r="B1501" t="s">
         <v>47</v>
       </c>
@@ -55981,7 +57331,10 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="1502" spans="2:4">
+    <row r="1502" spans="1:4">
+      <c r="A1502">
+        <v>1</v>
+      </c>
       <c r="B1502" t="s">
         <v>47</v>
       </c>
@@ -55992,7 +57345,10 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1503" spans="2:4">
+    <row r="1503" spans="1:4">
+      <c r="A1503">
+        <v>1</v>
+      </c>
       <c r="B1503" t="s">
         <v>47</v>
       </c>
@@ -56003,7 +57359,10 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1504" spans="2:4">
+    <row r="1504" spans="1:4">
+      <c r="A1504">
+        <v>1</v>
+      </c>
       <c r="B1504" t="s">
         <v>50</v>
       </c>
@@ -56015,6 +57374,9 @@
       </c>
     </row>
     <row r="1505" spans="1:4">
+      <c r="A1505">
+        <v>1</v>
+      </c>
       <c r="B1505" t="s">
         <v>47</v>
       </c>
@@ -56026,6 +57388,9 @@
       </c>
     </row>
     <row r="1506" spans="1:4">
+      <c r="A1506">
+        <v>1</v>
+      </c>
       <c r="B1506" t="s">
         <v>80</v>
       </c>
@@ -56037,6 +57402,9 @@
       </c>
     </row>
     <row r="1507" spans="1:4">
+      <c r="A1507">
+        <v>1</v>
+      </c>
       <c r="B1507" t="s">
         <v>136</v>
       </c>
@@ -56048,6 +57416,9 @@
       </c>
     </row>
     <row r="1508" spans="1:4">
+      <c r="A1508">
+        <v>1</v>
+      </c>
       <c r="B1508" t="s">
         <v>47</v>
       </c>
@@ -56059,6 +57430,9 @@
       </c>
     </row>
     <row r="1509" spans="1:4">
+      <c r="A1509">
+        <v>1</v>
+      </c>
       <c r="B1509" t="s">
         <v>47</v>
       </c>
@@ -56070,6 +57444,9 @@
       </c>
     </row>
     <row r="1510" spans="1:4">
+      <c r="A1510">
+        <v>1</v>
+      </c>
       <c r="B1510" t="s">
         <v>206</v>
       </c>
@@ -56095,6 +57472,9 @@
       </c>
     </row>
     <row r="1512" spans="1:4">
+      <c r="A1512">
+        <v>1</v>
+      </c>
       <c r="B1512" t="s">
         <v>47</v>
       </c>
@@ -56120,6 +57500,9 @@
       </c>
     </row>
     <row r="1514" spans="1:4">
+      <c r="A1514">
+        <v>1</v>
+      </c>
       <c r="B1514" t="s">
         <v>206</v>
       </c>
@@ -56131,6 +57514,9 @@
       </c>
     </row>
     <row r="1515" spans="1:4">
+      <c r="A1515">
+        <v>1</v>
+      </c>
       <c r="B1515" t="s">
         <v>47</v>
       </c>
@@ -56142,6 +57528,9 @@
       </c>
     </row>
     <row r="1516" spans="1:4">
+      <c r="A1516">
+        <v>1</v>
+      </c>
       <c r="B1516" t="s">
         <v>47</v>
       </c>
@@ -56153,6 +57542,9 @@
       </c>
     </row>
     <row r="1517" spans="1:4">
+      <c r="A1517">
+        <v>1</v>
+      </c>
       <c r="B1517" t="s">
         <v>47</v>
       </c>
@@ -56164,6 +57556,9 @@
       </c>
     </row>
     <row r="1518" spans="1:4">
+      <c r="A1518">
+        <v>1</v>
+      </c>
       <c r="B1518" t="s">
         <v>47</v>
       </c>
@@ -56175,6 +57570,9 @@
       </c>
     </row>
     <row r="1519" spans="1:4">
+      <c r="A1519">
+        <v>1</v>
+      </c>
       <c r="B1519" t="s">
         <v>47</v>
       </c>
@@ -56186,6 +57584,9 @@
       </c>
     </row>
     <row r="1520" spans="1:4">
+      <c r="A1520">
+        <v>1</v>
+      </c>
       <c r="B1520" t="s">
         <v>193</v>
       </c>
@@ -56196,7 +57597,10 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="1521" spans="2:4">
+    <row r="1521" spans="1:4">
+      <c r="A1521">
+        <v>1</v>
+      </c>
       <c r="B1521" t="s">
         <v>47</v>
       </c>
@@ -56207,7 +57611,10 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="1522" spans="2:4">
+    <row r="1522" spans="1:4">
+      <c r="A1522">
+        <v>-1</v>
+      </c>
       <c r="B1522" t="s">
         <v>397</v>
       </c>
@@ -56218,7 +57625,10 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="1523" spans="2:4">
+    <row r="1523" spans="1:4">
+      <c r="A1523">
+        <v>1</v>
+      </c>
       <c r="B1523" t="s">
         <v>47</v>
       </c>
@@ -56229,7 +57639,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="1524" spans="2:4">
+    <row r="1524" spans="1:4">
+      <c r="A1524">
+        <v>1</v>
+      </c>
       <c r="B1524" t="s">
         <v>44</v>
       </c>
@@ -56240,7 +57653,10 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="1525" spans="2:4">
+    <row r="1525" spans="1:4">
+      <c r="A1525">
+        <v>1</v>
+      </c>
       <c r="B1525" t="s">
         <v>148</v>
       </c>
@@ -56251,7 +57667,10 @@
         <v>904</v>
       </c>
     </row>
-    <row r="1526" spans="2:4">
+    <row r="1526" spans="1:4">
+      <c r="A1526">
+        <v>1</v>
+      </c>
       <c r="B1526" t="s">
         <v>50</v>
       </c>
@@ -56262,7 +57681,10 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1527" spans="2:4">
+    <row r="1527" spans="1:4">
+      <c r="A1527">
+        <v>1</v>
+      </c>
       <c r="B1527" t="s">
         <v>4</v>
       </c>
@@ -56273,7 +57695,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1528" spans="2:4">
+    <row r="1528" spans="1:4">
+      <c r="A1528">
+        <v>1</v>
+      </c>
       <c r="B1528" t="s">
         <v>47</v>
       </c>
@@ -56284,7 +57709,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="1529" spans="2:4">
+    <row r="1529" spans="1:4">
+      <c r="A1529">
+        <v>1</v>
+      </c>
       <c r="B1529" t="s">
         <v>50</v>
       </c>
@@ -56295,7 +57723,10 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="1530" spans="2:4">
+    <row r="1530" spans="1:4">
+      <c r="A1530">
+        <v>1</v>
+      </c>
       <c r="B1530" t="s">
         <v>133</v>
       </c>
@@ -56306,7 +57737,10 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="1531" spans="2:4">
+    <row r="1531" spans="1:4">
+      <c r="A1531">
+        <v>1</v>
+      </c>
       <c r="B1531" t="s">
         <v>206</v>
       </c>
@@ -56317,7 +57751,10 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="1532" spans="2:4">
+    <row r="1532" spans="1:4">
+      <c r="A1532">
+        <v>1</v>
+      </c>
       <c r="B1532" t="s">
         <v>8</v>
       </c>
@@ -56328,7 +57765,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="1533" spans="2:4">
+    <row r="1533" spans="1:4">
+      <c r="A1533">
+        <v>1</v>
+      </c>
       <c r="B1533" t="s">
         <v>44</v>
       </c>
@@ -56339,7 +57779,10 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1534" spans="2:4">
+    <row r="1534" spans="1:4">
+      <c r="A1534">
+        <v>1</v>
+      </c>
       <c r="B1534" t="s">
         <v>4</v>
       </c>
@@ -56350,7 +57793,10 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="1535" spans="2:4">
+    <row r="1535" spans="1:4">
+      <c r="A1535">
+        <v>1</v>
+      </c>
       <c r="B1535" t="s">
         <v>90</v>
       </c>
@@ -56361,7 +57807,10 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="1536" spans="2:4">
+    <row r="1536" spans="1:4">
+      <c r="A1536">
+        <v>1</v>
+      </c>
       <c r="B1536" t="s">
         <v>50</v>
       </c>
@@ -56372,7 +57821,10 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="1537" spans="2:4">
+    <row r="1537" spans="1:4">
+      <c r="A1537">
+        <v>-1</v>
+      </c>
       <c r="B1537" t="s">
         <v>206</v>
       </c>
@@ -56383,7 +57835,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1538" spans="2:4">
+    <row r="1538" spans="1:4">
+      <c r="A1538">
+        <v>-1</v>
+      </c>
       <c r="B1538" t="s">
         <v>50</v>
       </c>
@@ -56394,7 +57849,10 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1539" spans="2:4">
+    <row r="1539" spans="1:4">
+      <c r="A1539">
+        <v>1</v>
+      </c>
       <c r="B1539" t="s">
         <v>47</v>
       </c>
@@ -56405,7 +57863,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="1540" spans="2:4">
+    <row r="1540" spans="1:4">
+      <c r="A1540">
+        <v>1</v>
+      </c>
       <c r="B1540" t="s">
         <v>47</v>
       </c>
@@ -56416,7 +57877,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="1541" spans="2:4">
+    <row r="1541" spans="1:4">
+      <c r="A1541">
+        <v>1</v>
+      </c>
       <c r="B1541" t="s">
         <v>47</v>
       </c>
@@ -56427,7 +57891,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="1542" spans="2:4">
+    <row r="1542" spans="1:4">
+      <c r="A1542">
+        <v>1</v>
+      </c>
       <c r="B1542" t="s">
         <v>47</v>
       </c>
@@ -56438,7 +57905,10 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="1543" spans="2:4">
+    <row r="1543" spans="1:4">
+      <c r="A1543">
+        <v>1</v>
+      </c>
       <c r="B1543" t="s">
         <v>47</v>
       </c>
@@ -56449,7 +57919,10 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="1544" spans="2:4">
+    <row r="1544" spans="1:4">
+      <c r="A1544">
+        <v>1</v>
+      </c>
       <c r="B1544" t="s">
         <v>206</v>
       </c>
@@ -56460,7 +57933,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1545" spans="2:4">
+    <row r="1545" spans="1:4">
+      <c r="A1545">
+        <v>1</v>
+      </c>
       <c r="B1545" t="s">
         <v>4</v>
       </c>
@@ -56471,7 +57947,10 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1546" spans="2:4">
+    <row r="1546" spans="1:4">
+      <c r="A1546">
+        <v>1</v>
+      </c>
       <c r="B1546" t="s">
         <v>193</v>
       </c>
@@ -56482,7 +57961,10 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="1547" spans="2:4">
+    <row r="1547" spans="1:4">
+      <c r="A1547">
+        <v>1</v>
+      </c>
       <c r="B1547" t="s">
         <v>193</v>
       </c>
@@ -56493,7 +57975,10 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1548" spans="2:4">
+    <row r="1548" spans="1:4">
+      <c r="A1548">
+        <v>1</v>
+      </c>
       <c r="B1548" t="s">
         <v>76</v>
       </c>
@@ -56504,7 +57989,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="1549" spans="2:4">
+    <row r="1549" spans="1:4">
+      <c r="A1549">
+        <v>1</v>
+      </c>
       <c r="B1549" t="s">
         <v>8</v>
       </c>
@@ -56515,7 +58003,10 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="1550" spans="2:4">
+    <row r="1550" spans="1:4">
+      <c r="A1550">
+        <v>1</v>
+      </c>
       <c r="B1550" t="s">
         <v>8</v>
       </c>
@@ -56526,7 +58017,10 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="1551" spans="2:4">
+    <row r="1551" spans="1:4">
+      <c r="A1551">
+        <v>1</v>
+      </c>
       <c r="B1551" t="s">
         <v>8</v>
       </c>
@@ -56537,7 +58031,10 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="1552" spans="2:4">
+    <row r="1552" spans="1:4">
+      <c r="A1552">
+        <v>1</v>
+      </c>
       <c r="B1552" t="s">
         <v>47</v>
       </c>
@@ -56549,6 +58046,9 @@
       </c>
     </row>
     <row r="1553" spans="1:4">
+      <c r="A1553">
+        <v>1</v>
+      </c>
       <c r="B1553" t="s">
         <v>579</v>
       </c>
@@ -56560,6 +58060,9 @@
       </c>
     </row>
     <row r="1554" spans="1:4">
+      <c r="A1554">
+        <v>1</v>
+      </c>
       <c r="B1554" t="s">
         <v>148</v>
       </c>
@@ -56571,6 +58074,9 @@
       </c>
     </row>
     <row r="1555" spans="1:4">
+      <c r="A1555">
+        <v>1</v>
+      </c>
       <c r="B1555" t="s">
         <v>148</v>
       </c>
@@ -56582,6 +58088,9 @@
       </c>
     </row>
     <row r="1556" spans="1:4">
+      <c r="A1556">
+        <v>1</v>
+      </c>
       <c r="B1556" t="s">
         <v>44</v>
       </c>
@@ -56593,6 +58102,9 @@
       </c>
     </row>
     <row r="1557" spans="1:4">
+      <c r="A1557">
+        <v>1</v>
+      </c>
       <c r="B1557" t="s">
         <v>15</v>
       </c>
@@ -56604,6 +58116,9 @@
       </c>
     </row>
     <row r="1558" spans="1:4">
+      <c r="A1558">
+        <v>1</v>
+      </c>
       <c r="B1558" t="s">
         <v>148</v>
       </c>
@@ -56615,6 +58130,9 @@
       </c>
     </row>
     <row r="1559" spans="1:4">
+      <c r="A1559">
+        <v>1</v>
+      </c>
       <c r="B1559" t="s">
         <v>90</v>
       </c>
@@ -56626,6 +58144,9 @@
       </c>
     </row>
     <row r="1560" spans="1:4">
+      <c r="A1560">
+        <v>1</v>
+      </c>
       <c r="B1560" t="s">
         <v>206</v>
       </c>
@@ -56637,6 +58158,9 @@
       </c>
     </row>
     <row r="1561" spans="1:4">
+      <c r="A1561">
+        <v>1</v>
+      </c>
       <c r="B1561" t="s">
         <v>193</v>
       </c>
@@ -56648,6 +58172,9 @@
       </c>
     </row>
     <row r="1562" spans="1:4">
+      <c r="A1562">
+        <v>1</v>
+      </c>
       <c r="B1562" t="s">
         <v>193</v>
       </c>
@@ -56659,6 +58186,9 @@
       </c>
     </row>
     <row r="1563" spans="1:4">
+      <c r="A1563">
+        <v>1</v>
+      </c>
       <c r="B1563" t="s">
         <v>193</v>
       </c>
@@ -56670,6 +58200,9 @@
       </c>
     </row>
     <row r="1564" spans="1:4">
+      <c r="A1564">
+        <v>1</v>
+      </c>
       <c r="B1564" t="s">
         <v>193</v>
       </c>
@@ -56681,6 +58214,9 @@
       </c>
     </row>
     <row r="1565" spans="1:4">
+      <c r="A1565">
+        <v>1</v>
+      </c>
       <c r="B1565" t="s">
         <v>15</v>
       </c>
@@ -56692,6 +58228,9 @@
       </c>
     </row>
     <row r="1566" spans="1:4">
+      <c r="A1566">
+        <v>1</v>
+      </c>
       <c r="B1566" t="s">
         <v>47</v>
       </c>
@@ -56703,6 +58242,9 @@
       </c>
     </row>
     <row r="1567" spans="1:4">
+      <c r="A1567">
+        <v>1</v>
+      </c>
       <c r="B1567" t="s">
         <v>44</v>
       </c>
@@ -56728,6 +58270,9 @@
       </c>
     </row>
     <row r="1569" spans="1:4">
+      <c r="A1569">
+        <v>1</v>
+      </c>
       <c r="B1569" t="s">
         <v>8</v>
       </c>
@@ -56739,6 +58284,9 @@
       </c>
     </row>
     <row r="1570" spans="1:4">
+      <c r="A1570">
+        <v>-1</v>
+      </c>
       <c r="B1570" t="s">
         <v>50</v>
       </c>
@@ -56750,6 +58298,9 @@
       </c>
     </row>
     <row r="1571" spans="1:4">
+      <c r="A1571">
+        <v>1</v>
+      </c>
       <c r="B1571" t="s">
         <v>4</v>
       </c>
@@ -56761,6 +58312,9 @@
       </c>
     </row>
     <row r="1572" spans="1:4">
+      <c r="A1572">
+        <v>1</v>
+      </c>
       <c r="B1572" t="s">
         <v>63</v>
       </c>
@@ -56772,6 +58326,9 @@
       </c>
     </row>
     <row r="1573" spans="1:4">
+      <c r="A1573">
+        <v>1</v>
+      </c>
       <c r="B1573" t="s">
         <v>148</v>
       </c>
@@ -56783,6 +58340,9 @@
       </c>
     </row>
     <row r="1574" spans="1:4">
+      <c r="A1574">
+        <v>1</v>
+      </c>
       <c r="B1574" t="s">
         <v>8</v>
       </c>
@@ -56794,6 +58354,9 @@
       </c>
     </row>
     <row r="1575" spans="1:4">
+      <c r="A1575">
+        <v>1</v>
+      </c>
       <c r="B1575" t="s">
         <v>76</v>
       </c>
@@ -56805,6 +58368,9 @@
       </c>
     </row>
     <row r="1576" spans="1:4">
+      <c r="A1576">
+        <v>1</v>
+      </c>
       <c r="B1576" t="s">
         <v>63</v>
       </c>
@@ -56816,6 +58382,9 @@
       </c>
     </row>
     <row r="1577" spans="1:4">
+      <c r="A1577">
+        <v>1</v>
+      </c>
       <c r="B1577" t="s">
         <v>206</v>
       </c>
@@ -56855,6 +58424,9 @@
       </c>
     </row>
     <row r="1580" spans="1:4">
+      <c r="A1580">
+        <v>1</v>
+      </c>
       <c r="B1580" t="s">
         <v>8</v>
       </c>
@@ -56866,6 +58438,9 @@
       </c>
     </row>
     <row r="1581" spans="1:4">
+      <c r="A1581">
+        <v>1</v>
+      </c>
       <c r="B1581" t="s">
         <v>44</v>
       </c>
@@ -56877,6 +58452,9 @@
       </c>
     </row>
     <row r="1582" spans="1:4">
+      <c r="A1582">
+        <v>1</v>
+      </c>
       <c r="B1582" t="s">
         <v>44</v>
       </c>
@@ -56888,6 +58466,9 @@
       </c>
     </row>
     <row r="1583" spans="1:4">
+      <c r="A1583">
+        <v>1</v>
+      </c>
       <c r="B1583" t="s">
         <v>136</v>
       </c>
@@ -56899,6 +58480,9 @@
       </c>
     </row>
     <row r="1584" spans="1:4">
+      <c r="A1584">
+        <v>1</v>
+      </c>
       <c r="B1584" t="s">
         <v>44</v>
       </c>
@@ -56924,6 +58508,9 @@
       </c>
     </row>
     <row r="1586" spans="1:4">
+      <c r="A1586">
+        <v>1</v>
+      </c>
       <c r="B1586" t="s">
         <v>107</v>
       </c>
@@ -56935,6 +58522,9 @@
       </c>
     </row>
     <row r="1587" spans="1:4">
+      <c r="A1587">
+        <v>1</v>
+      </c>
       <c r="B1587" t="s">
         <v>47</v>
       </c>
@@ -56960,6 +58550,9 @@
       </c>
     </row>
     <row r="1589" spans="1:4">
+      <c r="A1589">
+        <v>1</v>
+      </c>
       <c r="B1589" t="s">
         <v>253</v>
       </c>
@@ -56985,6 +58578,9 @@
       </c>
     </row>
     <row r="1591" spans="1:4">
+      <c r="A1591">
+        <v>1</v>
+      </c>
       <c r="B1591" t="s">
         <v>8</v>
       </c>
@@ -56996,6 +58592,9 @@
       </c>
     </row>
     <row r="1592" spans="1:4">
+      <c r="A1592">
+        <v>1</v>
+      </c>
       <c r="B1592" t="s">
         <v>15</v>
       </c>
@@ -57021,6 +58620,9 @@
       </c>
     </row>
     <row r="1594" spans="1:4">
+      <c r="A1594">
+        <v>-1</v>
+      </c>
       <c r="B1594" t="s">
         <v>148</v>
       </c>
@@ -57032,6 +58634,9 @@
       </c>
     </row>
     <row r="1595" spans="1:4">
+      <c r="A1595">
+        <v>1</v>
+      </c>
       <c r="B1595" t="s">
         <v>206</v>
       </c>
@@ -57043,6 +58648,9 @@
       </c>
     </row>
     <row r="1596" spans="1:4">
+      <c r="A1596">
+        <v>1</v>
+      </c>
       <c r="B1596" t="s">
         <v>4</v>
       </c>
@@ -57054,6 +58662,9 @@
       </c>
     </row>
     <row r="1597" spans="1:4">
+      <c r="A1597">
+        <v>1</v>
+      </c>
       <c r="B1597" t="s">
         <v>102</v>
       </c>
@@ -57079,6 +58690,9 @@
       </c>
     </row>
     <row r="1599" spans="1:4">
+      <c r="A1599">
+        <v>1</v>
+      </c>
       <c r="B1599" t="s">
         <v>15</v>
       </c>
@@ -57090,6 +58704,9 @@
       </c>
     </row>
     <row r="1600" spans="1:4">
+      <c r="A1600">
+        <v>1</v>
+      </c>
       <c r="B1600" t="s">
         <v>8</v>
       </c>
@@ -57101,6 +58718,9 @@
       </c>
     </row>
     <row r="1601" spans="1:4">
+      <c r="A1601">
+        <v>1</v>
+      </c>
       <c r="B1601" t="s">
         <v>4</v>
       </c>
@@ -57112,6 +58732,9 @@
       </c>
     </row>
     <row r="1602" spans="1:4">
+      <c r="A1602">
+        <v>1</v>
+      </c>
       <c r="B1602" t="s">
         <v>206</v>
       </c>

--- a/data/zweryfikowane.xlsx
+++ b/data/zweryfikowane.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\document-classification\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F341A-9493-4784-AF15-C7DF4B97EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\moje foldery\studia\magisterka\semestr 2\Podstawy_Uczenia_Glebokiego\document-classification\data\modified_dataset.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -8089,7 +8095,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -8126,14 +8132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -8143,11 +8148,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:B1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8192,11 +8205,16 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8218,11 +8236,16 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8283,6 +8306,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -35522,7 +35550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending" countASubtotal="1">
@@ -35695,11 +35723,16 @@
     <dataField name="Licznik z label_mid" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -35780,11 +35813,16 @@
     <dataField name="Licznik z label_high" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -36011,17 +36049,22 @@
     <dataField name="Licznik z label_high" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modified_dataset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="modified_dataset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -36059,7 +36102,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -36093,6 +36136,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -36127,9 +36171,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36302,22 +36347,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1581" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1585" sqref="D1585"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>2679</v>
       </c>
@@ -58746,6 +58792,9 @@
       </c>
     </row>
     <row r="1603" spans="1:4">
+      <c r="A1603">
+        <v>1</v>
+      </c>
       <c r="B1603" t="s">
         <v>50</v>
       </c>
@@ -58757,6 +58806,9 @@
       </c>
     </row>
     <row r="1604" spans="1:4">
+      <c r="A1604">
+        <v>1</v>
+      </c>
       <c r="B1604" t="s">
         <v>80</v>
       </c>
@@ -58768,6 +58820,9 @@
       </c>
     </row>
     <row r="1605" spans="1:4">
+      <c r="A1605">
+        <v>1</v>
+      </c>
       <c r="B1605" t="s">
         <v>80</v>
       </c>
@@ -58779,6 +58834,9 @@
       </c>
     </row>
     <row r="1606" spans="1:4">
+      <c r="A1606">
+        <v>1</v>
+      </c>
       <c r="B1606" t="s">
         <v>579</v>
       </c>
@@ -58790,6 +58848,9 @@
       </c>
     </row>
     <row r="1607" spans="1:4">
+      <c r="A1607">
+        <v>1</v>
+      </c>
       <c r="B1607" t="s">
         <v>15</v>
       </c>
@@ -58801,6 +58862,9 @@
       </c>
     </row>
     <row r="1608" spans="1:4">
+      <c r="A1608">
+        <v>1</v>
+      </c>
       <c r="B1608" t="s">
         <v>63</v>
       </c>
@@ -58812,6 +58876,9 @@
       </c>
     </row>
     <row r="1609" spans="1:4">
+      <c r="A1609">
+        <v>1</v>
+      </c>
       <c r="B1609" t="s">
         <v>63</v>
       </c>
@@ -58823,6 +58890,9 @@
       </c>
     </row>
     <row r="1610" spans="1:4">
+      <c r="A1610">
+        <v>1</v>
+      </c>
       <c r="B1610" t="s">
         <v>47</v>
       </c>
@@ -58834,6 +58904,9 @@
       </c>
     </row>
     <row r="1611" spans="1:4">
+      <c r="A1611">
+        <v>1</v>
+      </c>
       <c r="B1611" t="s">
         <v>8</v>
       </c>
@@ -58905,7 +58978,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="1617" spans="2:4">
+    <row r="1617" spans="1:4">
       <c r="B1617" t="s">
         <v>4</v>
       </c>
@@ -58916,7 +58989,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="1618" spans="2:4">
+    <row r="1618" spans="1:4">
       <c r="B1618" t="s">
         <v>4</v>
       </c>
@@ -58927,7 +59000,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="1619" spans="2:4">
+    <row r="1619" spans="1:4">
       <c r="B1619" t="s">
         <v>181</v>
       </c>
@@ -58938,7 +59011,10 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1620" spans="2:4">
+    <row r="1620" spans="1:4">
+      <c r="A1620">
+        <v>1</v>
+      </c>
       <c r="B1620" t="s">
         <v>44</v>
       </c>
@@ -58949,7 +59025,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="1621" spans="2:4">
+    <row r="1621" spans="1:4">
       <c r="B1621" t="s">
         <v>181</v>
       </c>
@@ -58960,7 +59036,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="1622" spans="2:4">
+    <row r="1622" spans="1:4">
       <c r="B1622" t="s">
         <v>113</v>
       </c>
@@ -58971,7 +59047,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="1623" spans="2:4">
+    <row r="1623" spans="1:4">
       <c r="B1623" t="s">
         <v>113</v>
       </c>
@@ -58982,7 +59058,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="1624" spans="2:4">
+    <row r="1624" spans="1:4">
       <c r="B1624" t="s">
         <v>113</v>
       </c>
@@ -58993,7 +59069,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="1625" spans="2:4">
+    <row r="1625" spans="1:4">
       <c r="B1625" t="s">
         <v>8</v>
       </c>
@@ -59004,7 +59080,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="1626" spans="2:4">
+    <row r="1626" spans="1:4">
       <c r="B1626" t="s">
         <v>8</v>
       </c>
@@ -59015,7 +59091,10 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="1627" spans="2:4">
+    <row r="1627" spans="1:4">
+      <c r="A1627">
+        <v>1</v>
+      </c>
       <c r="B1627" t="s">
         <v>206</v>
       </c>
@@ -59026,7 +59105,10 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="1628" spans="2:4">
+    <row r="1628" spans="1:4">
+      <c r="A1628">
+        <v>-1</v>
+      </c>
       <c r="B1628" t="s">
         <v>206</v>
       </c>
@@ -59037,7 +59119,10 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="1629" spans="2:4">
+    <row r="1629" spans="1:4">
+      <c r="A1629">
+        <v>0</v>
+      </c>
       <c r="B1629" t="s">
         <v>148</v>
       </c>
@@ -59048,7 +59133,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="1630" spans="2:4">
+    <row r="1630" spans="1:4">
+      <c r="A1630">
+        <v>1</v>
+      </c>
       <c r="B1630" t="s">
         <v>50</v>
       </c>
@@ -59059,7 +59147,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="1631" spans="2:4">
+    <row r="1631" spans="1:4">
       <c r="B1631" t="s">
         <v>47</v>
       </c>
@@ -59070,7 +59158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1632" spans="2:4">
+    <row r="1632" spans="1:4">
       <c r="B1632" t="s">
         <v>47</v>
       </c>
@@ -59126,6 +59214,9 @@
       </c>
     </row>
     <row r="1637" spans="1:4">
+      <c r="A1637">
+        <v>1</v>
+      </c>
       <c r="B1637" t="s">
         <v>136</v>
       </c>
@@ -59137,6 +59228,9 @@
       </c>
     </row>
     <row r="1638" spans="1:4">
+      <c r="A1638">
+        <v>1</v>
+      </c>
       <c r="B1638" t="s">
         <v>44</v>
       </c>
@@ -59148,6 +59242,9 @@
       </c>
     </row>
     <row r="1639" spans="1:4">
+      <c r="A1639">
+        <v>1</v>
+      </c>
       <c r="B1639" t="s">
         <v>90</v>
       </c>
@@ -59159,6 +59256,9 @@
       </c>
     </row>
     <row r="1640" spans="1:4">
+      <c r="A1640">
+        <v>1</v>
+      </c>
       <c r="B1640" t="s">
         <v>50</v>
       </c>
@@ -59203,6 +59303,9 @@
       </c>
     </row>
     <row r="1644" spans="1:4">
+      <c r="A1644">
+        <v>1</v>
+      </c>
       <c r="B1644" t="s">
         <v>136</v>
       </c>
@@ -59260,7 +59363,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1649" spans="2:4">
+    <row r="1649" spans="1:4">
       <c r="B1649" t="s">
         <v>710</v>
       </c>
@@ -59271,7 +59374,10 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="1650" spans="2:4">
+    <row r="1650" spans="1:4">
+      <c r="A1650">
+        <v>-1</v>
+      </c>
       <c r="B1650" t="s">
         <v>206</v>
       </c>
@@ -59282,7 +59388,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="1651" spans="2:4">
+    <row r="1651" spans="1:4">
+      <c r="A1651">
+        <v>-1</v>
+      </c>
       <c r="B1651" t="s">
         <v>206</v>
       </c>
@@ -59293,7 +59402,10 @@
         <v>754</v>
       </c>
     </row>
-    <row r="1652" spans="2:4">
+    <row r="1652" spans="1:4">
+      <c r="A1652">
+        <v>1</v>
+      </c>
       <c r="B1652" t="s">
         <v>206</v>
       </c>
@@ -59304,7 +59416,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1653" spans="2:4">
+    <row r="1653" spans="1:4">
       <c r="B1653" t="s">
         <v>47</v>
       </c>
@@ -59315,7 +59427,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="1654" spans="2:4">
+    <row r="1654" spans="1:4">
+      <c r="A1654">
+        <v>1</v>
+      </c>
       <c r="B1654" t="s">
         <v>50</v>
       </c>
@@ -59326,7 +59441,10 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="1655" spans="2:4">
+    <row r="1655" spans="1:4">
+      <c r="A1655">
+        <v>1</v>
+      </c>
       <c r="B1655" t="s">
         <v>50</v>
       </c>
@@ -59337,7 +59455,10 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1656" spans="2:4">
+    <row r="1656" spans="1:4">
+      <c r="A1656">
+        <v>1</v>
+      </c>
       <c r="B1656" t="s">
         <v>50</v>
       </c>
@@ -59348,7 +59469,10 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="1657" spans="2:4">
+    <row r="1657" spans="1:4">
+      <c r="A1657">
+        <v>1</v>
+      </c>
       <c r="B1657" t="s">
         <v>206</v>
       </c>
@@ -59359,7 +59483,10 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="1658" spans="2:4">
+    <row r="1658" spans="1:4">
+      <c r="A1658">
+        <v>1</v>
+      </c>
       <c r="B1658" t="s">
         <v>50</v>
       </c>
@@ -59370,7 +59497,10 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="1659" spans="2:4">
+    <row r="1659" spans="1:4">
+      <c r="A1659">
+        <v>1</v>
+      </c>
       <c r="B1659" t="s">
         <v>148</v>
       </c>
@@ -59381,7 +59511,10 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1660" spans="2:4">
+    <row r="1660" spans="1:4">
+      <c r="A1660">
+        <v>1</v>
+      </c>
       <c r="B1660" t="s">
         <v>50</v>
       </c>
@@ -59392,7 +59525,10 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="1661" spans="2:4">
+    <row r="1661" spans="1:4">
+      <c r="A1661">
+        <v>1</v>
+      </c>
       <c r="B1661" t="s">
         <v>50</v>
       </c>
@@ -59403,7 +59539,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="1662" spans="2:4">
+    <row r="1662" spans="1:4">
       <c r="B1662" t="s">
         <v>54</v>
       </c>
@@ -59414,7 +59550,10 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1663" spans="2:4">
+    <row r="1663" spans="1:4">
+      <c r="A1663">
+        <v>1</v>
+      </c>
       <c r="B1663" t="s">
         <v>50</v>
       </c>
@@ -59425,7 +59564,10 @@
         <v>444</v>
       </c>
     </row>
-    <row r="1664" spans="2:4">
+    <row r="1664" spans="1:4">
+      <c r="A1664">
+        <v>1</v>
+      </c>
       <c r="B1664" t="s">
         <v>206</v>
       </c>
@@ -59436,7 +59578,10 @@
         <v>887</v>
       </c>
     </row>
-    <row r="1665" spans="2:4">
+    <row r="1665" spans="1:4">
+      <c r="A1665">
+        <v>1</v>
+      </c>
       <c r="B1665" t="s">
         <v>50</v>
       </c>
@@ -59447,7 +59592,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="1666" spans="2:4">
+    <row r="1666" spans="1:4">
+      <c r="A1666">
+        <v>1</v>
+      </c>
       <c r="B1666" t="s">
         <v>206</v>
       </c>
@@ -59458,7 +59606,10 @@
         <v>967</v>
       </c>
     </row>
-    <row r="1667" spans="2:4">
+    <row r="1667" spans="1:4">
+      <c r="A1667">
+        <v>1</v>
+      </c>
       <c r="B1667" t="s">
         <v>148</v>
       </c>
@@ -59469,7 +59620,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1668" spans="2:4">
+    <row r="1668" spans="1:4">
       <c r="B1668" t="s">
         <v>15</v>
       </c>
@@ -59480,7 +59631,10 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="1669" spans="2:4">
+    <row r="1669" spans="1:4">
+      <c r="A1669">
+        <v>-1</v>
+      </c>
       <c r="B1669" t="s">
         <v>206</v>
       </c>
@@ -59491,7 +59645,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1670" spans="2:4">
+    <row r="1670" spans="1:4">
       <c r="B1670" t="s">
         <v>47</v>
       </c>
@@ -59502,7 +59656,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="1671" spans="2:4">
+    <row r="1671" spans="1:4">
       <c r="B1671" t="s">
         <v>8</v>
       </c>
@@ -59513,7 +59667,10 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="1672" spans="2:4">
+    <row r="1672" spans="1:4">
+      <c r="A1672">
+        <v>-1</v>
+      </c>
       <c r="B1672" t="s">
         <v>50</v>
       </c>
@@ -59524,7 +59681,10 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="1673" spans="2:4">
+    <row r="1673" spans="1:4">
+      <c r="A1673">
+        <v>1</v>
+      </c>
       <c r="B1673" t="s">
         <v>206</v>
       </c>
@@ -59535,7 +59695,10 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="1674" spans="2:4">
+    <row r="1674" spans="1:4">
+      <c r="A1674">
+        <v>1</v>
+      </c>
       <c r="B1674" t="s">
         <v>148</v>
       </c>
@@ -59546,7 +59709,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="1675" spans="2:4">
+    <row r="1675" spans="1:4">
       <c r="B1675" t="s">
         <v>63</v>
       </c>
@@ -59557,7 +59720,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="1676" spans="2:4">
+    <row r="1676" spans="1:4">
       <c r="B1676" t="s">
         <v>15</v>
       </c>
@@ -59568,7 +59731,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="1677" spans="2:4">
+    <row r="1677" spans="1:4">
       <c r="B1677" t="s">
         <v>253</v>
       </c>
@@ -59579,7 +59742,10 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="1678" spans="2:4">
+    <row r="1678" spans="1:4">
+      <c r="A1678">
+        <v>1</v>
+      </c>
       <c r="B1678" t="s">
         <v>76</v>
       </c>
@@ -59590,7 +59756,10 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="1679" spans="2:4">
+    <row r="1679" spans="1:4">
+      <c r="A1679">
+        <v>1</v>
+      </c>
       <c r="B1679" t="s">
         <v>76</v>
       </c>
@@ -59601,7 +59770,10 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="1680" spans="2:4">
+    <row r="1680" spans="1:4">
+      <c r="A1680">
+        <v>1</v>
+      </c>
       <c r="B1680" t="s">
         <v>76</v>
       </c>
@@ -59613,6 +59785,9 @@
       </c>
     </row>
     <row r="1681" spans="1:4">
+      <c r="A1681">
+        <v>-1</v>
+      </c>
       <c r="B1681" t="s">
         <v>44</v>
       </c>
@@ -59657,6 +59832,9 @@
       </c>
     </row>
     <row r="1685" spans="1:4">
+      <c r="A1685">
+        <v>1</v>
+      </c>
       <c r="B1685" t="s">
         <v>44</v>
       </c>
@@ -59668,6 +59846,9 @@
       </c>
     </row>
     <row r="1686" spans="1:4">
+      <c r="A1686">
+        <v>1</v>
+      </c>
       <c r="B1686" t="s">
         <v>44</v>
       </c>
@@ -59679,6 +59860,9 @@
       </c>
     </row>
     <row r="1687" spans="1:4">
+      <c r="A1687">
+        <v>1</v>
+      </c>
       <c r="B1687" t="s">
         <v>206</v>
       </c>
@@ -59690,6 +59874,9 @@
       </c>
     </row>
     <row r="1688" spans="1:4">
+      <c r="A1688">
+        <v>1</v>
+      </c>
       <c r="B1688" t="s">
         <v>50</v>
       </c>
@@ -59701,6 +59888,9 @@
       </c>
     </row>
     <row r="1689" spans="1:4">
+      <c r="A1689">
+        <v>1</v>
+      </c>
       <c r="B1689" t="s">
         <v>50</v>
       </c>
@@ -59726,6 +59916,9 @@
       </c>
     </row>
     <row r="1691" spans="1:4">
+      <c r="A1691">
+        <v>1</v>
+      </c>
       <c r="B1691" t="s">
         <v>50</v>
       </c>
@@ -59737,6 +59930,9 @@
       </c>
     </row>
     <row r="1692" spans="1:4">
+      <c r="A1692">
+        <v>1</v>
+      </c>
       <c r="B1692" t="s">
         <v>50</v>
       </c>
@@ -59748,6 +59944,9 @@
       </c>
     </row>
     <row r="1693" spans="1:4">
+      <c r="A1693">
+        <v>1</v>
+      </c>
       <c r="B1693" t="s">
         <v>50</v>
       </c>
@@ -59836,6 +60035,9 @@
       </c>
     </row>
     <row r="1701" spans="1:4">
+      <c r="A1701">
+        <v>1</v>
+      </c>
       <c r="B1701" t="s">
         <v>44</v>
       </c>
@@ -59880,6 +60082,9 @@
       </c>
     </row>
     <row r="1705" spans="1:4">
+      <c r="A1705">
+        <v>1</v>
+      </c>
       <c r="B1705" t="s">
         <v>50</v>
       </c>
@@ -59927,6 +60132,9 @@
       </c>
     </row>
     <row r="1709" spans="1:4">
+      <c r="A1709">
+        <v>-1</v>
+      </c>
       <c r="B1709" t="s">
         <v>148</v>
       </c>
@@ -60007,6 +60215,9 @@
       </c>
     </row>
     <row r="1716" spans="1:4">
+      <c r="A1716">
+        <v>1</v>
+      </c>
       <c r="B1716" t="s">
         <v>44</v>
       </c>
@@ -60032,6 +60243,9 @@
       </c>
     </row>
     <row r="1718" spans="1:4">
+      <c r="A1718">
+        <v>1</v>
+      </c>
       <c r="B1718" t="s">
         <v>206</v>
       </c>
@@ -60087,6 +60301,9 @@
       </c>
     </row>
     <row r="1723" spans="1:4">
+      <c r="A1723">
+        <v>1</v>
+      </c>
       <c r="B1723" t="s">
         <v>44</v>
       </c>
@@ -60098,6 +60315,9 @@
       </c>
     </row>
     <row r="1724" spans="1:4">
+      <c r="A1724">
+        <v>1</v>
+      </c>
       <c r="B1724" t="s">
         <v>44</v>
       </c>
@@ -60120,6 +60340,9 @@
       </c>
     </row>
     <row r="1726" spans="1:4">
+      <c r="A1726">
+        <v>1</v>
+      </c>
       <c r="B1726" t="s">
         <v>44</v>
       </c>
@@ -60155,7 +60378,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="1729" spans="2:4">
+    <row r="1729" spans="1:4">
       <c r="B1729" t="s">
         <v>8</v>
       </c>
@@ -60166,7 +60389,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="1730" spans="2:4">
+    <row r="1730" spans="1:4">
       <c r="B1730" t="s">
         <v>63</v>
       </c>
@@ -60177,7 +60400,10 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="1731" spans="2:4">
+    <row r="1731" spans="1:4">
+      <c r="A1731">
+        <v>1</v>
+      </c>
       <c r="B1731" t="s">
         <v>90</v>
       </c>
@@ -60188,7 +60414,10 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="1732" spans="2:4">
+    <row r="1732" spans="1:4">
+      <c r="A1732">
+        <v>1</v>
+      </c>
       <c r="B1732" t="s">
         <v>206</v>
       </c>
@@ -60199,7 +60428,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1733" spans="2:4">
+    <row r="1733" spans="1:4">
       <c r="B1733" t="s">
         <v>47</v>
       </c>
@@ -60210,7 +60439,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1734" spans="2:4">
+    <row r="1734" spans="1:4">
       <c r="B1734" t="s">
         <v>253</v>
       </c>
@@ -60221,7 +60450,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="1735" spans="2:4">
+    <row r="1735" spans="1:4">
       <c r="B1735" t="s">
         <v>47</v>
       </c>
@@ -60232,7 +60461,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="1736" spans="2:4">
+    <row r="1736" spans="1:4">
       <c r="B1736" t="s">
         <v>8</v>
       </c>
@@ -60243,7 +60472,10 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="1737" spans="2:4">
+    <row r="1737" spans="1:4">
+      <c r="A1737">
+        <v>1</v>
+      </c>
       <c r="B1737" t="s">
         <v>90</v>
       </c>
@@ -60254,7 +60486,10 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="1738" spans="2:4">
+    <row r="1738" spans="1:4">
+      <c r="A1738">
+        <v>1</v>
+      </c>
       <c r="B1738" t="s">
         <v>148</v>
       </c>
@@ -60265,7 +60500,10 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="1739" spans="2:4">
+    <row r="1739" spans="1:4">
+      <c r="A1739">
+        <v>1</v>
+      </c>
       <c r="B1739" t="s">
         <v>90</v>
       </c>
@@ -60276,7 +60514,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="1740" spans="2:4">
+    <row r="1740" spans="1:4">
       <c r="B1740" t="s">
         <v>15</v>
       </c>
@@ -60287,7 +60525,10 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1741" spans="2:4">
+    <row r="1741" spans="1:4">
+      <c r="A1741">
+        <v>1</v>
+      </c>
       <c r="B1741" t="s">
         <v>90</v>
       </c>
@@ -60298,7 +60539,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="1742" spans="2:4">
+    <row r="1742" spans="1:4">
       <c r="B1742" t="s">
         <v>4</v>
       </c>
@@ -60309,7 +60550,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1743" spans="2:4">
+    <row r="1743" spans="1:4">
       <c r="B1743" t="s">
         <v>4</v>
       </c>
@@ -60320,7 +60561,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1744" spans="2:4">
+    <row r="1744" spans="1:4">
       <c r="B1744" t="s">
         <v>54</v>
       </c>
@@ -60343,6 +60584,9 @@
       </c>
     </row>
     <row r="1746" spans="1:4">
+      <c r="A1746">
+        <v>1</v>
+      </c>
       <c r="B1746" t="s">
         <v>206</v>
       </c>
@@ -60354,6 +60598,9 @@
       </c>
     </row>
     <row r="1747" spans="1:4">
+      <c r="A1747">
+        <v>-1</v>
+      </c>
       <c r="B1747" t="s">
         <v>397</v>
       </c>
@@ -60398,6 +60645,9 @@
       </c>
     </row>
     <row r="1751" spans="1:4">
+      <c r="A1751">
+        <v>-1</v>
+      </c>
       <c r="B1751" t="s">
         <v>397</v>
       </c>
@@ -60489,6 +60739,9 @@
       </c>
     </row>
     <row r="1759" spans="1:4">
+      <c r="A1759">
+        <v>1</v>
+      </c>
       <c r="B1759" t="s">
         <v>90</v>
       </c>
@@ -60547,6 +60800,9 @@
       </c>
     </row>
     <row r="1764" spans="1:4">
+      <c r="A1764">
+        <v>1</v>
+      </c>
       <c r="B1764" t="s">
         <v>50</v>
       </c>
@@ -60569,6 +60825,9 @@
       </c>
     </row>
     <row r="1766" spans="1:4">
+      <c r="A1766">
+        <v>1</v>
+      </c>
       <c r="B1766" t="s">
         <v>44</v>
       </c>
@@ -60580,6 +60839,9 @@
       </c>
     </row>
     <row r="1767" spans="1:4">
+      <c r="A1767">
+        <v>1</v>
+      </c>
       <c r="B1767" t="s">
         <v>206</v>
       </c>
@@ -60591,6 +60853,9 @@
       </c>
     </row>
     <row r="1768" spans="1:4">
+      <c r="A1768">
+        <v>-1</v>
+      </c>
       <c r="B1768" t="s">
         <v>206</v>
       </c>
@@ -60613,6 +60878,9 @@
       </c>
     </row>
     <row r="1770" spans="1:4">
+      <c r="A1770">
+        <v>1</v>
+      </c>
       <c r="B1770" t="s">
         <v>50</v>
       </c>
@@ -60624,6 +60892,9 @@
       </c>
     </row>
     <row r="1771" spans="1:4">
+      <c r="A1771">
+        <v>1</v>
+      </c>
       <c r="B1771" t="s">
         <v>136</v>
       </c>
@@ -60635,6 +60906,9 @@
       </c>
     </row>
     <row r="1772" spans="1:4">
+      <c r="A1772">
+        <v>1</v>
+      </c>
       <c r="B1772" t="s">
         <v>76</v>
       </c>
@@ -60657,6 +60931,9 @@
       </c>
     </row>
     <row r="1774" spans="1:4">
+      <c r="A1774">
+        <v>1</v>
+      </c>
       <c r="B1774" t="s">
         <v>44</v>
       </c>
@@ -60679,6 +60956,9 @@
       </c>
     </row>
     <row r="1776" spans="1:4">
+      <c r="A1776">
+        <v>1</v>
+      </c>
       <c r="B1776" t="s">
         <v>50</v>
       </c>
@@ -60712,6 +60992,9 @@
       </c>
     </row>
     <row r="1779" spans="1:4">
+      <c r="A1779">
+        <v>1</v>
+      </c>
       <c r="B1779" t="s">
         <v>206</v>
       </c>
@@ -60748,6 +61031,9 @@
       </c>
     </row>
     <row r="1782" spans="1:4">
+      <c r="A1782">
+        <v>1</v>
+      </c>
       <c r="B1782" t="s">
         <v>206</v>
       </c>
@@ -60792,6 +61078,9 @@
       </c>
     </row>
     <row r="1786" spans="1:4">
+      <c r="A1786">
+        <v>1</v>
+      </c>
       <c r="B1786" t="s">
         <v>44</v>
       </c>
@@ -60825,6 +61114,9 @@
       </c>
     </row>
     <row r="1789" spans="1:4">
+      <c r="A1789">
+        <v>1</v>
+      </c>
       <c r="B1789" t="s">
         <v>90</v>
       </c>
@@ -60836,6 +61128,9 @@
       </c>
     </row>
     <row r="1790" spans="1:4">
+      <c r="A1790">
+        <v>1</v>
+      </c>
       <c r="B1790" t="s">
         <v>44</v>
       </c>
@@ -60847,6 +61142,9 @@
       </c>
     </row>
     <row r="1791" spans="1:4">
+      <c r="A1791">
+        <v>1</v>
+      </c>
       <c r="B1791" t="s">
         <v>44</v>
       </c>
@@ -60891,6 +61189,9 @@
       </c>
     </row>
     <row r="1795" spans="1:4">
+      <c r="A1795">
+        <v>1</v>
+      </c>
       <c r="B1795" t="s">
         <v>206</v>
       </c>
@@ -60935,6 +61236,9 @@
       </c>
     </row>
     <row r="1799" spans="1:4">
+      <c r="A1799">
+        <v>1</v>
+      </c>
       <c r="B1799" t="s">
         <v>44</v>
       </c>
@@ -60946,6 +61250,9 @@
       </c>
     </row>
     <row r="1800" spans="1:4">
+      <c r="A1800">
+        <v>1</v>
+      </c>
       <c r="B1800" t="s">
         <v>44</v>
       </c>
@@ -60957,6 +61264,9 @@
       </c>
     </row>
     <row r="1801" spans="1:4">
+      <c r="A1801">
+        <v>1</v>
+      </c>
       <c r="B1801" t="s">
         <v>50</v>
       </c>
@@ -60968,6 +61278,9 @@
       </c>
     </row>
     <row r="1802" spans="1:4">
+      <c r="A1802">
+        <v>1</v>
+      </c>
       <c r="B1802" t="s">
         <v>44</v>
       </c>
@@ -60979,6 +61292,9 @@
       </c>
     </row>
     <row r="1803" spans="1:4">
+      <c r="A1803">
+        <v>1</v>
+      </c>
       <c r="B1803" t="s">
         <v>206</v>
       </c>
@@ -61095,6 +61411,9 @@
       </c>
     </row>
     <row r="1813" spans="1:4">
+      <c r="A1813">
+        <v>1</v>
+      </c>
       <c r="B1813" t="s">
         <v>50</v>
       </c>
@@ -61106,6 +61425,9 @@
       </c>
     </row>
     <row r="1814" spans="1:4">
+      <c r="A1814">
+        <v>1</v>
+      </c>
       <c r="B1814" t="s">
         <v>206</v>
       </c>
@@ -61117,6 +61439,9 @@
       </c>
     </row>
     <row r="1815" spans="1:4">
+      <c r="A1815">
+        <v>1</v>
+      </c>
       <c r="B1815" t="s">
         <v>76</v>
       </c>
@@ -61150,6 +61475,9 @@
       </c>
     </row>
     <row r="1818" spans="1:4">
+      <c r="A1818">
+        <v>1</v>
+      </c>
       <c r="B1818" t="s">
         <v>206</v>
       </c>
@@ -61216,6 +61544,9 @@
       </c>
     </row>
     <row r="1824" spans="1:4">
+      <c r="A1824">
+        <v>1</v>
+      </c>
       <c r="B1824" t="s">
         <v>80</v>
       </c>
@@ -61226,7 +61557,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="1825" spans="2:4">
+    <row r="1825" spans="1:4">
       <c r="B1825" t="s">
         <v>8</v>
       </c>
@@ -61237,7 +61568,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="1826" spans="2:4">
+    <row r="1826" spans="1:4">
       <c r="B1826" t="s">
         <v>63</v>
       </c>
@@ -61248,7 +61579,10 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="1827" spans="2:4">
+    <row r="1827" spans="1:4">
+      <c r="A1827">
+        <v>1</v>
+      </c>
       <c r="B1827" t="s">
         <v>50</v>
       </c>
@@ -61259,7 +61593,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="1828" spans="2:4">
+    <row r="1828" spans="1:4">
       <c r="B1828" t="s">
         <v>47</v>
       </c>
@@ -61270,7 +61604,10 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="1829" spans="2:4">
+    <row r="1829" spans="1:4">
+      <c r="A1829">
+        <v>-1</v>
+      </c>
       <c r="B1829" t="s">
         <v>44</v>
       </c>
@@ -61281,7 +61618,10 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="1830" spans="2:4">
+    <row r="1830" spans="1:4">
+      <c r="A1830">
+        <v>1</v>
+      </c>
       <c r="B1830" t="s">
         <v>90</v>
       </c>
@@ -61292,7 +61632,10 @@
         <v>487</v>
       </c>
     </row>
-    <row r="1831" spans="2:4">
+    <row r="1831" spans="1:4">
+      <c r="A1831">
+        <v>1</v>
+      </c>
       <c r="B1831" t="s">
         <v>206</v>
       </c>
@@ -61303,7 +61646,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1832" spans="2:4">
+    <row r="1832" spans="1:4">
       <c r="B1832" t="s">
         <v>47</v>
       </c>
@@ -61314,7 +61657,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1833" spans="2:4">
+    <row r="1833" spans="1:4">
       <c r="B1833" t="s">
         <v>4</v>
       </c>
@@ -61325,7 +61668,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1834" spans="2:4">
+    <row r="1834" spans="1:4">
       <c r="B1834" t="s">
         <v>8</v>
       </c>
@@ -61336,7 +61679,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="1835" spans="2:4">
+    <row r="1835" spans="1:4">
       <c r="B1835" t="s">
         <v>47</v>
       </c>
@@ -61347,7 +61690,10 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="1836" spans="2:4">
+    <row r="1836" spans="1:4">
+      <c r="A1836">
+        <v>1</v>
+      </c>
       <c r="B1836" t="s">
         <v>148</v>
       </c>
@@ -61358,7 +61704,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="1837" spans="2:4">
+    <row r="1837" spans="1:4">
       <c r="B1837" t="s">
         <v>4</v>
       </c>
@@ -61369,7 +61715,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="1838" spans="2:4">
+    <row r="1838" spans="1:4">
       <c r="B1838" t="s">
         <v>63</v>
       </c>
@@ -61380,7 +61726,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="1839" spans="2:4">
+    <row r="1839" spans="1:4">
       <c r="B1839" t="s">
         <v>47</v>
       </c>
@@ -61391,7 +61737,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="1840" spans="2:4">
+    <row r="1840" spans="1:4">
       <c r="B1840" t="s">
         <v>8</v>
       </c>
@@ -61436,6 +61782,9 @@
       </c>
     </row>
     <row r="1844" spans="1:4">
+      <c r="A1844">
+        <v>1</v>
+      </c>
       <c r="B1844" t="s">
         <v>148</v>
       </c>
@@ -61447,6 +61796,9 @@
       </c>
     </row>
     <row r="1845" spans="1:4">
+      <c r="A1845">
+        <v>1</v>
+      </c>
       <c r="B1845" t="s">
         <v>206</v>
       </c>
@@ -61472,6 +61824,9 @@
       </c>
     </row>
     <row r="1847" spans="1:4">
+      <c r="A1847">
+        <v>1</v>
+      </c>
       <c r="B1847" t="s">
         <v>44</v>
       </c>
@@ -61511,6 +61866,9 @@
       </c>
     </row>
     <row r="1850" spans="1:4">
+      <c r="A1850">
+        <v>1</v>
+      </c>
       <c r="B1850" t="s">
         <v>50</v>
       </c>
@@ -61522,6 +61880,9 @@
       </c>
     </row>
     <row r="1851" spans="1:4">
+      <c r="A1851">
+        <v>1</v>
+      </c>
       <c r="B1851" t="s">
         <v>206</v>
       </c>
@@ -61558,6 +61919,9 @@
       </c>
     </row>
     <row r="1854" spans="1:4">
+      <c r="A1854">
+        <v>1</v>
+      </c>
       <c r="B1854" t="s">
         <v>44</v>
       </c>
@@ -61569,6 +61933,9 @@
       </c>
     </row>
     <row r="1855" spans="1:4">
+      <c r="A1855">
+        <v>1</v>
+      </c>
       <c r="B1855" t="s">
         <v>206</v>
       </c>
@@ -61663,6 +62030,9 @@
       </c>
     </row>
     <row r="1863" spans="1:4">
+      <c r="A1863">
+        <v>1</v>
+      </c>
       <c r="B1863" t="s">
         <v>50</v>
       </c>
@@ -61674,6 +62044,9 @@
       </c>
     </row>
     <row r="1864" spans="1:4">
+      <c r="A1864">
+        <v>1</v>
+      </c>
       <c r="B1864" t="s">
         <v>206</v>
       </c>
@@ -61685,6 +62058,9 @@
       </c>
     </row>
     <row r="1865" spans="1:4">
+      <c r="A1865">
+        <v>1</v>
+      </c>
       <c r="B1865" t="s">
         <v>206</v>
       </c>
@@ -61845,6 +62221,9 @@
       </c>
     </row>
     <row r="1879" spans="1:4">
+      <c r="A1879">
+        <v>1</v>
+      </c>
       <c r="B1879" t="s">
         <v>76</v>
       </c>
@@ -61925,6 +62304,9 @@
       </c>
     </row>
     <row r="1886" spans="1:4">
+      <c r="A1886">
+        <v>1</v>
+      </c>
       <c r="B1886" t="s">
         <v>206</v>
       </c>
@@ -61958,6 +62340,9 @@
       </c>
     </row>
     <row r="1889" spans="1:4">
+      <c r="A1889">
+        <v>1</v>
+      </c>
       <c r="B1889" t="s">
         <v>206</v>
       </c>
@@ -61969,6 +62354,9 @@
       </c>
     </row>
     <row r="1890" spans="1:4">
+      <c r="A1890">
+        <v>1</v>
+      </c>
       <c r="B1890" t="s">
         <v>206</v>
       </c>
@@ -61980,6 +62368,9 @@
       </c>
     </row>
     <row r="1891" spans="1:4">
+      <c r="A1891">
+        <v>1</v>
+      </c>
       <c r="B1891" t="s">
         <v>206</v>
       </c>
@@ -61991,6 +62382,9 @@
       </c>
     </row>
     <row r="1892" spans="1:4">
+      <c r="A1892">
+        <v>1</v>
+      </c>
       <c r="B1892" t="s">
         <v>44</v>
       </c>
@@ -62046,6 +62440,9 @@
       </c>
     </row>
     <row r="1897" spans="1:4">
+      <c r="A1897">
+        <v>1</v>
+      </c>
       <c r="B1897" t="s">
         <v>148</v>
       </c>
@@ -62057,6 +62454,9 @@
       </c>
     </row>
     <row r="1898" spans="1:4">
+      <c r="A1898">
+        <v>1</v>
+      </c>
       <c r="B1898" t="s">
         <v>50</v>
       </c>
@@ -62315,6 +62715,9 @@
       </c>
     </row>
     <row r="1919" spans="1:4">
+      <c r="A1919">
+        <v>-1</v>
+      </c>
       <c r="B1919" t="s">
         <v>206</v>
       </c>
@@ -62409,6 +62812,9 @@
       </c>
     </row>
     <row r="1927" spans="1:4">
+      <c r="A1927">
+        <v>1</v>
+      </c>
       <c r="B1927" t="s">
         <v>148</v>
       </c>
@@ -62420,6 +62826,9 @@
       </c>
     </row>
     <row r="1928" spans="1:4">
+      <c r="A1928">
+        <v>1</v>
+      </c>
       <c r="B1928" t="s">
         <v>50</v>
       </c>
@@ -62442,6 +62851,9 @@
       </c>
     </row>
     <row r="1930" spans="1:4">
+      <c r="A1930">
+        <v>1</v>
+      </c>
       <c r="B1930" t="s">
         <v>579</v>
       </c>
@@ -62453,6 +62865,9 @@
       </c>
     </row>
     <row r="1931" spans="1:4">
+      <c r="A1931">
+        <v>1</v>
+      </c>
       <c r="B1931" t="s">
         <v>579</v>
       </c>
@@ -62464,6 +62879,9 @@
       </c>
     </row>
     <row r="1932" spans="1:4">
+      <c r="A1932">
+        <v>1</v>
+      </c>
       <c r="B1932" t="s">
         <v>206</v>
       </c>
@@ -62475,6 +62893,9 @@
       </c>
     </row>
     <row r="1933" spans="1:4">
+      <c r="A1933">
+        <v>1</v>
+      </c>
       <c r="B1933" t="s">
         <v>50</v>
       </c>
@@ -62497,6 +62918,9 @@
       </c>
     </row>
     <row r="1935" spans="1:4">
+      <c r="A1935">
+        <v>1</v>
+      </c>
       <c r="B1935" t="s">
         <v>76</v>
       </c>
@@ -62508,6 +62932,9 @@
       </c>
     </row>
     <row r="1936" spans="1:4">
+      <c r="A1936">
+        <v>-1</v>
+      </c>
       <c r="B1936" t="s">
         <v>44</v>
       </c>
@@ -62518,7 +62945,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1937" spans="2:4">
+    <row r="1937" spans="1:4">
       <c r="B1937" t="s">
         <v>8</v>
       </c>
@@ -62529,7 +62956,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="1938" spans="2:4">
+    <row r="1938" spans="1:4">
       <c r="B1938" t="s">
         <v>193</v>
       </c>
@@ -62540,7 +62967,10 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="1939" spans="2:4">
+    <row r="1939" spans="1:4">
+      <c r="A1939">
+        <v>1</v>
+      </c>
       <c r="B1939" t="s">
         <v>148</v>
       </c>
@@ -62551,7 +62981,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="1940" spans="2:4">
+    <row r="1940" spans="1:4">
       <c r="B1940" t="s">
         <v>47</v>
       </c>
@@ -62562,7 +62992,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1941" spans="2:4">
+    <row r="1941" spans="1:4">
       <c r="B1941" t="s">
         <v>47</v>
       </c>
@@ -62573,7 +63003,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="1942" spans="2:4">
+    <row r="1942" spans="1:4">
       <c r="B1942" t="s">
         <v>47</v>
       </c>
@@ -62584,7 +63014,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="1943" spans="2:4">
+    <row r="1943" spans="1:4">
       <c r="B1943" t="s">
         <v>15</v>
       </c>
@@ -62595,7 +63025,10 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="1944" spans="2:4">
+    <row r="1944" spans="1:4">
+      <c r="A1944">
+        <v>-1</v>
+      </c>
       <c r="B1944" t="s">
         <v>148</v>
       </c>
@@ -62606,7 +63039,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="1945" spans="2:4">
+    <row r="1945" spans="1:4">
       <c r="B1945" t="s">
         <v>80</v>
       </c>
@@ -62617,7 +63050,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="1946" spans="2:4">
+    <row r="1946" spans="1:4">
+      <c r="A1946">
+        <v>1</v>
+      </c>
       <c r="B1946" t="s">
         <v>148</v>
       </c>
@@ -62628,7 +63064,10 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="1947" spans="2:4">
+    <row r="1947" spans="1:4">
+      <c r="A1947">
+        <v>1</v>
+      </c>
       <c r="B1947" t="s">
         <v>50</v>
       </c>
@@ -62639,7 +63078,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="1948" spans="2:4">
+    <row r="1948" spans="1:4">
       <c r="B1948" t="s">
         <v>8</v>
       </c>
@@ -62650,7 +63089,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="1949" spans="2:4">
+    <row r="1949" spans="1:4">
+      <c r="A1949">
+        <v>-1</v>
+      </c>
       <c r="B1949" t="s">
         <v>148</v>
       </c>
@@ -62661,7 +63103,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="1950" spans="2:4">
+    <row r="1950" spans="1:4">
       <c r="B1950" t="s">
         <v>1654</v>
       </c>
@@ -62672,7 +63114,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="1951" spans="2:4">
+    <row r="1951" spans="1:4">
       <c r="B1951" t="s">
         <v>4</v>
       </c>
@@ -62683,7 +63125,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="1952" spans="2:4">
+    <row r="1952" spans="1:4">
       <c r="B1952" t="s">
         <v>102</v>
       </c>
@@ -62706,6 +63148,9 @@
       </c>
     </row>
     <row r="1954" spans="1:4">
+      <c r="A1954">
+        <v>1</v>
+      </c>
       <c r="B1954" t="s">
         <v>44</v>
       </c>
@@ -62739,6 +63184,9 @@
       </c>
     </row>
     <row r="1957" spans="1:4">
+      <c r="A1957">
+        <v>-1</v>
+      </c>
       <c r="B1957" t="s">
         <v>206</v>
       </c>
@@ -62764,6 +63212,9 @@
       </c>
     </row>
     <row r="1959" spans="1:4">
+      <c r="A1959">
+        <v>1</v>
+      </c>
       <c r="B1959" t="s">
         <v>206</v>
       </c>
@@ -62775,6 +63226,9 @@
       </c>
     </row>
     <row r="1960" spans="1:4">
+      <c r="A1960">
+        <v>-1</v>
+      </c>
       <c r="B1960" t="s">
         <v>50</v>
       </c>
@@ -62811,6 +63265,9 @@
       </c>
     </row>
     <row r="1963" spans="1:4">
+      <c r="A1963">
+        <v>1</v>
+      </c>
       <c r="B1963" t="s">
         <v>76</v>
       </c>
@@ -62822,6 +63279,9 @@
       </c>
     </row>
     <row r="1964" spans="1:4">
+      <c r="A1964">
+        <v>-1</v>
+      </c>
       <c r="B1964" t="s">
         <v>50</v>
       </c>
@@ -62844,6 +63304,9 @@
       </c>
     </row>
     <row r="1966" spans="1:4">
+      <c r="A1966">
+        <v>-1</v>
+      </c>
       <c r="B1966" t="s">
         <v>148</v>
       </c>
@@ -62855,6 +63318,9 @@
       </c>
     </row>
     <row r="1967" spans="1:4">
+      <c r="A1967">
+        <v>1</v>
+      </c>
       <c r="B1967" t="s">
         <v>397</v>
       </c>
@@ -62910,6 +63376,9 @@
       </c>
     </row>
     <row r="1972" spans="1:4">
+      <c r="A1972">
+        <v>1</v>
+      </c>
       <c r="B1972" t="s">
         <v>76</v>
       </c>
@@ -62921,6 +63390,9 @@
       </c>
     </row>
     <row r="1973" spans="1:4">
+      <c r="A1973">
+        <v>1</v>
+      </c>
       <c r="B1973" t="s">
         <v>206</v>
       </c>
@@ -62932,6 +63404,9 @@
       </c>
     </row>
     <row r="1974" spans="1:4">
+      <c r="A1974">
+        <v>1</v>
+      </c>
       <c r="B1974" t="s">
         <v>206</v>
       </c>
@@ -62976,6 +63451,9 @@
       </c>
     </row>
     <row r="1978" spans="1:4">
+      <c r="A1978">
+        <v>1</v>
+      </c>
       <c r="B1978" t="s">
         <v>76</v>
       </c>
@@ -62987,6 +63465,9 @@
       </c>
     </row>
     <row r="1979" spans="1:4">
+      <c r="A1979">
+        <v>1</v>
+      </c>
       <c r="B1979" t="s">
         <v>148</v>
       </c>
@@ -63034,6 +63515,9 @@
       </c>
     </row>
     <row r="1983" spans="1:4">
+      <c r="A1983">
+        <v>1</v>
+      </c>
       <c r="B1983" t="s">
         <v>50</v>
       </c>
@@ -63111,6 +63595,9 @@
       </c>
     </row>
     <row r="1990" spans="1:4">
+      <c r="A1990">
+        <v>1</v>
+      </c>
       <c r="B1990" t="s">
         <v>44</v>
       </c>
@@ -63213,6 +63700,9 @@
       </c>
     </row>
     <row r="1999" spans="1:4">
+      <c r="A1999">
+        <v>1</v>
+      </c>
       <c r="B1999" t="s">
         <v>206</v>
       </c>
@@ -63224,6 +63714,9 @@
       </c>
     </row>
     <row r="2000" spans="1:4">
+      <c r="A2000">
+        <v>1</v>
+      </c>
       <c r="B2000" t="s">
         <v>148</v>
       </c>
@@ -63249,6 +63742,9 @@
       </c>
     </row>
     <row r="2002" spans="1:4">
+      <c r="A2002">
+        <v>1</v>
+      </c>
       <c r="B2002" t="s">
         <v>148</v>
       </c>
@@ -63260,6 +63756,9 @@
       </c>
     </row>
     <row r="2003" spans="1:4">
+      <c r="A2003">
+        <v>1</v>
+      </c>
       <c r="B2003" t="s">
         <v>958</v>
       </c>
@@ -63282,6 +63781,9 @@
       </c>
     </row>
     <row r="2005" spans="1:4">
+      <c r="A2005">
+        <v>1</v>
+      </c>
       <c r="B2005" t="s">
         <v>148</v>
       </c>
@@ -63315,6 +63817,9 @@
       </c>
     </row>
     <row r="2008" spans="1:4">
+      <c r="A2008">
+        <v>1</v>
+      </c>
       <c r="B2008" t="s">
         <v>76</v>
       </c>
@@ -63326,6 +63831,9 @@
       </c>
     </row>
     <row r="2009" spans="1:4">
+      <c r="A2009">
+        <v>1</v>
+      </c>
       <c r="B2009" t="s">
         <v>44</v>
       </c>
@@ -63359,6 +63867,9 @@
       </c>
     </row>
     <row r="2012" spans="1:4">
+      <c r="A2012">
+        <v>1</v>
+      </c>
       <c r="B2012" t="s">
         <v>50</v>
       </c>
@@ -63370,6 +63881,9 @@
       </c>
     </row>
     <row r="2013" spans="1:4">
+      <c r="A2013">
+        <v>1</v>
+      </c>
       <c r="B2013" t="s">
         <v>44</v>
       </c>
@@ -63395,6 +63909,9 @@
       </c>
     </row>
     <row r="2015" spans="1:4">
+      <c r="A2015">
+        <v>1</v>
+      </c>
       <c r="B2015" t="s">
         <v>50</v>
       </c>
@@ -63406,6 +63923,9 @@
       </c>
     </row>
     <row r="2016" spans="1:4">
+      <c r="A2016">
+        <v>1</v>
+      </c>
       <c r="B2016" t="s">
         <v>206</v>
       </c>
@@ -63417,6 +63937,9 @@
       </c>
     </row>
     <row r="2017" spans="1:4">
+      <c r="A2017">
+        <v>1</v>
+      </c>
       <c r="B2017" t="s">
         <v>136</v>
       </c>
@@ -63461,6 +63984,9 @@
       </c>
     </row>
     <row r="2021" spans="1:4">
+      <c r="A2021">
+        <v>-1</v>
+      </c>
       <c r="B2021" t="s">
         <v>44</v>
       </c>
@@ -63494,6 +64020,9 @@
       </c>
     </row>
     <row r="2024" spans="1:4">
+      <c r="A2024">
+        <v>1</v>
+      </c>
       <c r="B2024" t="s">
         <v>206</v>
       </c>
@@ -63549,6 +64078,9 @@
       </c>
     </row>
     <row r="2029" spans="1:4">
+      <c r="A2029">
+        <v>1</v>
+      </c>
       <c r="B2029" t="s">
         <v>76</v>
       </c>
@@ -63754,6 +64286,9 @@
       </c>
     </row>
     <row r="2046" spans="1:4">
+      <c r="A2046">
+        <v>1</v>
+      </c>
       <c r="B2046" t="s">
         <v>50</v>
       </c>
@@ -63765,6 +64300,9 @@
       </c>
     </row>
     <row r="2047" spans="1:4">
+      <c r="A2047">
+        <v>-1</v>
+      </c>
       <c r="B2047" t="s">
         <v>397</v>
       </c>
@@ -63776,6 +64314,9 @@
       </c>
     </row>
     <row r="2048" spans="1:4">
+      <c r="A2048">
+        <v>1</v>
+      </c>
       <c r="B2048" t="s">
         <v>148</v>
       </c>
@@ -63798,6 +64339,9 @@
       </c>
     </row>
     <row r="2050" spans="1:4">
+      <c r="A2050">
+        <v>1</v>
+      </c>
       <c r="B2050" t="s">
         <v>148</v>
       </c>
@@ -63831,6 +64375,9 @@
       </c>
     </row>
     <row r="2053" spans="1:4">
+      <c r="A2053">
+        <v>1</v>
+      </c>
       <c r="B2053" t="s">
         <v>206</v>
       </c>
@@ -63853,6 +64400,9 @@
       </c>
     </row>
     <row r="2055" spans="1:4">
+      <c r="A2055">
+        <v>1</v>
+      </c>
       <c r="B2055" t="s">
         <v>44</v>
       </c>
@@ -63878,6 +64428,9 @@
       </c>
     </row>
     <row r="2057" spans="1:4">
+      <c r="A2057">
+        <v>-1</v>
+      </c>
       <c r="B2057" t="s">
         <v>44</v>
       </c>
@@ -63911,6 +64464,9 @@
       </c>
     </row>
     <row r="2060" spans="1:4">
+      <c r="A2060">
+        <v>1</v>
+      </c>
       <c r="B2060" t="s">
         <v>76</v>
       </c>
@@ -63933,6 +64489,9 @@
       </c>
     </row>
     <row r="2062" spans="1:4">
+      <c r="A2062">
+        <v>1</v>
+      </c>
       <c r="B2062" t="s">
         <v>382</v>
       </c>
@@ -63955,6 +64514,9 @@
       </c>
     </row>
     <row r="2064" spans="1:4">
+      <c r="A2064">
+        <v>1</v>
+      </c>
       <c r="B2064" t="s">
         <v>50</v>
       </c>
@@ -63977,6 +64539,9 @@
       </c>
     </row>
     <row r="2066" spans="1:4">
+      <c r="A2066">
+        <v>-1</v>
+      </c>
       <c r="B2066" t="s">
         <v>148</v>
       </c>
@@ -64112,6 +64677,9 @@
       </c>
     </row>
     <row r="2078" spans="1:4">
+      <c r="A2078">
+        <v>1</v>
+      </c>
       <c r="B2078" t="s">
         <v>44</v>
       </c>
@@ -64123,6 +64691,9 @@
       </c>
     </row>
     <row r="2079" spans="1:4">
+      <c r="A2079">
+        <v>1</v>
+      </c>
       <c r="B2079" t="s">
         <v>44</v>
       </c>
@@ -64144,7 +64715,10 @@
         <v>907</v>
       </c>
     </row>
-    <row r="2081" spans="2:4">
+    <row r="2081" spans="1:4">
+      <c r="A2081">
+        <v>1</v>
+      </c>
       <c r="B2081" t="s">
         <v>76</v>
       </c>
@@ -64155,7 +64729,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="2082" spans="2:4">
+    <row r="2082" spans="1:4">
+      <c r="A2082">
+        <v>1</v>
+      </c>
       <c r="B2082" t="s">
         <v>44</v>
       </c>
@@ -64166,7 +64743,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="2083" spans="2:4">
+    <row r="2083" spans="1:4">
       <c r="B2083" t="s">
         <v>4</v>
       </c>
@@ -64177,7 +64754,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="2084" spans="2:4">
+    <row r="2084" spans="1:4">
       <c r="B2084" t="s">
         <v>113</v>
       </c>
@@ -64188,7 +64765,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2085" spans="2:4">
+    <row r="2085" spans="1:4">
       <c r="B2085" t="s">
         <v>90</v>
       </c>
@@ -64199,7 +64776,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="2086" spans="2:4">
+    <row r="2086" spans="1:4">
       <c r="B2086" t="s">
         <v>15</v>
       </c>
@@ -64210,7 +64787,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2087" spans="2:4">
+    <row r="2087" spans="1:4">
       <c r="B2087" t="s">
         <v>253</v>
       </c>
@@ -64221,7 +64798,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2088" spans="2:4">
+    <row r="2088" spans="1:4">
+      <c r="A2088">
+        <v>1</v>
+      </c>
       <c r="B2088" t="s">
         <v>76</v>
       </c>
@@ -64232,7 +64812,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="2089" spans="2:4">
+    <row r="2089" spans="1:4">
       <c r="B2089" t="s">
         <v>47</v>
       </c>
@@ -64243,7 +64823,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="2090" spans="2:4">
+    <row r="2090" spans="1:4">
       <c r="B2090" t="s">
         <v>15</v>
       </c>
@@ -64254,7 +64834,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="2091" spans="2:4">
+    <row r="2091" spans="1:4">
       <c r="B2091" t="s">
         <v>90</v>
       </c>
@@ -64265,7 +64845,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2092" spans="2:4">
+    <row r="2092" spans="1:4">
+      <c r="A2092">
+        <v>1</v>
+      </c>
       <c r="B2092" t="s">
         <v>50</v>
       </c>
@@ -64276,7 +64859,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="2093" spans="2:4">
+    <row r="2093" spans="1:4">
       <c r="B2093" t="s">
         <v>4</v>
       </c>
@@ -64287,7 +64870,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="2094" spans="2:4">
+    <row r="2094" spans="1:4">
       <c r="B2094" t="s">
         <v>80</v>
       </c>
@@ -64298,7 +64881,10 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="2095" spans="2:4">
+    <row r="2095" spans="1:4">
+      <c r="A2095">
+        <v>1</v>
+      </c>
       <c r="B2095" t="s">
         <v>50</v>
       </c>
@@ -64309,7 +64895,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2096" spans="2:4">
+    <row r="2096" spans="1:4">
       <c r="B2096" t="s">
         <v>4</v>
       </c>
@@ -64332,6 +64918,9 @@
       </c>
     </row>
     <row r="2098" spans="1:4">
+      <c r="A2098">
+        <v>1</v>
+      </c>
       <c r="B2098" t="s">
         <v>50</v>
       </c>
@@ -64343,6 +64932,9 @@
       </c>
     </row>
     <row r="2099" spans="1:4">
+      <c r="A2099">
+        <v>1</v>
+      </c>
       <c r="B2099" t="s">
         <v>50</v>
       </c>
@@ -64376,6 +64968,9 @@
       </c>
     </row>
     <row r="2102" spans="1:4">
+      <c r="A2102">
+        <v>1</v>
+      </c>
       <c r="B2102" t="s">
         <v>206</v>
       </c>
@@ -64401,6 +64996,9 @@
       </c>
     </row>
     <row r="2104" spans="1:4">
+      <c r="A2104">
+        <v>1</v>
+      </c>
       <c r="B2104" t="s">
         <v>50</v>
       </c>
@@ -64423,6 +65021,9 @@
       </c>
     </row>
     <row r="2106" spans="1:4">
+      <c r="A2106">
+        <v>1</v>
+      </c>
       <c r="B2106" t="s">
         <v>148</v>
       </c>
@@ -64434,6 +65035,9 @@
       </c>
     </row>
     <row r="2107" spans="1:4">
+      <c r="A2107">
+        <v>-1</v>
+      </c>
       <c r="B2107" t="s">
         <v>50</v>
       </c>
@@ -64445,6 +65049,9 @@
       </c>
     </row>
     <row r="2108" spans="1:4">
+      <c r="A2108">
+        <v>-1</v>
+      </c>
       <c r="B2108" t="s">
         <v>50</v>
       </c>
@@ -64467,6 +65074,9 @@
       </c>
     </row>
     <row r="2110" spans="1:4">
+      <c r="A2110">
+        <v>1</v>
+      </c>
       <c r="B2110" t="s">
         <v>76</v>
       </c>
@@ -64478,6 +65088,9 @@
       </c>
     </row>
     <row r="2111" spans="1:4">
+      <c r="A2111">
+        <v>1</v>
+      </c>
       <c r="B2111" t="s">
         <v>50</v>
       </c>
@@ -64489,6 +65102,9 @@
       </c>
     </row>
     <row r="2112" spans="1:4">
+      <c r="A2112">
+        <v>-1</v>
+      </c>
       <c r="B2112" t="s">
         <v>50</v>
       </c>
@@ -64511,6 +65127,9 @@
       </c>
     </row>
     <row r="2114" spans="1:4">
+      <c r="A2114">
+        <v>1</v>
+      </c>
       <c r="B2114" t="s">
         <v>50</v>
       </c>
@@ -64522,6 +65141,9 @@
       </c>
     </row>
     <row r="2115" spans="1:4">
+      <c r="A2115">
+        <v>1</v>
+      </c>
       <c r="B2115" t="s">
         <v>50</v>
       </c>
@@ -64555,6 +65177,9 @@
       </c>
     </row>
     <row r="2118" spans="1:4">
+      <c r="A2118">
+        <v>1</v>
+      </c>
       <c r="B2118" t="s">
         <v>50</v>
       </c>
@@ -64591,6 +65216,9 @@
       </c>
     </row>
     <row r="2121" spans="1:4">
+      <c r="A2121">
+        <v>1</v>
+      </c>
       <c r="B2121" t="s">
         <v>148</v>
       </c>
@@ -64602,6 +65230,9 @@
       </c>
     </row>
     <row r="2122" spans="1:4">
+      <c r="A2122">
+        <v>1</v>
+      </c>
       <c r="B2122" t="s">
         <v>50</v>
       </c>
@@ -64613,6 +65244,9 @@
       </c>
     </row>
     <row r="2123" spans="1:4">
+      <c r="A2123">
+        <v>1</v>
+      </c>
       <c r="B2123" t="s">
         <v>148</v>
       </c>
@@ -64624,6 +65258,9 @@
       </c>
     </row>
     <row r="2124" spans="1:4">
+      <c r="A2124">
+        <v>1</v>
+      </c>
       <c r="B2124" t="s">
         <v>76</v>
       </c>
@@ -64646,6 +65283,9 @@
       </c>
     </row>
     <row r="2126" spans="1:4">
+      <c r="A2126">
+        <v>1</v>
+      </c>
       <c r="B2126" t="s">
         <v>50</v>
       </c>
@@ -64668,6 +65308,9 @@
       </c>
     </row>
     <row r="2128" spans="1:4">
+      <c r="A2128">
+        <v>-1</v>
+      </c>
       <c r="B2128" t="s">
         <v>50</v>
       </c>
@@ -64678,7 +65321,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2129" spans="2:4">
+    <row r="2129" spans="1:4">
       <c r="B2129" t="s">
         <v>90</v>
       </c>
@@ -64689,7 +65332,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="2130" spans="2:4">
+    <row r="2130" spans="1:4">
       <c r="B2130" t="s">
         <v>90</v>
       </c>
@@ -64700,7 +65343,10 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="2131" spans="2:4">
+    <row r="2131" spans="1:4">
+      <c r="A2131">
+        <v>1</v>
+      </c>
       <c r="B2131" t="s">
         <v>50</v>
       </c>
@@ -64711,7 +65357,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2132" spans="2:4">
+    <row r="2132" spans="1:4">
+      <c r="A2132">
+        <v>1</v>
+      </c>
       <c r="B2132" t="s">
         <v>148</v>
       </c>
@@ -64722,7 +65371,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="2133" spans="2:4">
+    <row r="2133" spans="1:4">
       <c r="B2133" t="s">
         <v>47</v>
       </c>
@@ -64733,7 +65382,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="2134" spans="2:4">
+    <row r="2134" spans="1:4">
       <c r="B2134" t="s">
         <v>102</v>
       </c>
@@ -64744,7 +65393,10 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="2135" spans="2:4">
+    <row r="2135" spans="1:4">
+      <c r="A2135">
+        <v>1</v>
+      </c>
       <c r="B2135" t="s">
         <v>50</v>
       </c>
@@ -64755,7 +65407,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="2136" spans="2:4">
+    <row r="2136" spans="1:4">
       <c r="B2136" t="s">
         <v>90</v>
       </c>
@@ -64766,7 +65418,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="2137" spans="2:4">
+    <row r="2137" spans="1:4">
       <c r="B2137" t="s">
         <v>63</v>
       </c>
@@ -64777,7 +65429,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="2138" spans="2:4">
+    <row r="2138" spans="1:4">
       <c r="B2138" t="s">
         <v>4</v>
       </c>
@@ -64788,7 +65440,10 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2139" spans="2:4">
+    <row r="2139" spans="1:4">
+      <c r="A2139">
+        <v>1</v>
+      </c>
       <c r="B2139" t="s">
         <v>76</v>
       </c>
@@ -64799,7 +65454,10 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="2140" spans="2:4">
+    <row r="2140" spans="1:4">
+      <c r="A2140">
+        <v>-1</v>
+      </c>
       <c r="B2140" t="s">
         <v>50</v>
       </c>
@@ -64810,7 +65468,10 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="2141" spans="2:4">
+    <row r="2141" spans="1:4">
+      <c r="A2141">
+        <v>1</v>
+      </c>
       <c r="B2141" t="s">
         <v>76</v>
       </c>
@@ -64821,7 +65482,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="2142" spans="2:4">
+    <row r="2142" spans="1:4">
       <c r="B2142" t="s">
         <v>113</v>
       </c>
@@ -64832,7 +65493,10 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="2143" spans="2:4">
+    <row r="2143" spans="1:4">
+      <c r="A2143">
+        <v>1</v>
+      </c>
       <c r="B2143" t="s">
         <v>44</v>
       </c>
@@ -64843,7 +65507,10 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="2144" spans="2:4">
+    <row r="2144" spans="1:4">
+      <c r="A2144">
+        <v>1</v>
+      </c>
       <c r="B2144" t="s">
         <v>76</v>
       </c>
@@ -64866,6 +65533,9 @@
       </c>
     </row>
     <row r="2146" spans="1:4">
+      <c r="A2146">
+        <v>1</v>
+      </c>
       <c r="B2146" t="s">
         <v>76</v>
       </c>
@@ -64877,6 +65547,9 @@
       </c>
     </row>
     <row r="2147" spans="1:4">
+      <c r="A2147">
+        <v>1</v>
+      </c>
       <c r="B2147" t="s">
         <v>136</v>
       </c>
@@ -64943,6 +65616,9 @@
       </c>
     </row>
     <row r="2153" spans="1:4">
+      <c r="A2153">
+        <v>1</v>
+      </c>
       <c r="B2153" t="s">
         <v>148</v>
       </c>
@@ -64954,6 +65630,9 @@
       </c>
     </row>
     <row r="2154" spans="1:4">
+      <c r="A2154">
+        <v>1</v>
+      </c>
       <c r="B2154" t="s">
         <v>148</v>
       </c>
@@ -65048,6 +65727,9 @@
       </c>
     </row>
     <row r="2162" spans="1:4">
+      <c r="A2162">
+        <v>-1</v>
+      </c>
       <c r="B2162" t="s">
         <v>50</v>
       </c>
@@ -65059,6 +65741,9 @@
       </c>
     </row>
     <row r="2163" spans="1:4">
+      <c r="A2163">
+        <v>-1</v>
+      </c>
       <c r="B2163" t="s">
         <v>50</v>
       </c>
@@ -65070,6 +65755,9 @@
       </c>
     </row>
     <row r="2164" spans="1:4">
+      <c r="A2164">
+        <v>1</v>
+      </c>
       <c r="B2164" t="s">
         <v>50</v>
       </c>
@@ -65081,6 +65769,9 @@
       </c>
     </row>
     <row r="2165" spans="1:4">
+      <c r="A2165">
+        <v>1</v>
+      </c>
       <c r="B2165" t="s">
         <v>76</v>
       </c>
@@ -65106,6 +65797,9 @@
       </c>
     </row>
     <row r="2167" spans="1:4">
+      <c r="A2167">
+        <v>1</v>
+      </c>
       <c r="B2167" t="s">
         <v>76</v>
       </c>
@@ -65117,6 +65811,9 @@
       </c>
     </row>
     <row r="2168" spans="1:4">
+      <c r="A2168">
+        <v>1</v>
+      </c>
       <c r="B2168" t="s">
         <v>76</v>
       </c>
@@ -65128,6 +65825,9 @@
       </c>
     </row>
     <row r="2169" spans="1:4">
+      <c r="A2169">
+        <v>1</v>
+      </c>
       <c r="B2169" t="s">
         <v>76</v>
       </c>
@@ -65172,6 +65872,9 @@
       </c>
     </row>
     <row r="2173" spans="1:4">
+      <c r="A2173">
+        <v>1</v>
+      </c>
       <c r="B2173" t="s">
         <v>44</v>
       </c>
@@ -65205,6 +65908,9 @@
       </c>
     </row>
     <row r="2176" spans="1:4">
+      <c r="A2176">
+        <v>1</v>
+      </c>
       <c r="B2176" t="s">
         <v>44</v>
       </c>
@@ -65216,6 +65922,9 @@
       </c>
     </row>
     <row r="2177" spans="1:4">
+      <c r="A2177">
+        <v>1</v>
+      </c>
       <c r="B2177" t="s">
         <v>206</v>
       </c>
@@ -65238,6 +65947,9 @@
       </c>
     </row>
     <row r="2179" spans="1:4">
+      <c r="A2179">
+        <v>1</v>
+      </c>
       <c r="B2179" t="s">
         <v>50</v>
       </c>
@@ -65307,6 +66019,9 @@
       </c>
     </row>
     <row r="2185" spans="1:4">
+      <c r="A2185">
+        <v>-1</v>
+      </c>
       <c r="B2185" t="s">
         <v>50</v>
       </c>
@@ -65318,6 +66033,9 @@
       </c>
     </row>
     <row r="2186" spans="1:4">
+      <c r="A2186">
+        <v>-1</v>
+      </c>
       <c r="B2186" t="s">
         <v>50</v>
       </c>
@@ -65329,6 +66047,9 @@
       </c>
     </row>
     <row r="2187" spans="1:4">
+      <c r="A2187">
+        <v>1</v>
+      </c>
       <c r="B2187" t="s">
         <v>50</v>
       </c>
@@ -65397,7 +66118,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="2193" spans="2:4">
+    <row r="2193" spans="1:4">
       <c r="B2193" t="s">
         <v>8</v>
       </c>
@@ -65408,7 +66129,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2194" spans="2:4">
+    <row r="2194" spans="1:4">
       <c r="B2194" t="s">
         <v>90</v>
       </c>
@@ -65419,7 +66140,10 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="2195" spans="2:4">
+    <row r="2195" spans="1:4">
+      <c r="A2195">
+        <v>1</v>
+      </c>
       <c r="B2195" t="s">
         <v>50</v>
       </c>
@@ -65430,7 +66154,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="2196" spans="2:4">
+    <row r="2196" spans="1:4">
       <c r="B2196" t="s">
         <v>181</v>
       </c>
@@ -65441,7 +66165,10 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="2197" spans="2:4">
+    <row r="2197" spans="1:4">
+      <c r="A2197">
+        <v>1</v>
+      </c>
       <c r="B2197" t="s">
         <v>44</v>
       </c>
@@ -65452,7 +66179,10 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="2198" spans="2:4">
+    <row r="2198" spans="1:4">
+      <c r="A2198">
+        <v>1</v>
+      </c>
       <c r="B2198" t="s">
         <v>50</v>
       </c>
@@ -65463,7 +66193,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2199" spans="2:4">
+    <row r="2199" spans="1:4">
       <c r="B2199" t="s">
         <v>4</v>
       </c>
@@ -65474,7 +66204,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="2200" spans="2:4">
+    <row r="2200" spans="1:4">
       <c r="B2200" t="s">
         <v>8</v>
       </c>
@@ -65485,7 +66215,10 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="2201" spans="2:4">
+    <row r="2201" spans="1:4">
+      <c r="A2201">
+        <v>1</v>
+      </c>
       <c r="B2201" t="s">
         <v>206</v>
       </c>
@@ -65496,7 +66229,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="2202" spans="2:4">
+    <row r="2202" spans="1:4">
       <c r="B2202" t="s">
         <v>8</v>
       </c>
@@ -65507,7 +66240,10 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2203" spans="2:4">
+    <row r="2203" spans="1:4">
+      <c r="A2203">
+        <v>1</v>
+      </c>
       <c r="B2203" t="s">
         <v>148</v>
       </c>
@@ -65518,7 +66254,10 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="2204" spans="2:4">
+    <row r="2204" spans="1:4">
+      <c r="A2204">
+        <v>-1</v>
+      </c>
       <c r="B2204" t="s">
         <v>148</v>
       </c>
@@ -65529,7 +66268,10 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="2205" spans="2:4">
+    <row r="2205" spans="1:4">
+      <c r="A2205">
+        <v>1</v>
+      </c>
       <c r="B2205" t="s">
         <v>206</v>
       </c>
@@ -65540,7 +66282,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2206" spans="2:4">
+    <row r="2206" spans="1:4">
       <c r="B2206" t="s">
         <v>63</v>
       </c>
@@ -65551,7 +66293,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="2207" spans="2:4">
+    <row r="2207" spans="1:4">
       <c r="B2207" t="s">
         <v>47</v>
       </c>
@@ -65562,7 +66304,10 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="2208" spans="2:4">
+    <row r="2208" spans="1:4">
+      <c r="A2208">
+        <v>-1</v>
+      </c>
       <c r="B2208" t="s">
         <v>148</v>
       </c>
@@ -65574,6 +66319,9 @@
       </c>
     </row>
     <row r="2209" spans="1:4">
+      <c r="A2209">
+        <v>1</v>
+      </c>
       <c r="B2209" t="s">
         <v>44</v>
       </c>
@@ -65651,6 +66399,9 @@
       </c>
     </row>
     <row r="2216" spans="1:4">
+      <c r="A2216">
+        <v>1</v>
+      </c>
       <c r="B2216" t="s">
         <v>44</v>
       </c>
@@ -65698,6 +66449,9 @@
       </c>
     </row>
     <row r="2220" spans="1:4">
+      <c r="A2220">
+        <v>1</v>
+      </c>
       <c r="B2220" t="s">
         <v>148</v>
       </c>
@@ -65709,6 +66463,9 @@
       </c>
     </row>
     <row r="2221" spans="1:4">
+      <c r="A2221">
+        <v>1</v>
+      </c>
       <c r="B2221" t="s">
         <v>148</v>
       </c>
@@ -65745,6 +66502,9 @@
       </c>
     </row>
     <row r="2224" spans="1:4">
+      <c r="A2224">
+        <v>1</v>
+      </c>
       <c r="B2224" t="s">
         <v>50</v>
       </c>
@@ -65755,7 +66515,10 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="2225" spans="2:4">
+    <row r="2225" spans="1:4">
+      <c r="A2225">
+        <v>1</v>
+      </c>
       <c r="B2225" t="s">
         <v>206</v>
       </c>
@@ -65766,7 +66529,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="2226" spans="2:4">
+    <row r="2226" spans="1:4">
       <c r="B2226" t="s">
         <v>15</v>
       </c>
@@ -65777,7 +66540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2227" spans="2:4">
+    <row r="2227" spans="1:4">
       <c r="B2227" t="s">
         <v>15</v>
       </c>
@@ -65788,7 +66551,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="2228" spans="2:4">
+    <row r="2228" spans="1:4">
       <c r="B2228" t="s">
         <v>253</v>
       </c>
@@ -65799,7 +66562,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2229" spans="2:4">
+    <row r="2229" spans="1:4">
       <c r="B2229" t="s">
         <v>90</v>
       </c>
@@ -65810,7 +66573,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="2230" spans="2:4">
+    <row r="2230" spans="1:4">
       <c r="B2230" t="s">
         <v>90</v>
       </c>
@@ -65821,7 +66584,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2231" spans="2:4">
+    <row r="2231" spans="1:4">
+      <c r="A2231">
+        <v>-1</v>
+      </c>
       <c r="B2231" t="s">
         <v>44</v>
       </c>
@@ -65832,7 +66598,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="2232" spans="2:4">
+    <row r="2232" spans="1:4">
       <c r="B2232" t="s">
         <v>4</v>
       </c>
@@ -65843,7 +66609,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="2233" spans="2:4">
+    <row r="2233" spans="1:4">
       <c r="B2233" t="s">
         <v>47</v>
       </c>
@@ -65854,7 +66620,10 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="2234" spans="2:4">
+    <row r="2234" spans="1:4">
+      <c r="A2234">
+        <v>1</v>
+      </c>
       <c r="B2234" t="s">
         <v>44</v>
       </c>
@@ -65865,7 +66634,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="2235" spans="2:4">
+    <row r="2235" spans="1:4">
       <c r="B2235" t="s">
         <v>47</v>
       </c>
@@ -65876,7 +66645,10 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="2236" spans="2:4">
+    <row r="2236" spans="1:4">
+      <c r="A2236">
+        <v>1</v>
+      </c>
       <c r="B2236" t="s">
         <v>148</v>
       </c>
@@ -65887,7 +66659,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="2237" spans="2:4">
+    <row r="2237" spans="1:4">
       <c r="B2237" t="s">
         <v>47</v>
       </c>
@@ -65898,7 +66670,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="2238" spans="2:4">
+    <row r="2238" spans="1:4">
       <c r="B2238" t="s">
         <v>47</v>
       </c>
@@ -65909,7 +66681,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="2239" spans="2:4">
+    <row r="2239" spans="1:4">
       <c r="B2239" t="s">
         <v>47</v>
       </c>
@@ -65920,7 +66692,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="2240" spans="2:4">
+    <row r="2240" spans="1:4">
       <c r="B2240" t="s">
         <v>47</v>
       </c>
@@ -65931,7 +66703,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="2241" spans="2:4">
+    <row r="2241" spans="1:4">
       <c r="B2241" t="s">
         <v>47</v>
       </c>
@@ -65942,7 +66714,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="2242" spans="2:4">
+    <row r="2242" spans="1:4">
       <c r="B2242" t="s">
         <v>47</v>
       </c>
@@ -65953,7 +66725,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="2243" spans="2:4">
+    <row r="2243" spans="1:4">
       <c r="B2243" t="s">
         <v>47</v>
       </c>
@@ -65964,7 +66736,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="2244" spans="2:4">
+    <row r="2244" spans="1:4">
       <c r="B2244" t="s">
         <v>8</v>
       </c>
@@ -65975,7 +66747,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="2245" spans="2:4">
+    <row r="2245" spans="1:4">
       <c r="B2245" t="s">
         <v>4</v>
       </c>
@@ -65986,7 +66758,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="2246" spans="2:4">
+    <row r="2246" spans="1:4">
       <c r="B2246" t="s">
         <v>47</v>
       </c>
@@ -65997,7 +66769,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2247" spans="2:4">
+    <row r="2247" spans="1:4">
       <c r="B2247" t="s">
         <v>47</v>
       </c>
@@ -66008,7 +66780,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="2248" spans="2:4">
+    <row r="2248" spans="1:4">
       <c r="B2248" t="s">
         <v>47</v>
       </c>
@@ -66019,7 +66791,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2249" spans="2:4">
+    <row r="2249" spans="1:4">
       <c r="B2249" t="s">
         <v>8</v>
       </c>
@@ -66030,7 +66802,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="2250" spans="2:4">
+    <row r="2250" spans="1:4">
       <c r="B2250" t="s">
         <v>90</v>
       </c>
@@ -66041,7 +66813,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="2251" spans="2:4">
+    <row r="2251" spans="1:4">
       <c r="B2251" t="s">
         <v>15</v>
       </c>
@@ -66052,7 +66824,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="2252" spans="2:4">
+    <row r="2252" spans="1:4">
       <c r="B2252" t="s">
         <v>15</v>
       </c>
@@ -66063,7 +66835,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="2253" spans="2:4">
+    <row r="2253" spans="1:4">
       <c r="B2253" t="s">
         <v>8</v>
       </c>
@@ -66074,7 +66846,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2254" spans="2:4">
+    <row r="2254" spans="1:4">
       <c r="B2254" t="s">
         <v>113</v>
       </c>
@@ -66085,7 +66857,10 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="2255" spans="2:4">
+    <row r="2255" spans="1:4">
+      <c r="A2255">
+        <v>1</v>
+      </c>
       <c r="B2255" t="s">
         <v>50</v>
       </c>
@@ -66096,7 +66871,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="2256" spans="2:4">
+    <row r="2256" spans="1:4">
       <c r="B2256" t="s">
         <v>8</v>
       </c>
@@ -66108,6 +66883,9 @@
       </c>
     </row>
     <row r="2257" spans="1:4">
+      <c r="A2257">
+        <v>1</v>
+      </c>
       <c r="B2257" t="s">
         <v>206</v>
       </c>
@@ -66119,6 +66897,9 @@
       </c>
     </row>
     <row r="2258" spans="1:4">
+      <c r="A2258">
+        <v>1</v>
+      </c>
       <c r="B2258" t="s">
         <v>206</v>
       </c>
@@ -66130,6 +66911,9 @@
       </c>
     </row>
     <row r="2259" spans="1:4">
+      <c r="A2259">
+        <v>1</v>
+      </c>
       <c r="B2259" t="s">
         <v>50</v>
       </c>
@@ -66141,6 +66925,9 @@
       </c>
     </row>
     <row r="2260" spans="1:4">
+      <c r="A2260">
+        <v>1</v>
+      </c>
       <c r="B2260" t="s">
         <v>44</v>
       </c>
@@ -66152,6 +66939,9 @@
       </c>
     </row>
     <row r="2261" spans="1:4">
+      <c r="A2261">
+        <v>1</v>
+      </c>
       <c r="B2261" t="s">
         <v>148</v>
       </c>
@@ -66174,6 +66964,9 @@
       </c>
     </row>
     <row r="2263" spans="1:4">
+      <c r="A2263">
+        <v>1</v>
+      </c>
       <c r="B2263" t="s">
         <v>136</v>
       </c>
@@ -66210,6 +67003,9 @@
       </c>
     </row>
     <row r="2266" spans="1:4">
+      <c r="A2266">
+        <v>1</v>
+      </c>
       <c r="B2266" t="s">
         <v>136</v>
       </c>
@@ -66351,6 +67147,9 @@
       </c>
     </row>
     <row r="2278" spans="1:4">
+      <c r="A2278">
+        <v>1</v>
+      </c>
       <c r="B2278" t="s">
         <v>44</v>
       </c>
@@ -66373,6 +67172,9 @@
       </c>
     </row>
     <row r="2280" spans="1:4">
+      <c r="A2280">
+        <v>1</v>
+      </c>
       <c r="B2280" t="s">
         <v>148</v>
       </c>
@@ -66384,6 +67186,9 @@
       </c>
     </row>
     <row r="2281" spans="1:4">
+      <c r="A2281">
+        <v>1</v>
+      </c>
       <c r="B2281" t="s">
         <v>148</v>
       </c>
@@ -66395,6 +67200,9 @@
       </c>
     </row>
     <row r="2282" spans="1:4">
+      <c r="A2282">
+        <v>1</v>
+      </c>
       <c r="B2282" t="s">
         <v>50</v>
       </c>
@@ -66406,6 +67214,9 @@
       </c>
     </row>
     <row r="2283" spans="1:4">
+      <c r="A2283">
+        <v>1</v>
+      </c>
       <c r="B2283" t="s">
         <v>76</v>
       </c>
@@ -66417,6 +67228,9 @@
       </c>
     </row>
     <row r="2284" spans="1:4">
+      <c r="A2284">
+        <v>-1</v>
+      </c>
       <c r="B2284" t="s">
         <v>397</v>
       </c>
@@ -66439,6 +67253,9 @@
       </c>
     </row>
     <row r="2286" spans="1:4">
+      <c r="A2286">
+        <v>1</v>
+      </c>
       <c r="B2286" t="s">
         <v>50</v>
       </c>
@@ -66472,6 +67289,9 @@
       </c>
     </row>
     <row r="2289" spans="1:4">
+      <c r="A2289">
+        <v>1</v>
+      </c>
       <c r="B2289" t="s">
         <v>44</v>
       </c>
@@ -66555,6 +67375,9 @@
       </c>
     </row>
     <row r="2296" spans="1:4">
+      <c r="A2296">
+        <v>1</v>
+      </c>
       <c r="B2296" t="s">
         <v>397</v>
       </c>
@@ -66566,6 +67389,9 @@
       </c>
     </row>
     <row r="2297" spans="1:4">
+      <c r="A2297">
+        <v>-1</v>
+      </c>
       <c r="B2297" t="s">
         <v>206</v>
       </c>
@@ -66653,7 +67479,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="2305" spans="2:4">
+    <row r="2305" spans="1:4">
       <c r="B2305" t="s">
         <v>8</v>
       </c>
@@ -66664,7 +67490,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="2306" spans="2:4">
+    <row r="2306" spans="1:4">
       <c r="B2306" t="s">
         <v>90</v>
       </c>
@@ -66675,7 +67501,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2307" spans="2:4">
+    <row r="2307" spans="1:4">
       <c r="B2307" t="s">
         <v>102</v>
       </c>
@@ -66686,7 +67512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2308" spans="2:4">
+    <row r="2308" spans="1:4">
       <c r="B2308" t="s">
         <v>90</v>
       </c>
@@ -66697,7 +67523,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="2309" spans="2:4">
+    <row r="2309" spans="1:4">
       <c r="B2309" t="s">
         <v>8</v>
       </c>
@@ -66708,7 +67534,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2310" spans="2:4">
+    <row r="2310" spans="1:4">
       <c r="B2310" t="s">
         <v>15</v>
       </c>
@@ -66719,7 +67545,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="2311" spans="2:4">
+    <row r="2311" spans="1:4">
       <c r="B2311" t="s">
         <v>15</v>
       </c>
@@ -66730,7 +67556,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2312" spans="2:4">
+    <row r="2312" spans="1:4">
+      <c r="A2312">
+        <v>1</v>
+      </c>
       <c r="B2312" t="s">
         <v>44</v>
       </c>
@@ -66741,7 +67570,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="2313" spans="2:4">
+    <row r="2313" spans="1:4">
       <c r="B2313" t="s">
         <v>1169</v>
       </c>
@@ -66752,7 +67581,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="2314" spans="2:4">
+    <row r="2314" spans="1:4">
       <c r="B2314" t="s">
         <v>253</v>
       </c>
@@ -66763,7 +67592,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2315" spans="2:4">
+    <row r="2315" spans="1:4">
+      <c r="A2315">
+        <v>1</v>
+      </c>
       <c r="B2315" t="s">
         <v>148</v>
       </c>
@@ -66774,7 +67606,10 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="2316" spans="2:4">
+    <row r="2316" spans="1:4">
+      <c r="A2316">
+        <v>1</v>
+      </c>
       <c r="B2316" t="s">
         <v>76</v>
       </c>
@@ -66785,7 +67620,10 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="2317" spans="2:4">
+    <row r="2317" spans="1:4">
+      <c r="A2317">
+        <v>-1</v>
+      </c>
       <c r="B2317" t="s">
         <v>50</v>
       </c>
@@ -66796,7 +67634,10 @@
         <v>853</v>
       </c>
     </row>
-    <row r="2318" spans="2:4">
+    <row r="2318" spans="1:4">
+      <c r="A2318">
+        <v>1</v>
+      </c>
       <c r="B2318" t="s">
         <v>206</v>
       </c>
@@ -66807,7 +67648,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="2319" spans="2:4">
+    <row r="2319" spans="1:4">
       <c r="B2319" t="s">
         <v>15</v>
       </c>
@@ -66818,7 +67659,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="2320" spans="2:4">
+    <row r="2320" spans="1:4">
       <c r="B2320" t="s">
         <v>4</v>
       </c>
@@ -66830,6 +67671,9 @@
       </c>
     </row>
     <row r="2321" spans="1:4">
+      <c r="A2321">
+        <v>-1</v>
+      </c>
       <c r="B2321" t="s">
         <v>206</v>
       </c>
@@ -66924,6 +67768,9 @@
       </c>
     </row>
     <row r="2329" spans="1:4">
+      <c r="A2329">
+        <v>-1</v>
+      </c>
       <c r="B2329" t="s">
         <v>76</v>
       </c>
@@ -67011,7 +67858,10 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="2337" spans="2:4">
+    <row r="2337" spans="1:4">
+      <c r="A2337">
+        <v>-1</v>
+      </c>
       <c r="B2337" t="s">
         <v>136</v>
       </c>
@@ -67022,7 +67872,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="2338" spans="2:4">
+    <row r="2338" spans="1:4">
       <c r="B2338" t="s">
         <v>15</v>
       </c>
@@ -67033,7 +67883,10 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="2339" spans="2:4">
+    <row r="2339" spans="1:4">
+      <c r="A2339">
+        <v>1</v>
+      </c>
       <c r="B2339" t="s">
         <v>76</v>
       </c>
@@ -67044,7 +67897,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="2340" spans="2:4">
+    <row r="2340" spans="1:4">
       <c r="B2340" t="s">
         <v>47</v>
       </c>
@@ -67055,7 +67908,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="2341" spans="2:4">
+    <row r="2341" spans="1:4">
       <c r="B2341" t="s">
         <v>15</v>
       </c>
@@ -67066,7 +67919,10 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="2342" spans="2:4">
+    <row r="2342" spans="1:4">
+      <c r="A2342">
+        <v>-1</v>
+      </c>
       <c r="B2342" t="s">
         <v>206</v>
       </c>
@@ -67077,7 +67933,10 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="2343" spans="2:4">
+    <row r="2343" spans="1:4">
+      <c r="A2343">
+        <v>1</v>
+      </c>
       <c r="B2343" t="s">
         <v>148</v>
       </c>
@@ -67088,7 +67947,10 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="2344" spans="2:4">
+    <row r="2344" spans="1:4">
+      <c r="A2344">
+        <v>1</v>
+      </c>
       <c r="B2344" t="s">
         <v>206</v>
       </c>
@@ -67099,7 +67961,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="2345" spans="2:4">
+    <row r="2345" spans="1:4">
       <c r="B2345" t="s">
         <v>8</v>
       </c>
@@ -67110,7 +67972,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="2346" spans="2:4">
+    <row r="2346" spans="1:4">
       <c r="B2346" t="s">
         <v>8</v>
       </c>
@@ -67121,7 +67983,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="2347" spans="2:4">
+    <row r="2347" spans="1:4">
       <c r="B2347" t="s">
         <v>90</v>
       </c>
@@ -67132,7 +67994,10 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="2348" spans="2:4">
+    <row r="2348" spans="1:4">
+      <c r="A2348">
+        <v>-1</v>
+      </c>
       <c r="B2348" t="s">
         <v>50</v>
       </c>
@@ -67143,7 +68008,10 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2349" spans="2:4">
+    <row r="2349" spans="1:4">
+      <c r="A2349">
+        <v>-1</v>
+      </c>
       <c r="B2349" t="s">
         <v>50</v>
       </c>
@@ -67154,7 +68022,10 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2350" spans="2:4">
+    <row r="2350" spans="1:4">
+      <c r="A2350">
+        <v>-1</v>
+      </c>
       <c r="B2350" t="s">
         <v>50</v>
       </c>
@@ -67165,7 +68036,10 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2351" spans="2:4">
+    <row r="2351" spans="1:4">
+      <c r="A2351">
+        <v>-1</v>
+      </c>
       <c r="B2351" t="s">
         <v>50</v>
       </c>
@@ -67176,7 +68050,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="2352" spans="2:4">
+    <row r="2352" spans="1:4">
       <c r="B2352" t="s">
         <v>90</v>
       </c>
@@ -67187,7 +68061,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2353" spans="2:4">
+    <row r="2353" spans="1:4">
       <c r="B2353" t="s">
         <v>90</v>
       </c>
@@ -67198,7 +68072,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="2354" spans="2:4">
+    <row r="2354" spans="1:4">
       <c r="B2354" t="s">
         <v>90</v>
       </c>
@@ -67209,7 +68083,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2355" spans="2:4">
+    <row r="2355" spans="1:4">
       <c r="B2355" t="s">
         <v>90</v>
       </c>
@@ -67220,7 +68094,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2356" spans="2:4">
+    <row r="2356" spans="1:4">
       <c r="B2356" t="s">
         <v>90</v>
       </c>
@@ -67231,7 +68105,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="2357" spans="2:4">
+    <row r="2357" spans="1:4">
       <c r="B2357" t="s">
         <v>90</v>
       </c>
@@ -67242,7 +68116,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="2358" spans="2:4">
+    <row r="2358" spans="1:4">
       <c r="B2358" t="s">
         <v>47</v>
       </c>
@@ -67253,7 +68127,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="2359" spans="2:4">
+    <row r="2359" spans="1:4">
       <c r="B2359" t="s">
         <v>47</v>
       </c>
@@ -67264,7 +68138,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="2360" spans="2:4">
+    <row r="2360" spans="1:4">
       <c r="B2360" t="s">
         <v>4</v>
       </c>
@@ -67275,7 +68149,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="2361" spans="2:4">
+    <row r="2361" spans="1:4">
       <c r="B2361" t="s">
         <v>4</v>
       </c>
@@ -67286,7 +68160,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="2362" spans="2:4">
+    <row r="2362" spans="1:4">
       <c r="B2362" t="s">
         <v>8</v>
       </c>
@@ -67297,7 +68171,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="2363" spans="2:4">
+    <row r="2363" spans="1:4">
       <c r="B2363" t="s">
         <v>107</v>
       </c>
@@ -67308,7 +68182,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2364" spans="2:4">
+    <row r="2364" spans="1:4">
       <c r="B2364" t="s">
         <v>47</v>
       </c>
@@ -67319,7 +68193,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="2365" spans="2:4">
+    <row r="2365" spans="1:4">
       <c r="B2365" t="s">
         <v>47</v>
       </c>
@@ -67330,7 +68204,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="2366" spans="2:4">
+    <row r="2366" spans="1:4">
       <c r="B2366" t="s">
         <v>102</v>
       </c>
@@ -67341,7 +68215,10 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2367" spans="2:4">
+    <row r="2367" spans="1:4">
+      <c r="A2367">
+        <v>1</v>
+      </c>
       <c r="B2367" t="s">
         <v>148</v>
       </c>
@@ -67352,7 +68229,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="2368" spans="2:4">
+    <row r="2368" spans="1:4">
       <c r="B2368" t="s">
         <v>80</v>
       </c>
@@ -67397,6 +68274,9 @@
       </c>
     </row>
     <row r="2372" spans="1:4">
+      <c r="A2372">
+        <v>1</v>
+      </c>
       <c r="B2372" t="s">
         <v>44</v>
       </c>
@@ -67444,6 +68324,9 @@
       </c>
     </row>
     <row r="2376" spans="1:4">
+      <c r="A2376">
+        <v>1</v>
+      </c>
       <c r="B2376" t="s">
         <v>50</v>
       </c>
@@ -67455,6 +68338,9 @@
       </c>
     </row>
     <row r="2377" spans="1:4">
+      <c r="A2377">
+        <v>1</v>
+      </c>
       <c r="B2377" t="s">
         <v>50</v>
       </c>
@@ -67466,6 +68352,9 @@
       </c>
     </row>
     <row r="2378" spans="1:4">
+      <c r="A2378">
+        <v>1</v>
+      </c>
       <c r="B2378" t="s">
         <v>90</v>
       </c>
@@ -67477,6 +68366,9 @@
       </c>
     </row>
     <row r="2379" spans="1:4">
+      <c r="A2379">
+        <v>1</v>
+      </c>
       <c r="B2379" t="s">
         <v>102</v>
       </c>
@@ -67488,6 +68380,9 @@
       </c>
     </row>
     <row r="2380" spans="1:4">
+      <c r="A2380">
+        <v>1</v>
+      </c>
       <c r="B2380" t="s">
         <v>90</v>
       </c>
@@ -67499,6 +68394,9 @@
       </c>
     </row>
     <row r="2381" spans="1:4">
+      <c r="A2381">
+        <v>1</v>
+      </c>
       <c r="B2381" t="s">
         <v>90</v>
       </c>
@@ -67510,6 +68408,9 @@
       </c>
     </row>
     <row r="2382" spans="1:4">
+      <c r="A2382">
+        <v>1</v>
+      </c>
       <c r="B2382" t="s">
         <v>90</v>
       </c>
@@ -67521,6 +68422,9 @@
       </c>
     </row>
     <row r="2383" spans="1:4">
+      <c r="A2383">
+        <v>1</v>
+      </c>
       <c r="B2383" t="s">
         <v>90</v>
       </c>
@@ -67532,6 +68436,9 @@
       </c>
     </row>
     <row r="2384" spans="1:4">
+      <c r="A2384">
+        <v>-1</v>
+      </c>
       <c r="B2384" t="s">
         <v>50</v>
       </c>
@@ -67542,7 +68449,10 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2385" spans="2:4">
+    <row r="2385" spans="1:4">
+      <c r="A2385">
+        <v>1</v>
+      </c>
       <c r="B2385" t="s">
         <v>90</v>
       </c>
@@ -67553,7 +68463,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="2386" spans="2:4">
+    <row r="2386" spans="1:4">
+      <c r="A2386">
+        <v>1</v>
+      </c>
       <c r="B2386" t="s">
         <v>90</v>
       </c>
@@ -67564,7 +68477,10 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="2387" spans="2:4">
+    <row r="2387" spans="1:4">
+      <c r="A2387">
+        <v>1</v>
+      </c>
       <c r="B2387" t="s">
         <v>90</v>
       </c>
@@ -67575,7 +68491,10 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="2388" spans="2:4">
+    <row r="2388" spans="1:4">
+      <c r="A2388">
+        <v>1</v>
+      </c>
       <c r="B2388" t="s">
         <v>90</v>
       </c>
@@ -67586,7 +68505,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2389" spans="2:4">
+    <row r="2389" spans="1:4">
+      <c r="A2389">
+        <v>1</v>
+      </c>
       <c r="B2389" t="s">
         <v>90</v>
       </c>
@@ -67597,7 +68519,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2390" spans="2:4">
+    <row r="2390" spans="1:4">
+      <c r="A2390">
+        <v>1</v>
+      </c>
       <c r="B2390" t="s">
         <v>90</v>
       </c>
@@ -67608,7 +68533,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2391" spans="2:4">
+    <row r="2391" spans="1:4">
+      <c r="A2391">
+        <v>1</v>
+      </c>
       <c r="B2391" t="s">
         <v>90</v>
       </c>
@@ -67619,7 +68547,10 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2392" spans="2:4">
+    <row r="2392" spans="1:4">
+      <c r="A2392">
+        <v>1</v>
+      </c>
       <c r="B2392" t="s">
         <v>90</v>
       </c>
@@ -67630,7 +68561,10 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2393" spans="2:4">
+    <row r="2393" spans="1:4">
+      <c r="A2393">
+        <v>1</v>
+      </c>
       <c r="B2393" t="s">
         <v>90</v>
       </c>
@@ -67641,7 +68575,10 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2394" spans="2:4">
+    <row r="2394" spans="1:4">
+      <c r="A2394">
+        <v>1</v>
+      </c>
       <c r="B2394" t="s">
         <v>90</v>
       </c>
@@ -67652,7 +68589,10 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2395" spans="2:4">
+    <row r="2395" spans="1:4">
+      <c r="A2395">
+        <v>1</v>
+      </c>
       <c r="B2395" t="s">
         <v>90</v>
       </c>
@@ -67663,7 +68603,10 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2396" spans="2:4">
+    <row r="2396" spans="1:4">
+      <c r="A2396">
+        <v>1</v>
+      </c>
       <c r="B2396" t="s">
         <v>90</v>
       </c>
@@ -67674,7 +68617,10 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="2397" spans="2:4">
+    <row r="2397" spans="1:4">
+      <c r="A2397">
+        <v>1</v>
+      </c>
       <c r="B2397" t="s">
         <v>90</v>
       </c>
@@ -67685,7 +68631,10 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="2398" spans="2:4">
+    <row r="2398" spans="1:4">
+      <c r="A2398">
+        <v>1</v>
+      </c>
       <c r="B2398" t="s">
         <v>90</v>
       </c>
@@ -67696,7 +68645,10 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="2399" spans="2:4">
+    <row r="2399" spans="1:4">
+      <c r="A2399">
+        <v>1</v>
+      </c>
       <c r="B2399" t="s">
         <v>90</v>
       </c>
@@ -67707,7 +68659,10 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="2400" spans="2:4">
+    <row r="2400" spans="1:4">
+      <c r="A2400">
+        <v>1</v>
+      </c>
       <c r="B2400" t="s">
         <v>90</v>
       </c>
@@ -67718,7 +68673,10 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="2401" spans="2:4">
+    <row r="2401" spans="1:4">
+      <c r="A2401">
+        <v>-1</v>
+      </c>
       <c r="B2401" t="s">
         <v>50</v>
       </c>
@@ -67729,7 +68687,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="2402" spans="2:4">
+    <row r="2402" spans="1:4">
       <c r="B2402" t="s">
         <v>15</v>
       </c>
@@ -67740,7 +68698,10 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="2403" spans="2:4">
+    <row r="2403" spans="1:4">
+      <c r="A2403">
+        <v>1</v>
+      </c>
       <c r="B2403" t="s">
         <v>90</v>
       </c>
@@ -67751,7 +68712,10 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2404" spans="2:4">
+    <row r="2404" spans="1:4">
+      <c r="A2404">
+        <v>1</v>
+      </c>
       <c r="B2404" t="s">
         <v>90</v>
       </c>
@@ -67762,7 +68726,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2405" spans="2:4">
+    <row r="2405" spans="1:4">
       <c r="B2405" t="s">
         <v>15</v>
       </c>
@@ -67773,7 +68737,10 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="2406" spans="2:4">
+    <row r="2406" spans="1:4">
+      <c r="A2406">
+        <v>-1</v>
+      </c>
       <c r="B2406" t="s">
         <v>50</v>
       </c>
@@ -67784,7 +68751,10 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="2407" spans="2:4">
+    <row r="2407" spans="1:4">
+      <c r="A2407">
+        <v>1</v>
+      </c>
       <c r="B2407" t="s">
         <v>90</v>
       </c>
@@ -67795,7 +68765,10 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="2408" spans="2:4">
+    <row r="2408" spans="1:4">
+      <c r="A2408">
+        <v>1</v>
+      </c>
       <c r="B2408" t="s">
         <v>90</v>
       </c>
@@ -67806,7 +68779,10 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="2409" spans="2:4">
+    <row r="2409" spans="1:4">
+      <c r="A2409">
+        <v>1</v>
+      </c>
       <c r="B2409" t="s">
         <v>90</v>
       </c>
@@ -67817,7 +68793,10 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="2410" spans="2:4">
+    <row r="2410" spans="1:4">
+      <c r="A2410">
+        <v>1</v>
+      </c>
       <c r="B2410" t="s">
         <v>90</v>
       </c>
@@ -67828,7 +68807,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="2411" spans="2:4">
+    <row r="2411" spans="1:4">
       <c r="B2411" t="s">
         <v>447</v>
       </c>
@@ -67839,7 +68818,10 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2412" spans="2:4">
+    <row r="2412" spans="1:4">
+      <c r="A2412">
+        <v>1</v>
+      </c>
       <c r="B2412" t="s">
         <v>136</v>
       </c>
@@ -67850,7 +68832,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2413" spans="2:4">
+    <row r="2413" spans="1:4">
+      <c r="A2413">
+        <v>1</v>
+      </c>
       <c r="B2413" t="s">
         <v>148</v>
       </c>
@@ -67861,7 +68846,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2414" spans="2:4">
+    <row r="2414" spans="1:4">
       <c r="B2414" t="s">
         <v>4</v>
       </c>
@@ -67872,7 +68857,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="2415" spans="2:4">
+    <row r="2415" spans="1:4">
       <c r="B2415" t="s">
         <v>47</v>
       </c>
@@ -67883,7 +68868,10 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="2416" spans="2:4">
+    <row r="2416" spans="1:4">
+      <c r="A2416">
+        <v>1</v>
+      </c>
       <c r="B2416" t="s">
         <v>50</v>
       </c>
@@ -67906,6 +68894,9 @@
       </c>
     </row>
     <row r="2418" spans="1:4">
+      <c r="A2418">
+        <v>1</v>
+      </c>
       <c r="B2418" t="s">
         <v>206</v>
       </c>
@@ -67942,6 +68933,9 @@
       </c>
     </row>
     <row r="2421" spans="1:4">
+      <c r="A2421">
+        <v>1</v>
+      </c>
       <c r="B2421" t="s">
         <v>148</v>
       </c>
@@ -67975,6 +68969,9 @@
       </c>
     </row>
     <row r="2424" spans="1:4">
+      <c r="A2424">
+        <v>1</v>
+      </c>
       <c r="B2424" t="s">
         <v>206</v>
       </c>
@@ -67986,6 +68983,9 @@
       </c>
     </row>
     <row r="2425" spans="1:4">
+      <c r="A2425">
+        <v>1</v>
+      </c>
       <c r="B2425" t="s">
         <v>44</v>
       </c>
@@ -67997,6 +68997,9 @@
       </c>
     </row>
     <row r="2426" spans="1:4">
+      <c r="A2426">
+        <v>-1</v>
+      </c>
       <c r="B2426" t="s">
         <v>44</v>
       </c>
@@ -68019,6 +69022,9 @@
       </c>
     </row>
     <row r="2428" spans="1:4">
+      <c r="A2428">
+        <v>1</v>
+      </c>
       <c r="B2428" t="s">
         <v>50</v>
       </c>
@@ -68041,6 +69047,9 @@
       </c>
     </row>
     <row r="2430" spans="1:4">
+      <c r="A2430">
+        <v>1</v>
+      </c>
       <c r="B2430" t="s">
         <v>50</v>
       </c>
@@ -68052,6 +69061,9 @@
       </c>
     </row>
     <row r="2431" spans="1:4">
+      <c r="A2431">
+        <v>-1</v>
+      </c>
       <c r="B2431" t="s">
         <v>148</v>
       </c>
@@ -68063,6 +69075,9 @@
       </c>
     </row>
     <row r="2432" spans="1:4">
+      <c r="A2432">
+        <v>1</v>
+      </c>
       <c r="B2432" t="s">
         <v>206</v>
       </c>
@@ -68107,6 +69122,9 @@
       </c>
     </row>
     <row r="2436" spans="1:4">
+      <c r="A2436">
+        <v>-1</v>
+      </c>
       <c r="B2436" t="s">
         <v>148</v>
       </c>
@@ -68154,6 +69172,9 @@
       </c>
     </row>
     <row r="2440" spans="1:4">
+      <c r="A2440">
+        <v>-1</v>
+      </c>
       <c r="B2440" t="s">
         <v>206</v>
       </c>
@@ -68176,6 +69197,9 @@
       </c>
     </row>
     <row r="2442" spans="1:4">
+      <c r="A2442">
+        <v>1</v>
+      </c>
       <c r="B2442" t="s">
         <v>50</v>
       </c>
@@ -68231,6 +69255,9 @@
       </c>
     </row>
     <row r="2447" spans="1:4">
+      <c r="A2447">
+        <v>1</v>
+      </c>
       <c r="B2447" t="s">
         <v>206</v>
       </c>
@@ -68253,6 +69280,9 @@
       </c>
     </row>
     <row r="2449" spans="1:4">
+      <c r="A2449">
+        <v>1</v>
+      </c>
       <c r="B2449" t="s">
         <v>382</v>
       </c>
@@ -68275,6 +69305,9 @@
       </c>
     </row>
     <row r="2451" spans="1:4">
+      <c r="A2451">
+        <v>1</v>
+      </c>
       <c r="B2451" t="s">
         <v>44</v>
       </c>
@@ -68341,6 +69374,9 @@
       </c>
     </row>
     <row r="2457" spans="1:4">
+      <c r="A2457">
+        <v>1</v>
+      </c>
       <c r="B2457" t="s">
         <v>148</v>
       </c>
@@ -68366,6 +69402,9 @@
       </c>
     </row>
     <row r="2459" spans="1:4">
+      <c r="A2459">
+        <v>1</v>
+      </c>
       <c r="B2459" t="s">
         <v>44</v>
       </c>
@@ -68391,6 +69430,9 @@
       </c>
     </row>
     <row r="2461" spans="1:4">
+      <c r="A2461">
+        <v>1</v>
+      </c>
       <c r="B2461" t="s">
         <v>382</v>
       </c>
@@ -68434,7 +69476,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="2465" spans="2:4">
+    <row r="2465" spans="1:4">
       <c r="B2465" t="s">
         <v>4</v>
       </c>
@@ -68445,7 +69487,10 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="2466" spans="2:4">
+    <row r="2466" spans="1:4">
+      <c r="A2466">
+        <v>1</v>
+      </c>
       <c r="B2466" t="s">
         <v>50</v>
       </c>
@@ -68456,7 +69501,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="2467" spans="2:4">
+    <row r="2467" spans="1:4">
       <c r="B2467" t="s">
         <v>113</v>
       </c>
@@ -68467,7 +69512,10 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="2468" spans="2:4">
+    <row r="2468" spans="1:4">
+      <c r="A2468">
+        <v>-1</v>
+      </c>
       <c r="B2468" t="s">
         <v>50</v>
       </c>
@@ -68478,7 +69526,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="2469" spans="2:4">
+    <row r="2469" spans="1:4">
       <c r="B2469" t="s">
         <v>63</v>
       </c>
@@ -68489,7 +69537,10 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="2470" spans="2:4">
+    <row r="2470" spans="1:4">
+      <c r="A2470">
+        <v>1</v>
+      </c>
       <c r="B2470" t="s">
         <v>136</v>
       </c>
@@ -68500,7 +69551,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="2471" spans="2:4">
+    <row r="2471" spans="1:4">
       <c r="B2471" t="s">
         <v>107</v>
       </c>
@@ -68511,7 +69562,10 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="2472" spans="2:4">
+    <row r="2472" spans="1:4">
+      <c r="A2472">
+        <v>1</v>
+      </c>
       <c r="B2472" t="s">
         <v>206</v>
       </c>
@@ -68522,7 +69576,10 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2473" spans="2:4">
+    <row r="2473" spans="1:4">
+      <c r="A2473">
+        <v>1</v>
+      </c>
       <c r="B2473" t="s">
         <v>206</v>
       </c>
@@ -68533,7 +69590,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="2474" spans="2:4">
+    <row r="2474" spans="1:4">
       <c r="B2474" t="s">
         <v>181</v>
       </c>
@@ -68544,7 +69601,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2475" spans="2:4">
+    <row r="2475" spans="1:4">
       <c r="B2475" t="s">
         <v>4</v>
       </c>
@@ -68555,7 +69612,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="2476" spans="2:4">
+    <row r="2476" spans="1:4">
       <c r="B2476" t="s">
         <v>253</v>
       </c>
@@ -68566,7 +69623,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="2477" spans="2:4">
+    <row r="2477" spans="1:4">
       <c r="B2477" t="s">
         <v>90</v>
       </c>
@@ -68577,7 +69634,10 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="2478" spans="2:4">
+    <row r="2478" spans="1:4">
+      <c r="A2478">
+        <v>1</v>
+      </c>
       <c r="B2478" t="s">
         <v>206</v>
       </c>
@@ -68588,7 +69648,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="2479" spans="2:4">
+    <row r="2479" spans="1:4">
       <c r="B2479" t="s">
         <v>47</v>
       </c>
@@ -68599,7 +69659,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2480" spans="2:4">
+    <row r="2480" spans="1:4">
+      <c r="A2480">
+        <v>1</v>
+      </c>
       <c r="B2480" t="s">
         <v>44</v>
       </c>
@@ -68611,6 +69674,9 @@
       </c>
     </row>
     <row r="2481" spans="1:4">
+      <c r="A2481">
+        <v>-1</v>
+      </c>
       <c r="B2481" t="s">
         <v>50</v>
       </c>
@@ -68658,6 +69724,9 @@
       </c>
     </row>
     <row r="2485" spans="1:4">
+      <c r="A2485">
+        <v>1</v>
+      </c>
       <c r="B2485" t="s">
         <v>44</v>
       </c>
@@ -68669,6 +69738,9 @@
       </c>
     </row>
     <row r="2486" spans="1:4">
+      <c r="A2486">
+        <v>1</v>
+      </c>
       <c r="B2486" t="s">
         <v>44</v>
       </c>
@@ -68691,6 +69763,9 @@
       </c>
     </row>
     <row r="2488" spans="1:4">
+      <c r="A2488">
+        <v>-1</v>
+      </c>
       <c r="B2488" t="s">
         <v>50</v>
       </c>
@@ -68702,6 +69777,9 @@
       </c>
     </row>
     <row r="2489" spans="1:4">
+      <c r="A2489">
+        <v>1</v>
+      </c>
       <c r="B2489" t="s">
         <v>206</v>
       </c>
@@ -68713,6 +69791,9 @@
       </c>
     </row>
     <row r="2490" spans="1:4">
+      <c r="A2490">
+        <v>1</v>
+      </c>
       <c r="B2490" t="s">
         <v>44</v>
       </c>
@@ -68724,6 +69805,9 @@
       </c>
     </row>
     <row r="2491" spans="1:4">
+      <c r="A2491">
+        <v>1</v>
+      </c>
       <c r="B2491" t="s">
         <v>44</v>
       </c>
@@ -68779,6 +69863,9 @@
       </c>
     </row>
     <row r="2496" spans="1:4">
+      <c r="A2496">
+        <v>-1</v>
+      </c>
       <c r="B2496" t="s">
         <v>136</v>
       </c>
@@ -68789,7 +69876,10 @@
         <v>934</v>
       </c>
     </row>
-    <row r="2497" spans="2:4">
+    <row r="2497" spans="1:4">
+      <c r="A2497">
+        <v>1</v>
+      </c>
       <c r="B2497" t="s">
         <v>206</v>
       </c>
@@ -68800,7 +69890,10 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="2498" spans="2:4">
+    <row r="2498" spans="1:4">
+      <c r="A2498">
+        <v>1</v>
+      </c>
       <c r="B2498" t="s">
         <v>206</v>
       </c>
@@ -68811,7 +69904,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2499" spans="2:4">
+    <row r="2499" spans="1:4">
       <c r="B2499" t="s">
         <v>4</v>
       </c>
@@ -68822,7 +69915,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2500" spans="2:4">
+    <row r="2500" spans="1:4">
       <c r="B2500" t="s">
         <v>63</v>
       </c>
@@ -68833,7 +69926,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="2501" spans="2:4">
+    <row r="2501" spans="1:4">
       <c r="B2501" t="s">
         <v>47</v>
       </c>
@@ -68844,7 +69937,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="2502" spans="2:4">
+    <row r="2502" spans="1:4">
       <c r="B2502" t="s">
         <v>4</v>
       </c>
@@ -68855,7 +69948,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="2503" spans="2:4">
+    <row r="2503" spans="1:4">
       <c r="B2503" t="s">
         <v>47</v>
       </c>
@@ -68866,7 +69959,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2504" spans="2:4">
+    <row r="2504" spans="1:4">
       <c r="B2504" t="s">
         <v>102</v>
       </c>
@@ -68877,7 +69970,10 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="2505" spans="2:4">
+    <row r="2505" spans="1:4">
+      <c r="A2505">
+        <v>1</v>
+      </c>
       <c r="B2505" t="s">
         <v>206</v>
       </c>
@@ -68888,7 +69984,10 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="2506" spans="2:4">
+    <row r="2506" spans="1:4">
+      <c r="A2506">
+        <v>1</v>
+      </c>
       <c r="B2506" t="s">
         <v>382</v>
       </c>
@@ -68899,7 +69998,10 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="2507" spans="2:4">
+    <row r="2507" spans="1:4">
+      <c r="A2507">
+        <v>1</v>
+      </c>
       <c r="B2507" t="s">
         <v>136</v>
       </c>
@@ -68910,7 +70012,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2508" spans="2:4">
+    <row r="2508" spans="1:4">
       <c r="B2508" t="s">
         <v>54</v>
       </c>
@@ -68921,7 +70023,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="2509" spans="2:4">
+    <row r="2509" spans="1:4">
       <c r="B2509" t="s">
         <v>8</v>
       </c>
@@ -68932,7 +70034,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="2510" spans="2:4">
+    <row r="2510" spans="1:4">
       <c r="B2510" t="s">
         <v>90</v>
       </c>
@@ -68943,7 +70045,10 @@
         <v>950</v>
       </c>
     </row>
-    <row r="2511" spans="2:4">
+    <row r="2511" spans="1:4">
+      <c r="A2511">
+        <v>1</v>
+      </c>
       <c r="B2511" t="s">
         <v>44</v>
       </c>
@@ -68954,7 +70059,10 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="2512" spans="2:4">
+    <row r="2512" spans="1:4">
+      <c r="A2512">
+        <v>1</v>
+      </c>
       <c r="B2512" t="s">
         <v>50</v>
       </c>
@@ -68966,6 +70074,9 @@
       </c>
     </row>
     <row r="2513" spans="1:4">
+      <c r="A2513">
+        <v>1</v>
+      </c>
       <c r="B2513" t="s">
         <v>50</v>
       </c>
@@ -69057,6 +70168,9 @@
       </c>
     </row>
     <row r="2521" spans="1:4">
+      <c r="A2521">
+        <v>1</v>
+      </c>
       <c r="B2521" t="s">
         <v>206</v>
       </c>
@@ -69090,6 +70204,9 @@
       </c>
     </row>
     <row r="2524" spans="1:4">
+      <c r="A2524">
+        <v>1</v>
+      </c>
       <c r="B2524" t="s">
         <v>206</v>
       </c>
@@ -69112,6 +70229,9 @@
       </c>
     </row>
     <row r="2526" spans="1:4">
+      <c r="A2526">
+        <v>1</v>
+      </c>
       <c r="B2526" t="s">
         <v>382</v>
       </c>
@@ -69123,6 +70243,9 @@
       </c>
     </row>
     <row r="2527" spans="1:4">
+      <c r="A2527">
+        <v>1</v>
+      </c>
       <c r="B2527" t="s">
         <v>44</v>
       </c>
@@ -69134,6 +70257,9 @@
       </c>
     </row>
     <row r="2528" spans="1:4">
+      <c r="A2528">
+        <v>1</v>
+      </c>
       <c r="B2528" t="s">
         <v>44</v>
       </c>
@@ -69156,6 +70282,9 @@
       </c>
     </row>
     <row r="2530" spans="1:4">
+      <c r="A2530">
+        <v>1</v>
+      </c>
       <c r="B2530" t="s">
         <v>76</v>
       </c>
@@ -69203,6 +70332,9 @@
       </c>
     </row>
     <row r="2534" spans="1:4">
+      <c r="A2534">
+        <v>-1</v>
+      </c>
       <c r="B2534" t="s">
         <v>206</v>
       </c>
@@ -69247,6 +70379,9 @@
       </c>
     </row>
     <row r="2538" spans="1:4">
+      <c r="A2538">
+        <v>1</v>
+      </c>
       <c r="B2538" t="s">
         <v>44</v>
       </c>
@@ -69258,6 +70393,9 @@
       </c>
     </row>
     <row r="2539" spans="1:4">
+      <c r="A2539">
+        <v>1</v>
+      </c>
       <c r="B2539" t="s">
         <v>50</v>
       </c>
@@ -69349,6 +70487,9 @@
       </c>
     </row>
     <row r="2547" spans="1:4">
+      <c r="A2547">
+        <v>1</v>
+      </c>
       <c r="B2547" t="s">
         <v>50</v>
       </c>
@@ -69505,7 +70646,10 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2561" spans="2:4">
+    <row r="2561" spans="1:4">
+      <c r="A2561">
+        <v>1</v>
+      </c>
       <c r="B2561" t="s">
         <v>76</v>
       </c>
@@ -69516,7 +70660,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2562" spans="2:4">
+    <row r="2562" spans="1:4">
       <c r="B2562" t="s">
         <v>113</v>
       </c>
@@ -69527,7 +70671,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="2563" spans="2:4">
+    <row r="2563" spans="1:4">
       <c r="B2563" t="s">
         <v>15</v>
       </c>
@@ -69538,7 +70682,10 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="2564" spans="2:4">
+    <row r="2564" spans="1:4">
+      <c r="A2564">
+        <v>-1</v>
+      </c>
       <c r="B2564" t="s">
         <v>50</v>
       </c>
@@ -69549,7 +70696,10 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="2565" spans="2:4">
+    <row r="2565" spans="1:4">
+      <c r="A2565">
+        <v>1</v>
+      </c>
       <c r="B2565" t="s">
         <v>206</v>
       </c>
@@ -69560,7 +70710,10 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="2566" spans="2:4">
+    <row r="2566" spans="1:4">
+      <c r="A2566">
+        <v>1</v>
+      </c>
       <c r="B2566" t="s">
         <v>50</v>
       </c>
@@ -69571,7 +70724,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="2567" spans="2:4">
+    <row r="2567" spans="1:4">
       <c r="B2567" t="s">
         <v>90</v>
       </c>
@@ -69582,7 +70735,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="2568" spans="2:4">
+    <row r="2568" spans="1:4">
       <c r="B2568" t="s">
         <v>15</v>
       </c>
@@ -69593,7 +70746,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="2569" spans="2:4">
+    <row r="2569" spans="1:4">
       <c r="B2569" t="s">
         <v>15</v>
       </c>
@@ -69604,7 +70757,10 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2570" spans="2:4">
+    <row r="2570" spans="1:4">
+      <c r="A2570">
+        <v>1</v>
+      </c>
       <c r="B2570" t="s">
         <v>44</v>
       </c>
@@ -69615,7 +70771,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="2571" spans="2:4">
+    <row r="2571" spans="1:4">
       <c r="B2571" t="s">
         <v>8</v>
       </c>
@@ -69626,7 +70782,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="2572" spans="2:4">
+    <row r="2572" spans="1:4">
       <c r="B2572" t="s">
         <v>54</v>
       </c>
@@ -69637,7 +70793,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="2573" spans="2:4">
+    <row r="2573" spans="1:4">
       <c r="B2573" t="s">
         <v>90</v>
       </c>
@@ -69648,7 +70804,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="2574" spans="2:4">
+    <row r="2574" spans="1:4">
       <c r="B2574" t="s">
         <v>8</v>
       </c>
@@ -69659,7 +70815,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2575" spans="2:4">
+    <row r="2575" spans="1:4">
+      <c r="A2575">
+        <v>1</v>
+      </c>
       <c r="B2575" t="s">
         <v>206</v>
       </c>
@@ -69670,7 +70829,10 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="2576" spans="2:4">
+    <row r="2576" spans="1:4">
+      <c r="A2576">
+        <v>1</v>
+      </c>
       <c r="B2576" t="s">
         <v>50</v>
       </c>
@@ -69681,7 +70843,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="2577" spans="2:4">
+    <row r="2577" spans="1:4">
       <c r="B2577" t="s">
         <v>15</v>
       </c>
@@ -69692,7 +70854,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="2578" spans="2:4">
+    <row r="2578" spans="1:4">
       <c r="B2578" t="s">
         <v>15</v>
       </c>
@@ -69703,7 +70865,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2579" spans="2:4">
+    <row r="2579" spans="1:4">
       <c r="B2579" t="s">
         <v>8</v>
       </c>
@@ -69714,7 +70876,10 @@
         <v>738</v>
       </c>
     </row>
-    <row r="2580" spans="2:4">
+    <row r="2580" spans="1:4">
+      <c r="A2580">
+        <v>1</v>
+      </c>
       <c r="B2580" t="s">
         <v>44</v>
       </c>
@@ -69725,7 +70890,10 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="2581" spans="2:4">
+    <row r="2581" spans="1:4">
+      <c r="A2581">
+        <v>1</v>
+      </c>
       <c r="B2581" t="s">
         <v>50</v>
       </c>
@@ -69736,7 +70904,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="2582" spans="2:4">
+    <row r="2582" spans="1:4">
       <c r="B2582" t="s">
         <v>15</v>
       </c>
@@ -69747,7 +70915,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2583" spans="2:4">
+    <row r="2583" spans="1:4">
       <c r="B2583" t="s">
         <v>63</v>
       </c>
@@ -69758,7 +70926,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2584" spans="2:4">
+    <row r="2584" spans="1:4">
       <c r="B2584" t="s">
         <v>102</v>
       </c>
@@ -69769,7 +70937,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2585" spans="2:4">
+    <row r="2585" spans="1:4">
       <c r="B2585" t="s">
         <v>4</v>
       </c>
@@ -69780,7 +70948,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2586" spans="2:4">
+    <row r="2586" spans="1:4">
       <c r="B2586" t="s">
         <v>4</v>
       </c>
@@ -69791,7 +70959,10 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="2587" spans="2:4">
+    <row r="2587" spans="1:4">
+      <c r="A2587">
+        <v>1</v>
+      </c>
       <c r="B2587" t="s">
         <v>44</v>
       </c>
@@ -69802,7 +70973,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="2588" spans="2:4">
+    <row r="2588" spans="1:4">
       <c r="B2588" t="s">
         <v>107</v>
       </c>
@@ -69813,7 +70984,10 @@
         <v>826</v>
       </c>
     </row>
-    <row r="2589" spans="2:4">
+    <row r="2589" spans="1:4">
+      <c r="A2589">
+        <v>1</v>
+      </c>
       <c r="B2589" t="s">
         <v>76</v>
       </c>
@@ -69824,7 +70998,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2590" spans="2:4">
+    <row r="2590" spans="1:4">
       <c r="B2590" t="s">
         <v>15</v>
       </c>
@@ -69835,7 +71009,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="2591" spans="2:4">
+    <row r="2591" spans="1:4">
       <c r="B2591" t="s">
         <v>47</v>
       </c>
@@ -69846,7 +71020,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2592" spans="2:4">
+    <row r="2592" spans="1:4">
       <c r="B2592" t="s">
         <v>90</v>
       </c>
@@ -69858,6 +71032,9 @@
       </c>
     </row>
     <row r="2593" spans="1:4">
+      <c r="A2593">
+        <v>1</v>
+      </c>
       <c r="B2593" t="s">
         <v>76</v>
       </c>
@@ -69916,6 +71093,9 @@
       </c>
     </row>
     <row r="2598" spans="1:4">
+      <c r="A2598">
+        <v>1</v>
+      </c>
       <c r="B2598" t="s">
         <v>76</v>
       </c>
@@ -69927,6 +71107,9 @@
       </c>
     </row>
     <row r="2599" spans="1:4">
+      <c r="A2599">
+        <v>-1</v>
+      </c>
       <c r="B2599" t="s">
         <v>382</v>
       </c>
@@ -69960,6 +71143,9 @@
       </c>
     </row>
     <row r="2602" spans="1:4">
+      <c r="A2602">
+        <v>1</v>
+      </c>
       <c r="B2602" t="s">
         <v>50</v>
       </c>
@@ -70004,6 +71190,9 @@
       </c>
     </row>
     <row r="2606" spans="1:4">
+      <c r="A2606">
+        <v>1</v>
+      </c>
       <c r="B2606" t="s">
         <v>76</v>
       </c>
@@ -70029,6 +71218,9 @@
       </c>
     </row>
     <row r="2608" spans="1:4">
+      <c r="A2608">
+        <v>1</v>
+      </c>
       <c r="B2608" t="s">
         <v>50</v>
       </c>
@@ -70039,7 +71231,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="2609" spans="2:4">
+    <row r="2609" spans="1:4">
       <c r="B2609" t="s">
         <v>8</v>
       </c>
@@ -70050,7 +71242,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="2610" spans="2:4">
+    <row r="2610" spans="1:4">
       <c r="B2610" t="s">
         <v>90</v>
       </c>
@@ -70061,7 +71253,10 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="2611" spans="2:4">
+    <row r="2611" spans="1:4">
+      <c r="A2611">
+        <v>1</v>
+      </c>
       <c r="B2611" t="s">
         <v>148</v>
       </c>
@@ -70072,7 +71267,10 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="2612" spans="2:4">
+    <row r="2612" spans="1:4">
+      <c r="A2612">
+        <v>1</v>
+      </c>
       <c r="B2612" t="s">
         <v>50</v>
       </c>
@@ -70083,7 +71281,10 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2613" spans="2:4">
+    <row r="2613" spans="1:4">
+      <c r="A2613">
+        <v>-1</v>
+      </c>
       <c r="B2613" t="s">
         <v>50</v>
       </c>
@@ -70094,7 +71295,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="2614" spans="2:4">
+    <row r="2614" spans="1:4">
       <c r="B2614" t="s">
         <v>15</v>
       </c>
@@ -70105,7 +71306,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2615" spans="2:4">
+    <row r="2615" spans="1:4">
+      <c r="A2615">
+        <v>1</v>
+      </c>
       <c r="B2615" t="s">
         <v>206</v>
       </c>
@@ -70116,7 +71320,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="2616" spans="2:4">
+    <row r="2616" spans="1:4">
       <c r="B2616" t="s">
         <v>15</v>
       </c>
@@ -70127,7 +71331,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="2617" spans="2:4">
+    <row r="2617" spans="1:4">
       <c r="B2617" t="s">
         <v>102</v>
       </c>
@@ -70138,7 +71342,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="2618" spans="2:4">
+    <row r="2618" spans="1:4">
       <c r="B2618" t="s">
         <v>80</v>
       </c>
@@ -70149,7 +71353,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="2619" spans="2:4">
+    <row r="2619" spans="1:4">
       <c r="B2619" t="s">
         <v>63</v>
       </c>
@@ -70160,7 +71364,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2620" spans="2:4">
+    <row r="2620" spans="1:4">
       <c r="B2620" t="s">
         <v>90</v>
       </c>
@@ -70171,7 +71375,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="2621" spans="2:4">
+    <row r="2621" spans="1:4">
       <c r="B2621" t="s">
         <v>90</v>
       </c>
@@ -70182,7 +71386,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="2622" spans="2:4">
+    <row r="2622" spans="1:4">
       <c r="B2622" t="s">
         <v>15</v>
       </c>
@@ -70193,7 +71397,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2623" spans="2:4">
+    <row r="2623" spans="1:4">
       <c r="B2623" t="s">
         <v>4</v>
       </c>
@@ -70204,7 +71408,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="2624" spans="2:4">
+    <row r="2624" spans="1:4">
       <c r="B2624" t="s">
         <v>8</v>
       </c>
@@ -70227,6 +71431,9 @@
       </c>
     </row>
     <row r="2626" spans="1:4">
+      <c r="A2626">
+        <v>1</v>
+      </c>
       <c r="B2626" t="s">
         <v>50</v>
       </c>
@@ -70293,6 +71500,9 @@
       </c>
     </row>
     <row r="2632" spans="1:4">
+      <c r="A2632">
+        <v>1</v>
+      </c>
       <c r="B2632" t="s">
         <v>148</v>
       </c>
@@ -70304,6 +71514,9 @@
       </c>
     </row>
     <row r="2633" spans="1:4">
+      <c r="A2633">
+        <v>1</v>
+      </c>
       <c r="B2633" t="s">
         <v>136</v>
       </c>
@@ -70351,6 +71564,9 @@
       </c>
     </row>
     <row r="2637" spans="1:4">
+      <c r="A2637">
+        <v>1</v>
+      </c>
       <c r="B2637" t="s">
         <v>76</v>
       </c>
@@ -70373,6 +71589,9 @@
       </c>
     </row>
     <row r="2639" spans="1:4">
+      <c r="A2639">
+        <v>1</v>
+      </c>
       <c r="B2639" t="s">
         <v>44</v>
       </c>
@@ -70394,7 +71613,10 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2641" spans="2:4">
+    <row r="2641" spans="1:4">
+      <c r="A2641">
+        <v>-1</v>
+      </c>
       <c r="B2641" t="s">
         <v>44</v>
       </c>
@@ -70405,7 +71627,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="2642" spans="2:4">
+    <row r="2642" spans="1:4">
       <c r="B2642" t="s">
         <v>47</v>
       </c>
@@ -70416,7 +71638,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="2643" spans="2:4">
+    <row r="2643" spans="1:4">
       <c r="B2643" t="s">
         <v>63</v>
       </c>
@@ -70427,7 +71649,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="2644" spans="2:4">
+    <row r="2644" spans="1:4">
       <c r="B2644" t="s">
         <v>181</v>
       </c>
@@ -70438,7 +71660,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="2645" spans="2:4">
+    <row r="2645" spans="1:4">
       <c r="B2645" t="s">
         <v>15</v>
       </c>
@@ -70449,7 +71671,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="2646" spans="2:4">
+    <row r="2646" spans="1:4">
       <c r="B2646" t="s">
         <v>15</v>
       </c>
@@ -70460,7 +71682,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="2647" spans="2:4">
+    <row r="2647" spans="1:4">
       <c r="B2647" t="s">
         <v>8</v>
       </c>
@@ -70471,7 +71693,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="2648" spans="2:4">
+    <row r="2648" spans="1:4">
       <c r="B2648" t="s">
         <v>47</v>
       </c>
@@ -70482,7 +71704,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="2649" spans="2:4">
+    <row r="2649" spans="1:4">
       <c r="B2649" t="s">
         <v>193</v>
       </c>
@@ -70493,7 +71715,10 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="2650" spans="2:4">
+    <row r="2650" spans="1:4">
+      <c r="A2650">
+        <v>1</v>
+      </c>
       <c r="B2650" t="s">
         <v>50</v>
       </c>
@@ -70504,7 +71729,10 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="2651" spans="2:4">
+    <row r="2651" spans="1:4">
+      <c r="A2651">
+        <v>-1</v>
+      </c>
       <c r="B2651" t="s">
         <v>76</v>
       </c>
@@ -70515,7 +71743,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="2652" spans="2:4">
+    <row r="2652" spans="1:4">
       <c r="B2652" t="s">
         <v>47</v>
       </c>
@@ -70526,7 +71754,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="2653" spans="2:4">
+    <row r="2653" spans="1:4">
       <c r="B2653" t="s">
         <v>15</v>
       </c>
@@ -70537,7 +71765,10 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="2654" spans="2:4">
+    <row r="2654" spans="1:4">
+      <c r="A2654">
+        <v>1</v>
+      </c>
       <c r="B2654" t="s">
         <v>148</v>
       </c>
@@ -70548,7 +71779,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="2655" spans="2:4">
+    <row r="2655" spans="1:4">
       <c r="B2655" t="s">
         <v>47</v>
       </c>
@@ -70559,7 +71790,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="2656" spans="2:4">
+    <row r="2656" spans="1:4">
       <c r="B2656" t="s">
         <v>47</v>
       </c>
@@ -70731,6 +71962,9 @@
       </c>
     </row>
     <row r="2671" spans="1:4">
+      <c r="A2671">
+        <v>1</v>
+      </c>
       <c r="B2671" t="s">
         <v>76</v>
       </c>
@@ -70764,6 +71998,9 @@
       </c>
     </row>
     <row r="2674" spans="1:4">
+      <c r="A2674">
+        <v>1</v>
+      </c>
       <c r="B2674" t="s">
         <v>102</v>
       </c>
@@ -70775,6 +72012,9 @@
       </c>
     </row>
     <row r="2675" spans="1:4">
+      <c r="A2675">
+        <v>1</v>
+      </c>
       <c r="B2675" t="s">
         <v>102</v>
       </c>
@@ -70833,6 +72073,9 @@
       </c>
     </row>
     <row r="2680" spans="1:4">
+      <c r="A2680">
+        <v>1</v>
+      </c>
       <c r="B2680" t="s">
         <v>148</v>
       </c>
@@ -70855,6 +72098,9 @@
       </c>
     </row>
     <row r="2682" spans="1:4">
+      <c r="A2682">
+        <v>1</v>
+      </c>
       <c r="B2682" t="s">
         <v>90</v>
       </c>
@@ -70866,6 +72112,9 @@
       </c>
     </row>
     <row r="2683" spans="1:4">
+      <c r="A2683">
+        <v>1</v>
+      </c>
       <c r="B2683" t="s">
         <v>102</v>
       </c>
@@ -70877,6 +72126,9 @@
       </c>
     </row>
     <row r="2684" spans="1:4">
+      <c r="A2684">
+        <v>1</v>
+      </c>
       <c r="B2684" t="s">
         <v>50</v>
       </c>
@@ -70888,6 +72140,9 @@
       </c>
     </row>
     <row r="2685" spans="1:4">
+      <c r="A2685">
+        <v>1</v>
+      </c>
       <c r="B2685" t="s">
         <v>50</v>
       </c>
@@ -70899,6 +72154,9 @@
       </c>
     </row>
     <row r="2686" spans="1:4">
+      <c r="A2686">
+        <v>1</v>
+      </c>
       <c r="B2686" t="s">
         <v>50</v>
       </c>
@@ -70921,6 +72179,9 @@
       </c>
     </row>
     <row r="2688" spans="1:4">
+      <c r="A2688">
+        <v>1</v>
+      </c>
       <c r="B2688" t="s">
         <v>206</v>
       </c>
@@ -70931,7 +72192,10 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="2689" spans="2:4">
+    <row r="2689" spans="1:4">
+      <c r="A2689">
+        <v>1</v>
+      </c>
       <c r="B2689" t="s">
         <v>392</v>
       </c>
@@ -70942,7 +72206,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2690" spans="2:4">
+    <row r="2690" spans="1:4">
       <c r="B2690" t="s">
         <v>647</v>
       </c>
@@ -70953,7 +72217,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="2691" spans="2:4">
+    <row r="2691" spans="1:4">
       <c r="B2691" t="s">
         <v>47</v>
       </c>
@@ -70964,7 +72228,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2692" spans="2:4">
+    <row r="2692" spans="1:4">
       <c r="B2692" t="s">
         <v>47</v>
       </c>
@@ -70975,7 +72239,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="2693" spans="2:4">
+    <row r="2693" spans="1:4">
       <c r="B2693" t="s">
         <v>15</v>
       </c>
@@ -70986,7 +72250,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="2694" spans="2:4">
+    <row r="2694" spans="1:4">
       <c r="B2694" t="s">
         <v>253</v>
       </c>
@@ -70997,7 +72261,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2695" spans="2:4">
+    <row r="2695" spans="1:4">
       <c r="B2695" t="s">
         <v>15</v>
       </c>
@@ -71008,7 +72272,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="2696" spans="2:4">
+    <row r="2696" spans="1:4">
       <c r="B2696" t="s">
         <v>253</v>
       </c>
@@ -71019,7 +72283,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="2697" spans="2:4">
+    <row r="2697" spans="1:4">
       <c r="B2697" t="s">
         <v>47</v>
       </c>
@@ -71030,7 +72294,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="2698" spans="2:4">
+    <row r="2698" spans="1:4">
       <c r="B2698" t="s">
         <v>8</v>
       </c>
@@ -71041,7 +72305,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="2699" spans="2:4">
+    <row r="2699" spans="1:4">
       <c r="B2699" t="s">
         <v>47</v>
       </c>
@@ -71052,7 +72316,10 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="2700" spans="2:4">
+    <row r="2700" spans="1:4">
+      <c r="A2700">
+        <v>-1</v>
+      </c>
       <c r="B2700" t="s">
         <v>206</v>
       </c>
@@ -71063,7 +72330,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2701" spans="2:4">
+    <row r="2701" spans="1:4">
       <c r="B2701" t="s">
         <v>47</v>
       </c>
@@ -71074,7 +72341,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2702" spans="2:4">
+    <row r="2702" spans="1:4">
       <c r="B2702" t="s">
         <v>63</v>
       </c>
@@ -71085,7 +72352,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="2703" spans="2:4">
+    <row r="2703" spans="1:4">
       <c r="B2703" t="s">
         <v>15</v>
       </c>
@@ -71096,7 +72363,10 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="2704" spans="2:4">
+    <row r="2704" spans="1:4">
+      <c r="A2704">
+        <v>1</v>
+      </c>
       <c r="B2704" t="s">
         <v>50</v>
       </c>
@@ -71107,7 +72377,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="2705" spans="2:4">
+    <row r="2705" spans="1:4">
       <c r="B2705" t="s">
         <v>47</v>
       </c>
@@ -71118,7 +72388,10 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="2706" spans="2:4">
+    <row r="2706" spans="1:4">
+      <c r="A2706">
+        <v>1</v>
+      </c>
       <c r="B2706" t="s">
         <v>80</v>
       </c>
@@ -71129,7 +72402,10 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2707" spans="2:4">
+    <row r="2707" spans="1:4">
+      <c r="A2707">
+        <v>1</v>
+      </c>
       <c r="B2707" t="s">
         <v>76</v>
       </c>
@@ -71140,7 +72416,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="2708" spans="2:4">
+    <row r="2708" spans="1:4">
       <c r="B2708" t="s">
         <v>8</v>
       </c>
@@ -71151,7 +72427,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="2709" spans="2:4">
+    <row r="2709" spans="1:4">
       <c r="B2709" t="s">
         <v>647</v>
       </c>
@@ -71162,7 +72438,10 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="2710" spans="2:4">
+    <row r="2710" spans="1:4">
+      <c r="A2710">
+        <v>1</v>
+      </c>
       <c r="B2710" t="s">
         <v>44</v>
       </c>
@@ -71173,7 +72452,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="2711" spans="2:4">
+    <row r="2711" spans="1:4">
       <c r="B2711" t="s">
         <v>47</v>
       </c>
@@ -71184,7 +72463,10 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="2712" spans="2:4">
+    <row r="2712" spans="1:4">
+      <c r="A2712">
+        <v>1</v>
+      </c>
       <c r="B2712" t="s">
         <v>102</v>
       </c>
@@ -71195,7 +72477,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="2713" spans="2:4">
+    <row r="2713" spans="1:4">
       <c r="B2713" t="s">
         <v>47</v>
       </c>
@@ -71206,7 +72488,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="2714" spans="2:4">
+    <row r="2714" spans="1:4">
       <c r="B2714" t="s">
         <v>15</v>
       </c>
@@ -71217,7 +72499,10 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="2715" spans="2:4">
+    <row r="2715" spans="1:4">
+      <c r="A2715">
+        <v>-1</v>
+      </c>
       <c r="B2715" t="s">
         <v>206</v>
       </c>
@@ -71228,7 +72513,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2716" spans="2:4">
+    <row r="2716" spans="1:4">
       <c r="B2716" t="s">
         <v>47</v>
       </c>
@@ -71239,7 +72524,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="2717" spans="2:4">
+    <row r="2717" spans="1:4">
       <c r="B2717" t="s">
         <v>107</v>
       </c>
@@ -71250,7 +72535,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="2718" spans="2:4">
+    <row r="2718" spans="1:4">
       <c r="B2718" t="s">
         <v>47</v>
       </c>
@@ -71261,7 +72546,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="2719" spans="2:4">
+    <row r="2719" spans="1:4">
       <c r="B2719" t="s">
         <v>47</v>
       </c>
@@ -71272,7 +72557,10 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="2720" spans="2:4">
+    <row r="2720" spans="1:4">
+      <c r="A2720">
+        <v>-1</v>
+      </c>
       <c r="B2720" t="s">
         <v>148</v>
       </c>
@@ -71300,8 +72588,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2722">
-    <sortState ref="A2:D2722">
+  <autoFilter ref="A1:D2722" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2722">
       <sortCondition ref="D1:D2722"/>
     </sortState>
   </autoFilter>
@@ -71311,19 +72599,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="35" width="52.09765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="35" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -71338,7 +72626,7 @@
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>453</v>
       </c>
     </row>
@@ -71346,7 +72634,7 @@
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>389</v>
       </c>
     </row>
@@ -71354,7 +72642,7 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>242</v>
       </c>
     </row>
@@ -71362,7 +72650,7 @@
       <c r="A7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>230</v>
       </c>
     </row>
@@ -71370,7 +72658,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>202</v>
       </c>
     </row>
@@ -71378,7 +72666,7 @@
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>181</v>
       </c>
     </row>
@@ -71386,7 +72674,7 @@
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>167</v>
       </c>
     </row>
@@ -71394,7 +72682,7 @@
       <c r="A11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>136</v>
       </c>
     </row>
@@ -71402,7 +72690,7 @@
       <c r="A12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>126</v>
       </c>
     </row>
@@ -71410,7 +72698,7 @@
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>107</v>
       </c>
     </row>
@@ -71418,7 +72706,7 @@
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>70</v>
       </c>
     </row>
@@ -71426,7 +72714,7 @@
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>62</v>
       </c>
     </row>
@@ -71434,7 +72722,7 @@
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>53</v>
       </c>
     </row>
@@ -71442,7 +72730,7 @@
       <c r="A17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>41</v>
       </c>
     </row>
@@ -71450,7 +72738,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>39</v>
       </c>
     </row>
@@ -71458,7 +72746,7 @@
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>33</v>
       </c>
     </row>
@@ -71466,7 +72754,7 @@
       <c r="A20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>31</v>
       </c>
     </row>
@@ -71474,7 +72762,7 @@
       <c r="A21" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>31</v>
       </c>
     </row>
@@ -71482,7 +72770,7 @@
       <c r="A22" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>26</v>
       </c>
     </row>
@@ -71490,7 +72778,7 @@
       <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>17</v>
       </c>
     </row>
@@ -71498,7 +72786,7 @@
       <c r="A24" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>15</v>
       </c>
     </row>
@@ -71506,7 +72794,7 @@
       <c r="A25" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>11</v>
       </c>
     </row>
@@ -71514,7 +72802,7 @@
       <c r="A26" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>11</v>
       </c>
     </row>
@@ -71522,7 +72810,7 @@
       <c r="A27" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>7</v>
       </c>
     </row>
@@ -71530,7 +72818,7 @@
       <c r="A28" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>7</v>
       </c>
     </row>
@@ -71538,7 +72826,7 @@
       <c r="A29" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>6</v>
       </c>
     </row>
@@ -71546,7 +72834,7 @@
       <c r="A30" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>5</v>
       </c>
     </row>
@@ -71554,7 +72842,7 @@
       <c r="A31" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>5</v>
       </c>
     </row>
@@ -71562,7 +72850,7 @@
       <c r="A32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>4</v>
       </c>
     </row>
@@ -71570,7 +72858,7 @@
       <c r="A33" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>4</v>
       </c>
     </row>
@@ -71578,7 +72866,7 @@
       <c r="A34" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>4</v>
       </c>
     </row>
@@ -71586,7 +72874,7 @@
       <c r="A35" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>3</v>
       </c>
     </row>
@@ -71594,7 +72882,7 @@
       <c r="A36" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>2</v>
       </c>
     </row>
@@ -71602,7 +72890,7 @@
       <c r="A37" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>1</v>
       </c>
     </row>
@@ -71610,13 +72898,12 @@
       <c r="A38" s="3" t="s">
         <v>2674</v>
       </c>
-      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>2721</v>
       </c>
     </row>
@@ -71626,17 +72913,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -71651,7 +72938,7 @@
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>876</v>
       </c>
     </row>
@@ -71659,7 +72946,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>502</v>
       </c>
     </row>
@@ -71667,7 +72954,7 @@
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>497</v>
       </c>
     </row>
@@ -71675,7 +72962,7 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>253</v>
       </c>
     </row>
@@ -71683,7 +72970,7 @@
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>234</v>
       </c>
     </row>
@@ -71691,7 +72978,7 @@
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>225</v>
       </c>
     </row>
@@ -71699,7 +72986,7 @@
       <c r="A10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>66</v>
       </c>
     </row>
@@ -71707,7 +72994,7 @@
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>42</v>
       </c>
     </row>
@@ -71715,7 +73002,7 @@
       <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>17</v>
       </c>
     </row>
@@ -71723,7 +73010,7 @@
       <c r="A13" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
@@ -71731,7 +73018,7 @@
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>4</v>
       </c>
     </row>
@@ -71739,13 +73026,12 @@
       <c r="A15" s="3" t="s">
         <v>2674</v>
       </c>
-      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>2721</v>
       </c>
     </row>
@@ -71755,18 +73041,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C52"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -71789,32 +73075,32 @@
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>42</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2487</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>41</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>41</v>
       </c>
     </row>
@@ -71822,32 +73108,32 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>253</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>242</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>11</v>
       </c>
     </row>
@@ -71855,87 +73141,87 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>502</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>167</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>26</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>202</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>70</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>31</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>31</v>
       </c>
     </row>
@@ -71943,54 +73229,54 @@
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>234</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>31</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>181</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>181</v>
       </c>
     </row>
@@ -71998,54 +73284,54 @@
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>225</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>62</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>126</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>33</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>33</v>
       </c>
     </row>
@@ -72053,21 +73339,21 @@
       <c r="A29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>4</v>
       </c>
     </row>
@@ -72075,76 +73361,76 @@
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>876</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>876</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>230</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>136</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>107</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>389</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>389</v>
       </c>
     </row>
@@ -72152,21 +73438,21 @@
       <c r="A38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>17</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>17</v>
       </c>
     </row>
@@ -72174,43 +73460,43 @@
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>66</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>53</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>6</v>
       </c>
     </row>
@@ -72218,43 +73504,43 @@
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>497</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>39</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>453</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>5</v>
       </c>
     </row>
@@ -72262,21 +73548,21 @@
       <c r="A48" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>5</v>
       </c>
     </row>
@@ -72284,24 +73570,20 @@
       <c r="A50" s="3" t="s">
         <v>2674</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>2674</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>2721</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>2721</v>
       </c>
     </row>

--- a/data/zweryfikowane.xlsx
+++ b/data/zweryfikowane.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\document-classification\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F341A-9493-4784-AF15-C7DF4B97EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16392"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,8 +26,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\moje foldery\studia\magisterka\semestr 2\Podstawy_Uczenia_Glebokiego\document-classification\data\modified_dataset.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -8095,7 +8089,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -8160,7 +8154,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:B1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8214,7 +8208,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8245,7 +8239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -35550,7 +35544,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending" countASubtotal="1">
@@ -35732,7 +35726,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -35822,7 +35816,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -36058,13 +36052,13 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="modified_dataset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modified_dataset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -36102,7 +36096,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -36136,7 +36130,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -36171,10 +36164,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36347,23 +36339,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="80.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" customWidth="1"/>
+    <col min="4" max="4" width="80.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2679</v>
       </c>
@@ -58932,6 +58924,9 @@
       </c>
     </row>
     <row r="1613" spans="1:4">
+      <c r="A1613">
+        <v>1</v>
+      </c>
       <c r="B1613" t="s">
         <v>8</v>
       </c>
@@ -58957,6 +58952,9 @@
       </c>
     </row>
     <row r="1615" spans="1:4">
+      <c r="A1615">
+        <v>1</v>
+      </c>
       <c r="B1615" t="s">
         <v>4</v>
       </c>
@@ -58968,6 +58966,9 @@
       </c>
     </row>
     <row r="1616" spans="1:4">
+      <c r="A1616">
+        <v>1</v>
+      </c>
       <c r="B1616" t="s">
         <v>4</v>
       </c>
@@ -58979,6 +58980,9 @@
       </c>
     </row>
     <row r="1617" spans="1:4">
+      <c r="A1617">
+        <v>1</v>
+      </c>
       <c r="B1617" t="s">
         <v>4</v>
       </c>
@@ -58990,6 +58994,9 @@
       </c>
     </row>
     <row r="1618" spans="1:4">
+      <c r="A1618">
+        <v>1</v>
+      </c>
       <c r="B1618" t="s">
         <v>4</v>
       </c>
@@ -59001,6 +59008,9 @@
       </c>
     </row>
     <row r="1619" spans="1:4">
+      <c r="A1619">
+        <v>1</v>
+      </c>
       <c r="B1619" t="s">
         <v>181</v>
       </c>
@@ -59026,6 +59036,9 @@
       </c>
     </row>
     <row r="1621" spans="1:4">
+      <c r="A1621">
+        <v>1</v>
+      </c>
       <c r="B1621" t="s">
         <v>181</v>
       </c>
@@ -59037,6 +59050,9 @@
       </c>
     </row>
     <row r="1622" spans="1:4">
+      <c r="A1622">
+        <v>1</v>
+      </c>
       <c r="B1622" t="s">
         <v>113</v>
       </c>
@@ -59048,6 +59064,9 @@
       </c>
     </row>
     <row r="1623" spans="1:4">
+      <c r="A1623">
+        <v>1</v>
+      </c>
       <c r="B1623" t="s">
         <v>113</v>
       </c>
@@ -59059,6 +59078,9 @@
       </c>
     </row>
     <row r="1624" spans="1:4">
+      <c r="A1624">
+        <v>1</v>
+      </c>
       <c r="B1624" t="s">
         <v>113</v>
       </c>
@@ -59070,6 +59092,9 @@
       </c>
     </row>
     <row r="1625" spans="1:4">
+      <c r="A1625">
+        <v>1</v>
+      </c>
       <c r="B1625" t="s">
         <v>8</v>
       </c>
@@ -59081,6 +59106,9 @@
       </c>
     </row>
     <row r="1626" spans="1:4">
+      <c r="A1626">
+        <v>1</v>
+      </c>
       <c r="B1626" t="s">
         <v>8</v>
       </c>
@@ -59148,6 +59176,9 @@
       </c>
     </row>
     <row r="1631" spans="1:4">
+      <c r="A1631">
+        <v>1</v>
+      </c>
       <c r="B1631" t="s">
         <v>47</v>
       </c>
@@ -59159,6 +59190,9 @@
       </c>
     </row>
     <row r="1632" spans="1:4">
+      <c r="A1632">
+        <v>1</v>
+      </c>
       <c r="B1632" t="s">
         <v>47</v>
       </c>
@@ -59170,6 +59204,9 @@
       </c>
     </row>
     <row r="1633" spans="1:4">
+      <c r="A1633">
+        <v>1</v>
+      </c>
       <c r="B1633" t="s">
         <v>8</v>
       </c>
@@ -59181,6 +59218,9 @@
       </c>
     </row>
     <row r="1634" spans="1:4">
+      <c r="A1634">
+        <v>1</v>
+      </c>
       <c r="B1634" t="s">
         <v>113</v>
       </c>
@@ -59192,6 +59232,9 @@
       </c>
     </row>
     <row r="1635" spans="1:4">
+      <c r="A1635">
+        <v>1</v>
+      </c>
       <c r="B1635" t="s">
         <v>319</v>
       </c>
@@ -59203,6 +59246,9 @@
       </c>
     </row>
     <row r="1636" spans="1:4">
+      <c r="A1636">
+        <v>1</v>
+      </c>
       <c r="B1636" t="s">
         <v>447</v>
       </c>
@@ -59270,6 +59316,9 @@
       </c>
     </row>
     <row r="1641" spans="1:4">
+      <c r="A1641">
+        <v>1</v>
+      </c>
       <c r="B1641" t="s">
         <v>113</v>
       </c>
@@ -59281,6 +59330,9 @@
       </c>
     </row>
     <row r="1642" spans="1:4">
+      <c r="A1642">
+        <v>1</v>
+      </c>
       <c r="B1642" t="s">
         <v>47</v>
       </c>
@@ -59292,6 +59344,9 @@
       </c>
     </row>
     <row r="1643" spans="1:4">
+      <c r="A1643">
+        <v>1</v>
+      </c>
       <c r="B1643" t="s">
         <v>54</v>
       </c>
@@ -59317,6 +59372,9 @@
       </c>
     </row>
     <row r="1645" spans="1:4">
+      <c r="A1645">
+        <v>1</v>
+      </c>
       <c r="B1645" t="s">
         <v>107</v>
       </c>
@@ -59328,6 +59386,9 @@
       </c>
     </row>
     <row r="1646" spans="1:4">
+      <c r="A1646">
+        <v>1</v>
+      </c>
       <c r="B1646" t="s">
         <v>15</v>
       </c>
@@ -59339,6 +59400,9 @@
       </c>
     </row>
     <row r="1647" spans="1:4">
+      <c r="A1647">
+        <v>1</v>
+      </c>
       <c r="B1647" t="s">
         <v>47</v>
       </c>
@@ -59364,6 +59428,9 @@
       </c>
     </row>
     <row r="1649" spans="1:4">
+      <c r="A1649">
+        <v>1</v>
+      </c>
       <c r="B1649" t="s">
         <v>710</v>
       </c>
@@ -59417,6 +59484,9 @@
       </c>
     </row>
     <row r="1653" spans="1:4">
+      <c r="A1653">
+        <v>1</v>
+      </c>
       <c r="B1653" t="s">
         <v>47</v>
       </c>
@@ -59540,6 +59610,9 @@
       </c>
     </row>
     <row r="1662" spans="1:4">
+      <c r="A1662">
+        <v>1</v>
+      </c>
       <c r="B1662" t="s">
         <v>54</v>
       </c>
@@ -59621,6 +59694,9 @@
       </c>
     </row>
     <row r="1668" spans="1:4">
+      <c r="A1668">
+        <v>1</v>
+      </c>
       <c r="B1668" t="s">
         <v>15</v>
       </c>
@@ -59646,6 +59722,9 @@
       </c>
     </row>
     <row r="1670" spans="1:4">
+      <c r="A1670">
+        <v>1</v>
+      </c>
       <c r="B1670" t="s">
         <v>47</v>
       </c>
@@ -59657,6 +59736,9 @@
       </c>
     </row>
     <row r="1671" spans="1:4">
+      <c r="A1671">
+        <v>1</v>
+      </c>
       <c r="B1671" t="s">
         <v>8</v>
       </c>
@@ -59710,6 +59792,9 @@
       </c>
     </row>
     <row r="1675" spans="1:4">
+      <c r="A1675">
+        <v>1</v>
+      </c>
       <c r="B1675" t="s">
         <v>63</v>
       </c>
@@ -59721,6 +59806,9 @@
       </c>
     </row>
     <row r="1676" spans="1:4">
+      <c r="A1676">
+        <v>1</v>
+      </c>
       <c r="B1676" t="s">
         <v>15</v>
       </c>
@@ -59732,6 +59820,9 @@
       </c>
     </row>
     <row r="1677" spans="1:4">
+      <c r="A1677">
+        <v>1</v>
+      </c>
       <c r="B1677" t="s">
         <v>253</v>
       </c>
@@ -59799,6 +59890,9 @@
       </c>
     </row>
     <row r="1682" spans="1:4">
+      <c r="A1682">
+        <v>1</v>
+      </c>
       <c r="B1682" t="s">
         <v>253</v>
       </c>
@@ -59810,6 +59904,9 @@
       </c>
     </row>
     <row r="1683" spans="1:4">
+      <c r="A1683">
+        <v>1</v>
+      </c>
       <c r="B1683" t="s">
         <v>253</v>
       </c>
@@ -59821,6 +59918,9 @@
       </c>
     </row>
     <row r="1684" spans="1:4">
+      <c r="A1684">
+        <v>1</v>
+      </c>
       <c r="B1684" t="s">
         <v>47</v>
       </c>
@@ -59958,6 +60058,9 @@
       </c>
     </row>
     <row r="1694" spans="1:4">
+      <c r="A1694">
+        <v>1</v>
+      </c>
       <c r="B1694" t="s">
         <v>253</v>
       </c>
@@ -59969,6 +60072,9 @@
       </c>
     </row>
     <row r="1695" spans="1:4">
+      <c r="A1695">
+        <v>1</v>
+      </c>
       <c r="B1695" t="s">
         <v>710</v>
       </c>
@@ -59980,6 +60086,9 @@
       </c>
     </row>
     <row r="1696" spans="1:4">
+      <c r="A1696">
+        <v>1</v>
+      </c>
       <c r="B1696" t="s">
         <v>253</v>
       </c>
@@ -59991,6 +60100,9 @@
       </c>
     </row>
     <row r="1697" spans="1:4">
+      <c r="A1697">
+        <v>1</v>
+      </c>
       <c r="B1697" t="s">
         <v>253</v>
       </c>
@@ -60002,6 +60114,9 @@
       </c>
     </row>
     <row r="1698" spans="1:4">
+      <c r="A1698">
+        <v>1</v>
+      </c>
       <c r="B1698" t="s">
         <v>253</v>
       </c>
@@ -60013,6 +60128,9 @@
       </c>
     </row>
     <row r="1699" spans="1:4">
+      <c r="A1699">
+        <v>1</v>
+      </c>
       <c r="B1699" t="s">
         <v>8</v>
       </c>
@@ -60024,6 +60142,9 @@
       </c>
     </row>
     <row r="1700" spans="1:4">
+      <c r="A1700">
+        <v>1</v>
+      </c>
       <c r="B1700" t="s">
         <v>63</v>
       </c>
@@ -60049,6 +60170,9 @@
       </c>
     </row>
     <row r="1702" spans="1:4">
+      <c r="A1702">
+        <v>1</v>
+      </c>
       <c r="B1702" t="s">
         <v>4</v>
       </c>
@@ -60060,6 +60184,9 @@
       </c>
     </row>
     <row r="1703" spans="1:4">
+      <c r="A1703">
+        <v>1</v>
+      </c>
       <c r="B1703" t="s">
         <v>4</v>
       </c>
@@ -60071,6 +60198,9 @@
       </c>
     </row>
     <row r="1704" spans="1:4">
+      <c r="A1704">
+        <v>1</v>
+      </c>
       <c r="B1704" t="s">
         <v>193</v>
       </c>
@@ -60096,6 +60226,9 @@
       </c>
     </row>
     <row r="1706" spans="1:4">
+      <c r="A1706">
+        <v>1</v>
+      </c>
       <c r="B1706" t="s">
         <v>47</v>
       </c>
@@ -60107,6 +60240,9 @@
       </c>
     </row>
     <row r="1707" spans="1:4">
+      <c r="A1707">
+        <v>1</v>
+      </c>
       <c r="B1707" t="s">
         <v>47</v>
       </c>
@@ -60146,6 +60282,9 @@
       </c>
     </row>
     <row r="1710" spans="1:4">
+      <c r="A1710">
+        <v>1</v>
+      </c>
       <c r="B1710" t="s">
         <v>4</v>
       </c>
@@ -60157,6 +60296,9 @@
       </c>
     </row>
     <row r="1711" spans="1:4">
+      <c r="A1711">
+        <v>1</v>
+      </c>
       <c r="B1711" t="s">
         <v>4</v>
       </c>
@@ -60168,6 +60310,9 @@
       </c>
     </row>
     <row r="1712" spans="1:4">
+      <c r="A1712">
+        <v>1</v>
+      </c>
       <c r="B1712" t="s">
         <v>63</v>
       </c>
@@ -60193,6 +60338,9 @@
       </c>
     </row>
     <row r="1714" spans="1:4">
+      <c r="A1714">
+        <v>1</v>
+      </c>
       <c r="B1714" t="s">
         <v>47</v>
       </c>
@@ -60204,6 +60352,9 @@
       </c>
     </row>
     <row r="1715" spans="1:4">
+      <c r="A1715">
+        <v>1</v>
+      </c>
       <c r="B1715" t="s">
         <v>54</v>
       </c>
@@ -60257,6 +60408,9 @@
       </c>
     </row>
     <row r="1719" spans="1:4">
+      <c r="A1719">
+        <v>1</v>
+      </c>
       <c r="B1719" t="s">
         <v>47</v>
       </c>
@@ -60268,6 +60422,9 @@
       </c>
     </row>
     <row r="1720" spans="1:4">
+      <c r="A1720">
+        <v>1</v>
+      </c>
       <c r="B1720" t="s">
         <v>47</v>
       </c>
@@ -60279,6 +60436,9 @@
       </c>
     </row>
     <row r="1721" spans="1:4">
+      <c r="A1721">
+        <v>1</v>
+      </c>
       <c r="B1721" t="s">
         <v>47</v>
       </c>
@@ -60290,6 +60450,9 @@
       </c>
     </row>
     <row r="1722" spans="1:4">
+      <c r="A1722">
+        <v>1</v>
+      </c>
       <c r="B1722" t="s">
         <v>193</v>
       </c>
@@ -60329,6 +60492,9 @@
       </c>
     </row>
     <row r="1725" spans="1:4">
+      <c r="A1725">
+        <v>1</v>
+      </c>
       <c r="B1725" t="s">
         <v>47</v>
       </c>
@@ -60368,6 +60534,9 @@
       </c>
     </row>
     <row r="1728" spans="1:4">
+      <c r="A1728">
+        <v>1</v>
+      </c>
       <c r="B1728" t="s">
         <v>47</v>
       </c>
@@ -60379,6 +60548,9 @@
       </c>
     </row>
     <row r="1729" spans="1:4">
+      <c r="A1729">
+        <v>1</v>
+      </c>
       <c r="B1729" t="s">
         <v>8</v>
       </c>
@@ -60390,6 +60562,9 @@
       </c>
     </row>
     <row r="1730" spans="1:4">
+      <c r="A1730">
+        <v>1</v>
+      </c>
       <c r="B1730" t="s">
         <v>63</v>
       </c>
@@ -60429,6 +60604,9 @@
       </c>
     </row>
     <row r="1733" spans="1:4">
+      <c r="A1733">
+        <v>1</v>
+      </c>
       <c r="B1733" t="s">
         <v>47</v>
       </c>
@@ -60440,6 +60618,9 @@
       </c>
     </row>
     <row r="1734" spans="1:4">
+      <c r="A1734">
+        <v>1</v>
+      </c>
       <c r="B1734" t="s">
         <v>253</v>
       </c>
@@ -60451,6 +60632,9 @@
       </c>
     </row>
     <row r="1735" spans="1:4">
+      <c r="A1735">
+        <v>1</v>
+      </c>
       <c r="B1735" t="s">
         <v>47</v>
       </c>
@@ -60462,6 +60646,9 @@
       </c>
     </row>
     <row r="1736" spans="1:4">
+      <c r="A1736">
+        <v>1</v>
+      </c>
       <c r="B1736" t="s">
         <v>8</v>
       </c>
@@ -60515,6 +60702,9 @@
       </c>
     </row>
     <row r="1740" spans="1:4">
+      <c r="A1740">
+        <v>1</v>
+      </c>
       <c r="B1740" t="s">
         <v>15</v>
       </c>
@@ -60540,6 +60730,9 @@
       </c>
     </row>
     <row r="1742" spans="1:4">
+      <c r="A1742">
+        <v>1</v>
+      </c>
       <c r="B1742" t="s">
         <v>4</v>
       </c>
@@ -60551,6 +60744,9 @@
       </c>
     </row>
     <row r="1743" spans="1:4">
+      <c r="A1743">
+        <v>1</v>
+      </c>
       <c r="B1743" t="s">
         <v>4</v>
       </c>
@@ -60562,6 +60758,9 @@
       </c>
     </row>
     <row r="1744" spans="1:4">
+      <c r="A1744">
+        <v>1</v>
+      </c>
       <c r="B1744" t="s">
         <v>54</v>
       </c>
@@ -60573,6 +60772,9 @@
       </c>
     </row>
     <row r="1745" spans="1:4">
+      <c r="A1745">
+        <v>1</v>
+      </c>
       <c r="B1745" t="s">
         <v>8</v>
       </c>
@@ -60612,6 +60814,9 @@
       </c>
     </row>
     <row r="1748" spans="1:4">
+      <c r="A1748">
+        <v>1</v>
+      </c>
       <c r="B1748" t="s">
         <v>47</v>
       </c>
@@ -60623,6 +60828,9 @@
       </c>
     </row>
     <row r="1749" spans="1:4">
+      <c r="A1749">
+        <v>1</v>
+      </c>
       <c r="B1749" t="s">
         <v>8</v>
       </c>
@@ -60634,6 +60842,9 @@
       </c>
     </row>
     <row r="1750" spans="1:4">
+      <c r="A1750">
+        <v>1</v>
+      </c>
       <c r="B1750" t="s">
         <v>4</v>
       </c>
@@ -60659,6 +60870,9 @@
       </c>
     </row>
     <row r="1752" spans="1:4">
+      <c r="A1752">
+        <v>1</v>
+      </c>
       <c r="B1752" t="s">
         <v>47</v>
       </c>
@@ -60684,6 +60898,9 @@
       </c>
     </row>
     <row r="1754" spans="1:4">
+      <c r="A1754">
+        <v>1</v>
+      </c>
       <c r="B1754" t="s">
         <v>15</v>
       </c>
@@ -60695,6 +60912,9 @@
       </c>
     </row>
     <row r="1755" spans="1:4">
+      <c r="A1755">
+        <v>1</v>
+      </c>
       <c r="B1755" t="s">
         <v>47</v>
       </c>
@@ -60706,6 +60926,9 @@
       </c>
     </row>
     <row r="1756" spans="1:4">
+      <c r="A1756">
+        <v>1</v>
+      </c>
       <c r="B1756" t="s">
         <v>47</v>
       </c>
@@ -60717,6 +60940,9 @@
       </c>
     </row>
     <row r="1757" spans="1:4">
+      <c r="A1757">
+        <v>1</v>
+      </c>
       <c r="B1757" t="s">
         <v>113</v>
       </c>
@@ -60728,6 +60954,9 @@
       </c>
     </row>
     <row r="1758" spans="1:4">
+      <c r="A1758">
+        <v>1</v>
+      </c>
       <c r="B1758" t="s">
         <v>4</v>
       </c>
@@ -60753,6 +60982,9 @@
       </c>
     </row>
     <row r="1760" spans="1:4">
+      <c r="A1760">
+        <v>1</v>
+      </c>
       <c r="B1760" t="s">
         <v>54</v>
       </c>
@@ -60764,6 +60996,9 @@
       </c>
     </row>
     <row r="1761" spans="1:4">
+      <c r="A1761">
+        <v>1</v>
+      </c>
       <c r="B1761" t="s">
         <v>47</v>
       </c>
@@ -60789,6 +61024,9 @@
       </c>
     </row>
     <row r="1763" spans="1:4">
+      <c r="A1763">
+        <v>1</v>
+      </c>
       <c r="B1763" t="s">
         <v>47</v>
       </c>
@@ -60814,6 +61052,9 @@
       </c>
     </row>
     <row r="1765" spans="1:4">
+      <c r="A1765">
+        <v>1</v>
+      </c>
       <c r="B1765" t="s">
         <v>4</v>
       </c>
@@ -60867,6 +61108,9 @@
       </c>
     </row>
     <row r="1769" spans="1:4">
+      <c r="A1769">
+        <v>1</v>
+      </c>
       <c r="B1769" t="s">
         <v>47</v>
       </c>
@@ -60920,6 +61164,9 @@
       </c>
     </row>
     <row r="1773" spans="1:4">
+      <c r="A1773">
+        <v>1</v>
+      </c>
       <c r="B1773" t="s">
         <v>8</v>
       </c>
@@ -60945,6 +61192,9 @@
       </c>
     </row>
     <row r="1775" spans="1:4">
+      <c r="A1775">
+        <v>1</v>
+      </c>
       <c r="B1775" t="s">
         <v>47</v>
       </c>
@@ -60970,6 +61220,9 @@
       </c>
     </row>
     <row r="1777" spans="1:4">
+      <c r="A1777">
+        <v>1</v>
+      </c>
       <c r="B1777" t="s">
         <v>15</v>
       </c>
@@ -60981,6 +61234,9 @@
       </c>
     </row>
     <row r="1778" spans="1:4">
+      <c r="A1778">
+        <v>1</v>
+      </c>
       <c r="B1778" t="s">
         <v>63</v>
       </c>
@@ -61020,6 +61276,9 @@
       </c>
     </row>
     <row r="1781" spans="1:4">
+      <c r="A1781">
+        <v>1</v>
+      </c>
       <c r="B1781" t="s">
         <v>4</v>
       </c>
@@ -61045,6 +61304,9 @@
       </c>
     </row>
     <row r="1783" spans="1:4">
+      <c r="A1783">
+        <v>1</v>
+      </c>
       <c r="B1783" t="s">
         <v>113</v>
       </c>
@@ -61056,6 +61318,9 @@
       </c>
     </row>
     <row r="1784" spans="1:4">
+      <c r="A1784">
+        <v>1</v>
+      </c>
       <c r="B1784" t="s">
         <v>113</v>
       </c>
@@ -61067,6 +61332,9 @@
       </c>
     </row>
     <row r="1785" spans="1:4">
+      <c r="A1785">
+        <v>1</v>
+      </c>
       <c r="B1785" t="s">
         <v>241</v>
       </c>
@@ -61092,6 +61360,9 @@
       </c>
     </row>
     <row r="1787" spans="1:4">
+      <c r="A1787">
+        <v>1</v>
+      </c>
       <c r="B1787" t="s">
         <v>63</v>
       </c>
@@ -61103,6 +61374,9 @@
       </c>
     </row>
     <row r="1788" spans="1:4">
+      <c r="A1788">
+        <v>1</v>
+      </c>
       <c r="B1788" t="s">
         <v>63</v>
       </c>
@@ -61156,6 +61430,9 @@
       </c>
     </row>
     <row r="1792" spans="1:4">
+      <c r="A1792">
+        <v>1</v>
+      </c>
       <c r="B1792" t="s">
         <v>47</v>
       </c>
@@ -61167,6 +61444,9 @@
       </c>
     </row>
     <row r="1793" spans="1:4">
+      <c r="A1793">
+        <v>1</v>
+      </c>
       <c r="B1793" t="s">
         <v>54</v>
       </c>
@@ -61178,6 +61458,9 @@
       </c>
     </row>
     <row r="1794" spans="1:4">
+      <c r="A1794">
+        <v>1</v>
+      </c>
       <c r="B1794" t="s">
         <v>4</v>
       </c>
@@ -61203,6 +61486,9 @@
       </c>
     </row>
     <row r="1796" spans="1:4">
+      <c r="A1796">
+        <v>1</v>
+      </c>
       <c r="B1796" t="s">
         <v>15</v>
       </c>
@@ -61214,6 +61500,9 @@
       </c>
     </row>
     <row r="1797" spans="1:4">
+      <c r="A1797">
+        <v>1</v>
+      </c>
       <c r="B1797" t="s">
         <v>8</v>
       </c>
@@ -61225,6 +61514,9 @@
       </c>
     </row>
     <row r="1798" spans="1:4">
+      <c r="A1798">
+        <v>1</v>
+      </c>
       <c r="B1798" t="s">
         <v>15</v>
       </c>
@@ -61306,6 +61598,9 @@
       </c>
     </row>
     <row r="1804" spans="1:4">
+      <c r="A1804">
+        <v>1</v>
+      </c>
       <c r="B1804" t="s">
         <v>47</v>
       </c>
@@ -61331,6 +61626,9 @@
       </c>
     </row>
     <row r="1806" spans="1:4">
+      <c r="A1806">
+        <v>1</v>
+      </c>
       <c r="B1806" t="s">
         <v>15</v>
       </c>
@@ -61342,6 +61640,9 @@
       </c>
     </row>
     <row r="1807" spans="1:4">
+      <c r="A1807">
+        <v>1</v>
+      </c>
       <c r="B1807" t="s">
         <v>63</v>
       </c>
@@ -61353,6 +61654,9 @@
       </c>
     </row>
     <row r="1808" spans="1:4">
+      <c r="A1808">
+        <v>1</v>
+      </c>
       <c r="B1808" t="s">
         <v>8</v>
       </c>
@@ -61364,6 +61668,9 @@
       </c>
     </row>
     <row r="1809" spans="1:4">
+      <c r="A1809">
+        <v>1</v>
+      </c>
       <c r="B1809" t="s">
         <v>47</v>
       </c>
@@ -61375,6 +61682,9 @@
       </c>
     </row>
     <row r="1810" spans="1:4">
+      <c r="A1810">
+        <v>1</v>
+      </c>
       <c r="B1810" t="s">
         <v>8</v>
       </c>
@@ -61386,6 +61696,9 @@
       </c>
     </row>
     <row r="1811" spans="1:4">
+      <c r="A1811">
+        <v>1</v>
+      </c>
       <c r="B1811" t="s">
         <v>15</v>
       </c>
@@ -61453,6 +61766,9 @@
       </c>
     </row>
     <row r="1816" spans="1:4">
+      <c r="A1816">
+        <v>1</v>
+      </c>
       <c r="B1816" t="s">
         <v>241</v>
       </c>
@@ -61464,6 +61780,9 @@
       </c>
     </row>
     <row r="1817" spans="1:4">
+      <c r="A1817">
+        <v>1</v>
+      </c>
       <c r="B1817" t="s">
         <v>193</v>
       </c>
@@ -61489,6 +61808,9 @@
       </c>
     </row>
     <row r="1819" spans="1:4">
+      <c r="A1819">
+        <v>1</v>
+      </c>
       <c r="B1819" t="s">
         <v>4</v>
       </c>
@@ -61500,6 +61822,9 @@
       </c>
     </row>
     <row r="1820" spans="1:4">
+      <c r="A1820">
+        <v>1</v>
+      </c>
       <c r="B1820" t="s">
         <v>8</v>
       </c>
@@ -61511,6 +61836,9 @@
       </c>
     </row>
     <row r="1821" spans="1:4">
+      <c r="A1821">
+        <v>1</v>
+      </c>
       <c r="B1821" t="s">
         <v>8</v>
       </c>
@@ -61522,6 +61850,9 @@
       </c>
     </row>
     <row r="1822" spans="1:4">
+      <c r="A1822">
+        <v>1</v>
+      </c>
       <c r="B1822" t="s">
         <v>47</v>
       </c>
@@ -61533,6 +61864,9 @@
       </c>
     </row>
     <row r="1823" spans="1:4">
+      <c r="A1823">
+        <v>1</v>
+      </c>
       <c r="B1823" t="s">
         <v>8</v>
       </c>
@@ -61558,6 +61892,9 @@
       </c>
     </row>
     <row r="1825" spans="1:4">
+      <c r="A1825">
+        <v>1</v>
+      </c>
       <c r="B1825" t="s">
         <v>8</v>
       </c>
@@ -61569,6 +61906,9 @@
       </c>
     </row>
     <row r="1826" spans="1:4">
+      <c r="A1826">
+        <v>1</v>
+      </c>
       <c r="B1826" t="s">
         <v>63</v>
       </c>
@@ -61594,6 +61934,9 @@
       </c>
     </row>
     <row r="1828" spans="1:4">
+      <c r="A1828">
+        <v>1</v>
+      </c>
       <c r="B1828" t="s">
         <v>47</v>
       </c>
@@ -61647,6 +61990,9 @@
       </c>
     </row>
     <row r="1832" spans="1:4">
+      <c r="A1832">
+        <v>1</v>
+      </c>
       <c r="B1832" t="s">
         <v>47</v>
       </c>
@@ -61658,6 +62004,9 @@
       </c>
     </row>
     <row r="1833" spans="1:4">
+      <c r="A1833">
+        <v>1</v>
+      </c>
       <c r="B1833" t="s">
         <v>4</v>
       </c>
@@ -61669,6 +62018,9 @@
       </c>
     </row>
     <row r="1834" spans="1:4">
+      <c r="A1834">
+        <v>1</v>
+      </c>
       <c r="B1834" t="s">
         <v>8</v>
       </c>
@@ -61680,6 +62032,9 @@
       </c>
     </row>
     <row r="1835" spans="1:4">
+      <c r="A1835">
+        <v>1</v>
+      </c>
       <c r="B1835" t="s">
         <v>47</v>
       </c>
@@ -61705,6 +62060,9 @@
       </c>
     </row>
     <row r="1837" spans="1:4">
+      <c r="A1837">
+        <v>1</v>
+      </c>
       <c r="B1837" t="s">
         <v>4</v>
       </c>
@@ -61716,6 +62074,9 @@
       </c>
     </row>
     <row r="1838" spans="1:4">
+      <c r="A1838">
+        <v>1</v>
+      </c>
       <c r="B1838" t="s">
         <v>63</v>
       </c>
@@ -61727,6 +62088,9 @@
       </c>
     </row>
     <row r="1839" spans="1:4">
+      <c r="A1839">
+        <v>1</v>
+      </c>
       <c r="B1839" t="s">
         <v>47</v>
       </c>
@@ -61738,6 +62102,9 @@
       </c>
     </row>
     <row r="1840" spans="1:4">
+      <c r="A1840">
+        <v>1</v>
+      </c>
       <c r="B1840" t="s">
         <v>8</v>
       </c>
@@ -61749,6 +62116,9 @@
       </c>
     </row>
     <row r="1841" spans="1:4">
+      <c r="A1841">
+        <v>1</v>
+      </c>
       <c r="B1841" t="s">
         <v>47</v>
       </c>
@@ -61760,6 +62130,9 @@
       </c>
     </row>
     <row r="1842" spans="1:4">
+      <c r="A1842">
+        <v>1</v>
+      </c>
       <c r="B1842" t="s">
         <v>253</v>
       </c>
@@ -61771,6 +62144,9 @@
       </c>
     </row>
     <row r="1843" spans="1:4">
+      <c r="A1843">
+        <v>1</v>
+      </c>
       <c r="B1843" t="s">
         <v>47</v>
       </c>
@@ -61908,6 +62284,9 @@
       </c>
     </row>
     <row r="1853" spans="1:4">
+      <c r="A1853">
+        <v>1</v>
+      </c>
       <c r="B1853" t="s">
         <v>8</v>
       </c>
@@ -61947,6 +62326,9 @@
       </c>
     </row>
     <row r="1856" spans="1:4">
+      <c r="A1856">
+        <v>1</v>
+      </c>
       <c r="B1856" t="s">
         <v>54</v>
       </c>
@@ -61972,6 +62354,9 @@
       </c>
     </row>
     <row r="1858" spans="1:4">
+      <c r="A1858">
+        <v>1</v>
+      </c>
       <c r="B1858" t="s">
         <v>47</v>
       </c>
@@ -61983,6 +62368,9 @@
       </c>
     </row>
     <row r="1859" spans="1:4">
+      <c r="A1859">
+        <v>1</v>
+      </c>
       <c r="B1859" t="s">
         <v>647</v>
       </c>
@@ -62008,6 +62396,9 @@
       </c>
     </row>
     <row r="1861" spans="1:4">
+      <c r="A1861">
+        <v>1</v>
+      </c>
       <c r="B1861" t="s">
         <v>4</v>
       </c>
@@ -62019,6 +62410,9 @@
       </c>
     </row>
     <row r="1862" spans="1:4">
+      <c r="A1862">
+        <v>1</v>
+      </c>
       <c r="B1862" t="s">
         <v>319</v>
       </c>
@@ -62072,6 +62466,9 @@
       </c>
     </row>
     <row r="1866" spans="1:4">
+      <c r="A1866">
+        <v>1</v>
+      </c>
       <c r="B1866" t="s">
         <v>47</v>
       </c>
@@ -62083,6 +62480,9 @@
       </c>
     </row>
     <row r="1867" spans="1:4">
+      <c r="A1867">
+        <v>1</v>
+      </c>
       <c r="B1867" t="s">
         <v>181</v>
       </c>
@@ -62108,6 +62508,9 @@
       </c>
     </row>
     <row r="1869" spans="1:4">
+      <c r="A1869">
+        <v>1</v>
+      </c>
       <c r="B1869" t="s">
         <v>4</v>
       </c>
@@ -62119,6 +62522,9 @@
       </c>
     </row>
     <row r="1870" spans="1:4">
+      <c r="A1870">
+        <v>-1</v>
+      </c>
       <c r="B1870" t="s">
         <v>47</v>
       </c>
@@ -62130,6 +62536,9 @@
       </c>
     </row>
     <row r="1871" spans="1:4">
+      <c r="A1871">
+        <v>1</v>
+      </c>
       <c r="B1871" t="s">
         <v>47</v>
       </c>
@@ -62141,6 +62550,9 @@
       </c>
     </row>
     <row r="1872" spans="1:4">
+      <c r="A1872">
+        <v>1</v>
+      </c>
       <c r="B1872" t="s">
         <v>4</v>
       </c>
@@ -62152,6 +62564,9 @@
       </c>
     </row>
     <row r="1873" spans="1:4">
+      <c r="A1873">
+        <v>1</v>
+      </c>
       <c r="B1873" t="s">
         <v>15</v>
       </c>
@@ -62163,6 +62578,9 @@
       </c>
     </row>
     <row r="1874" spans="1:4">
+      <c r="A1874">
+        <v>1</v>
+      </c>
       <c r="B1874" t="s">
         <v>4</v>
       </c>
@@ -62188,6 +62606,9 @@
       </c>
     </row>
     <row r="1876" spans="1:4">
+      <c r="A1876">
+        <v>1</v>
+      </c>
       <c r="B1876" t="s">
         <v>8</v>
       </c>
@@ -62199,6 +62620,9 @@
       </c>
     </row>
     <row r="1877" spans="1:4">
+      <c r="A1877">
+        <v>1</v>
+      </c>
       <c r="B1877" t="s">
         <v>4</v>
       </c>
@@ -62210,6 +62634,9 @@
       </c>
     </row>
     <row r="1878" spans="1:4">
+      <c r="A1878">
+        <v>1</v>
+      </c>
       <c r="B1878" t="s">
         <v>181</v>
       </c>
@@ -62235,6 +62662,9 @@
       </c>
     </row>
     <row r="1880" spans="1:4">
+      <c r="A1880">
+        <v>1</v>
+      </c>
       <c r="B1880" t="s">
         <v>15</v>
       </c>
@@ -62246,6 +62676,9 @@
       </c>
     </row>
     <row r="1881" spans="1:4">
+      <c r="A1881">
+        <v>1</v>
+      </c>
       <c r="B1881" t="s">
         <v>4</v>
       </c>
@@ -62257,6 +62690,9 @@
       </c>
     </row>
     <row r="1882" spans="1:4">
+      <c r="A1882">
+        <v>1</v>
+      </c>
       <c r="B1882" t="s">
         <v>90</v>
       </c>
@@ -62282,6 +62718,9 @@
       </c>
     </row>
     <row r="1884" spans="1:4">
+      <c r="A1884">
+        <v>1</v>
+      </c>
       <c r="B1884" t="s">
         <v>102</v>
       </c>
@@ -62293,6 +62732,9 @@
       </c>
     </row>
     <row r="1885" spans="1:4">
+      <c r="A1885">
+        <v>1</v>
+      </c>
       <c r="B1885" t="s">
         <v>181</v>
       </c>
@@ -62318,6 +62760,9 @@
       </c>
     </row>
     <row r="1887" spans="1:4">
+      <c r="A1887">
+        <v>1</v>
+      </c>
       <c r="B1887" t="s">
         <v>63</v>
       </c>
@@ -62329,6 +62774,9 @@
       </c>
     </row>
     <row r="1888" spans="1:4">
+      <c r="A1888">
+        <v>1</v>
+      </c>
       <c r="B1888" t="s">
         <v>15</v>
       </c>
@@ -62396,6 +62844,9 @@
       </c>
     </row>
     <row r="1893" spans="1:4">
+      <c r="A1893">
+        <v>1</v>
+      </c>
       <c r="B1893" t="s">
         <v>47</v>
       </c>
@@ -62407,6 +62858,9 @@
       </c>
     </row>
     <row r="1894" spans="1:4">
+      <c r="A1894">
+        <v>1</v>
+      </c>
       <c r="B1894" t="s">
         <v>8</v>
       </c>
@@ -62418,6 +62872,9 @@
       </c>
     </row>
     <row r="1895" spans="1:4">
+      <c r="A1895">
+        <v>1</v>
+      </c>
       <c r="B1895" t="s">
         <v>4</v>
       </c>
@@ -62429,6 +62886,9 @@
       </c>
     </row>
     <row r="1896" spans="1:4">
+      <c r="A1896">
+        <v>1</v>
+      </c>
       <c r="B1896" t="s">
         <v>4</v>
       </c>
@@ -62468,6 +62928,9 @@
       </c>
     </row>
     <row r="1899" spans="1:4">
+      <c r="A1899">
+        <v>1</v>
+      </c>
       <c r="B1899" t="s">
         <v>4</v>
       </c>
@@ -62493,6 +62956,9 @@
       </c>
     </row>
     <row r="1901" spans="1:4">
+      <c r="A1901">
+        <v>1</v>
+      </c>
       <c r="B1901" t="s">
         <v>4</v>
       </c>
@@ -62518,6 +62984,9 @@
       </c>
     </row>
     <row r="1903" spans="1:4">
+      <c r="A1903">
+        <v>1</v>
+      </c>
       <c r="B1903" t="s">
         <v>4</v>
       </c>
@@ -62529,6 +62998,9 @@
       </c>
     </row>
     <row r="1904" spans="1:4">
+      <c r="A1904">
+        <v>1</v>
+      </c>
       <c r="B1904" t="s">
         <v>4</v>
       </c>
@@ -62568,6 +63040,9 @@
       </c>
     </row>
     <row r="1907" spans="1:4">
+      <c r="A1907">
+        <v>1</v>
+      </c>
       <c r="B1907" t="s">
         <v>4</v>
       </c>
@@ -62579,6 +63054,9 @@
       </c>
     </row>
     <row r="1908" spans="1:4">
+      <c r="A1908">
+        <v>1</v>
+      </c>
       <c r="B1908" t="s">
         <v>4</v>
       </c>
@@ -62590,6 +63068,9 @@
       </c>
     </row>
     <row r="1909" spans="1:4">
+      <c r="A1909">
+        <v>1</v>
+      </c>
       <c r="B1909" t="s">
         <v>4</v>
       </c>
@@ -62615,6 +63096,9 @@
       </c>
     </row>
     <row r="1911" spans="1:4">
+      <c r="A1911">
+        <v>1</v>
+      </c>
       <c r="B1911" t="s">
         <v>8</v>
       </c>
@@ -62640,6 +63124,9 @@
       </c>
     </row>
     <row r="1913" spans="1:4">
+      <c r="A1913">
+        <v>1</v>
+      </c>
       <c r="B1913" t="s">
         <v>4</v>
       </c>
@@ -62693,6 +63180,9 @@
       </c>
     </row>
     <row r="1917" spans="1:4">
+      <c r="A1917">
+        <v>1</v>
+      </c>
       <c r="B1917" t="s">
         <v>4</v>
       </c>
@@ -62704,6 +63194,9 @@
       </c>
     </row>
     <row r="1918" spans="1:4">
+      <c r="A1918">
+        <v>1</v>
+      </c>
       <c r="B1918" t="s">
         <v>4</v>
       </c>
@@ -62729,6 +63222,9 @@
       </c>
     </row>
     <row r="1920" spans="1:4">
+      <c r="A1920">
+        <v>1</v>
+      </c>
       <c r="B1920" t="s">
         <v>4</v>
       </c>
@@ -62768,6 +63264,9 @@
       </c>
     </row>
     <row r="1923" spans="1:4">
+      <c r="A1923">
+        <v>1</v>
+      </c>
       <c r="B1923" t="s">
         <v>4</v>
       </c>
@@ -62779,6 +63278,9 @@
       </c>
     </row>
     <row r="1924" spans="1:4">
+      <c r="A1924">
+        <v>1</v>
+      </c>
       <c r="B1924" t="s">
         <v>4</v>
       </c>
@@ -62790,6 +63292,9 @@
       </c>
     </row>
     <row r="1925" spans="1:4">
+      <c r="A1925">
+        <v>1</v>
+      </c>
       <c r="B1925" t="s">
         <v>4</v>
       </c>
@@ -62801,6 +63306,9 @@
       </c>
     </row>
     <row r="1926" spans="1:4">
+      <c r="A1926">
+        <v>1</v>
+      </c>
       <c r="B1926" t="s">
         <v>8</v>
       </c>
@@ -62840,6 +63348,9 @@
       </c>
     </row>
     <row r="1929" spans="1:4">
+      <c r="A1929">
+        <v>1</v>
+      </c>
       <c r="B1929" t="s">
         <v>8</v>
       </c>
@@ -62907,6 +63418,9 @@
       </c>
     </row>
     <row r="1934" spans="1:4">
+      <c r="A1934">
+        <v>1</v>
+      </c>
       <c r="B1934" t="s">
         <v>8</v>
       </c>
@@ -62946,6 +63460,9 @@
       </c>
     </row>
     <row r="1937" spans="1:4">
+      <c r="A1937">
+        <v>1</v>
+      </c>
       <c r="B1937" t="s">
         <v>8</v>
       </c>
@@ -62957,6 +63474,9 @@
       </c>
     </row>
     <row r="1938" spans="1:4">
+      <c r="A1938">
+        <v>1</v>
+      </c>
       <c r="B1938" t="s">
         <v>193</v>
       </c>
@@ -62982,6 +63502,9 @@
       </c>
     </row>
     <row r="1940" spans="1:4">
+      <c r="A1940">
+        <v>1</v>
+      </c>
       <c r="B1940" t="s">
         <v>47</v>
       </c>
@@ -62993,6 +63516,9 @@
       </c>
     </row>
     <row r="1941" spans="1:4">
+      <c r="A1941">
+        <v>1</v>
+      </c>
       <c r="B1941" t="s">
         <v>47</v>
       </c>
@@ -63004,6 +63530,9 @@
       </c>
     </row>
     <row r="1942" spans="1:4">
+      <c r="A1942">
+        <v>1</v>
+      </c>
       <c r="B1942" t="s">
         <v>47</v>
       </c>
@@ -63015,6 +63544,9 @@
       </c>
     </row>
     <row r="1943" spans="1:4">
+      <c r="A1943">
+        <v>1</v>
+      </c>
       <c r="B1943" t="s">
         <v>15</v>
       </c>
@@ -63040,6 +63572,9 @@
       </c>
     </row>
     <row r="1945" spans="1:4">
+      <c r="A1945">
+        <v>1</v>
+      </c>
       <c r="B1945" t="s">
         <v>80</v>
       </c>
@@ -63079,6 +63614,9 @@
       </c>
     </row>
     <row r="1948" spans="1:4">
+      <c r="A1948">
+        <v>1</v>
+      </c>
       <c r="B1948" t="s">
         <v>8</v>
       </c>
@@ -63104,6 +63642,9 @@
       </c>
     </row>
     <row r="1950" spans="1:4">
+      <c r="A1950">
+        <v>1</v>
+      </c>
       <c r="B1950" t="s">
         <v>1654</v>
       </c>
@@ -63115,6 +63656,9 @@
       </c>
     </row>
     <row r="1951" spans="1:4">
+      <c r="A1951">
+        <v>1</v>
+      </c>
       <c r="B1951" t="s">
         <v>4</v>
       </c>
@@ -63126,6 +63670,9 @@
       </c>
     </row>
     <row r="1952" spans="1:4">
+      <c r="A1952">
+        <v>1</v>
+      </c>
       <c r="B1952" t="s">
         <v>102</v>
       </c>
@@ -63137,6 +63684,9 @@
       </c>
     </row>
     <row r="1953" spans="1:4">
+      <c r="A1953">
+        <v>1</v>
+      </c>
       <c r="B1953" t="s">
         <v>15</v>
       </c>
@@ -63162,6 +63712,9 @@
       </c>
     </row>
     <row r="1955" spans="1:4">
+      <c r="A1955">
+        <v>1</v>
+      </c>
       <c r="B1955" t="s">
         <v>63</v>
       </c>
@@ -63173,6 +63726,9 @@
       </c>
     </row>
     <row r="1956" spans="1:4">
+      <c r="A1956">
+        <v>1</v>
+      </c>
       <c r="B1956" t="s">
         <v>47</v>
       </c>
@@ -63240,6 +63796,9 @@
       </c>
     </row>
     <row r="1961" spans="1:4">
+      <c r="A1961">
+        <v>1</v>
+      </c>
       <c r="B1961" t="s">
         <v>392</v>
       </c>
@@ -63293,6 +63852,9 @@
       </c>
     </row>
     <row r="1965" spans="1:4">
+      <c r="A1965">
+        <v>1</v>
+      </c>
       <c r="B1965" t="s">
         <v>47</v>
       </c>
@@ -63332,6 +63894,9 @@
       </c>
     </row>
     <row r="1968" spans="1:4">
+      <c r="A1968">
+        <v>1</v>
+      </c>
       <c r="B1968" t="s">
         <v>47</v>
       </c>
@@ -63343,6 +63908,9 @@
       </c>
     </row>
     <row r="1969" spans="1:4">
+      <c r="A1969">
+        <v>1</v>
+      </c>
       <c r="B1969" t="s">
         <v>47</v>
       </c>
@@ -63354,6 +63922,9 @@
       </c>
     </row>
     <row r="1970" spans="1:4">
+      <c r="A1970">
+        <v>1</v>
+      </c>
       <c r="B1970" t="s">
         <v>47</v>
       </c>
@@ -63365,6 +63936,9 @@
       </c>
     </row>
     <row r="1971" spans="1:4">
+      <c r="A1971">
+        <v>1</v>
+      </c>
       <c r="B1971" t="s">
         <v>47</v>
       </c>
@@ -63418,6 +63992,9 @@
       </c>
     </row>
     <row r="1975" spans="1:4">
+      <c r="A1975">
+        <v>1</v>
+      </c>
       <c r="B1975" t="s">
         <v>253</v>
       </c>
@@ -63429,6 +64006,9 @@
       </c>
     </row>
     <row r="1976" spans="1:4">
+      <c r="A1976">
+        <v>1</v>
+      </c>
       <c r="B1976" t="s">
         <v>47</v>
       </c>
@@ -63440,6 +64020,9 @@
       </c>
     </row>
     <row r="1977" spans="1:4">
+      <c r="A1977">
+        <v>1</v>
+      </c>
       <c r="B1977" t="s">
         <v>253</v>
       </c>
@@ -63493,6 +64076,9 @@
       </c>
     </row>
     <row r="1981" spans="1:4">
+      <c r="A1981">
+        <v>1</v>
+      </c>
       <c r="B1981" t="s">
         <v>8</v>
       </c>
@@ -63504,6 +64090,9 @@
       </c>
     </row>
     <row r="1982" spans="1:4">
+      <c r="A1982">
+        <v>1</v>
+      </c>
       <c r="B1982" t="s">
         <v>4</v>
       </c>
@@ -63529,6 +64118,9 @@
       </c>
     </row>
     <row r="1984" spans="1:4">
+      <c r="A1984">
+        <v>1</v>
+      </c>
       <c r="B1984" t="s">
         <v>107</v>
       </c>
@@ -63540,6 +64132,9 @@
       </c>
     </row>
     <row r="1985" spans="1:4">
+      <c r="A1985">
+        <v>1</v>
+      </c>
       <c r="B1985" t="s">
         <v>647</v>
       </c>
@@ -63551,6 +64146,9 @@
       </c>
     </row>
     <row r="1986" spans="1:4">
+      <c r="A1986">
+        <v>1</v>
+      </c>
       <c r="B1986" t="s">
         <v>4</v>
       </c>
@@ -63562,6 +64160,9 @@
       </c>
     </row>
     <row r="1987" spans="1:4">
+      <c r="A1987">
+        <v>1</v>
+      </c>
       <c r="B1987" t="s">
         <v>4</v>
       </c>
@@ -63573,6 +64174,9 @@
       </c>
     </row>
     <row r="1988" spans="1:4">
+      <c r="A1988">
+        <v>1</v>
+      </c>
       <c r="B1988" t="s">
         <v>8</v>
       </c>
@@ -63584,6 +64188,9 @@
       </c>
     </row>
     <row r="1989" spans="1:4">
+      <c r="A1989">
+        <v>1</v>
+      </c>
       <c r="B1989" t="s">
         <v>1654</v>
       </c>
@@ -63609,6 +64216,9 @@
       </c>
     </row>
     <row r="1991" spans="1:4">
+      <c r="A1991">
+        <v>1</v>
+      </c>
       <c r="B1991" t="s">
         <v>47</v>
       </c>
@@ -63620,6 +64230,9 @@
       </c>
     </row>
     <row r="1992" spans="1:4">
+      <c r="A1992">
+        <v>1</v>
+      </c>
       <c r="B1992" t="s">
         <v>4</v>
       </c>
@@ -63645,6 +64258,9 @@
       </c>
     </row>
     <row r="1994" spans="1:4">
+      <c r="A1994">
+        <v>1</v>
+      </c>
       <c r="B1994" t="s">
         <v>253</v>
       </c>
@@ -63656,6 +64272,9 @@
       </c>
     </row>
     <row r="1995" spans="1:4">
+      <c r="A1995">
+        <v>1</v>
+      </c>
       <c r="B1995" t="s">
         <v>4</v>
       </c>
@@ -63667,6 +64286,9 @@
       </c>
     </row>
     <row r="1996" spans="1:4">
+      <c r="A1996">
+        <v>1</v>
+      </c>
       <c r="B1996" t="s">
         <v>4</v>
       </c>
@@ -63678,6 +64300,9 @@
       </c>
     </row>
     <row r="1997" spans="1:4">
+      <c r="A1997">
+        <v>1</v>
+      </c>
       <c r="B1997" t="s">
         <v>47</v>
       </c>
@@ -63689,6 +64314,9 @@
       </c>
     </row>
     <row r="1998" spans="1:4">
+      <c r="A1998">
+        <v>1</v>
+      </c>
       <c r="B1998" t="s">
         <v>4</v>
       </c>
@@ -63770,6 +64398,9 @@
       </c>
     </row>
     <row r="2004" spans="1:4">
+      <c r="A2004">
+        <v>1</v>
+      </c>
       <c r="B2004" t="s">
         <v>8</v>
       </c>
@@ -63795,6 +64426,9 @@
       </c>
     </row>
     <row r="2006" spans="1:4">
+      <c r="A2006">
+        <v>1</v>
+      </c>
       <c r="B2006" t="s">
         <v>15</v>
       </c>
@@ -63806,6 +64440,9 @@
       </c>
     </row>
     <row r="2007" spans="1:4">
+      <c r="A2007">
+        <v>1</v>
+      </c>
       <c r="B2007" t="s">
         <v>4</v>
       </c>
@@ -63845,6 +64482,9 @@
       </c>
     </row>
     <row r="2010" spans="1:4">
+      <c r="A2010">
+        <v>1</v>
+      </c>
       <c r="B2010" t="s">
         <v>63</v>
       </c>
@@ -63856,6 +64496,9 @@
       </c>
     </row>
     <row r="2011" spans="1:4">
+      <c r="A2011">
+        <v>1</v>
+      </c>
       <c r="B2011" t="s">
         <v>241</v>
       </c>
@@ -63951,6 +64594,9 @@
       </c>
     </row>
     <row r="2018" spans="1:4">
+      <c r="A2018">
+        <v>1</v>
+      </c>
       <c r="B2018" t="s">
         <v>47</v>
       </c>
@@ -63962,6 +64608,9 @@
       </c>
     </row>
     <row r="2019" spans="1:4">
+      <c r="A2019">
+        <v>1</v>
+      </c>
       <c r="B2019" t="s">
         <v>47</v>
       </c>
@@ -63973,6 +64622,9 @@
       </c>
     </row>
     <row r="2020" spans="1:4">
+      <c r="A2020">
+        <v>1</v>
+      </c>
       <c r="B2020" t="s">
         <v>8</v>
       </c>
@@ -63998,6 +64650,9 @@
       </c>
     </row>
     <row r="2022" spans="1:4">
+      <c r="A2022">
+        <v>1</v>
+      </c>
       <c r="B2022" t="s">
         <v>4</v>
       </c>
@@ -64009,6 +64664,9 @@
       </c>
     </row>
     <row r="2023" spans="1:4">
+      <c r="A2023">
+        <v>1</v>
+      </c>
       <c r="B2023" t="s">
         <v>8</v>
       </c>
@@ -64034,6 +64692,9 @@
       </c>
     </row>
     <row r="2025" spans="1:4">
+      <c r="A2025">
+        <v>1</v>
+      </c>
       <c r="B2025" t="s">
         <v>4</v>
       </c>
@@ -64045,6 +64706,9 @@
       </c>
     </row>
     <row r="2026" spans="1:4">
+      <c r="A2026">
+        <v>1</v>
+      </c>
       <c r="B2026" t="s">
         <v>102</v>
       </c>
@@ -64056,6 +64720,9 @@
       </c>
     </row>
     <row r="2027" spans="1:4">
+      <c r="A2027">
+        <v>1</v>
+      </c>
       <c r="B2027" t="s">
         <v>8</v>
       </c>
@@ -64067,6 +64734,9 @@
       </c>
     </row>
     <row r="2028" spans="1:4">
+      <c r="A2028">
+        <v>1</v>
+      </c>
       <c r="B2028" t="s">
         <v>1654</v>
       </c>
@@ -64092,6 +64762,9 @@
       </c>
     </row>
     <row r="2030" spans="1:4">
+      <c r="A2030">
+        <v>1</v>
+      </c>
       <c r="B2030" t="s">
         <v>47</v>
       </c>
@@ -64103,6 +64776,9 @@
       </c>
     </row>
     <row r="2031" spans="1:4">
+      <c r="A2031">
+        <v>1</v>
+      </c>
       <c r="B2031" t="s">
         <v>15</v>
       </c>
@@ -64128,6 +64804,9 @@
       </c>
     </row>
     <row r="2033" spans="1:4">
+      <c r="A2033">
+        <v>1</v>
+      </c>
       <c r="B2033" t="s">
         <v>54</v>
       </c>
@@ -64153,6 +64832,9 @@
       </c>
     </row>
     <row r="2035" spans="1:4">
+      <c r="A2035">
+        <v>1</v>
+      </c>
       <c r="B2035" t="s">
         <v>47</v>
       </c>
@@ -64164,6 +64846,9 @@
       </c>
     </row>
     <row r="2036" spans="1:4">
+      <c r="A2036">
+        <v>1</v>
+      </c>
       <c r="B2036" t="s">
         <v>4</v>
       </c>
@@ -64189,6 +64874,9 @@
       </c>
     </row>
     <row r="2038" spans="1:4">
+      <c r="A2038">
+        <v>1</v>
+      </c>
       <c r="B2038" t="s">
         <v>15</v>
       </c>
@@ -64228,6 +64916,9 @@
       </c>
     </row>
     <row r="2041" spans="1:4">
+      <c r="A2041">
+        <v>1</v>
+      </c>
       <c r="B2041" t="s">
         <v>47</v>
       </c>
@@ -64239,6 +64930,9 @@
       </c>
     </row>
     <row r="2042" spans="1:4">
+      <c r="A2042">
+        <v>1</v>
+      </c>
       <c r="B2042" t="s">
         <v>15</v>
       </c>
@@ -64264,6 +64958,9 @@
       </c>
     </row>
     <row r="2044" spans="1:4">
+      <c r="A2044">
+        <v>1</v>
+      </c>
       <c r="B2044" t="s">
         <v>63</v>
       </c>
@@ -64275,6 +64972,9 @@
       </c>
     </row>
     <row r="2045" spans="1:4">
+      <c r="A2045">
+        <v>1</v>
+      </c>
       <c r="B2045" t="s">
         <v>90</v>
       </c>
@@ -64328,6 +65028,9 @@
       </c>
     </row>
     <row r="2049" spans="1:4">
+      <c r="A2049">
+        <v>1</v>
+      </c>
       <c r="B2049" t="s">
         <v>8</v>
       </c>
@@ -64353,6 +65056,9 @@
       </c>
     </row>
     <row r="2051" spans="1:4">
+      <c r="A2051">
+        <v>1</v>
+      </c>
       <c r="B2051" t="s">
         <v>47</v>
       </c>
@@ -64364,6 +65070,9 @@
       </c>
     </row>
     <row r="2052" spans="1:4">
+      <c r="A2052">
+        <v>1</v>
+      </c>
       <c r="B2052" t="s">
         <v>181</v>
       </c>
@@ -64389,6 +65098,9 @@
       </c>
     </row>
     <row r="2054" spans="1:4">
+      <c r="A2054">
+        <v>1</v>
+      </c>
       <c r="B2054" t="s">
         <v>647</v>
       </c>
@@ -64442,6 +65154,9 @@
       </c>
     </row>
     <row r="2058" spans="1:4">
+      <c r="A2058">
+        <v>1</v>
+      </c>
       <c r="B2058" t="s">
         <v>15</v>
       </c>
@@ -64453,6 +65168,9 @@
       </c>
     </row>
     <row r="2059" spans="1:4">
+      <c r="A2059">
+        <v>-1</v>
+      </c>
       <c r="B2059" t="s">
         <v>102</v>
       </c>
@@ -64478,6 +65196,9 @@
       </c>
     </row>
     <row r="2061" spans="1:4">
+      <c r="A2061">
+        <v>-1</v>
+      </c>
       <c r="B2061" t="s">
         <v>8</v>
       </c>
@@ -64503,6 +65224,9 @@
       </c>
     </row>
     <row r="2063" spans="1:4">
+      <c r="A2063">
+        <v>1</v>
+      </c>
       <c r="B2063" t="s">
         <v>47</v>
       </c>
@@ -64528,6 +65252,9 @@
       </c>
     </row>
     <row r="2065" spans="1:4">
+      <c r="A2065">
+        <v>1</v>
+      </c>
       <c r="B2065" t="s">
         <v>54</v>
       </c>
@@ -64553,6 +65280,9 @@
       </c>
     </row>
     <row r="2067" spans="1:4">
+      <c r="A2067">
+        <v>1</v>
+      </c>
       <c r="B2067" t="s">
         <v>47</v>
       </c>
@@ -64564,6 +65294,9 @@
       </c>
     </row>
     <row r="2068" spans="1:4">
+      <c r="A2068">
+        <v>1</v>
+      </c>
       <c r="B2068" t="s">
         <v>47</v>
       </c>
@@ -64589,6 +65322,9 @@
       </c>
     </row>
     <row r="2070" spans="1:4">
+      <c r="A2070">
+        <v>1</v>
+      </c>
       <c r="B2070" t="s">
         <v>47</v>
       </c>
@@ -64600,6 +65336,9 @@
       </c>
     </row>
     <row r="2071" spans="1:4">
+      <c r="A2071">
+        <v>1</v>
+      </c>
       <c r="B2071" t="s">
         <v>8</v>
       </c>
@@ -64611,6 +65350,9 @@
       </c>
     </row>
     <row r="2072" spans="1:4">
+      <c r="A2072">
+        <v>1</v>
+      </c>
       <c r="B2072" t="s">
         <v>47</v>
       </c>
@@ -64622,6 +65364,9 @@
       </c>
     </row>
     <row r="2073" spans="1:4">
+      <c r="A2073">
+        <v>1</v>
+      </c>
       <c r="B2073" t="s">
         <v>15</v>
       </c>
@@ -64633,6 +65378,9 @@
       </c>
     </row>
     <row r="2074" spans="1:4">
+      <c r="A2074">
+        <v>1</v>
+      </c>
       <c r="B2074" t="s">
         <v>1654</v>
       </c>
@@ -64644,6 +65392,9 @@
       </c>
     </row>
     <row r="2075" spans="1:4">
+      <c r="A2075">
+        <v>1</v>
+      </c>
       <c r="B2075" t="s">
         <v>90</v>
       </c>
@@ -64655,6 +65406,9 @@
       </c>
     </row>
     <row r="2076" spans="1:4">
+      <c r="A2076">
+        <v>1</v>
+      </c>
       <c r="B2076" t="s">
         <v>4</v>
       </c>
@@ -64666,6 +65420,9 @@
       </c>
     </row>
     <row r="2077" spans="1:4">
+      <c r="A2077">
+        <v>1</v>
+      </c>
       <c r="B2077" t="s">
         <v>54</v>
       </c>
@@ -64705,6 +65462,9 @@
       </c>
     </row>
     <row r="2080" spans="1:4">
+      <c r="A2080">
+        <v>1</v>
+      </c>
       <c r="B2080" t="s">
         <v>47</v>
       </c>
@@ -64744,6 +65504,9 @@
       </c>
     </row>
     <row r="2083" spans="1:4">
+      <c r="A2083">
+        <v>1</v>
+      </c>
       <c r="B2083" t="s">
         <v>4</v>
       </c>
@@ -64755,6 +65518,9 @@
       </c>
     </row>
     <row r="2084" spans="1:4">
+      <c r="A2084">
+        <v>1</v>
+      </c>
       <c r="B2084" t="s">
         <v>113</v>
       </c>
@@ -64766,6 +65532,9 @@
       </c>
     </row>
     <row r="2085" spans="1:4">
+      <c r="A2085">
+        <v>1</v>
+      </c>
       <c r="B2085" t="s">
         <v>90</v>
       </c>
@@ -64777,6 +65546,9 @@
       </c>
     </row>
     <row r="2086" spans="1:4">
+      <c r="A2086">
+        <v>1</v>
+      </c>
       <c r="B2086" t="s">
         <v>15</v>
       </c>
@@ -64788,6 +65560,9 @@
       </c>
     </row>
     <row r="2087" spans="1:4">
+      <c r="A2087">
+        <v>1</v>
+      </c>
       <c r="B2087" t="s">
         <v>253</v>
       </c>
@@ -64813,6 +65588,9 @@
       </c>
     </row>
     <row r="2089" spans="1:4">
+      <c r="A2089">
+        <v>-1</v>
+      </c>
       <c r="B2089" t="s">
         <v>47</v>
       </c>
@@ -64824,6 +65602,9 @@
       </c>
     </row>
     <row r="2090" spans="1:4">
+      <c r="A2090">
+        <v>-1</v>
+      </c>
       <c r="B2090" t="s">
         <v>15</v>
       </c>
@@ -64835,6 +65616,9 @@
       </c>
     </row>
     <row r="2091" spans="1:4">
+      <c r="A2091">
+        <v>1</v>
+      </c>
       <c r="B2091" t="s">
         <v>90</v>
       </c>
@@ -64860,6 +65644,9 @@
       </c>
     </row>
     <row r="2093" spans="1:4">
+      <c r="A2093">
+        <v>-1</v>
+      </c>
       <c r="B2093" t="s">
         <v>4</v>
       </c>
@@ -64871,6 +65658,9 @@
       </c>
     </row>
     <row r="2094" spans="1:4">
+      <c r="A2094">
+        <v>-1</v>
+      </c>
       <c r="B2094" t="s">
         <v>80</v>
       </c>
@@ -64896,6 +65686,9 @@
       </c>
     </row>
     <row r="2096" spans="1:4">
+      <c r="A2096">
+        <v>1</v>
+      </c>
       <c r="B2096" t="s">
         <v>4</v>
       </c>
@@ -64907,6 +65700,9 @@
       </c>
     </row>
     <row r="2097" spans="1:4">
+      <c r="A2097">
+        <v>-1</v>
+      </c>
       <c r="B2097" t="s">
         <v>102</v>
       </c>
@@ -64946,6 +65742,9 @@
       </c>
     </row>
     <row r="2100" spans="1:4">
+      <c r="A2100">
+        <v>1</v>
+      </c>
       <c r="B2100" t="s">
         <v>90</v>
       </c>
@@ -64957,6 +65756,9 @@
       </c>
     </row>
     <row r="2101" spans="1:4">
+      <c r="A2101">
+        <v>1</v>
+      </c>
       <c r="B2101" t="s">
         <v>63</v>
       </c>
@@ -65010,6 +65812,9 @@
       </c>
     </row>
     <row r="2105" spans="1:4">
+      <c r="A2105">
+        <v>1</v>
+      </c>
       <c r="B2105" t="s">
         <v>102</v>
       </c>
@@ -65063,6 +65868,9 @@
       </c>
     </row>
     <row r="2109" spans="1:4">
+      <c r="A2109">
+        <v>1</v>
+      </c>
       <c r="B2109" t="s">
         <v>193</v>
       </c>
@@ -65116,6 +65924,9 @@
       </c>
     </row>
     <row r="2113" spans="1:4">
+      <c r="A2113">
+        <v>1</v>
+      </c>
       <c r="B2113" t="s">
         <v>102</v>
       </c>
@@ -65155,6 +65966,9 @@
       </c>
     </row>
     <row r="2116" spans="1:4">
+      <c r="A2116">
+        <v>1</v>
+      </c>
       <c r="B2116" t="s">
         <v>102</v>
       </c>
@@ -65166,6 +65980,9 @@
       </c>
     </row>
     <row r="2117" spans="1:4">
+      <c r="A2117">
+        <v>1</v>
+      </c>
       <c r="B2117" t="s">
         <v>102</v>
       </c>
@@ -65191,6 +66008,9 @@
       </c>
     </row>
     <row r="2119" spans="1:4">
+      <c r="A2119">
+        <v>1</v>
+      </c>
       <c r="B2119" t="s">
         <v>102</v>
       </c>
@@ -65272,6 +66092,9 @@
       </c>
     </row>
     <row r="2125" spans="1:4">
+      <c r="A2125">
+        <v>1</v>
+      </c>
       <c r="B2125" t="s">
         <v>181</v>
       </c>
@@ -65297,6 +66120,9 @@
       </c>
     </row>
     <row r="2127" spans="1:4">
+      <c r="A2127">
+        <v>1</v>
+      </c>
       <c r="B2127" t="s">
         <v>15</v>
       </c>
@@ -65322,6 +66148,9 @@
       </c>
     </row>
     <row r="2129" spans="1:4">
+      <c r="A2129">
+        <v>1</v>
+      </c>
       <c r="B2129" t="s">
         <v>90</v>
       </c>
@@ -65333,6 +66162,9 @@
       </c>
     </row>
     <row r="2130" spans="1:4">
+      <c r="A2130">
+        <v>1</v>
+      </c>
       <c r="B2130" t="s">
         <v>90</v>
       </c>
@@ -65372,6 +66204,9 @@
       </c>
     </row>
     <row r="2133" spans="1:4">
+      <c r="A2133">
+        <v>1</v>
+      </c>
       <c r="B2133" t="s">
         <v>47</v>
       </c>
@@ -65383,6 +66218,9 @@
       </c>
     </row>
     <row r="2134" spans="1:4">
+      <c r="A2134">
+        <v>1</v>
+      </c>
       <c r="B2134" t="s">
         <v>102</v>
       </c>
@@ -65408,6 +66246,9 @@
       </c>
     </row>
     <row r="2136" spans="1:4">
+      <c r="A2136">
+        <v>-1</v>
+      </c>
       <c r="B2136" t="s">
         <v>90</v>
       </c>
@@ -65419,6 +66260,9 @@
       </c>
     </row>
     <row r="2137" spans="1:4">
+      <c r="A2137">
+        <v>1</v>
+      </c>
       <c r="B2137" t="s">
         <v>63</v>
       </c>
@@ -65430,6 +66274,9 @@
       </c>
     </row>
     <row r="2138" spans="1:4">
+      <c r="A2138">
+        <v>-1</v>
+      </c>
       <c r="B2138" t="s">
         <v>4</v>
       </c>
@@ -65522,6 +66369,9 @@
       </c>
     </row>
     <row r="2145" spans="1:4">
+      <c r="A2145">
+        <v>1</v>
+      </c>
       <c r="B2145" t="s">
         <v>90</v>
       </c>
@@ -65561,6 +66411,9 @@
       </c>
     </row>
     <row r="2148" spans="1:4">
+      <c r="A2148">
+        <v>-1</v>
+      </c>
       <c r="B2148" t="s">
         <v>63</v>
       </c>
@@ -65572,6 +66425,9 @@
       </c>
     </row>
     <row r="2149" spans="1:4">
+      <c r="A2149">
+        <v>1</v>
+      </c>
       <c r="B2149" t="s">
         <v>8</v>
       </c>
@@ -65583,6 +66439,9 @@
       </c>
     </row>
     <row r="2150" spans="1:4">
+      <c r="A2150">
+        <v>1</v>
+      </c>
       <c r="B2150" t="s">
         <v>90</v>
       </c>
@@ -65594,6 +66453,9 @@
       </c>
     </row>
     <row r="2151" spans="1:4">
+      <c r="A2151">
+        <v>1</v>
+      </c>
       <c r="B2151" t="s">
         <v>90</v>
       </c>
@@ -65605,6 +66467,9 @@
       </c>
     </row>
     <row r="2152" spans="1:4">
+      <c r="A2152">
+        <v>1</v>
+      </c>
       <c r="B2152" t="s">
         <v>90</v>
       </c>
@@ -65644,6 +66509,9 @@
       </c>
     </row>
     <row r="2155" spans="1:4">
+      <c r="A2155">
+        <v>1</v>
+      </c>
       <c r="B2155" t="s">
         <v>4</v>
       </c>
@@ -65655,6 +66523,9 @@
       </c>
     </row>
     <row r="2156" spans="1:4">
+      <c r="A2156">
+        <v>1</v>
+      </c>
       <c r="B2156" t="s">
         <v>102</v>
       </c>
@@ -65666,6 +66537,9 @@
       </c>
     </row>
     <row r="2157" spans="1:4">
+      <c r="A2157">
+        <v>1</v>
+      </c>
       <c r="B2157" t="s">
         <v>102</v>
       </c>
@@ -65691,6 +66565,9 @@
       </c>
     </row>
     <row r="2159" spans="1:4">
+      <c r="A2159">
+        <v>1</v>
+      </c>
       <c r="B2159" t="s">
         <v>47</v>
       </c>
@@ -65702,6 +66579,9 @@
       </c>
     </row>
     <row r="2160" spans="1:4">
+      <c r="A2160">
+        <v>1</v>
+      </c>
       <c r="B2160" t="s">
         <v>63</v>
       </c>
@@ -65839,6 +66719,9 @@
       </c>
     </row>
     <row r="2170" spans="1:4">
+      <c r="A2170">
+        <v>1</v>
+      </c>
       <c r="B2170" t="s">
         <v>90</v>
       </c>
@@ -65850,6 +66733,9 @@
       </c>
     </row>
     <row r="2171" spans="1:4">
+      <c r="A2171">
+        <v>1</v>
+      </c>
       <c r="B2171" t="s">
         <v>15</v>
       </c>
@@ -65861,6 +66747,9 @@
       </c>
     </row>
     <row r="2172" spans="1:4">
+      <c r="A2172">
+        <v>1</v>
+      </c>
       <c r="B2172" t="s">
         <v>47</v>
       </c>
@@ -65886,6 +66775,9 @@
       </c>
     </row>
     <row r="2174" spans="1:4">
+      <c r="A2174">
+        <v>1</v>
+      </c>
       <c r="B2174" t="s">
         <v>47</v>
       </c>
@@ -65897,6 +66789,9 @@
       </c>
     </row>
     <row r="2175" spans="1:4">
+      <c r="A2175">
+        <v>1</v>
+      </c>
       <c r="B2175" t="s">
         <v>15</v>
       </c>
@@ -65936,6 +66831,9 @@
       </c>
     </row>
     <row r="2178" spans="1:4">
+      <c r="A2178">
+        <v>1</v>
+      </c>
       <c r="B2178" t="s">
         <v>102</v>
       </c>
@@ -65961,6 +66859,9 @@
       </c>
     </row>
     <row r="2180" spans="1:4">
+      <c r="A2180">
+        <v>1</v>
+      </c>
       <c r="B2180" t="s">
         <v>47</v>
       </c>
@@ -65986,6 +66887,9 @@
       </c>
     </row>
     <row r="2182" spans="1:4">
+      <c r="A2182">
+        <v>1</v>
+      </c>
       <c r="B2182" t="s">
         <v>319</v>
       </c>
@@ -65997,6 +66901,9 @@
       </c>
     </row>
     <row r="2183" spans="1:4">
+      <c r="A2183">
+        <v>1</v>
+      </c>
       <c r="B2183" t="s">
         <v>63</v>
       </c>
@@ -66008,6 +66915,9 @@
       </c>
     </row>
     <row r="2184" spans="1:4">
+      <c r="A2184">
+        <v>1</v>
+      </c>
       <c r="B2184" t="s">
         <v>63</v>
       </c>
@@ -66061,6 +66971,9 @@
       </c>
     </row>
     <row r="2188" spans="1:4">
+      <c r="A2188">
+        <v>1</v>
+      </c>
       <c r="B2188" t="s">
         <v>8</v>
       </c>
@@ -66086,6 +66999,9 @@
       </c>
     </row>
     <row r="2190" spans="1:4">
+      <c r="A2190">
+        <v>1</v>
+      </c>
       <c r="B2190" t="s">
         <v>47</v>
       </c>
@@ -66097,6 +67013,9 @@
       </c>
     </row>
     <row r="2191" spans="1:4">
+      <c r="A2191">
+        <v>1</v>
+      </c>
       <c r="B2191" t="s">
         <v>241</v>
       </c>
@@ -66108,6 +67027,9 @@
       </c>
     </row>
     <row r="2192" spans="1:4">
+      <c r="A2192">
+        <v>1</v>
+      </c>
       <c r="B2192" t="s">
         <v>15</v>
       </c>
@@ -66119,6 +67041,9 @@
       </c>
     </row>
     <row r="2193" spans="1:4">
+      <c r="A2193">
+        <v>-1</v>
+      </c>
       <c r="B2193" t="s">
         <v>8</v>
       </c>
@@ -66130,6 +67055,9 @@
       </c>
     </row>
     <row r="2194" spans="1:4">
+      <c r="A2194">
+        <v>1</v>
+      </c>
       <c r="B2194" t="s">
         <v>90</v>
       </c>
@@ -66155,6 +67083,9 @@
       </c>
     </row>
     <row r="2196" spans="1:4">
+      <c r="A2196">
+        <v>1</v>
+      </c>
       <c r="B2196" t="s">
         <v>181</v>
       </c>
@@ -66194,6 +67125,9 @@
       </c>
     </row>
     <row r="2199" spans="1:4">
+      <c r="A2199">
+        <v>1</v>
+      </c>
       <c r="B2199" t="s">
         <v>4</v>
       </c>
@@ -66205,6 +67139,9 @@
       </c>
     </row>
     <row r="2200" spans="1:4">
+      <c r="A2200">
+        <v>1</v>
+      </c>
       <c r="B2200" t="s">
         <v>8</v>
       </c>
@@ -66230,6 +67167,9 @@
       </c>
     </row>
     <row r="2202" spans="1:4">
+      <c r="A2202">
+        <v>1</v>
+      </c>
       <c r="B2202" t="s">
         <v>8</v>
       </c>
@@ -66283,6 +67223,9 @@
       </c>
     </row>
     <row r="2206" spans="1:4">
+      <c r="A2206">
+        <v>1</v>
+      </c>
       <c r="B2206" t="s">
         <v>63</v>
       </c>
@@ -66294,6 +67237,9 @@
       </c>
     </row>
     <row r="2207" spans="1:4">
+      <c r="A2207">
+        <v>1</v>
+      </c>
       <c r="B2207" t="s">
         <v>47</v>
       </c>
@@ -66333,6 +67279,9 @@
       </c>
     </row>
     <row r="2210" spans="1:4">
+      <c r="A2210">
+        <v>1</v>
+      </c>
       <c r="B2210" t="s">
         <v>8</v>
       </c>
@@ -66344,6 +67293,9 @@
       </c>
     </row>
     <row r="2211" spans="1:4">
+      <c r="A2211">
+        <v>1</v>
+      </c>
       <c r="B2211" t="s">
         <v>4</v>
       </c>
@@ -66355,6 +67307,9 @@
       </c>
     </row>
     <row r="2212" spans="1:4">
+      <c r="A2212">
+        <v>1</v>
+      </c>
       <c r="B2212" t="s">
         <v>8</v>
       </c>
@@ -66366,6 +67321,9 @@
       </c>
     </row>
     <row r="2213" spans="1:4">
+      <c r="A2213">
+        <v>1</v>
+      </c>
       <c r="B2213" t="s">
         <v>4</v>
       </c>
@@ -66377,6 +67335,9 @@
       </c>
     </row>
     <row r="2214" spans="1:4">
+      <c r="A2214">
+        <v>1</v>
+      </c>
       <c r="B2214" t="s">
         <v>181</v>
       </c>
@@ -66388,6 +67349,9 @@
       </c>
     </row>
     <row r="2215" spans="1:4">
+      <c r="A2215">
+        <v>1</v>
+      </c>
       <c r="B2215" t="s">
         <v>47</v>
       </c>
@@ -66427,6 +67391,9 @@
       </c>
     </row>
     <row r="2218" spans="1:4">
+      <c r="A2218">
+        <v>1</v>
+      </c>
       <c r="B2218" t="s">
         <v>113</v>
       </c>
@@ -66438,6 +67405,9 @@
       </c>
     </row>
     <row r="2219" spans="1:4">
+      <c r="A2219">
+        <v>1</v>
+      </c>
       <c r="B2219" t="s">
         <v>15</v>
       </c>
@@ -66491,6 +67461,9 @@
       </c>
     </row>
     <row r="2223" spans="1:4">
+      <c r="A2223">
+        <v>1</v>
+      </c>
       <c r="B2223" t="s">
         <v>15</v>
       </c>
@@ -66530,6 +67503,9 @@
       </c>
     </row>
     <row r="2226" spans="1:4">
+      <c r="A2226">
+        <v>1</v>
+      </c>
       <c r="B2226" t="s">
         <v>15</v>
       </c>
@@ -66541,6 +67517,9 @@
       </c>
     </row>
     <row r="2227" spans="1:4">
+      <c r="A2227">
+        <v>1</v>
+      </c>
       <c r="B2227" t="s">
         <v>15</v>
       </c>
@@ -66552,6 +67531,9 @@
       </c>
     </row>
     <row r="2228" spans="1:4">
+      <c r="A2228">
+        <v>1</v>
+      </c>
       <c r="B2228" t="s">
         <v>253</v>
       </c>
@@ -66563,6 +67545,9 @@
       </c>
     </row>
     <row r="2229" spans="1:4">
+      <c r="A2229">
+        <v>1</v>
+      </c>
       <c r="B2229" t="s">
         <v>90</v>
       </c>
@@ -66574,6 +67559,9 @@
       </c>
     </row>
     <row r="2230" spans="1:4">
+      <c r="A2230">
+        <v>1</v>
+      </c>
       <c r="B2230" t="s">
         <v>90</v>
       </c>
@@ -66599,6 +67587,9 @@
       </c>
     </row>
     <row r="2232" spans="1:4">
+      <c r="A2232">
+        <v>1</v>
+      </c>
       <c r="B2232" t="s">
         <v>4</v>
       </c>
@@ -66610,6 +67601,9 @@
       </c>
     </row>
     <row r="2233" spans="1:4">
+      <c r="A2233">
+        <v>1</v>
+      </c>
       <c r="B2233" t="s">
         <v>47</v>
       </c>
@@ -66635,6 +67629,9 @@
       </c>
     </row>
     <row r="2235" spans="1:4">
+      <c r="A2235">
+        <v>1</v>
+      </c>
       <c r="B2235" t="s">
         <v>47</v>
       </c>
@@ -66660,6 +67657,9 @@
       </c>
     </row>
     <row r="2237" spans="1:4">
+      <c r="A2237">
+        <v>1</v>
+      </c>
       <c r="B2237" t="s">
         <v>47</v>
       </c>
@@ -66671,6 +67671,9 @@
       </c>
     </row>
     <row r="2238" spans="1:4">
+      <c r="A2238">
+        <v>1</v>
+      </c>
       <c r="B2238" t="s">
         <v>47</v>
       </c>
@@ -66682,6 +67685,9 @@
       </c>
     </row>
     <row r="2239" spans="1:4">
+      <c r="A2239">
+        <v>1</v>
+      </c>
       <c r="B2239" t="s">
         <v>47</v>
       </c>
@@ -66693,6 +67699,9 @@
       </c>
     </row>
     <row r="2240" spans="1:4">
+      <c r="A2240">
+        <v>1</v>
+      </c>
       <c r="B2240" t="s">
         <v>47</v>
       </c>
@@ -66704,6 +67713,9 @@
       </c>
     </row>
     <row r="2241" spans="1:4">
+      <c r="A2241">
+        <v>1</v>
+      </c>
       <c r="B2241" t="s">
         <v>47</v>
       </c>
@@ -66715,6 +67727,9 @@
       </c>
     </row>
     <row r="2242" spans="1:4">
+      <c r="A2242">
+        <v>1</v>
+      </c>
       <c r="B2242" t="s">
         <v>47</v>
       </c>
@@ -66726,6 +67741,9 @@
       </c>
     </row>
     <row r="2243" spans="1:4">
+      <c r="A2243">
+        <v>1</v>
+      </c>
       <c r="B2243" t="s">
         <v>47</v>
       </c>
@@ -66737,6 +67755,9 @@
       </c>
     </row>
     <row r="2244" spans="1:4">
+      <c r="A2244">
+        <v>1</v>
+      </c>
       <c r="B2244" t="s">
         <v>8</v>
       </c>
@@ -66748,6 +67769,9 @@
       </c>
     </row>
     <row r="2245" spans="1:4">
+      <c r="A2245">
+        <v>1</v>
+      </c>
       <c r="B2245" t="s">
         <v>4</v>
       </c>
@@ -66759,6 +67783,9 @@
       </c>
     </row>
     <row r="2246" spans="1:4">
+      <c r="A2246">
+        <v>1</v>
+      </c>
       <c r="B2246" t="s">
         <v>47</v>
       </c>
@@ -66770,6 +67797,9 @@
       </c>
     </row>
     <row r="2247" spans="1:4">
+      <c r="A2247">
+        <v>1</v>
+      </c>
       <c r="B2247" t="s">
         <v>47</v>
       </c>
@@ -66781,6 +67811,9 @@
       </c>
     </row>
     <row r="2248" spans="1:4">
+      <c r="A2248">
+        <v>1</v>
+      </c>
       <c r="B2248" t="s">
         <v>47</v>
       </c>
@@ -66792,6 +67825,9 @@
       </c>
     </row>
     <row r="2249" spans="1:4">
+      <c r="A2249">
+        <v>1</v>
+      </c>
       <c r="B2249" t="s">
         <v>8</v>
       </c>
@@ -66803,6 +67839,9 @@
       </c>
     </row>
     <row r="2250" spans="1:4">
+      <c r="A2250">
+        <v>1</v>
+      </c>
       <c r="B2250" t="s">
         <v>90</v>
       </c>
@@ -66814,6 +67853,9 @@
       </c>
     </row>
     <row r="2251" spans="1:4">
+      <c r="A2251">
+        <v>1</v>
+      </c>
       <c r="B2251" t="s">
         <v>15</v>
       </c>
@@ -66825,6 +67867,9 @@
       </c>
     </row>
     <row r="2252" spans="1:4">
+      <c r="A2252">
+        <v>1</v>
+      </c>
       <c r="B2252" t="s">
         <v>15</v>
       </c>
@@ -66836,6 +67881,9 @@
       </c>
     </row>
     <row r="2253" spans="1:4">
+      <c r="A2253">
+        <v>1</v>
+      </c>
       <c r="B2253" t="s">
         <v>8</v>
       </c>
@@ -66847,6 +67895,9 @@
       </c>
     </row>
     <row r="2254" spans="1:4">
+      <c r="A2254">
+        <v>1</v>
+      </c>
       <c r="B2254" t="s">
         <v>113</v>
       </c>
@@ -66872,6 +67923,9 @@
       </c>
     </row>
     <row r="2256" spans="1:4">
+      <c r="A2256">
+        <v>1</v>
+      </c>
       <c r="B2256" t="s">
         <v>8</v>
       </c>
@@ -66953,6 +68007,9 @@
       </c>
     </row>
     <row r="2262" spans="1:4">
+      <c r="A2262">
+        <v>1</v>
+      </c>
       <c r="B2262" t="s">
         <v>8</v>
       </c>
@@ -66992,6 +68049,9 @@
       </c>
     </row>
     <row r="2265" spans="1:4">
+      <c r="A2265">
+        <v>1</v>
+      </c>
       <c r="B2265" t="s">
         <v>181</v>
       </c>
@@ -67017,6 +68077,9 @@
       </c>
     </row>
     <row r="2267" spans="1:4">
+      <c r="A2267">
+        <v>1</v>
+      </c>
       <c r="B2267" t="s">
         <v>15</v>
       </c>
@@ -67028,6 +68091,9 @@
       </c>
     </row>
     <row r="2268" spans="1:4">
+      <c r="A2268">
+        <v>1</v>
+      </c>
       <c r="B2268" t="s">
         <v>181</v>
       </c>
@@ -67039,6 +68105,9 @@
       </c>
     </row>
     <row r="2269" spans="1:4">
+      <c r="A2269">
+        <v>1</v>
+      </c>
       <c r="B2269" t="s">
         <v>47</v>
       </c>
@@ -67050,6 +68119,9 @@
       </c>
     </row>
     <row r="2270" spans="1:4">
+      <c r="A2270">
+        <v>1</v>
+      </c>
       <c r="B2270" t="s">
         <v>8</v>
       </c>
@@ -67061,6 +68133,9 @@
       </c>
     </row>
     <row r="2271" spans="1:4">
+      <c r="A2271">
+        <v>1</v>
+      </c>
       <c r="B2271" t="s">
         <v>253</v>
       </c>
@@ -67086,6 +68161,9 @@
       </c>
     </row>
     <row r="2273" spans="1:4">
+      <c r="A2273">
+        <v>-1</v>
+      </c>
       <c r="B2273" t="s">
         <v>47</v>
       </c>
@@ -67125,6 +68203,9 @@
       </c>
     </row>
     <row r="2276" spans="1:4">
+      <c r="A2276">
+        <v>1</v>
+      </c>
       <c r="B2276" t="s">
         <v>8</v>
       </c>
@@ -67136,6 +68217,9 @@
       </c>
     </row>
     <row r="2277" spans="1:4">
+      <c r="A2277">
+        <v>1</v>
+      </c>
       <c r="B2277" t="s">
         <v>113</v>
       </c>
@@ -67161,6 +68245,9 @@
       </c>
     </row>
     <row r="2279" spans="1:4">
+      <c r="A2279">
+        <v>1</v>
+      </c>
       <c r="B2279" t="s">
         <v>181</v>
       </c>
@@ -67242,6 +68329,9 @@
       </c>
     </row>
     <row r="2285" spans="1:4">
+      <c r="A2285">
+        <v>1</v>
+      </c>
       <c r="B2285" t="s">
         <v>80</v>
       </c>
@@ -67267,6 +68357,9 @@
       </c>
     </row>
     <row r="2287" spans="1:4">
+      <c r="A2287">
+        <v>1</v>
+      </c>
       <c r="B2287" t="s">
         <v>63</v>
       </c>
@@ -67278,6 +68371,9 @@
       </c>
     </row>
     <row r="2288" spans="1:4">
+      <c r="A2288">
+        <v>1</v>
+      </c>
       <c r="B2288" t="s">
         <v>47</v>
       </c>
@@ -67331,6 +68427,9 @@
       </c>
     </row>
     <row r="2292" spans="1:4">
+      <c r="A2292">
+        <v>1</v>
+      </c>
       <c r="B2292" t="s">
         <v>15</v>
       </c>
@@ -67342,6 +68441,9 @@
       </c>
     </row>
     <row r="2293" spans="1:4">
+      <c r="A2293">
+        <v>1</v>
+      </c>
       <c r="B2293" t="s">
         <v>4</v>
       </c>
@@ -67353,6 +68455,9 @@
       </c>
     </row>
     <row r="2294" spans="1:4">
+      <c r="A2294">
+        <v>1</v>
+      </c>
       <c r="B2294" t="s">
         <v>8</v>
       </c>
@@ -67364,6 +68469,9 @@
       </c>
     </row>
     <row r="2295" spans="1:4">
+      <c r="A2295">
+        <v>-1</v>
+      </c>
       <c r="B2295" t="s">
         <v>102</v>
       </c>
@@ -67403,6 +68511,9 @@
       </c>
     </row>
     <row r="2298" spans="1:4">
+      <c r="A2298">
+        <v>1</v>
+      </c>
       <c r="B2298" t="s">
         <v>193</v>
       </c>
@@ -67414,6 +68525,9 @@
       </c>
     </row>
     <row r="2299" spans="1:4">
+      <c r="A2299">
+        <v>-1</v>
+      </c>
       <c r="B2299" t="s">
         <v>4</v>
       </c>
@@ -67425,6 +68539,9 @@
       </c>
     </row>
     <row r="2300" spans="1:4">
+      <c r="A2300">
+        <v>1</v>
+      </c>
       <c r="B2300" t="s">
         <v>8</v>
       </c>
@@ -67436,6 +68553,9 @@
       </c>
     </row>
     <row r="2301" spans="1:4">
+      <c r="A2301">
+        <v>-1</v>
+      </c>
       <c r="B2301" t="s">
         <v>102</v>
       </c>
@@ -67447,6 +68567,9 @@
       </c>
     </row>
     <row r="2302" spans="1:4">
+      <c r="A2302">
+        <v>-1</v>
+      </c>
       <c r="B2302" t="s">
         <v>4</v>
       </c>
@@ -67458,6 +68581,9 @@
       </c>
     </row>
     <row r="2303" spans="1:4">
+      <c r="A2303">
+        <v>1</v>
+      </c>
       <c r="B2303" t="s">
         <v>15</v>
       </c>
@@ -67469,6 +68595,9 @@
       </c>
     </row>
     <row r="2304" spans="1:4">
+      <c r="A2304">
+        <v>-1</v>
+      </c>
       <c r="B2304" t="s">
         <v>8</v>
       </c>
@@ -67480,6 +68609,9 @@
       </c>
     </row>
     <row r="2305" spans="1:4">
+      <c r="A2305">
+        <v>-1</v>
+      </c>
       <c r="B2305" t="s">
         <v>8</v>
       </c>
@@ -67491,6 +68623,9 @@
       </c>
     </row>
     <row r="2306" spans="1:4">
+      <c r="A2306">
+        <v>-1</v>
+      </c>
       <c r="B2306" t="s">
         <v>90</v>
       </c>
@@ -67502,6 +68637,9 @@
       </c>
     </row>
     <row r="2307" spans="1:4">
+      <c r="A2307">
+        <v>1</v>
+      </c>
       <c r="B2307" t="s">
         <v>102</v>
       </c>
@@ -67513,6 +68651,9 @@
       </c>
     </row>
     <row r="2308" spans="1:4">
+      <c r="A2308">
+        <v>-1</v>
+      </c>
       <c r="B2308" t="s">
         <v>90</v>
       </c>
@@ -67524,6 +68665,9 @@
       </c>
     </row>
     <row r="2309" spans="1:4">
+      <c r="A2309">
+        <v>1</v>
+      </c>
       <c r="B2309" t="s">
         <v>8</v>
       </c>
@@ -67535,6 +68679,9 @@
       </c>
     </row>
     <row r="2310" spans="1:4">
+      <c r="A2310">
+        <v>-1</v>
+      </c>
       <c r="B2310" t="s">
         <v>15</v>
       </c>
@@ -67546,6 +68693,9 @@
       </c>
     </row>
     <row r="2311" spans="1:4">
+      <c r="A2311">
+        <v>1</v>
+      </c>
       <c r="B2311" t="s">
         <v>15</v>
       </c>
@@ -67571,6 +68721,9 @@
       </c>
     </row>
     <row r="2313" spans="1:4">
+      <c r="A2313">
+        <v>1</v>
+      </c>
       <c r="B2313" t="s">
         <v>1169</v>
       </c>
@@ -67582,6 +68735,9 @@
       </c>
     </row>
     <row r="2314" spans="1:4">
+      <c r="A2314">
+        <v>-1</v>
+      </c>
       <c r="B2314" t="s">
         <v>253</v>
       </c>
@@ -67649,6 +68805,9 @@
       </c>
     </row>
     <row r="2319" spans="1:4">
+      <c r="A2319">
+        <v>1</v>
+      </c>
       <c r="B2319" t="s">
         <v>15</v>
       </c>
@@ -67660,6 +68819,9 @@
       </c>
     </row>
     <row r="2320" spans="1:4">
+      <c r="A2320">
+        <v>1</v>
+      </c>
       <c r="B2320" t="s">
         <v>4</v>
       </c>
@@ -67685,6 +68847,9 @@
       </c>
     </row>
     <row r="2322" spans="1:4">
+      <c r="A2322">
+        <v>1</v>
+      </c>
       <c r="B2322" t="s">
         <v>90</v>
       </c>
@@ -67696,6 +68861,9 @@
       </c>
     </row>
     <row r="2323" spans="1:4">
+      <c r="A2323">
+        <v>1</v>
+      </c>
       <c r="B2323" t="s">
         <v>90</v>
       </c>
@@ -67707,6 +68875,9 @@
       </c>
     </row>
     <row r="2324" spans="1:4">
+      <c r="A2324">
+        <v>1</v>
+      </c>
       <c r="B2324" t="s">
         <v>193</v>
       </c>
@@ -67718,6 +68889,9 @@
       </c>
     </row>
     <row r="2325" spans="1:4">
+      <c r="A2325">
+        <v>1</v>
+      </c>
       <c r="B2325" t="s">
         <v>15</v>
       </c>
@@ -67757,6 +68931,9 @@
       </c>
     </row>
     <row r="2328" spans="1:4">
+      <c r="A2328">
+        <v>1</v>
+      </c>
       <c r="B2328" t="s">
         <v>90</v>
       </c>
@@ -67782,6 +68959,9 @@
       </c>
     </row>
     <row r="2330" spans="1:4">
+      <c r="A2330">
+        <v>1</v>
+      </c>
       <c r="B2330" t="s">
         <v>90</v>
       </c>
@@ -67793,6 +68973,9 @@
       </c>
     </row>
     <row r="2331" spans="1:4">
+      <c r="A2331">
+        <v>1</v>
+      </c>
       <c r="B2331" t="s">
         <v>90</v>
       </c>
@@ -67804,6 +68987,9 @@
       </c>
     </row>
     <row r="2332" spans="1:4">
+      <c r="A2332">
+        <v>1</v>
+      </c>
       <c r="B2332" t="s">
         <v>90</v>
       </c>
@@ -67815,6 +69001,9 @@
       </c>
     </row>
     <row r="2333" spans="1:4">
+      <c r="A2333">
+        <v>1</v>
+      </c>
       <c r="B2333" t="s">
         <v>80</v>
       </c>
@@ -67826,6 +69015,9 @@
       </c>
     </row>
     <row r="2334" spans="1:4">
+      <c r="A2334">
+        <v>1</v>
+      </c>
       <c r="B2334" t="s">
         <v>4</v>
       </c>
@@ -67837,6 +69029,9 @@
       </c>
     </row>
     <row r="2335" spans="1:4">
+      <c r="A2335">
+        <v>-1</v>
+      </c>
       <c r="B2335" t="s">
         <v>8</v>
       </c>
@@ -67848,6 +69043,9 @@
       </c>
     </row>
     <row r="2336" spans="1:4">
+      <c r="A2336">
+        <v>1</v>
+      </c>
       <c r="B2336" t="s">
         <v>4</v>
       </c>
@@ -67873,6 +69071,9 @@
       </c>
     </row>
     <row r="2338" spans="1:4">
+      <c r="A2338">
+        <v>1</v>
+      </c>
       <c r="B2338" t="s">
         <v>15</v>
       </c>
@@ -67898,6 +69099,9 @@
       </c>
     </row>
     <row r="2340" spans="1:4">
+      <c r="A2340">
+        <v>1</v>
+      </c>
       <c r="B2340" t="s">
         <v>47</v>
       </c>
@@ -67909,6 +69113,9 @@
       </c>
     </row>
     <row r="2341" spans="1:4">
+      <c r="A2341">
+        <v>1</v>
+      </c>
       <c r="B2341" t="s">
         <v>15</v>
       </c>
@@ -67962,6 +69169,9 @@
       </c>
     </row>
     <row r="2345" spans="1:4">
+      <c r="A2345">
+        <v>1</v>
+      </c>
       <c r="B2345" t="s">
         <v>8</v>
       </c>
@@ -67973,6 +69183,9 @@
       </c>
     </row>
     <row r="2346" spans="1:4">
+      <c r="A2346">
+        <v>1</v>
+      </c>
       <c r="B2346" t="s">
         <v>8</v>
       </c>
@@ -67984,6 +69197,9 @@
       </c>
     </row>
     <row r="2347" spans="1:4">
+      <c r="A2347">
+        <v>1</v>
+      </c>
       <c r="B2347" t="s">
         <v>90</v>
       </c>
@@ -68051,6 +69267,9 @@
       </c>
     </row>
     <row r="2352" spans="1:4">
+      <c r="A2352">
+        <v>1</v>
+      </c>
       <c r="B2352" t="s">
         <v>90</v>
       </c>
@@ -68062,6 +69281,9 @@
       </c>
     </row>
     <row r="2353" spans="1:4">
+      <c r="A2353">
+        <v>1</v>
+      </c>
       <c r="B2353" t="s">
         <v>90</v>
       </c>
@@ -68073,6 +69295,9 @@
       </c>
     </row>
     <row r="2354" spans="1:4">
+      <c r="A2354">
+        <v>1</v>
+      </c>
       <c r="B2354" t="s">
         <v>90</v>
       </c>
@@ -68084,6 +69309,9 @@
       </c>
     </row>
     <row r="2355" spans="1:4">
+      <c r="A2355">
+        <v>1</v>
+      </c>
       <c r="B2355" t="s">
         <v>90</v>
       </c>
@@ -68095,6 +69323,9 @@
       </c>
     </row>
     <row r="2356" spans="1:4">
+      <c r="A2356">
+        <v>1</v>
+      </c>
       <c r="B2356" t="s">
         <v>90</v>
       </c>
@@ -68106,6 +69337,9 @@
       </c>
     </row>
     <row r="2357" spans="1:4">
+      <c r="A2357">
+        <v>1</v>
+      </c>
       <c r="B2357" t="s">
         <v>90</v>
       </c>
@@ -68117,6 +69351,9 @@
       </c>
     </row>
     <row r="2358" spans="1:4">
+      <c r="A2358">
+        <v>1</v>
+      </c>
       <c r="B2358" t="s">
         <v>47</v>
       </c>
@@ -68128,6 +69365,9 @@
       </c>
     </row>
     <row r="2359" spans="1:4">
+      <c r="A2359">
+        <v>1</v>
+      </c>
       <c r="B2359" t="s">
         <v>47</v>
       </c>
@@ -68139,6 +69379,9 @@
       </c>
     </row>
     <row r="2360" spans="1:4">
+      <c r="A2360">
+        <v>1</v>
+      </c>
       <c r="B2360" t="s">
         <v>4</v>
       </c>
@@ -68150,6 +69393,9 @@
       </c>
     </row>
     <row r="2361" spans="1:4">
+      <c r="A2361">
+        <v>1</v>
+      </c>
       <c r="B2361" t="s">
         <v>4</v>
       </c>
@@ -68161,6 +69407,9 @@
       </c>
     </row>
     <row r="2362" spans="1:4">
+      <c r="A2362">
+        <v>1</v>
+      </c>
       <c r="B2362" t="s">
         <v>8</v>
       </c>
@@ -68172,6 +69421,9 @@
       </c>
     </row>
     <row r="2363" spans="1:4">
+      <c r="A2363">
+        <v>1</v>
+      </c>
       <c r="B2363" t="s">
         <v>107</v>
       </c>
@@ -68183,6 +69435,9 @@
       </c>
     </row>
     <row r="2364" spans="1:4">
+      <c r="A2364">
+        <v>1</v>
+      </c>
       <c r="B2364" t="s">
         <v>47</v>
       </c>
@@ -68194,6 +69449,9 @@
       </c>
     </row>
     <row r="2365" spans="1:4">
+      <c r="A2365">
+        <v>1</v>
+      </c>
       <c r="B2365" t="s">
         <v>47</v>
       </c>
@@ -68205,6 +69463,9 @@
       </c>
     </row>
     <row r="2366" spans="1:4">
+      <c r="A2366">
+        <v>1</v>
+      </c>
       <c r="B2366" t="s">
         <v>102</v>
       </c>
@@ -68230,6 +69491,9 @@
       </c>
     </row>
     <row r="2368" spans="1:4">
+      <c r="A2368">
+        <v>1</v>
+      </c>
       <c r="B2368" t="s">
         <v>80</v>
       </c>
@@ -68241,6 +69505,9 @@
       </c>
     </row>
     <row r="2369" spans="1:4">
+      <c r="A2369">
+        <v>1</v>
+      </c>
       <c r="B2369" t="s">
         <v>90</v>
       </c>
@@ -68252,6 +69519,9 @@
       </c>
     </row>
     <row r="2370" spans="1:4">
+      <c r="A2370">
+        <v>1</v>
+      </c>
       <c r="B2370" t="s">
         <v>47</v>
       </c>
@@ -68263,6 +69533,9 @@
       </c>
     </row>
     <row r="2371" spans="1:4">
+      <c r="A2371">
+        <v>1</v>
+      </c>
       <c r="B2371" t="s">
         <v>15</v>
       </c>
@@ -68288,6 +69561,9 @@
       </c>
     </row>
     <row r="2373" spans="1:4">
+      <c r="A2373">
+        <v>1</v>
+      </c>
       <c r="B2373" t="s">
         <v>54</v>
       </c>
@@ -68313,6 +69589,9 @@
       </c>
     </row>
     <row r="2375" spans="1:4">
+      <c r="A2375">
+        <v>1</v>
+      </c>
       <c r="B2375" t="s">
         <v>47</v>
       </c>
@@ -68688,6 +69967,9 @@
       </c>
     </row>
     <row r="2402" spans="1:4">
+      <c r="A2402">
+        <v>-1</v>
+      </c>
       <c r="B2402" t="s">
         <v>15</v>
       </c>
@@ -68727,6 +70009,9 @@
       </c>
     </row>
     <row r="2405" spans="1:4">
+      <c r="A2405">
+        <v>1</v>
+      </c>
       <c r="B2405" t="s">
         <v>15</v>
       </c>
@@ -68808,6 +70093,9 @@
       </c>
     </row>
     <row r="2411" spans="1:4">
+      <c r="A2411">
+        <v>1</v>
+      </c>
       <c r="B2411" t="s">
         <v>447</v>
       </c>
@@ -68847,6 +70135,9 @@
       </c>
     </row>
     <row r="2414" spans="1:4">
+      <c r="A2414">
+        <v>1</v>
+      </c>
       <c r="B2414" t="s">
         <v>4</v>
       </c>
@@ -68858,6 +70149,9 @@
       </c>
     </row>
     <row r="2415" spans="1:4">
+      <c r="A2415">
+        <v>1</v>
+      </c>
       <c r="B2415" t="s">
         <v>47</v>
       </c>
@@ -68883,6 +70177,9 @@
       </c>
     </row>
     <row r="2417" spans="1:4">
+      <c r="A2417">
+        <v>-1</v>
+      </c>
       <c r="B2417" t="s">
         <v>47</v>
       </c>
@@ -68908,6 +70205,9 @@
       </c>
     </row>
     <row r="2419" spans="1:4">
+      <c r="A2419">
+        <v>-1</v>
+      </c>
       <c r="B2419" t="s">
         <v>47</v>
       </c>
@@ -68947,6 +70247,9 @@
       </c>
     </row>
     <row r="2422" spans="1:4">
+      <c r="A2422">
+        <v>1</v>
+      </c>
       <c r="B2422" t="s">
         <v>1169</v>
       </c>
@@ -68958,6 +70261,9 @@
       </c>
     </row>
     <row r="2423" spans="1:4">
+      <c r="A2423">
+        <v>1</v>
+      </c>
       <c r="B2423" t="s">
         <v>90</v>
       </c>
@@ -69011,6 +70317,9 @@
       </c>
     </row>
     <row r="2427" spans="1:4">
+      <c r="A2427">
+        <v>1</v>
+      </c>
       <c r="B2427" t="s">
         <v>193</v>
       </c>
@@ -69036,6 +70345,9 @@
       </c>
     </row>
     <row r="2429" spans="1:4">
+      <c r="A2429">
+        <v>1</v>
+      </c>
       <c r="B2429" t="s">
         <v>54</v>
       </c>
@@ -69089,6 +70401,9 @@
       </c>
     </row>
     <row r="2433" spans="1:4">
+      <c r="A2433">
+        <v>1</v>
+      </c>
       <c r="B2433" t="s">
         <v>8</v>
       </c>
@@ -69100,6 +70415,9 @@
       </c>
     </row>
     <row r="2434" spans="1:4">
+      <c r="A2434">
+        <v>1</v>
+      </c>
       <c r="B2434" t="s">
         <v>8</v>
       </c>
@@ -69111,6 +70429,9 @@
       </c>
     </row>
     <row r="2435" spans="1:4">
+      <c r="A2435">
+        <v>1</v>
+      </c>
       <c r="B2435" t="s">
         <v>113</v>
       </c>
@@ -69150,6 +70471,9 @@
       </c>
     </row>
     <row r="2438" spans="1:4">
+      <c r="A2438">
+        <v>1</v>
+      </c>
       <c r="B2438" t="s">
         <v>47</v>
       </c>
@@ -69161,6 +70485,9 @@
       </c>
     </row>
     <row r="2439" spans="1:4">
+      <c r="A2439">
+        <v>1</v>
+      </c>
       <c r="B2439" t="s">
         <v>47</v>
       </c>
@@ -69186,6 +70513,9 @@
       </c>
     </row>
     <row r="2441" spans="1:4">
+      <c r="A2441">
+        <v>-1</v>
+      </c>
       <c r="B2441" t="s">
         <v>47</v>
       </c>
@@ -69211,6 +70541,9 @@
       </c>
     </row>
     <row r="2443" spans="1:4">
+      <c r="A2443">
+        <v>1</v>
+      </c>
       <c r="B2443" t="s">
         <v>181</v>
       </c>
@@ -69222,6 +70555,9 @@
       </c>
     </row>
     <row r="2444" spans="1:4">
+      <c r="A2444">
+        <v>1</v>
+      </c>
       <c r="B2444" t="s">
         <v>47</v>
       </c>
@@ -69233,6 +70569,9 @@
       </c>
     </row>
     <row r="2445" spans="1:4">
+      <c r="A2445">
+        <v>1</v>
+      </c>
       <c r="B2445" t="s">
         <v>47</v>
       </c>
@@ -69244,6 +70583,9 @@
       </c>
     </row>
     <row r="2446" spans="1:4">
+      <c r="A2446">
+        <v>-1</v>
+      </c>
       <c r="B2446" t="s">
         <v>102</v>
       </c>
@@ -69269,6 +70611,9 @@
       </c>
     </row>
     <row r="2448" spans="1:4">
+      <c r="A2448">
+        <v>1</v>
+      </c>
       <c r="B2448" t="s">
         <v>15</v>
       </c>
@@ -69294,6 +70639,9 @@
       </c>
     </row>
     <row r="2450" spans="1:4">
+      <c r="A2450">
+        <v>1</v>
+      </c>
       <c r="B2450" t="s">
         <v>102</v>
       </c>
@@ -69319,6 +70667,9 @@
       </c>
     </row>
     <row r="2452" spans="1:4">
+      <c r="A2452">
+        <v>1</v>
+      </c>
       <c r="B2452" t="s">
         <v>8</v>
       </c>
@@ -69330,6 +70681,9 @@
       </c>
     </row>
     <row r="2453" spans="1:4">
+      <c r="A2453">
+        <v>1</v>
+      </c>
       <c r="B2453" t="s">
         <v>90</v>
       </c>
@@ -69341,6 +70695,9 @@
       </c>
     </row>
     <row r="2454" spans="1:4">
+      <c r="A2454">
+        <v>1</v>
+      </c>
       <c r="B2454" t="s">
         <v>63</v>
       </c>
@@ -69352,6 +70709,9 @@
       </c>
     </row>
     <row r="2455" spans="1:4">
+      <c r="A2455">
+        <v>1</v>
+      </c>
       <c r="B2455" t="s">
         <v>90</v>
       </c>
@@ -69363,6 +70723,9 @@
       </c>
     </row>
     <row r="2456" spans="1:4">
+      <c r="A2456">
+        <v>1</v>
+      </c>
       <c r="B2456" t="s">
         <v>4</v>
       </c>
@@ -69444,6 +70807,9 @@
       </c>
     </row>
     <row r="2462" spans="1:4">
+      <c r="A2462">
+        <v>1</v>
+      </c>
       <c r="B2462" t="s">
         <v>4</v>
       </c>
@@ -69455,6 +70821,9 @@
       </c>
     </row>
     <row r="2463" spans="1:4">
+      <c r="A2463">
+        <v>1</v>
+      </c>
       <c r="B2463" t="s">
         <v>15</v>
       </c>
@@ -69466,6 +70835,9 @@
       </c>
     </row>
     <row r="2464" spans="1:4">
+      <c r="A2464">
+        <v>1</v>
+      </c>
       <c r="B2464" t="s">
         <v>181</v>
       </c>
@@ -69477,6 +70849,9 @@
       </c>
     </row>
     <row r="2465" spans="1:4">
+      <c r="A2465">
+        <v>1</v>
+      </c>
       <c r="B2465" t="s">
         <v>4</v>
       </c>
@@ -69502,6 +70877,9 @@
       </c>
     </row>
     <row r="2467" spans="1:4">
+      <c r="A2467">
+        <v>1</v>
+      </c>
       <c r="B2467" t="s">
         <v>113</v>
       </c>
@@ -69514,7 +70892,7 @@
     </row>
     <row r="2468" spans="1:4">
       <c r="A2468">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2468" t="s">
         <v>50</v>
@@ -69527,6 +70905,9 @@
       </c>
     </row>
     <row r="2469" spans="1:4">
+      <c r="A2469">
+        <v>1</v>
+      </c>
       <c r="B2469" t="s">
         <v>63</v>
       </c>
@@ -69552,6 +70933,9 @@
       </c>
     </row>
     <row r="2471" spans="1:4">
+      <c r="A2471">
+        <v>1</v>
+      </c>
       <c r="B2471" t="s">
         <v>107</v>
       </c>
@@ -69591,6 +70975,9 @@
       </c>
     </row>
     <row r="2474" spans="1:4">
+      <c r="A2474">
+        <v>1</v>
+      </c>
       <c r="B2474" t="s">
         <v>181</v>
       </c>
@@ -69602,6 +70989,9 @@
       </c>
     </row>
     <row r="2475" spans="1:4">
+      <c r="A2475">
+        <v>1</v>
+      </c>
       <c r="B2475" t="s">
         <v>4</v>
       </c>
@@ -69613,6 +71003,9 @@
       </c>
     </row>
     <row r="2476" spans="1:4">
+      <c r="A2476">
+        <v>1</v>
+      </c>
       <c r="B2476" t="s">
         <v>253</v>
       </c>
@@ -69624,6 +71017,9 @@
       </c>
     </row>
     <row r="2477" spans="1:4">
+      <c r="A2477">
+        <v>1</v>
+      </c>
       <c r="B2477" t="s">
         <v>90</v>
       </c>
@@ -69649,6 +71045,9 @@
       </c>
     </row>
     <row r="2479" spans="1:4">
+      <c r="A2479">
+        <v>1</v>
+      </c>
       <c r="B2479" t="s">
         <v>47</v>
       </c>
@@ -69688,6 +71087,9 @@
       </c>
     </row>
     <row r="2482" spans="1:4">
+      <c r="A2482">
+        <v>1</v>
+      </c>
       <c r="B2482" t="s">
         <v>47</v>
       </c>
@@ -69699,6 +71101,9 @@
       </c>
     </row>
     <row r="2483" spans="1:4">
+      <c r="A2483">
+        <v>1</v>
+      </c>
       <c r="B2483" t="s">
         <v>90</v>
       </c>
@@ -69752,6 +71157,9 @@
       </c>
     </row>
     <row r="2487" spans="1:4">
+      <c r="A2487">
+        <v>1</v>
+      </c>
       <c r="B2487" t="s">
         <v>102</v>
       </c>
@@ -69819,6 +71227,9 @@
       </c>
     </row>
     <row r="2492" spans="1:4">
+      <c r="A2492">
+        <v>1</v>
+      </c>
       <c r="B2492" t="s">
         <v>15</v>
       </c>
@@ -69830,6 +71241,9 @@
       </c>
     </row>
     <row r="2493" spans="1:4">
+      <c r="A2493">
+        <v>1</v>
+      </c>
       <c r="B2493" t="s">
         <v>47</v>
       </c>
@@ -69841,6 +71255,9 @@
       </c>
     </row>
     <row r="2494" spans="1:4">
+      <c r="A2494">
+        <v>1</v>
+      </c>
       <c r="B2494" t="s">
         <v>47</v>
       </c>
@@ -69852,6 +71269,9 @@
       </c>
     </row>
     <row r="2495" spans="1:4">
+      <c r="A2495">
+        <v>1</v>
+      </c>
       <c r="B2495" t="s">
         <v>8</v>
       </c>
@@ -69905,6 +71325,9 @@
       </c>
     </row>
     <row r="2499" spans="1:4">
+      <c r="A2499">
+        <v>1</v>
+      </c>
       <c r="B2499" t="s">
         <v>4</v>
       </c>
@@ -69916,6 +71339,9 @@
       </c>
     </row>
     <row r="2500" spans="1:4">
+      <c r="A2500">
+        <v>1</v>
+      </c>
       <c r="B2500" t="s">
         <v>63</v>
       </c>
@@ -69927,6 +71353,9 @@
       </c>
     </row>
     <row r="2501" spans="1:4">
+      <c r="A2501">
+        <v>1</v>
+      </c>
       <c r="B2501" t="s">
         <v>47</v>
       </c>
@@ -69938,6 +71367,9 @@
       </c>
     </row>
     <row r="2502" spans="1:4">
+      <c r="A2502">
+        <v>1</v>
+      </c>
       <c r="B2502" t="s">
         <v>4</v>
       </c>
@@ -69949,6 +71381,9 @@
       </c>
     </row>
     <row r="2503" spans="1:4">
+      <c r="A2503">
+        <v>1</v>
+      </c>
       <c r="B2503" t="s">
         <v>47</v>
       </c>
@@ -69960,6 +71395,9 @@
       </c>
     </row>
     <row r="2504" spans="1:4">
+      <c r="A2504">
+        <v>1</v>
+      </c>
       <c r="B2504" t="s">
         <v>102</v>
       </c>
@@ -70013,6 +71451,9 @@
       </c>
     </row>
     <row r="2508" spans="1:4">
+      <c r="A2508">
+        <v>1</v>
+      </c>
       <c r="B2508" t="s">
         <v>54</v>
       </c>
@@ -70024,6 +71465,9 @@
       </c>
     </row>
     <row r="2509" spans="1:4">
+      <c r="A2509">
+        <v>1</v>
+      </c>
       <c r="B2509" t="s">
         <v>8</v>
       </c>
@@ -70035,6 +71479,9 @@
       </c>
     </row>
     <row r="2510" spans="1:4">
+      <c r="A2510">
+        <v>1</v>
+      </c>
       <c r="B2510" t="s">
         <v>90</v>
       </c>
@@ -70088,6 +71535,9 @@
       </c>
     </row>
     <row r="2514" spans="1:4">
+      <c r="A2514">
+        <v>1</v>
+      </c>
       <c r="B2514" t="s">
         <v>47</v>
       </c>
@@ -70099,6 +71549,9 @@
       </c>
     </row>
     <row r="2515" spans="1:4">
+      <c r="A2515">
+        <v>1</v>
+      </c>
       <c r="B2515" t="s">
         <v>47</v>
       </c>
@@ -70110,6 +71563,9 @@
       </c>
     </row>
     <row r="2516" spans="1:4">
+      <c r="A2516">
+        <v>1</v>
+      </c>
       <c r="B2516" t="s">
         <v>63</v>
       </c>
@@ -70121,6 +71577,9 @@
       </c>
     </row>
     <row r="2517" spans="1:4">
+      <c r="A2517">
+        <v>1</v>
+      </c>
       <c r="B2517" t="s">
         <v>47</v>
       </c>
@@ -70132,6 +71591,9 @@
       </c>
     </row>
     <row r="2518" spans="1:4">
+      <c r="A2518">
+        <v>1</v>
+      </c>
       <c r="B2518" t="s">
         <v>63</v>
       </c>
@@ -70143,6 +71605,9 @@
       </c>
     </row>
     <row r="2519" spans="1:4">
+      <c r="A2519">
+        <v>1</v>
+      </c>
       <c r="B2519" t="s">
         <v>15</v>
       </c>
@@ -70182,6 +71647,9 @@
       </c>
     </row>
     <row r="2522" spans="1:4">
+      <c r="A2522">
+        <v>1</v>
+      </c>
       <c r="B2522" t="s">
         <v>8</v>
       </c>
@@ -70193,6 +71661,9 @@
       </c>
     </row>
     <row r="2523" spans="1:4">
+      <c r="A2523">
+        <v>1</v>
+      </c>
       <c r="B2523" t="s">
         <v>15</v>
       </c>
@@ -70218,6 +71689,9 @@
       </c>
     </row>
     <row r="2525" spans="1:4">
+      <c r="A2525">
+        <v>1</v>
+      </c>
       <c r="B2525" t="s">
         <v>15</v>
       </c>
@@ -70271,6 +71745,9 @@
       </c>
     </row>
     <row r="2529" spans="1:4">
+      <c r="A2529">
+        <v>1</v>
+      </c>
       <c r="B2529" t="s">
         <v>47</v>
       </c>
@@ -70296,6 +71773,9 @@
       </c>
     </row>
     <row r="2531" spans="1:4">
+      <c r="A2531">
+        <v>1</v>
+      </c>
       <c r="B2531" t="s">
         <v>90</v>
       </c>
@@ -70321,6 +71801,9 @@
       </c>
     </row>
     <row r="2533" spans="1:4">
+      <c r="A2533">
+        <v>1</v>
+      </c>
       <c r="B2533" t="s">
         <v>54</v>
       </c>
@@ -70346,6 +71829,9 @@
       </c>
     </row>
     <row r="2535" spans="1:4">
+      <c r="A2535">
+        <v>1</v>
+      </c>
       <c r="B2535" t="s">
         <v>15</v>
       </c>
@@ -70357,6 +71843,9 @@
       </c>
     </row>
     <row r="2536" spans="1:4">
+      <c r="A2536">
+        <v>1</v>
+      </c>
       <c r="B2536" t="s">
         <v>4</v>
       </c>
@@ -70368,6 +71857,9 @@
       </c>
     </row>
     <row r="2537" spans="1:4">
+      <c r="A2537">
+        <v>1</v>
+      </c>
       <c r="B2537" t="s">
         <v>15</v>
       </c>
@@ -70407,6 +71899,9 @@
       </c>
     </row>
     <row r="2540" spans="1:4">
+      <c r="A2540">
+        <v>1</v>
+      </c>
       <c r="B2540" t="s">
         <v>63</v>
       </c>
@@ -70418,6 +71913,9 @@
       </c>
     </row>
     <row r="2541" spans="1:4">
+      <c r="A2541">
+        <v>1</v>
+      </c>
       <c r="B2541" t="s">
         <v>15</v>
       </c>
@@ -70429,6 +71927,9 @@
       </c>
     </row>
     <row r="2542" spans="1:4">
+      <c r="A2542">
+        <v>1</v>
+      </c>
       <c r="B2542" t="s">
         <v>90</v>
       </c>
@@ -70454,6 +71955,9 @@
       </c>
     </row>
     <row r="2544" spans="1:4">
+      <c r="A2544">
+        <v>1</v>
+      </c>
       <c r="B2544" t="s">
         <v>15</v>
       </c>
@@ -70465,6 +71969,9 @@
       </c>
     </row>
     <row r="2545" spans="1:4">
+      <c r="A2545">
+        <v>1</v>
+      </c>
       <c r="B2545" t="s">
         <v>8</v>
       </c>
@@ -70476,6 +71983,9 @@
       </c>
     </row>
     <row r="2546" spans="1:4">
+      <c r="A2546">
+        <v>1</v>
+      </c>
       <c r="B2546" t="s">
         <v>15</v>
       </c>
@@ -70515,6 +72025,9 @@
       </c>
     </row>
     <row r="2549" spans="1:4">
+      <c r="A2549">
+        <v>1</v>
+      </c>
       <c r="B2549" t="s">
         <v>15</v>
       </c>
@@ -70526,6 +72039,9 @@
       </c>
     </row>
     <row r="2550" spans="1:4">
+      <c r="A2550">
+        <v>1</v>
+      </c>
       <c r="B2550" t="s">
         <v>8</v>
       </c>
@@ -70537,6 +72053,9 @@
       </c>
     </row>
     <row r="2551" spans="1:4">
+      <c r="A2551">
+        <v>1</v>
+      </c>
       <c r="B2551" t="s">
         <v>4</v>
       </c>
@@ -70548,6 +72067,9 @@
       </c>
     </row>
     <row r="2552" spans="1:4">
+      <c r="A2552">
+        <v>1</v>
+      </c>
       <c r="B2552" t="s">
         <v>4</v>
       </c>
@@ -70559,6 +72081,9 @@
       </c>
     </row>
     <row r="2553" spans="1:4">
+      <c r="A2553">
+        <v>1</v>
+      </c>
       <c r="B2553" t="s">
         <v>392</v>
       </c>
@@ -70570,6 +72095,9 @@
       </c>
     </row>
     <row r="2554" spans="1:4">
+      <c r="A2554">
+        <v>1</v>
+      </c>
       <c r="B2554" t="s">
         <v>392</v>
       </c>
@@ -70581,6 +72109,9 @@
       </c>
     </row>
     <row r="2555" spans="1:4">
+      <c r="A2555">
+        <v>1</v>
+      </c>
       <c r="B2555" t="s">
         <v>15</v>
       </c>
@@ -70592,6 +72123,9 @@
       </c>
     </row>
     <row r="2556" spans="1:4">
+      <c r="A2556">
+        <v>1</v>
+      </c>
       <c r="B2556" t="s">
         <v>8</v>
       </c>
@@ -70603,6 +72137,9 @@
       </c>
     </row>
     <row r="2557" spans="1:4">
+      <c r="A2557">
+        <v>1</v>
+      </c>
       <c r="B2557" t="s">
         <v>15</v>
       </c>
@@ -70614,6 +72151,9 @@
       </c>
     </row>
     <row r="2558" spans="1:4">
+      <c r="A2558">
+        <v>1</v>
+      </c>
       <c r="B2558" t="s">
         <v>4</v>
       </c>
@@ -70625,6 +72165,9 @@
       </c>
     </row>
     <row r="2559" spans="1:4">
+      <c r="A2559">
+        <v>1</v>
+      </c>
       <c r="B2559" t="s">
         <v>4</v>
       </c>
@@ -70636,6 +72179,9 @@
       </c>
     </row>
     <row r="2560" spans="1:4">
+      <c r="A2560">
+        <v>1</v>
+      </c>
       <c r="B2560" t="s">
         <v>47</v>
       </c>
@@ -70661,6 +72207,9 @@
       </c>
     </row>
     <row r="2562" spans="1:4">
+      <c r="A2562">
+        <v>1</v>
+      </c>
       <c r="B2562" t="s">
         <v>113</v>
       </c>
@@ -70672,6 +72221,9 @@
       </c>
     </row>
     <row r="2563" spans="1:4">
+      <c r="A2563">
+        <v>1</v>
+      </c>
       <c r="B2563" t="s">
         <v>15</v>
       </c>
@@ -70725,6 +72277,9 @@
       </c>
     </row>
     <row r="2567" spans="1:4">
+      <c r="A2567">
+        <v>1</v>
+      </c>
       <c r="B2567" t="s">
         <v>90</v>
       </c>
@@ -70736,6 +72291,9 @@
       </c>
     </row>
     <row r="2568" spans="1:4">
+      <c r="A2568">
+        <v>1</v>
+      </c>
       <c r="B2568" t="s">
         <v>15</v>
       </c>
@@ -70747,6 +72305,9 @@
       </c>
     </row>
     <row r="2569" spans="1:4">
+      <c r="A2569">
+        <v>1</v>
+      </c>
       <c r="B2569" t="s">
         <v>15</v>
       </c>
@@ -70772,6 +72333,9 @@
       </c>
     </row>
     <row r="2571" spans="1:4">
+      <c r="A2571">
+        <v>1</v>
+      </c>
       <c r="B2571" t="s">
         <v>8</v>
       </c>
@@ -70783,6 +72347,9 @@
       </c>
     </row>
     <row r="2572" spans="1:4">
+      <c r="A2572">
+        <v>1</v>
+      </c>
       <c r="B2572" t="s">
         <v>54</v>
       </c>
@@ -70794,6 +72361,9 @@
       </c>
     </row>
     <row r="2573" spans="1:4">
+      <c r="A2573">
+        <v>1</v>
+      </c>
       <c r="B2573" t="s">
         <v>90</v>
       </c>
@@ -70805,6 +72375,9 @@
       </c>
     </row>
     <row r="2574" spans="1:4">
+      <c r="A2574">
+        <v>1</v>
+      </c>
       <c r="B2574" t="s">
         <v>8</v>
       </c>
@@ -70844,6 +72417,9 @@
       </c>
     </row>
     <row r="2577" spans="1:4">
+      <c r="A2577">
+        <v>1</v>
+      </c>
       <c r="B2577" t="s">
         <v>15</v>
       </c>
@@ -70855,6 +72431,9 @@
       </c>
     </row>
     <row r="2578" spans="1:4">
+      <c r="A2578">
+        <v>1</v>
+      </c>
       <c r="B2578" t="s">
         <v>15</v>
       </c>
@@ -70866,6 +72445,9 @@
       </c>
     </row>
     <row r="2579" spans="1:4">
+      <c r="A2579">
+        <v>1</v>
+      </c>
       <c r="B2579" t="s">
         <v>8</v>
       </c>
@@ -70905,6 +72487,9 @@
       </c>
     </row>
     <row r="2582" spans="1:4">
+      <c r="A2582">
+        <v>1</v>
+      </c>
       <c r="B2582" t="s">
         <v>15</v>
       </c>
@@ -70916,6 +72501,9 @@
       </c>
     </row>
     <row r="2583" spans="1:4">
+      <c r="A2583">
+        <v>1</v>
+      </c>
       <c r="B2583" t="s">
         <v>63</v>
       </c>
@@ -70927,6 +72515,9 @@
       </c>
     </row>
     <row r="2584" spans="1:4">
+      <c r="A2584">
+        <v>1</v>
+      </c>
       <c r="B2584" t="s">
         <v>102</v>
       </c>
@@ -70938,6 +72529,9 @@
       </c>
     </row>
     <row r="2585" spans="1:4">
+      <c r="A2585">
+        <v>1</v>
+      </c>
       <c r="B2585" t="s">
         <v>4</v>
       </c>
@@ -70949,6 +72543,9 @@
       </c>
     </row>
     <row r="2586" spans="1:4">
+      <c r="A2586">
+        <v>1</v>
+      </c>
       <c r="B2586" t="s">
         <v>4</v>
       </c>
@@ -70974,6 +72571,9 @@
       </c>
     </row>
     <row r="2588" spans="1:4">
+      <c r="A2588">
+        <v>1</v>
+      </c>
       <c r="B2588" t="s">
         <v>107</v>
       </c>
@@ -70999,6 +72599,9 @@
       </c>
     </row>
     <row r="2590" spans="1:4">
+      <c r="A2590">
+        <v>1</v>
+      </c>
       <c r="B2590" t="s">
         <v>15</v>
       </c>
@@ -71010,6 +72613,9 @@
       </c>
     </row>
     <row r="2591" spans="1:4">
+      <c r="A2591">
+        <v>1</v>
+      </c>
       <c r="B2591" t="s">
         <v>47</v>
       </c>
@@ -71021,6 +72627,9 @@
       </c>
     </row>
     <row r="2592" spans="1:4">
+      <c r="A2592">
+        <v>1</v>
+      </c>
       <c r="B2592" t="s">
         <v>90</v>
       </c>
@@ -71046,6 +72655,9 @@
       </c>
     </row>
     <row r="2594" spans="1:4">
+      <c r="A2594">
+        <v>1</v>
+      </c>
       <c r="B2594" t="s">
         <v>8</v>
       </c>
@@ -71071,6 +72683,9 @@
       </c>
     </row>
     <row r="2596" spans="1:4">
+      <c r="A2596">
+        <v>1</v>
+      </c>
       <c r="B2596" t="s">
         <v>4</v>
       </c>
@@ -71082,6 +72697,9 @@
       </c>
     </row>
     <row r="2597" spans="1:4">
+      <c r="A2597">
+        <v>1</v>
+      </c>
       <c r="B2597" t="s">
         <v>15</v>
       </c>
@@ -71121,6 +72739,9 @@
       </c>
     </row>
     <row r="2600" spans="1:4">
+      <c r="A2600">
+        <v>1</v>
+      </c>
       <c r="B2600" t="s">
         <v>8</v>
       </c>
@@ -71132,6 +72753,9 @@
       </c>
     </row>
     <row r="2601" spans="1:4">
+      <c r="A2601">
+        <v>1</v>
+      </c>
       <c r="B2601" t="s">
         <v>90</v>
       </c>
@@ -71168,6 +72792,9 @@
       </c>
     </row>
     <row r="2604" spans="1:4">
+      <c r="A2604">
+        <v>1</v>
+      </c>
       <c r="B2604" t="s">
         <v>47</v>
       </c>
@@ -71179,6 +72806,9 @@
       </c>
     </row>
     <row r="2605" spans="1:4">
+      <c r="A2605">
+        <v>1</v>
+      </c>
       <c r="B2605" t="s">
         <v>63</v>
       </c>
@@ -71232,6 +72862,9 @@
       </c>
     </row>
     <row r="2609" spans="1:4">
+      <c r="A2609">
+        <v>1</v>
+      </c>
       <c r="B2609" t="s">
         <v>8</v>
       </c>
@@ -71243,6 +72876,9 @@
       </c>
     </row>
     <row r="2610" spans="1:4">
+      <c r="A2610">
+        <v>1</v>
+      </c>
       <c r="B2610" t="s">
         <v>90</v>
       </c>
@@ -71296,6 +72932,9 @@
       </c>
     </row>
     <row r="2614" spans="1:4">
+      <c r="A2614">
+        <v>1</v>
+      </c>
       <c r="B2614" t="s">
         <v>15</v>
       </c>
@@ -71321,6 +72960,9 @@
       </c>
     </row>
     <row r="2616" spans="1:4">
+      <c r="A2616">
+        <v>1</v>
+      </c>
       <c r="B2616" t="s">
         <v>15</v>
       </c>
@@ -71332,6 +72974,9 @@
       </c>
     </row>
     <row r="2617" spans="1:4">
+      <c r="A2617">
+        <v>-1</v>
+      </c>
       <c r="B2617" t="s">
         <v>102</v>
       </c>
@@ -71343,6 +72988,9 @@
       </c>
     </row>
     <row r="2618" spans="1:4">
+      <c r="A2618">
+        <v>-1</v>
+      </c>
       <c r="B2618" t="s">
         <v>80</v>
       </c>
@@ -71354,6 +73002,9 @@
       </c>
     </row>
     <row r="2619" spans="1:4">
+      <c r="A2619">
+        <v>1</v>
+      </c>
       <c r="B2619" t="s">
         <v>63</v>
       </c>
@@ -71365,6 +73016,9 @@
       </c>
     </row>
     <row r="2620" spans="1:4">
+      <c r="A2620">
+        <v>1</v>
+      </c>
       <c r="B2620" t="s">
         <v>90</v>
       </c>
@@ -71376,6 +73030,9 @@
       </c>
     </row>
     <row r="2621" spans="1:4">
+      <c r="A2621">
+        <v>1</v>
+      </c>
       <c r="B2621" t="s">
         <v>90</v>
       </c>
@@ -71387,6 +73044,9 @@
       </c>
     </row>
     <row r="2622" spans="1:4">
+      <c r="A2622">
+        <v>1</v>
+      </c>
       <c r="B2622" t="s">
         <v>15</v>
       </c>
@@ -71398,6 +73058,9 @@
       </c>
     </row>
     <row r="2623" spans="1:4">
+      <c r="A2623">
+        <v>1</v>
+      </c>
       <c r="B2623" t="s">
         <v>4</v>
       </c>
@@ -71409,6 +73072,9 @@
       </c>
     </row>
     <row r="2624" spans="1:4">
+      <c r="A2624">
+        <v>1</v>
+      </c>
       <c r="B2624" t="s">
         <v>8</v>
       </c>
@@ -71420,6 +73086,9 @@
       </c>
     </row>
     <row r="2625" spans="1:4">
+      <c r="A2625">
+        <v>1</v>
+      </c>
       <c r="B2625" t="s">
         <v>181</v>
       </c>
@@ -71445,6 +73114,9 @@
       </c>
     </row>
     <row r="2627" spans="1:4">
+      <c r="A2627">
+        <v>1</v>
+      </c>
       <c r="B2627" t="s">
         <v>8</v>
       </c>
@@ -71456,6 +73128,9 @@
       </c>
     </row>
     <row r="2628" spans="1:4">
+      <c r="A2628">
+        <v>1</v>
+      </c>
       <c r="B2628" t="s">
         <v>4</v>
       </c>
@@ -71467,6 +73142,9 @@
       </c>
     </row>
     <row r="2629" spans="1:4">
+      <c r="A2629">
+        <v>1</v>
+      </c>
       <c r="B2629" t="s">
         <v>15</v>
       </c>
@@ -71478,6 +73156,9 @@
       </c>
     </row>
     <row r="2630" spans="1:4">
+      <c r="A2630">
+        <v>1</v>
+      </c>
       <c r="B2630" t="s">
         <v>15</v>
       </c>
@@ -71489,6 +73170,9 @@
       </c>
     </row>
     <row r="2631" spans="1:4">
+      <c r="A2631">
+        <v>1</v>
+      </c>
       <c r="B2631" t="s">
         <v>47</v>
       </c>
@@ -71528,6 +73212,9 @@
       </c>
     </row>
     <row r="2634" spans="1:4">
+      <c r="A2634">
+        <v>1</v>
+      </c>
       <c r="B2634" t="s">
         <v>47</v>
       </c>
@@ -71539,6 +73226,9 @@
       </c>
     </row>
     <row r="2635" spans="1:4">
+      <c r="A2635">
+        <v>1</v>
+      </c>
       <c r="B2635" t="s">
         <v>8</v>
       </c>
@@ -71578,6 +73268,9 @@
       </c>
     </row>
     <row r="2638" spans="1:4">
+      <c r="A2638">
+        <v>1</v>
+      </c>
       <c r="B2638" t="s">
         <v>15</v>
       </c>
@@ -71603,6 +73296,9 @@
       </c>
     </row>
     <row r="2640" spans="1:4">
+      <c r="A2640">
+        <v>1</v>
+      </c>
       <c r="B2640" t="s">
         <v>47</v>
       </c>
@@ -71628,6 +73324,9 @@
       </c>
     </row>
     <row r="2642" spans="1:4">
+      <c r="A2642">
+        <v>1</v>
+      </c>
       <c r="B2642" t="s">
         <v>47</v>
       </c>
@@ -71639,6 +73338,9 @@
       </c>
     </row>
     <row r="2643" spans="1:4">
+      <c r="A2643">
+        <v>1</v>
+      </c>
       <c r="B2643" t="s">
         <v>63</v>
       </c>
@@ -71650,6 +73352,9 @@
       </c>
     </row>
     <row r="2644" spans="1:4">
+      <c r="A2644">
+        <v>1</v>
+      </c>
       <c r="B2644" t="s">
         <v>181</v>
       </c>
@@ -71661,6 +73366,9 @@
       </c>
     </row>
     <row r="2645" spans="1:4">
+      <c r="A2645">
+        <v>-1</v>
+      </c>
       <c r="B2645" t="s">
         <v>15</v>
       </c>
@@ -71672,6 +73380,9 @@
       </c>
     </row>
     <row r="2646" spans="1:4">
+      <c r="A2646">
+        <v>1</v>
+      </c>
       <c r="B2646" t="s">
         <v>15</v>
       </c>
@@ -71683,6 +73394,9 @@
       </c>
     </row>
     <row r="2647" spans="1:4">
+      <c r="A2647">
+        <v>1</v>
+      </c>
       <c r="B2647" t="s">
         <v>8</v>
       </c>
@@ -71694,6 +73408,9 @@
       </c>
     </row>
     <row r="2648" spans="1:4">
+      <c r="A2648">
+        <v>1</v>
+      </c>
       <c r="B2648" t="s">
         <v>47</v>
       </c>
@@ -71705,6 +73422,9 @@
       </c>
     </row>
     <row r="2649" spans="1:4">
+      <c r="A2649">
+        <v>1</v>
+      </c>
       <c r="B2649" t="s">
         <v>193</v>
       </c>
@@ -71744,6 +73464,9 @@
       </c>
     </row>
     <row r="2652" spans="1:4">
+      <c r="A2652">
+        <v>1</v>
+      </c>
       <c r="B2652" t="s">
         <v>47</v>
       </c>
@@ -71755,6 +73478,9 @@
       </c>
     </row>
     <row r="2653" spans="1:4">
+      <c r="A2653">
+        <v>1</v>
+      </c>
       <c r="B2653" t="s">
         <v>15</v>
       </c>
@@ -71780,6 +73506,9 @@
       </c>
     </row>
     <row r="2655" spans="1:4">
+      <c r="A2655">
+        <v>1</v>
+      </c>
       <c r="B2655" t="s">
         <v>47</v>
       </c>
@@ -71791,6 +73520,9 @@
       </c>
     </row>
     <row r="2656" spans="1:4">
+      <c r="A2656">
+        <v>1</v>
+      </c>
       <c r="B2656" t="s">
         <v>47</v>
       </c>
@@ -71802,6 +73534,9 @@
       </c>
     </row>
     <row r="2657" spans="1:4">
+      <c r="A2657">
+        <v>1</v>
+      </c>
       <c r="B2657" t="s">
         <v>47</v>
       </c>
@@ -71827,6 +73562,9 @@
       </c>
     </row>
     <row r="2659" spans="1:4">
+      <c r="A2659">
+        <v>1</v>
+      </c>
       <c r="B2659" t="s">
         <v>47</v>
       </c>
@@ -71852,6 +73590,9 @@
       </c>
     </row>
     <row r="2661" spans="1:4">
+      <c r="A2661">
+        <v>1</v>
+      </c>
       <c r="B2661" t="s">
         <v>15</v>
       </c>
@@ -71863,6 +73604,9 @@
       </c>
     </row>
     <row r="2662" spans="1:4">
+      <c r="A2662">
+        <v>1</v>
+      </c>
       <c r="B2662" t="s">
         <v>8</v>
       </c>
@@ -71874,6 +73618,9 @@
       </c>
     </row>
     <row r="2663" spans="1:4">
+      <c r="A2663">
+        <v>1</v>
+      </c>
       <c r="B2663" t="s">
         <v>63</v>
       </c>
@@ -71885,6 +73632,9 @@
       </c>
     </row>
     <row r="2664" spans="1:4">
+      <c r="A2664">
+        <v>1</v>
+      </c>
       <c r="B2664" t="s">
         <v>15</v>
       </c>
@@ -71896,6 +73646,9 @@
       </c>
     </row>
     <row r="2665" spans="1:4">
+      <c r="A2665">
+        <v>1</v>
+      </c>
       <c r="B2665" t="s">
         <v>80</v>
       </c>
@@ -71907,6 +73660,9 @@
       </c>
     </row>
     <row r="2666" spans="1:4">
+      <c r="A2666">
+        <v>1</v>
+      </c>
       <c r="B2666" t="s">
         <v>4</v>
       </c>
@@ -71918,6 +73674,9 @@
       </c>
     </row>
     <row r="2667" spans="1:4">
+      <c r="A2667">
+        <v>1</v>
+      </c>
       <c r="B2667" t="s">
         <v>15</v>
       </c>
@@ -71929,6 +73688,9 @@
       </c>
     </row>
     <row r="2668" spans="1:4">
+      <c r="A2668">
+        <v>1</v>
+      </c>
       <c r="B2668" t="s">
         <v>4</v>
       </c>
@@ -71940,6 +73702,9 @@
       </c>
     </row>
     <row r="2669" spans="1:4">
+      <c r="A2669">
+        <v>1</v>
+      </c>
       <c r="B2669" t="s">
         <v>8</v>
       </c>
@@ -71951,6 +73716,9 @@
       </c>
     </row>
     <row r="2670" spans="1:4">
+      <c r="A2670">
+        <v>1</v>
+      </c>
       <c r="B2670" t="s">
         <v>15</v>
       </c>
@@ -71976,6 +73744,9 @@
       </c>
     </row>
     <row r="2672" spans="1:4">
+      <c r="A2672">
+        <v>-1</v>
+      </c>
       <c r="B2672" t="s">
         <v>54</v>
       </c>
@@ -71987,6 +73758,9 @@
       </c>
     </row>
     <row r="2673" spans="1:4">
+      <c r="A2673">
+        <v>-1</v>
+      </c>
       <c r="B2673" t="s">
         <v>47</v>
       </c>
@@ -72026,6 +73800,9 @@
       </c>
     </row>
     <row r="2676" spans="1:4">
+      <c r="A2676">
+        <v>1</v>
+      </c>
       <c r="B2676" t="s">
         <v>8</v>
       </c>
@@ -72037,6 +73814,9 @@
       </c>
     </row>
     <row r="2677" spans="1:4">
+      <c r="A2677">
+        <v>1</v>
+      </c>
       <c r="B2677" t="s">
         <v>253</v>
       </c>
@@ -72062,6 +73842,9 @@
       </c>
     </row>
     <row r="2679" spans="1:4">
+      <c r="A2679">
+        <v>1</v>
+      </c>
       <c r="B2679" t="s">
         <v>8</v>
       </c>
@@ -72087,6 +73870,9 @@
       </c>
     </row>
     <row r="2681" spans="1:4">
+      <c r="A2681">
+        <v>1</v>
+      </c>
       <c r="B2681" t="s">
         <v>47</v>
       </c>
@@ -72168,6 +73954,9 @@
       </c>
     </row>
     <row r="2687" spans="1:4">
+      <c r="A2687">
+        <v>1</v>
+      </c>
       <c r="B2687" t="s">
         <v>4</v>
       </c>
@@ -72207,6 +73996,9 @@
       </c>
     </row>
     <row r="2690" spans="1:4">
+      <c r="A2690">
+        <v>1</v>
+      </c>
       <c r="B2690" t="s">
         <v>647</v>
       </c>
@@ -72218,6 +74010,9 @@
       </c>
     </row>
     <row r="2691" spans="1:4">
+      <c r="A2691">
+        <v>1</v>
+      </c>
       <c r="B2691" t="s">
         <v>47</v>
       </c>
@@ -72229,6 +74024,9 @@
       </c>
     </row>
     <row r="2692" spans="1:4">
+      <c r="A2692">
+        <v>1</v>
+      </c>
       <c r="B2692" t="s">
         <v>47</v>
       </c>
@@ -72240,6 +74038,9 @@
       </c>
     </row>
     <row r="2693" spans="1:4">
+      <c r="A2693">
+        <v>1</v>
+      </c>
       <c r="B2693" t="s">
         <v>15</v>
       </c>
@@ -72251,6 +74052,9 @@
       </c>
     </row>
     <row r="2694" spans="1:4">
+      <c r="A2694">
+        <v>1</v>
+      </c>
       <c r="B2694" t="s">
         <v>253</v>
       </c>
@@ -72262,6 +74066,9 @@
       </c>
     </row>
     <row r="2695" spans="1:4">
+      <c r="A2695">
+        <v>1</v>
+      </c>
       <c r="B2695" t="s">
         <v>15</v>
       </c>
@@ -72273,6 +74080,9 @@
       </c>
     </row>
     <row r="2696" spans="1:4">
+      <c r="A2696">
+        <v>1</v>
+      </c>
       <c r="B2696" t="s">
         <v>253</v>
       </c>
@@ -72284,6 +74094,9 @@
       </c>
     </row>
     <row r="2697" spans="1:4">
+      <c r="A2697">
+        <v>1</v>
+      </c>
       <c r="B2697" t="s">
         <v>47</v>
       </c>
@@ -72295,6 +74108,9 @@
       </c>
     </row>
     <row r="2698" spans="1:4">
+      <c r="A2698">
+        <v>-1</v>
+      </c>
       <c r="B2698" t="s">
         <v>8</v>
       </c>
@@ -72306,6 +74122,9 @@
       </c>
     </row>
     <row r="2699" spans="1:4">
+      <c r="A2699">
+        <v>1</v>
+      </c>
       <c r="B2699" t="s">
         <v>47</v>
       </c>
@@ -72331,6 +74150,9 @@
       </c>
     </row>
     <row r="2701" spans="1:4">
+      <c r="A2701">
+        <v>1</v>
+      </c>
       <c r="B2701" t="s">
         <v>47</v>
       </c>
@@ -72342,6 +74164,9 @@
       </c>
     </row>
     <row r="2702" spans="1:4">
+      <c r="A2702">
+        <v>1</v>
+      </c>
       <c r="B2702" t="s">
         <v>63</v>
       </c>
@@ -72353,6 +74178,9 @@
       </c>
     </row>
     <row r="2703" spans="1:4">
+      <c r="A2703">
+        <v>1</v>
+      </c>
       <c r="B2703" t="s">
         <v>15</v>
       </c>
@@ -72378,6 +74206,9 @@
       </c>
     </row>
     <row r="2705" spans="1:4">
+      <c r="A2705">
+        <v>1</v>
+      </c>
       <c r="B2705" t="s">
         <v>47</v>
       </c>
@@ -72417,6 +74248,9 @@
       </c>
     </row>
     <row r="2708" spans="1:4">
+      <c r="A2708">
+        <v>1</v>
+      </c>
       <c r="B2708" t="s">
         <v>8</v>
       </c>
@@ -72428,6 +74262,9 @@
       </c>
     </row>
     <row r="2709" spans="1:4">
+      <c r="A2709">
+        <v>1</v>
+      </c>
       <c r="B2709" t="s">
         <v>647</v>
       </c>
@@ -72453,6 +74290,9 @@
       </c>
     </row>
     <row r="2711" spans="1:4">
+      <c r="A2711">
+        <v>1</v>
+      </c>
       <c r="B2711" t="s">
         <v>47</v>
       </c>
@@ -72478,6 +74318,9 @@
       </c>
     </row>
     <row r="2713" spans="1:4">
+      <c r="A2713">
+        <v>1</v>
+      </c>
       <c r="B2713" t="s">
         <v>47</v>
       </c>
@@ -72489,6 +74332,9 @@
       </c>
     </row>
     <row r="2714" spans="1:4">
+      <c r="A2714">
+        <v>1</v>
+      </c>
       <c r="B2714" t="s">
         <v>15</v>
       </c>
@@ -72514,6 +74360,9 @@
       </c>
     </row>
     <row r="2716" spans="1:4">
+      <c r="A2716">
+        <v>1</v>
+      </c>
       <c r="B2716" t="s">
         <v>47</v>
       </c>
@@ -72525,6 +74374,9 @@
       </c>
     </row>
     <row r="2717" spans="1:4">
+      <c r="A2717">
+        <v>1</v>
+      </c>
       <c r="B2717" t="s">
         <v>107</v>
       </c>
@@ -72536,6 +74388,9 @@
       </c>
     </row>
     <row r="2718" spans="1:4">
+      <c r="A2718">
+        <v>1</v>
+      </c>
       <c r="B2718" t="s">
         <v>47</v>
       </c>
@@ -72547,6 +74402,9 @@
       </c>
     </row>
     <row r="2719" spans="1:4">
+      <c r="A2719">
+        <v>1</v>
+      </c>
       <c r="B2719" t="s">
         <v>47</v>
       </c>
@@ -72571,7 +74429,10 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="2721" spans="2:3">
+    <row r="2721" spans="1:3">
+      <c r="A2721">
+        <v>-1</v>
+      </c>
       <c r="B2721" t="s">
         <v>253</v>
       </c>
@@ -72579,7 +74440,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2722" spans="2:3">
+    <row r="2722" spans="1:3">
+      <c r="A2722">
+        <v>-1</v>
+      </c>
       <c r="B2722" t="s">
         <v>15</v>
       </c>
@@ -72588,8 +74452,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2722" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2722">
+  <autoFilter ref="A1:D2722">
+    <filterColumn colId="2"/>
+    <sortState ref="A2:D2722">
       <sortCondition ref="D1:D2722"/>
     </sortState>
   </autoFilter>
@@ -72599,19 +74464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="35" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="35" width="52.09765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -72913,17 +74778,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -73041,18 +74906,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C52"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="50.75" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">

--- a/data/zweryfikowane.xlsx
+++ b/data/zweryfikowane.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\document-classification\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B058-479D-4EAA-9277-1ACBE6823582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16392"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="modified_dataset" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\moje foldery\studia\magisterka\semestr 2\Podstawy_Uczenia_Glebokiego\document-classification\data\modified_dataset.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -8083,13 +8089,13 @@
     <t>Wartości</t>
   </si>
   <si>
-    <t>czy git</t>
+    <t>quality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -8154,7 +8160,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465136689818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:B1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8208,7 +8214,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.465528703702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -8239,7 +8245,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wiktorcio" refreshedDate="45263.469666666664" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2722" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:C1048576" sheet="Arkusz1"/>
   </cacheSource>
@@ -35544,7 +35550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending" countASubtotal="1">
@@ -35726,7 +35732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -35816,7 +35822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -36052,13 +36058,13 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modified_dataset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="modified_dataset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -36096,7 +36102,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -36130,6 +36136,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -36164,9 +36171,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36339,23 +36347,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" customWidth="1"/>
-    <col min="4" max="4" width="80.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>2679</v>
       </c>
@@ -74452,9 +74460,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2722">
-    <filterColumn colId="2"/>
-    <sortState ref="A2:D2722">
+  <autoFilter ref="A1:D2722" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2722">
       <sortCondition ref="D1:D2722"/>
     </sortState>
   </autoFilter>
@@ -74464,19 +74471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="35" width="52.09765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="35" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -74778,17 +74785,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -74906,18 +74913,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C52"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
